--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\customer\11.东方阿尔法\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98335590-DAB7-4D34-B6DB-AAD22DFB57D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3C1373-D853-47AC-BD56-A7B28458951C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,10 +539,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>综合报表中的基金净值存在问题，需要调整</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>已实现</t>
   </si>
   <si>
@@ -555,6 +551,10 @@
   </si>
   <si>
     <t>可能为四舍五入出现的差值，目前手工计算后发现我们系统和手工计算的相差0.01元</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中的基金净值存在问题，需要调整</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1276,18 +1276,6 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,6 +1295,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1789,24 +1789,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -2339,7 +2339,7 @@
         <v>43583</v>
       </c>
       <c r="L17" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M17" s="67"/>
       <c r="N17" s="87"/>
@@ -2445,7 +2445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:M14"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2877,7 +2877,7 @@
         <v>122</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F13" s="98"/>
       <c r="G13" s="98"/>
@@ -2895,31 +2895,31 @@
       <c r="M13" s="93"/>
     </row>
     <row r="14" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="104">
+      <c r="A14" s="100">
         <v>13</v>
       </c>
-      <c r="B14" s="105">
+      <c r="B14" s="101">
         <v>43581</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="108" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3C1373-D853-47AC-BD56-A7B28458951C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B3586-19FA-4286-BCB7-D20DC0F1C2D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="130">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -555,6 +555,10 @@
   </si>
   <si>
     <t>基金报表中的基金净值存在问题，需要调整</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>李艺超</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -975,7 +979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,9 +1297,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1789,24 +1790,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="109" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="109"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -2445,7 +2446,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2916,9 +2917,13 @@
       <c r="G14" s="105"/>
       <c r="H14" s="105"/>
       <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
+      <c r="J14" s="79" t="s">
+        <v>100</v>
+      </c>
       <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
+      <c r="L14" s="103" t="s">
+        <v>129</v>
+      </c>
       <c r="M14" s="100"/>
     </row>
   </sheetData>

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B3586-19FA-4286-BCB7-D20DC0F1C2D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C01773-0658-4303-BC75-6FAE2E8583AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="135">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -298,11 +298,6 @@
   </si>
   <si>
     <t>3.35.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-综合报表-资产明细中个股盈亏比例排序（通过排序可看出该哪支股票盈最多、亏最多）、市值占净资产排序</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -426,10 +421,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>方案确认，开发中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>T1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -560,6 +551,35 @@
   <si>
     <t>李艺超</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复，待升级至生产环境</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipb系统
+3.35.3/5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中份额为小数点后4位</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘俊君</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表-资产明细中个股盈亏比例排序（通过排序可看出该哪支股票盈最多、亏最多）、市值占净资产排序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -696,7 +716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,8 +759,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -970,6 +996,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -979,21 +1020,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1016,9 +1051,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1052,21 +1084,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,9 +1207,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1205,9 +1219,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,27 +1270,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,6 +1288,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1309,6 +1323,81 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1769,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1790,626 +1879,628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="108" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="83" t="s">
+      <c r="I2" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>43489</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="5">
+        <v>43582</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="77"/>
+    </row>
+    <row r="4" spans="1:14" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="122">
+        <v>43489</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="115"/>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="5">
+        <v>43591</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="77"/>
+    </row>
+    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="122">
+        <v>43489</v>
+      </c>
+      <c r="B5" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="115"/>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="5">
+        <v>43591</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="46"/>
+      <c r="N5" s="77"/>
+    </row>
+    <row r="6" spans="1:14" ht="55.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>43489</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="77"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
         <v>43489</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="77"/>
+    </row>
+    <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>43489</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="77"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>43489</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="77"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="123">
+        <v>43489</v>
+      </c>
+      <c r="B10" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="14" t="s">
+      <c r="D10" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="118"/>
+      <c r="F10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="17">
+        <v>3.35</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="5">
+        <v>43582</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="77"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="119">
+        <v>43546</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="121"/>
+      <c r="F11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="5">
+        <v>43591</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="77"/>
+    </row>
+    <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="43">
+        <v>43556</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="77"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="32">
+        <v>43565</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="77"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="32">
+        <v>43565</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="77"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="49">
+        <v>43566</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="77"/>
+    </row>
+    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.15">
+      <c r="A16" s="124">
+        <v>43556</v>
+      </c>
+      <c r="B16" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="125"/>
+      <c r="F16" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="7">
-        <v>43582</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="G16" s="63"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="96">
+        <v>43591</v>
+      </c>
+      <c r="L16" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="87"/>
-    </row>
-    <row r="4" spans="1:14" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24">
+      <c r="M16" s="64"/>
+      <c r="N16" s="77"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="55">
         <v>43489</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3" t="s">
+      <c r="B17" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="87"/>
-    </row>
-    <row r="5" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="24">
-        <v>43489</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="3" t="s">
+      <c r="J17" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="61">
+        <v>43583</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="59"/>
+      <c r="N17" s="77"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="55">
+        <v>43546</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="87"/>
-    </row>
-    <row r="6" spans="1:14" ht="55.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
-        <v>43489</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="16" t="s">
+      <c r="J18" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="59"/>
+      <c r="L18" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="59"/>
+      <c r="N18" s="77"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="55">
+        <v>43518</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="84" t="s">
+      <c r="G19" s="58"/>
+      <c r="H19" s="60">
+        <v>3.36</v>
+      </c>
+      <c r="I19" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
+      <c r="K19" s="59"/>
+      <c r="L19" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="87"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>43489</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="87"/>
-    </row>
-    <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
-        <v>43489</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="87"/>
-    </row>
-    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
-        <v>43489</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="87"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>43489</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="20">
-        <v>3.35</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="7">
-        <v>43582</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="87"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="26">
-        <v>43546</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="7">
-        <v>43591</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="87"/>
-    </row>
-    <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="51">
-        <v>43556</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="87"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="40">
-        <v>43565</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="87"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="40">
-        <v>43565</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="87"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="57">
-        <v>43566</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="87"/>
-    </row>
-    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="63">
-        <v>43556</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="75">
-        <v>43591</v>
-      </c>
-      <c r="L16" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="73"/>
-      <c r="N16" s="87"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="63">
-        <v>43489</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" s="69">
-        <v>43583</v>
-      </c>
-      <c r="L17" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="87"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="63">
-        <v>43546</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="K18" s="67"/>
-      <c r="L18" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="67"/>
-      <c r="N18" s="87"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="63">
-        <v>43518</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="68">
-        <v>3.36</v>
-      </c>
-      <c r="I19" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="67"/>
-      <c r="L19" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="67"/>
-      <c r="N19" s="87"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2442,24 +2533,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.5" style="23" customWidth="1"/>
-    <col min="7" max="7" width="40" style="23" customWidth="1"/>
-    <col min="8" max="8" width="15" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="23" customWidth="1"/>
-    <col min="10" max="10" width="8" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.5" style="20" customWidth="1"/>
+    <col min="7" max="7" width="40" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="20" customWidth="1"/>
+    <col min="10" max="10" width="8" style="72" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5" style="1" bestFit="1" customWidth="1"/>
@@ -2467,464 +2558,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25">
+        <v>43495</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30">
+        <v>43539</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="68"/>
+      <c r="K2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25">
+        <v>43495</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="30">
+        <v>43539</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="68"/>
+      <c r="K3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="89">
+        <v>3</v>
+      </c>
+      <c r="B4" s="90">
+        <v>43543</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25">
+        <v>43545</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32">
+        <v>43546</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38">
+        <v>43546</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32">
+        <v>43557</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25">
+        <v>43558</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="81">
+        <v>43580</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="52">
+        <v>9</v>
+      </c>
+      <c r="B10" s="49">
+        <v>43566</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="52"/>
+    </row>
+    <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="52">
+        <v>10</v>
+      </c>
+      <c r="B11" s="49">
+        <v>43566</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="52"/>
+      <c r="L11" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="52"/>
+    </row>
+    <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="108">
+        <v>11</v>
+      </c>
+      <c r="B12" s="109">
+        <v>43581</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33">
-        <v>43495</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38">
-        <v>43539</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33">
-        <v>43495</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="38">
-        <v>43539</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="39">
-        <v>3</v>
-      </c>
-      <c r="B4" s="40">
-        <v>43543</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33">
-        <v>43545</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="35"/>
-    </row>
-    <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39">
-        <v>5</v>
-      </c>
-      <c r="B6" s="40">
-        <v>43546</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="79" t="s">
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="114">
+        <v>43594</v>
+      </c>
+      <c r="I12" s="113"/>
+      <c r="J12" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="41" t="s">
+      <c r="K12" s="108"/>
+      <c r="L12" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="45">
-        <v>6</v>
-      </c>
-      <c r="B7" s="46">
-        <v>43546</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="47" t="s">
+      <c r="M12" s="108"/>
+    </row>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="108">
+        <v>12</v>
+      </c>
+      <c r="B13" s="109">
+        <v>43581</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="114">
+        <v>43594</v>
+      </c>
+      <c r="I13" s="113"/>
+      <c r="J13" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="108"/>
+      <c r="L13" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="M7" s="48"/>
-    </row>
-    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39">
-        <v>7</v>
-      </c>
-      <c r="B8" s="40">
-        <v>43557</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="39"/>
-    </row>
-    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33">
-        <v>43558</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="91">
-        <v>43580</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" s="92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60">
-        <v>9</v>
-      </c>
-      <c r="B10" s="57">
-        <v>43566</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" s="60"/>
-    </row>
-    <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60">
-        <v>10</v>
-      </c>
-      <c r="B11" s="57">
-        <v>43566</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="60"/>
-    </row>
-    <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="93">
-        <v>11</v>
-      </c>
-      <c r="B12" s="94">
+      <c r="M13" s="108"/>
+    </row>
+    <row r="14" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="83">
+        <v>13</v>
+      </c>
+      <c r="B14" s="84">
         <v>43581</v>
       </c>
-      <c r="C12" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="97" t="s">
+      <c r="C14" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99">
-        <v>43591</v>
-      </c>
-      <c r="I12" s="98"/>
-      <c r="J12" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" s="93"/>
-    </row>
-    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="93">
-        <v>12</v>
-      </c>
-      <c r="B13" s="94">
-        <v>43581</v>
-      </c>
-      <c r="C13" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99">
-        <v>43591</v>
-      </c>
-      <c r="I13" s="98"/>
-      <c r="J13" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="93"/>
-      <c r="L13" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" s="93"/>
-    </row>
-    <row r="14" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="100">
-        <v>13</v>
-      </c>
-      <c r="B14" s="101">
-        <v>43581</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="104" t="s">
+      <c r="F14" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="83"/>
+      <c r="L14" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="100"/>
-      <c r="L14" s="103" t="s">
+      <c r="M14" s="83"/>
+    </row>
+    <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="101">
+        <v>14</v>
+      </c>
+      <c r="B15" s="102">
+        <v>43595</v>
+      </c>
+      <c r="C15" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="100"/>
+      <c r="D15" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="101"/>
+      <c r="L15" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="101"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C01773-0658-4303-BC75-6FAE2E8583AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C3579-4848-4AA0-84C3-913D59AA6A4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户需求跟踪表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="142">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -579,6 +579,34 @@
   </si>
   <si>
     <t>综合报表-资产明细中个股盈亏比例排序（通过排序可看出该哪支股票盈最多、亏最多）、市值占净资产排序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表-份额为四位数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表-股票市值占比为占总资产比</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员权限中，添加报表时没有举牌分析报表选择但是会自动添加举牌分析报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产明细报表-累计浮动盈亏更名为浮动盈亏或者累计盈亏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表-系统四舍五入是按照小数点后两位而不是加了;更改为后小数点后两位</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1011,6 +1039,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1020,7 +1063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,18 +1355,6 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1398,6 +1429,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1856,15 +1917,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
@@ -1879,24 +1940,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -1979,19 +2040,19 @@
       <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="122">
+      <c r="A4" s="118">
         <v>43489</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
@@ -2015,19 +2076,19 @@
       <c r="N4" s="77"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="122">
+      <c r="A5" s="118">
         <v>43489</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="115"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
@@ -2179,19 +2240,19 @@
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="123">
+      <c r="A10" s="119">
         <v>43489</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="118"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="15" t="s">
         <v>26</v>
       </c>
@@ -2217,19 +2278,19 @@
       <c r="N10" s="77"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="119">
+      <c r="A11" s="115">
         <v>43546</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="121"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="15" t="s">
         <v>26</v>
       </c>
@@ -2369,19 +2430,19 @@
       <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="124">
+      <c r="A16" s="120">
         <v>43556</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="125"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="62" t="s">
         <v>12</v>
       </c>
@@ -2501,6 +2562,126 @@
       </c>
       <c r="M19" s="59"/>
       <c r="N19" s="77"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="126">
+        <v>43598</v>
+      </c>
+      <c r="B20" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="128"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="126">
+        <v>43598</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="128"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+    </row>
+    <row r="22" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="126">
+        <v>43598</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="127" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="128"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="126">
+        <v>43598</v>
+      </c>
+      <c r="B23" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="127" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="128"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+    </row>
+    <row r="24" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="126">
+        <v>43598</v>
+      </c>
+      <c r="B24" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="127" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="128"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2535,7 +2716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
@@ -2927,66 +3108,66 @@
       <c r="M11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108">
+      <c r="A12" s="104">
         <v>11</v>
       </c>
-      <c r="B12" s="109">
+      <c r="B12" s="105">
         <v>43581</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114">
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110">
         <v>43594</v>
       </c>
-      <c r="I12" s="113"/>
+      <c r="I12" s="109"/>
       <c r="J12" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="108"/>
-      <c r="L12" s="111" t="s">
+      <c r="K12" s="104"/>
+      <c r="L12" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="108"/>
+      <c r="M12" s="104"/>
     </row>
     <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="108">
+      <c r="A13" s="104">
         <v>12</v>
       </c>
-      <c r="B13" s="109">
+      <c r="B13" s="105">
         <v>43581</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114">
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110">
         <v>43594</v>
       </c>
-      <c r="I13" s="113"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="108"/>
-      <c r="L13" s="111" t="s">
+      <c r="K13" s="104"/>
+      <c r="L13" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="108"/>
+      <c r="M13" s="104"/>
     </row>
     <row r="14" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="83">
@@ -3020,33 +3201,33 @@
       <c r="M14" s="83"/>
     </row>
     <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="101">
+      <c r="A15" s="97">
         <v>14</v>
       </c>
-      <c r="B15" s="102">
+      <c r="B15" s="98">
         <v>43595</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="107" t="s">
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="K15" s="101"/>
-      <c r="L15" s="104" t="s">
+      <c r="K15" s="97"/>
+      <c r="L15" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="M15" s="101"/>
+      <c r="M15" s="97"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C3579-4848-4AA0-84C3-913D59AA6A4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0BFD36-8428-4719-976B-105857799027}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户需求跟踪表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="149">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -608,6 +608,35 @@
   <si>
     <t>基金报表-系统四舍五入是按照小数点后两位而不是加了;更改为后小数点后两位</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员反向交易</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令交易</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员公平交易，强制显示。参考恒生和金证系统情况</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库无成交时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>王亚军</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓程序
+1.1.21</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -794,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1054,6 +1083,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1063,7 +1122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1430,18 +1489,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1459,6 +1506,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1917,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1940,24 +2035,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="124" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="124"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -2564,124 +2659,172 @@
       <c r="N19" s="77"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="126">
+      <c r="A20" s="122">
         <v>43598</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="128"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="128"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="126">
+      <c r="A21" s="122">
         <v>43598</v>
       </c>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="127" t="s">
+      <c r="D21" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="128"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
     </row>
     <row r="22" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="126">
+      <c r="A22" s="122">
         <v>43598</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="127" t="s">
+      <c r="D22" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="126">
+      <c r="A23" s="122">
         <v>43598</v>
       </c>
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
     </row>
     <row r="24" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="126">
+      <c r="A24" s="122">
         <v>43598</v>
       </c>
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="127" t="s">
+      <c r="D24" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="128"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="128"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="128">
+        <v>43599</v>
+      </c>
+      <c r="B25" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="130"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="128">
+        <v>43599</v>
+      </c>
+      <c r="B26" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2714,11 +2857,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="A16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3228,6 +3371,35 @@
         <v>133</v>
       </c>
       <c r="M15" s="97"/>
+    </row>
+    <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="136">
+        <v>15</v>
+      </c>
+      <c r="B16" s="137">
+        <v>43598</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142">
+        <v>43599</v>
+      </c>
+      <c r="I16" s="141"/>
+      <c r="J16" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="139"/>
+      <c r="L16" s="143" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="139"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0BFD36-8428-4719-976B-105857799027}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12728F9F-3991-4AEE-9299-32C75A0B4673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户需求跟踪表" sheetId="1" r:id="rId1"/>
     <sheet name="客户问题跟踪表" sheetId="3" r:id="rId2"/>
-    <sheet name="备注" sheetId="2" r:id="rId3"/>
+    <sheet name="风控需求" sheetId="4" r:id="rId3"/>
+    <sheet name="备注" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户问题跟踪表!$D$1:$D$1</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="259">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -87,60 +88,60 @@
   <si>
     <t>如何根据不同角色进行相应的执行。需要每次执行后有该用户的留痕。人员权限中需要有用户关联pb中对应的账号，即实现pb对应账号与该人员对应账号一一对应
 如：多个基金经理下同一个交易单元的指令或者多个交易员执行指令时，区分具体为哪个用户。保证迅策系统的操作对应金证系统中的操作是一对一。  交易员在pb系统中的账号对应着在迅策系统的账号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>需求描述</t>
   </si>
   <si>
     <t>风控以基金汇总为单位计算风控，非以交易单元为单位计算风控。目前风控设置计算产品范围时存在以交易单元、单基金、机构下所有基金等为单位计算的，但是再前端页面仅以交易单元显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>低</t>
   </si>
   <si>
     <t>人员权限中，勾选角色后无法自动添加下面的菜单权限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>曹渊</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>综合报表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>预计版本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>预计日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>计划修改</t>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>问题描述</t>
@@ -153,106 +154,106 @@
   </si>
   <si>
     <t>解决时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>解决版本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>问题状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分仓程序
 1.0.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分仓程序出现崩溃，客户立马进行了重启操作，重启后可正常报单，但崩溃后无法进行撤单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>待添加core文件设置后进一步观察程序崩溃原因，崩溃后无法进行撤单问题为已知bug，待二期程序升级时将解决该问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分仓程序1.1.10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>委托漏单：11:09:25  300182，买入5300股。这个金证系统发出委托，状态是已报，但是中信证券客户端上根本没看到这笔，所以最后也没法儿撤单回来。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>经过对日志和委托流水分析确实存在委托遗漏的情况。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>年后模拟环境开通后再做进一步精确测试</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>日志打印和szshtrade.conf中的密码打印显示为密文</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>程序Bug</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>版本升级修复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>待修复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>tb1程序
 3.18.7/7</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>tb对接金证系统部分账号无法登录的问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>tb程序问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ipb系统
 3.31.2/0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>指令交易</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>指令交易-当前逆回购的持仓成本均价为负值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>程序中代码公式无法满足逆回购的业务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>提bug单等待升级后解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>综合报表中股票市值不正确</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>客户手工维护了一些股票代码，计算股票市值时未将该类股票代码计算在内</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>开发中</t>
@@ -262,83 +263,83 @@
   </si>
   <si>
     <t>计划修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>基金报表中增加上一日单位净值和基金涨跌幅的展示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分仓1.10.1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>分仓程序异常崩溃</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>综合报表中净资产计算不正确，未计算pb中的应收应付信息</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>风控模块</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>同一个公司的股票，各市场的股票持仓需要合并计算风控，比如：A股和港股的股票需要合并计算不超过10%流通股本的风控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>已修复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>将tb1程序升级至3.18.9/1解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3.35.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>指令交易</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>交易可用余额取T+1可用</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>浮动盈亏精度有问题、浮动率格式统一，右对齐，小数点后两位即可</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>详细图片</t>
   </si>
   <si>
     <t>综合报表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>基金报表中港股市值并未跟随行情变动，而是直接取得金证中的值</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>综合报表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>基金报表中滚屏的时候，没有表头了，看下方数据时不清楚字段名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数据查询中的小数点后数据显示过多
 如持仓查询中左下角的资产占比</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>数据查询</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,264 +380,1080 @@
       <t>、
 持仓中股票、基金、债券市值占净资产比</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>版本3.35解决</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>综合报表刷新优化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>IPB直连</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>IPB直连对接中信恒生08柜台</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>测试中</t>
   </si>
   <si>
     <t>IPB直连对接申万金证WIN版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>头寸管理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>头寸调整同步预估值的接口数据</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修复中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3.35.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>T1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>T0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>T2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>T1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>T0</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>T2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>TAPD</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>处理人</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>王亚军</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>蔡嘉琳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>李艺超</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>王亚军</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>潘俊君</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>潘俊君</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>李艺超</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>产品经理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>潘俊君</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>黄盟</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>李艺超、潘俊君</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>蔡杰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>6月底</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ipb系统
 3.35.2/0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发现版本</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>综合报表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>基金报表中份额为整数四舍五入，需要调整</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已实现</t>
   </si>
   <si>
     <t>累计应收和pb中存在0.11元的差值，导致净资产存在0.11元的差值</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>运营管理</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>可能为四舍五入出现的差值，目前手工计算后发现我们系统和手工计算的相差0.01元</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>基金报表中的基金净值存在问题，需要调整</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>李艺超</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已修复，待升级至生产环境</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ipb系统
 3.35.3/5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>综合报表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>基金报表中份额为小数点后4位</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>T2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>潘俊君</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>综合报表-资产明细中个股盈亏比例排序（通过排序可看出该哪支股票盈最多、亏最多）、市值占净资产排序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金报表-份额为四位数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>综合报表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>基金报表-股票市值占比为占总资产比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用户管理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>人员权限中，添加报表时没有举牌分析报表选择但是会自动添加举牌分析报表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>资产明细报表-累计浮动盈亏更名为浮动盈亏或者累计盈亏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>基金报表-系统四舍五入是按照小数点后两位而不是加了;更改为后小数点后两位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易员反向交易</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>指令交易</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>交易员公平交易，强制显示。参考恒生和金证系统情况</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>数据库无成交时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>T1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>王亚军</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>分仓程序
 1.1.21</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB系统
+3.35.5</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户通过pb下单后，PB指令查询无法查到</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>无债券回购类别及全国银行间市场可选</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>证券投资基金进入全国银行间市场的基金公司进行债券回购的资金余额不得超过基金净资产的40%</t>
+  </si>
+  <si>
+    <t>无债券选项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券申购申报金额不超过产品总资产</t>
+  </si>
+  <si>
+    <t>无股指期货选项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在任何交易日日内，合格投资者的股指期货成交金额（不包括平仓）不得超过其投资额度</t>
+  </si>
+  <si>
+    <t>无现金、国债、中央银行票据、政策性金融债券可选</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金、国债、中央银行票据、政策性金融债券占基金资产净值的比例合计不得低于5%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无现金（现金资产）、国债、央票、政策性金融债以及5个交易日内到期的其他金融工具选项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金（现金资产）、国债、央票、政策性金融债以及5个交易日内到期的其他金融工具占基金净资产比例不得低于10%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无商业银行的银行存款、同业存单选项，及具有基金托管人资格的选项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资于具有基金托管人资格的同一商业银行的银行存款、同业存单占基金资产净值的比例合计不得超过20%</t>
+  </si>
+  <si>
+    <t>无托管资格、银行存款、同业存单的选项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资于不具有基金托管人资格的同一商业银行的银行存款、同业存单占基金资产净值的比例合计不得超过5%</t>
+  </si>
+  <si>
+    <t>只能专户、公募一起控制不超15%，不可单独控公募</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一基金管理人管理的全部开放式公募基金持有一家上市公司发行的可流通股票，不得超过该上市公司可流通股票的15%</t>
+  </si>
+  <si>
+    <t>基金组下不可控，只可控所有产品，无法只控公募</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一基金管理人管理的全部基金持有的单只证券，不超过该证券的10%</t>
+  </si>
+  <si>
+    <t>无同一机构发行的债券、非金融企业债务融资工具及其作为原始权益人的资产支持证券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一机构发行的债券、非金融企业债务融资工具及其作为原始权益人的资产支持证券占基金资产净值的比例合计不得超过10%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司-反向交易下可控证券，但是否可控债券未知</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有投资组合禁止债券同日反向（包括同一投资组合和不同投资组合）</t>
+  </si>
+  <si>
+    <t>无期货合约选项，且不能求和</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放式基金在任何交易日日终，持有的买入期货合约价值与有价证券市值之和,不得超过基金资产净值的95%</t>
+  </si>
+  <si>
+    <t>无债券回购类别及债券回购期限</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入全国银行间同业市场的基金管理公司进行债券回购最长期限为1年，债券回购到期后不得展期</t>
+  </si>
+  <si>
+    <t>无总资产选项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金总资产不得超过基金净资产的140%</t>
+  </si>
+  <si>
+    <t>无债券正回购及逆回购选项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金资管专户，产品债券正回购资金余额和债券逆回购资金余额不得超过产品上一日净资产的100%</t>
+  </si>
+  <si>
+    <t>无法控股票申购资产</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金财产参与股票发行申购，单只基金所申报的金额不得超过该基金的总资产</t>
+  </si>
+  <si>
+    <t>只可控不超过，不可控不少于</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票型基金需80%以上的基金资产投资于股票</t>
+  </si>
+  <si>
+    <t>公司旗下所有产品，债券正回购资金余额和债券逆回购资金余额不得超过所有产品上月末净资产的120%（无法设置上月末，此处控制为上一日末）</t>
+  </si>
+  <si>
+    <t>公募基金，产品债券正回购资金余额和债券逆回购资金余额不得超过产品上一日净资产的40%</t>
+  </si>
+  <si>
+    <t>无基金总资产类别</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭式公募产品、专户产品的总资产不得超过净资产的200%</t>
+  </si>
+  <si>
+    <t>无总资产类别</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非结构化一对多专户总资产不得超过净资产的200%</t>
+  </si>
+  <si>
+    <t>无流通受限类别</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单只开放式公募基金主动投资于流动性受限资产的市值合计不得超过该基金资产净值的15%</t>
+  </si>
+  <si>
+    <t>无申报数量、公司发行股票总量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单只基金所申报的股票数量不得超过拟发行股票公司本次发行股票的总量</t>
+  </si>
+  <si>
+    <t>基金-期货仓位风控</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>在任何交易日日终，合格投资者持有的股指期货合约价值不得超过其投资额度</t>
+  </si>
+  <si>
+    <t>公司-个股仓位下可控，但要每个产品分别设置，且是否包括港股</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只公募基金持有的一家公司发行的证券，其市值不能超过基金资产净值的10%</t>
+  </si>
+  <si>
+    <t>公司-反向交易下可控</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一交易日，多只产品买卖同一只股票， 不允许买价&gt;=卖价</t>
+  </si>
+  <si>
+    <t>公司下可控，单不能控单只产品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一交易日，单只产品不能有买有卖同一只股票</t>
+  </si>
+  <si>
+    <t>公司-流通股本下可控</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一基金管理人管理的全部投资组合持有一家上市公司发行的可流通股票，不得超过该上市公司可流通股票的30%</t>
+  </si>
+  <si>
+    <t>公司-流通股本风控下可控，但可控流通股本，不可控总股本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个境外投资者对单个上市公司的持股比例，不得超过该上市公司股份总数的10%</t>
+  </si>
+  <si>
+    <t>可在基金-股票池总仓位反向设为非现金类资产占净值比例不高于95%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放式基金应当保持不低于基金净资产5%的现金或一年之内到期的政府债券</t>
+  </si>
+  <si>
+    <t>政策型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司-个股仓位下可控，但要每个产品分别设施</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重点股票库，专户投资组合经理的投资权限为单只股票的投资按市值计算不超过（含）投资组合净值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>22%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金-个股仓位风控下可控，但要每支产品单独控</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重点股票库，公募投资组合经理的投资权限为单只股票的投资按市值计算不超过（含）投资组合净值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单，可控禁止买入禁止池</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>只允许卖出禁止池内证券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通股票库，专户投资组合经理的投资权限为单只股票的投资按市值计算不超过（含）投资组合净值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通股票库，公司旗下主动投资组合个股持仓量占发行人总股本的比例不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通股票库，公募投资组合经理的投资权限为单只股票的投资按市值计算不超过（含）投资组合净值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司-个股仓位下可控，但要每个产品分别设置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核心股票库，专户投资组合经理的投资权限为单只股票的投资按市值计算不超过（含）投资组合净值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>24.9%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核心股票库，公司旗下主动投资组合个股持仓量合计占发行人总股本的比例不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重点股票库，公司旗下主动投资组合个股持仓量占发行人总股本的比例不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司-黑名单，可控</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限制池内证券需投委会审批</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核心股票库，公募投资组合经理的投资权限为单只股票的投资按市值计算不超过（含）投资组合净值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可控ST，*ST及退市未知</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司旗下投资组合禁止投资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>*st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股及其他退市整理的证券</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金-集中交易下可控，但每只产品要分开设</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单只产品单只证券当前成交量不得超过该证券当前市场成交量的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金-集中交易下仅可控单产品比例，所有产品不可控</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有产品单只证券的当前成交量不得超过市场成交量的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无连续竞价阶段控制</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连续竞价阶段买卖价格不得高于最新成交价格的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（绝对值）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合竞价仅可控可撤单期间，撤单比例和股数，无法控制是否下单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘集合竞价阶段不允许下单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无7天以上交易所回购</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开放式公募基金投资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天（不含）以上的交易所回购需要进行风控审批，计算阈值</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无非股票池选项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票池外的股票仅允许卖出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无债券类别</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公募基金只允许投资于一年及一年以内到期的国债，政策性金融债，央行票据。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无存款+同业存单类别，无有托管资格的银行类别</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同业存单，只允许投资于上市的且有托管资格的银行</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>场内债券现券指令价格偏离最新价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（绝对值）禁止</t>
+    </r>
+  </si>
+  <si>
+    <t>公司内部</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可控</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控描述</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>该需求未完成</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表-上一日单位净值不正确</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表-现金占比不正确</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表-股票市值占比为占总资产比</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>净资产功能未完全实现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中添加涨跌幅，最新价，成本价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -646,12 +1463,19 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,8 +1596,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,8 +1673,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1113,451 +1976,630 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{54BAE261-F83B-4FC4-AAE0-3CD40BFC8A7D}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2012,15 +3054,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="185" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
@@ -2035,27 +3077,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="181" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2135,19 +3177,19 @@
       <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="118">
+      <c r="A4" s="111">
         <v>43489</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="111"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
@@ -2171,19 +3213,19 @@
       <c r="N4" s="77"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="118">
+      <c r="A5" s="111">
         <v>43489</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="111"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
@@ -2335,19 +3377,19 @@
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="119">
+      <c r="A10" s="112">
         <v>43489</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="114"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="15" t="s">
         <v>26</v>
       </c>
@@ -2373,19 +3415,19 @@
       <c r="N10" s="77"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="115">
+      <c r="A11" s="108">
         <v>43546</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="117"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="15" t="s">
         <v>26</v>
       </c>
@@ -2437,7 +3479,7 @@
       <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="32">
+      <c r="A13" s="182">
         <v>43565</v>
       </c>
       <c r="B13" s="35" t="s">
@@ -2467,19 +3509,19 @@
       <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
+      <c r="A14" s="183">
         <v>43565</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="156" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="31"/>
@@ -2497,19 +3539,19 @@
       <c r="N14" s="77"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="49">
+      <c r="A15" s="184">
         <v>43566</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="180"/>
       <c r="F15" s="52"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
@@ -2525,19 +3567,21 @@
       <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="120">
+      <c r="A16" s="176">
         <v>43556</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="121" t="s">
+      <c r="D16" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="121"/>
+      <c r="E16" s="177" t="s">
+        <v>256</v>
+      </c>
       <c r="F16" s="62" t="s">
         <v>12</v>
       </c>
@@ -2658,180 +3702,105 @@
       <c r="M19" s="59"/>
       <c r="N19" s="77"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="122">
+    <row r="20" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="113">
         <v>43598</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="113">
+        <v>43598</v>
+      </c>
+      <c r="B21" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="125" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="124"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="124"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="122">
-        <v>43598</v>
-      </c>
-      <c r="B21" s="123" t="s">
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="118">
+        <v>43599</v>
+      </c>
+      <c r="B22" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="124"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-    </row>
-    <row r="22" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="122">
-        <v>43598</v>
-      </c>
-      <c r="B22" s="123" t="s">
+      <c r="C22" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="191">
+        <v>43600</v>
+      </c>
+      <c r="B23" s="192" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="124"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="122">
-        <v>43598</v>
-      </c>
-      <c r="B23" s="123" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-    </row>
-    <row r="24" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="122">
-        <v>43598</v>
-      </c>
-      <c r="B24" s="123" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="127" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="124"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="128">
-        <v>43599</v>
-      </c>
-      <c r="B25" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="129" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="129" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="130"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="130"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="128">
-        <v>43599</v>
-      </c>
-      <c r="B26" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="129" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="129" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
+      <c r="C23" s="192" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="192" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="193"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:N1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F7 F16:F19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"高,中,低"</formula1>
@@ -2857,17 +3826,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="A16:M16"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="37.5" style="20" customWidth="1"/>
@@ -3251,66 +4220,66 @@
       <c r="M11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="104">
+      <c r="A12" s="97">
         <v>11</v>
       </c>
-      <c r="B12" s="105">
+      <c r="B12" s="98">
         <v>43581</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110">
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103">
         <v>43594</v>
       </c>
-      <c r="I12" s="109"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="104"/>
-      <c r="L12" s="107" t="s">
+      <c r="K12" s="97"/>
+      <c r="L12" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="104"/>
+      <c r="M12" s="97"/>
     </row>
     <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="104">
+      <c r="A13" s="97">
         <v>12</v>
       </c>
-      <c r="B13" s="105">
+      <c r="B13" s="98">
         <v>43581</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110">
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103">
         <v>43594</v>
       </c>
-      <c r="I13" s="109"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="104"/>
-      <c r="L13" s="107" t="s">
+      <c r="K13" s="97"/>
+      <c r="L13" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="104"/>
+      <c r="M13" s="97"/>
     </row>
     <row r="14" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="83">
@@ -3344,65 +4313,217 @@
       <c r="M14" s="83"/>
     </row>
     <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="97">
+      <c r="A15" s="158">
         <v>14</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="159">
         <v>43595</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103" t="s">
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="K15" s="97"/>
-      <c r="L15" s="100" t="s">
+      <c r="K15" s="158"/>
+      <c r="L15" s="161" t="s">
         <v>133</v>
       </c>
-      <c r="M15" s="97"/>
+      <c r="M15" s="158"/>
     </row>
     <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="136">
+      <c r="A16" s="122">
         <v>15</v>
       </c>
-      <c r="B16" s="137">
+      <c r="B16" s="123">
         <v>43598</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="124" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="128">
+        <v>43599</v>
+      </c>
+      <c r="I16" s="127"/>
+      <c r="J16" s="124" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="125"/>
+      <c r="L16" s="129" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" s="125"/>
+    </row>
+    <row r="17" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="168">
+        <v>16</v>
+      </c>
+      <c r="B17" s="173">
+        <v>43600</v>
+      </c>
+      <c r="C17" s="166" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="170" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="142">
-        <v>43599</v>
-      </c>
-      <c r="I16" s="141"/>
-      <c r="J16" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="139"/>
-      <c r="L16" s="143" t="s">
+      <c r="E17" s="169" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="168"/>
+      <c r="M17" s="168"/>
+    </row>
+    <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="130">
+        <v>17</v>
+      </c>
+      <c r="B18" s="131">
+        <v>43600</v>
+      </c>
+      <c r="C18" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="M16" s="139"/>
+      <c r="D18" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="134" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+    </row>
+    <row r="19" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="130">
+        <v>18</v>
+      </c>
+      <c r="B19" s="164">
+        <v>43598</v>
+      </c>
+      <c r="C19" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+    </row>
+    <row r="20" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="168">
+        <v>19</v>
+      </c>
+      <c r="B20" s="165">
+        <v>43598</v>
+      </c>
+      <c r="C20" s="166" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="170" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="169" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+    </row>
+    <row r="21" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="168">
+        <v>20</v>
+      </c>
+      <c r="B21" s="165">
+        <v>43598</v>
+      </c>
+      <c r="C21" s="166" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="170" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="169" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+    </row>
+    <row r="22" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="167">
+        <v>21</v>
+      </c>
+      <c r="B22" s="165">
+        <v>43598</v>
+      </c>
+      <c r="C22" s="166" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="154" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="157"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1" display="TAPD缺陷单" xr:uid="{B0CAB68E-D005-48CC-98F2-254502103C3D}"/>
   </hyperlinks>
@@ -3412,6 +4533,2738 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6B079C-D814-422B-88FB-3D3819EDE3FC}">
+  <dimension ref="B1:F325"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.125" style="137" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="141" customWidth="1"/>
+    <col min="3" max="3" width="9" style="140"/>
+    <col min="4" max="4" width="73.875" style="139" customWidth="1"/>
+    <col min="5" max="5" width="9" style="138" customWidth="1"/>
+    <col min="6" max="6" width="78.625" style="138" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="137"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="144" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="145"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+    </row>
+    <row r="2" spans="2:6" s="152" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="148" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="153" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="153" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="148" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="148">
+        <v>1</v>
+      </c>
+      <c r="C3" s="190" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="151" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="146" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="148">
+        <v>2</v>
+      </c>
+      <c r="C4" s="190"/>
+      <c r="D4" s="149" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="146" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="148">
+        <v>3</v>
+      </c>
+      <c r="C5" s="190"/>
+      <c r="D5" s="150" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="146" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="148">
+        <v>4</v>
+      </c>
+      <c r="C6" s="190"/>
+      <c r="D6" s="150" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="146" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="148">
+        <v>5</v>
+      </c>
+      <c r="C7" s="190"/>
+      <c r="D7" s="149" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="146" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="148">
+        <v>6</v>
+      </c>
+      <c r="C8" s="190"/>
+      <c r="D8" s="150" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="146" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B9" s="148">
+        <v>7</v>
+      </c>
+      <c r="C9" s="190"/>
+      <c r="D9" s="149" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="146" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B10" s="148">
+        <v>8</v>
+      </c>
+      <c r="C10" s="190"/>
+      <c r="D10" s="149" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="146" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="148">
+        <v>9</v>
+      </c>
+      <c r="C11" s="190"/>
+      <c r="D11" s="149" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="146" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B12" s="148">
+        <v>10</v>
+      </c>
+      <c r="C12" s="190"/>
+      <c r="D12" s="149" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="146" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="B13" s="148">
+        <v>11</v>
+      </c>
+      <c r="C13" s="190"/>
+      <c r="D13" s="149" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="146" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="148">
+        <v>12</v>
+      </c>
+      <c r="C14" s="190"/>
+      <c r="D14" s="149" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="146" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="148">
+        <v>13</v>
+      </c>
+      <c r="C15" s="190"/>
+      <c r="D15" s="149" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="146" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="148">
+        <v>14</v>
+      </c>
+      <c r="C16" s="190"/>
+      <c r="D16" s="149" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="146" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="148">
+        <v>15</v>
+      </c>
+      <c r="C17" s="190"/>
+      <c r="D17" s="149" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="146" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B18" s="148">
+        <v>16</v>
+      </c>
+      <c r="C18" s="190"/>
+      <c r="D18" s="149" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="146" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="148">
+        <v>17</v>
+      </c>
+      <c r="C19" s="190"/>
+      <c r="D19" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="146" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="148">
+        <v>18</v>
+      </c>
+      <c r="C20" s="190"/>
+      <c r="D20" s="149" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="146" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="148">
+        <v>19</v>
+      </c>
+      <c r="C21" s="190"/>
+      <c r="D21" s="150" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="146" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B22" s="148">
+        <v>20</v>
+      </c>
+      <c r="C22" s="190"/>
+      <c r="D22" s="149" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="146" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B23" s="148">
+        <v>21</v>
+      </c>
+      <c r="C23" s="190"/>
+      <c r="D23" s="149" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="146" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="148">
+        <v>22</v>
+      </c>
+      <c r="C24" s="190" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="147" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="146" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="148">
+        <v>23</v>
+      </c>
+      <c r="C25" s="190"/>
+      <c r="D25" s="147" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="146" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B26" s="148">
+        <v>24</v>
+      </c>
+      <c r="C26" s="190"/>
+      <c r="D26" s="147" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="146" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="148">
+        <v>25</v>
+      </c>
+      <c r="C27" s="190"/>
+      <c r="D27" s="147" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="146" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="148">
+        <v>26</v>
+      </c>
+      <c r="C28" s="190"/>
+      <c r="D28" s="147" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="148">
+        <v>27</v>
+      </c>
+      <c r="C29" s="190"/>
+      <c r="D29" s="147" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="146" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="148">
+        <v>28</v>
+      </c>
+      <c r="C30" s="190"/>
+      <c r="D30" s="147" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="146" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="148">
+        <v>29</v>
+      </c>
+      <c r="C31" s="190"/>
+      <c r="D31" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B32" s="148">
+        <v>30</v>
+      </c>
+      <c r="C32" s="190"/>
+      <c r="D32" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="146" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="148">
+        <v>31</v>
+      </c>
+      <c r="C33" s="190"/>
+      <c r="D33" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="148">
+        <v>32</v>
+      </c>
+      <c r="C34" s="190"/>
+      <c r="D34" s="147" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B35" s="148">
+        <v>33</v>
+      </c>
+      <c r="C35" s="190"/>
+      <c r="D35" s="147" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B36" s="148">
+        <v>34</v>
+      </c>
+      <c r="C36" s="190"/>
+      <c r="D36" s="147" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="148">
+        <v>35</v>
+      </c>
+      <c r="C37" s="190"/>
+      <c r="D37" s="147" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="148">
+        <v>36</v>
+      </c>
+      <c r="C38" s="190"/>
+      <c r="D38" s="147" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="148">
+        <v>37</v>
+      </c>
+      <c r="C39" s="190"/>
+      <c r="D39" s="147" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="148">
+        <v>38</v>
+      </c>
+      <c r="C40" s="190"/>
+      <c r="D40" s="147" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B41" s="148">
+        <v>39</v>
+      </c>
+      <c r="C41" s="190"/>
+      <c r="D41" s="147" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B42" s="148">
+        <v>40</v>
+      </c>
+      <c r="C42" s="190"/>
+      <c r="D42" s="147" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="148">
+        <v>41</v>
+      </c>
+      <c r="C43" s="190"/>
+      <c r="D43" s="147" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B44" s="148">
+        <v>42</v>
+      </c>
+      <c r="C44" s="190"/>
+      <c r="D44" s="147" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="148">
+        <v>43</v>
+      </c>
+      <c r="C45" s="190"/>
+      <c r="D45" s="147" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="146" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B46" s="148">
+        <v>44</v>
+      </c>
+      <c r="C46" s="190"/>
+      <c r="D46" s="147" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" s="146" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B47" s="148">
+        <v>45</v>
+      </c>
+      <c r="C47" s="190"/>
+      <c r="D47" s="147" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="146" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B48" s="148">
+        <v>46</v>
+      </c>
+      <c r="C48" s="190"/>
+      <c r="D48" s="147" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="146" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B49" s="148">
+        <v>47</v>
+      </c>
+      <c r="C49" s="190"/>
+      <c r="D49" s="147" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="146" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="148">
+        <v>48</v>
+      </c>
+      <c r="C50" s="190"/>
+      <c r="D50" s="147" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="146" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="148">
+        <v>49</v>
+      </c>
+      <c r="C51" s="190"/>
+      <c r="D51" s="147" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="146" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="148">
+        <v>50</v>
+      </c>
+      <c r="C52" s="190"/>
+      <c r="D52" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="146" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B53" s="148">
+        <v>51</v>
+      </c>
+      <c r="C53" s="190"/>
+      <c r="D53" s="147" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="146" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="145"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="142"/>
+      <c r="F54" s="142"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="145"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="142"/>
+      <c r="F55" s="142"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="145"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="145"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="145"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="142"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="145"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="142"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="145"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="145"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="142"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B62" s="145"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="145"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="142"/>
+      <c r="F63" s="142"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="145"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="142"/>
+      <c r="F64" s="142"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="145"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B66" s="145"/>
+      <c r="C66" s="144"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B67" s="145"/>
+      <c r="C67" s="144"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="142"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B68" s="145"/>
+      <c r="C68" s="144"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="142"/>
+      <c r="F68" s="142"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="145"/>
+      <c r="C69" s="144"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="142"/>
+      <c r="F69" s="142"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" s="145"/>
+      <c r="C70" s="144"/>
+      <c r="D70" s="143"/>
+      <c r="E70" s="142"/>
+      <c r="F70" s="142"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="145"/>
+      <c r="C71" s="144"/>
+      <c r="D71" s="143"/>
+      <c r="E71" s="142"/>
+      <c r="F71" s="142"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" s="145"/>
+      <c r="C72" s="144"/>
+      <c r="D72" s="143"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="142"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B73" s="145"/>
+      <c r="C73" s="144"/>
+      <c r="D73" s="143"/>
+      <c r="E73" s="142"/>
+      <c r="F73" s="142"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B74" s="145"/>
+      <c r="C74" s="144"/>
+      <c r="D74" s="143"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B75" s="145"/>
+      <c r="C75" s="144"/>
+      <c r="D75" s="143"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="142"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B76" s="145"/>
+      <c r="C76" s="144"/>
+      <c r="D76" s="143"/>
+      <c r="E76" s="142"/>
+      <c r="F76" s="142"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B77" s="145"/>
+      <c r="C77" s="144"/>
+      <c r="D77" s="143"/>
+      <c r="E77" s="142"/>
+      <c r="F77" s="142"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B78" s="145"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="143"/>
+      <c r="E78" s="142"/>
+      <c r="F78" s="142"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B79" s="145"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="142"/>
+      <c r="F79" s="142"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B80" s="145"/>
+      <c r="C80" s="144"/>
+      <c r="D80" s="143"/>
+      <c r="E80" s="142"/>
+      <c r="F80" s="142"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B81" s="145"/>
+      <c r="C81" s="144"/>
+      <c r="D81" s="143"/>
+      <c r="E81" s="142"/>
+      <c r="F81" s="142"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B82" s="145"/>
+      <c r="C82" s="144"/>
+      <c r="D82" s="143"/>
+      <c r="E82" s="142"/>
+      <c r="F82" s="142"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83" s="145"/>
+      <c r="C83" s="144"/>
+      <c r="D83" s="143"/>
+      <c r="E83" s="142"/>
+      <c r="F83" s="142"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" s="145"/>
+      <c r="C84" s="144"/>
+      <c r="D84" s="143"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="145"/>
+      <c r="C85" s="144"/>
+      <c r="D85" s="143"/>
+      <c r="E85" s="142"/>
+      <c r="F85" s="142"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86" s="145"/>
+      <c r="C86" s="144"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="142"/>
+      <c r="F86" s="142"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B87" s="145"/>
+      <c r="C87" s="144"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="142"/>
+      <c r="F87" s="142"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B88" s="145"/>
+      <c r="C88" s="144"/>
+      <c r="D88" s="143"/>
+      <c r="E88" s="142"/>
+      <c r="F88" s="142"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89" s="145"/>
+      <c r="C89" s="144"/>
+      <c r="D89" s="143"/>
+      <c r="E89" s="142"/>
+      <c r="F89" s="142"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B90" s="145"/>
+      <c r="C90" s="144"/>
+      <c r="D90" s="143"/>
+      <c r="E90" s="142"/>
+      <c r="F90" s="142"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B91" s="145"/>
+      <c r="C91" s="144"/>
+      <c r="D91" s="143"/>
+      <c r="E91" s="142"/>
+      <c r="F91" s="142"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" s="145"/>
+      <c r="C92" s="144"/>
+      <c r="D92" s="143"/>
+      <c r="E92" s="142"/>
+      <c r="F92" s="142"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" s="145"/>
+      <c r="C93" s="144"/>
+      <c r="D93" s="143"/>
+      <c r="E93" s="142"/>
+      <c r="F93" s="142"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B94" s="145"/>
+      <c r="C94" s="144"/>
+      <c r="D94" s="143"/>
+      <c r="E94" s="142"/>
+      <c r="F94" s="142"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" s="145"/>
+      <c r="C95" s="144"/>
+      <c r="D95" s="143"/>
+      <c r="E95" s="142"/>
+      <c r="F95" s="142"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B96" s="145"/>
+      <c r="C96" s="144"/>
+      <c r="D96" s="143"/>
+      <c r="E96" s="142"/>
+      <c r="F96" s="142"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" s="145"/>
+      <c r="C97" s="144"/>
+      <c r="D97" s="143"/>
+      <c r="E97" s="142"/>
+      <c r="F97" s="142"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" s="145"/>
+      <c r="C98" s="144"/>
+      <c r="D98" s="143"/>
+      <c r="E98" s="142"/>
+      <c r="F98" s="142"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" s="145"/>
+      <c r="C99" s="144"/>
+      <c r="D99" s="143"/>
+      <c r="E99" s="142"/>
+      <c r="F99" s="142"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="145"/>
+      <c r="C100" s="144"/>
+      <c r="D100" s="143"/>
+      <c r="E100" s="142"/>
+      <c r="F100" s="142"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B101" s="145"/>
+      <c r="C101" s="144"/>
+      <c r="D101" s="143"/>
+      <c r="E101" s="142"/>
+      <c r="F101" s="142"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B102" s="145"/>
+      <c r="C102" s="144"/>
+      <c r="D102" s="143"/>
+      <c r="E102" s="142"/>
+      <c r="F102" s="142"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B103" s="145"/>
+      <c r="C103" s="144"/>
+      <c r="D103" s="143"/>
+      <c r="E103" s="142"/>
+      <c r="F103" s="142"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="145"/>
+      <c r="C104" s="144"/>
+      <c r="D104" s="143"/>
+      <c r="E104" s="142"/>
+      <c r="F104" s="142"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B105" s="145"/>
+      <c r="C105" s="144"/>
+      <c r="D105" s="143"/>
+      <c r="E105" s="142"/>
+      <c r="F105" s="142"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="145"/>
+      <c r="C106" s="144"/>
+      <c r="D106" s="143"/>
+      <c r="E106" s="142"/>
+      <c r="F106" s="142"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B107" s="145"/>
+      <c r="C107" s="144"/>
+      <c r="D107" s="143"/>
+      <c r="E107" s="142"/>
+      <c r="F107" s="142"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B108" s="145"/>
+      <c r="C108" s="144"/>
+      <c r="D108" s="143"/>
+      <c r="E108" s="142"/>
+      <c r="F108" s="142"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B109" s="145"/>
+      <c r="C109" s="144"/>
+      <c r="D109" s="143"/>
+      <c r="E109" s="142"/>
+      <c r="F109" s="142"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B110" s="145"/>
+      <c r="C110" s="144"/>
+      <c r="D110" s="143"/>
+      <c r="E110" s="142"/>
+      <c r="F110" s="142"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B111" s="145"/>
+      <c r="C111" s="144"/>
+      <c r="D111" s="143"/>
+      <c r="E111" s="142"/>
+      <c r="F111" s="142"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B112" s="145"/>
+      <c r="C112" s="144"/>
+      <c r="D112" s="143"/>
+      <c r="E112" s="142"/>
+      <c r="F112" s="142"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B113" s="145"/>
+      <c r="C113" s="144"/>
+      <c r="D113" s="143"/>
+      <c r="E113" s="142"/>
+      <c r="F113" s="142"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B114" s="145"/>
+      <c r="C114" s="144"/>
+      <c r="D114" s="143"/>
+      <c r="E114" s="142"/>
+      <c r="F114" s="142"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B115" s="145"/>
+      <c r="C115" s="144"/>
+      <c r="D115" s="143"/>
+      <c r="E115" s="142"/>
+      <c r="F115" s="142"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B116" s="145"/>
+      <c r="C116" s="144"/>
+      <c r="D116" s="143"/>
+      <c r="E116" s="142"/>
+      <c r="F116" s="142"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B117" s="145"/>
+      <c r="C117" s="144"/>
+      <c r="D117" s="143"/>
+      <c r="E117" s="142"/>
+      <c r="F117" s="142"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B118" s="145"/>
+      <c r="C118" s="144"/>
+      <c r="D118" s="143"/>
+      <c r="E118" s="142"/>
+      <c r="F118" s="142"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B119" s="145"/>
+      <c r="C119" s="144"/>
+      <c r="D119" s="143"/>
+      <c r="E119" s="142"/>
+      <c r="F119" s="142"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B120" s="145"/>
+      <c r="C120" s="144"/>
+      <c r="D120" s="143"/>
+      <c r="E120" s="142"/>
+      <c r="F120" s="142"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B121" s="145"/>
+      <c r="C121" s="144"/>
+      <c r="D121" s="143"/>
+      <c r="E121" s="142"/>
+      <c r="F121" s="142"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B122" s="145"/>
+      <c r="C122" s="144"/>
+      <c r="D122" s="143"/>
+      <c r="E122" s="142"/>
+      <c r="F122" s="142"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B123" s="145"/>
+      <c r="C123" s="144"/>
+      <c r="D123" s="143"/>
+      <c r="E123" s="142"/>
+      <c r="F123" s="142"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B124" s="145"/>
+      <c r="C124" s="144"/>
+      <c r="D124" s="143"/>
+      <c r="E124" s="142"/>
+      <c r="F124" s="142"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B125" s="145"/>
+      <c r="C125" s="144"/>
+      <c r="D125" s="143"/>
+      <c r="E125" s="142"/>
+      <c r="F125" s="142"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B126" s="145"/>
+      <c r="C126" s="144"/>
+      <c r="D126" s="143"/>
+      <c r="E126" s="142"/>
+      <c r="F126" s="142"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B127" s="145"/>
+      <c r="C127" s="144"/>
+      <c r="D127" s="143"/>
+      <c r="E127" s="142"/>
+      <c r="F127" s="142"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B128" s="145"/>
+      <c r="C128" s="144"/>
+      <c r="D128" s="143"/>
+      <c r="E128" s="142"/>
+      <c r="F128" s="142"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B129" s="145"/>
+      <c r="C129" s="144"/>
+      <c r="D129" s="143"/>
+      <c r="E129" s="142"/>
+      <c r="F129" s="142"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B130" s="145"/>
+      <c r="C130" s="144"/>
+      <c r="D130" s="143"/>
+      <c r="E130" s="142"/>
+      <c r="F130" s="142"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B131" s="145"/>
+      <c r="C131" s="144"/>
+      <c r="D131" s="143"/>
+      <c r="E131" s="142"/>
+      <c r="F131" s="142"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B132" s="145"/>
+      <c r="C132" s="144"/>
+      <c r="D132" s="143"/>
+      <c r="E132" s="142"/>
+      <c r="F132" s="142"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B133" s="145"/>
+      <c r="C133" s="144"/>
+      <c r="D133" s="143"/>
+      <c r="E133" s="142"/>
+      <c r="F133" s="142"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B134" s="145"/>
+      <c r="C134" s="144"/>
+      <c r="D134" s="143"/>
+      <c r="E134" s="142"/>
+      <c r="F134" s="142"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B135" s="145"/>
+      <c r="C135" s="144"/>
+      <c r="D135" s="143"/>
+      <c r="E135" s="142"/>
+      <c r="F135" s="142"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B136" s="145"/>
+      <c r="C136" s="144"/>
+      <c r="D136" s="143"/>
+      <c r="E136" s="142"/>
+      <c r="F136" s="142"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B137" s="145"/>
+      <c r="C137" s="144"/>
+      <c r="D137" s="143"/>
+      <c r="E137" s="142"/>
+      <c r="F137" s="142"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B138" s="145"/>
+      <c r="C138" s="144"/>
+      <c r="D138" s="143"/>
+      <c r="E138" s="142"/>
+      <c r="F138" s="142"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B139" s="145"/>
+      <c r="C139" s="144"/>
+      <c r="D139" s="143"/>
+      <c r="E139" s="142"/>
+      <c r="F139" s="142"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B140" s="145"/>
+      <c r="C140" s="144"/>
+      <c r="D140" s="143"/>
+      <c r="E140" s="142"/>
+      <c r="F140" s="142"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B141" s="145"/>
+      <c r="C141" s="144"/>
+      <c r="D141" s="143"/>
+      <c r="E141" s="142"/>
+      <c r="F141" s="142"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B142" s="145"/>
+      <c r="C142" s="144"/>
+      <c r="D142" s="143"/>
+      <c r="E142" s="142"/>
+      <c r="F142" s="142"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B143" s="145"/>
+      <c r="C143" s="144"/>
+      <c r="D143" s="143"/>
+      <c r="E143" s="142"/>
+      <c r="F143" s="142"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B144" s="145"/>
+      <c r="C144" s="144"/>
+      <c r="D144" s="143"/>
+      <c r="E144" s="142"/>
+      <c r="F144" s="142"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B145" s="145"/>
+      <c r="C145" s="144"/>
+      <c r="D145" s="143"/>
+      <c r="E145" s="142"/>
+      <c r="F145" s="142"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B146" s="145"/>
+      <c r="C146" s="144"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="142"/>
+      <c r="F146" s="142"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B147" s="145"/>
+      <c r="C147" s="144"/>
+      <c r="D147" s="143"/>
+      <c r="E147" s="142"/>
+      <c r="F147" s="142"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B148" s="145"/>
+      <c r="C148" s="144"/>
+      <c r="D148" s="143"/>
+      <c r="E148" s="142"/>
+      <c r="F148" s="142"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B149" s="145"/>
+      <c r="C149" s="144"/>
+      <c r="D149" s="143"/>
+      <c r="E149" s="142"/>
+      <c r="F149" s="142"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B150" s="145"/>
+      <c r="C150" s="144"/>
+      <c r="D150" s="143"/>
+      <c r="E150" s="142"/>
+      <c r="F150" s="142"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B151" s="145"/>
+      <c r="C151" s="144"/>
+      <c r="D151" s="143"/>
+      <c r="E151" s="142"/>
+      <c r="F151" s="142"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B152" s="145"/>
+      <c r="C152" s="144"/>
+      <c r="D152" s="143"/>
+      <c r="E152" s="142"/>
+      <c r="F152" s="142"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B153" s="145"/>
+      <c r="C153" s="144"/>
+      <c r="D153" s="143"/>
+      <c r="E153" s="142"/>
+      <c r="F153" s="142"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B154" s="145"/>
+      <c r="C154" s="144"/>
+      <c r="D154" s="143"/>
+      <c r="E154" s="142"/>
+      <c r="F154" s="142"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B155" s="145"/>
+      <c r="C155" s="144"/>
+      <c r="D155" s="143"/>
+      <c r="E155" s="142"/>
+      <c r="F155" s="142"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B156" s="145"/>
+      <c r="C156" s="144"/>
+      <c r="D156" s="143"/>
+      <c r="E156" s="142"/>
+      <c r="F156" s="142"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B157" s="145"/>
+      <c r="C157" s="144"/>
+      <c r="D157" s="143"/>
+      <c r="E157" s="142"/>
+      <c r="F157" s="142"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B158" s="145"/>
+      <c r="C158" s="144"/>
+      <c r="D158" s="143"/>
+      <c r="E158" s="142"/>
+      <c r="F158" s="142"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B159" s="145"/>
+      <c r="C159" s="144"/>
+      <c r="D159" s="143"/>
+      <c r="E159" s="142"/>
+      <c r="F159" s="142"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B160" s="145"/>
+      <c r="C160" s="144"/>
+      <c r="D160" s="143"/>
+      <c r="E160" s="142"/>
+      <c r="F160" s="142"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B161" s="145"/>
+      <c r="C161" s="144"/>
+      <c r="D161" s="143"/>
+      <c r="E161" s="142"/>
+      <c r="F161" s="142"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B162" s="145"/>
+      <c r="C162" s="144"/>
+      <c r="D162" s="143"/>
+      <c r="E162" s="142"/>
+      <c r="F162" s="142"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B163" s="145"/>
+      <c r="C163" s="144"/>
+      <c r="D163" s="143"/>
+      <c r="E163" s="142"/>
+      <c r="F163" s="142"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B164" s="145"/>
+      <c r="C164" s="144"/>
+      <c r="D164" s="143"/>
+      <c r="E164" s="142"/>
+      <c r="F164" s="142"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B165" s="145"/>
+      <c r="C165" s="144"/>
+      <c r="D165" s="143"/>
+      <c r="E165" s="142"/>
+      <c r="F165" s="142"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B166" s="145"/>
+      <c r="C166" s="144"/>
+      <c r="D166" s="143"/>
+      <c r="E166" s="142"/>
+      <c r="F166" s="142"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B167" s="145"/>
+      <c r="C167" s="144"/>
+      <c r="D167" s="143"/>
+      <c r="E167" s="142"/>
+      <c r="F167" s="142"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B168" s="145"/>
+      <c r="C168" s="144"/>
+      <c r="D168" s="143"/>
+      <c r="E168" s="142"/>
+      <c r="F168" s="142"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B169" s="145"/>
+      <c r="C169" s="144"/>
+      <c r="D169" s="143"/>
+      <c r="E169" s="142"/>
+      <c r="F169" s="142"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B170" s="145"/>
+      <c r="C170" s="144"/>
+      <c r="D170" s="143"/>
+      <c r="E170" s="142"/>
+      <c r="F170" s="142"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B171" s="145"/>
+      <c r="C171" s="144"/>
+      <c r="D171" s="143"/>
+      <c r="E171" s="142"/>
+      <c r="F171" s="142"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B172" s="145"/>
+      <c r="C172" s="144"/>
+      <c r="D172" s="143"/>
+      <c r="E172" s="142"/>
+      <c r="F172" s="142"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B173" s="145"/>
+      <c r="C173" s="144"/>
+      <c r="D173" s="143"/>
+      <c r="E173" s="142"/>
+      <c r="F173" s="142"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B174" s="145"/>
+      <c r="C174" s="144"/>
+      <c r="D174" s="143"/>
+      <c r="E174" s="142"/>
+      <c r="F174" s="142"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B175" s="145"/>
+      <c r="C175" s="144"/>
+      <c r="D175" s="143"/>
+      <c r="E175" s="142"/>
+      <c r="F175" s="142"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B176" s="145"/>
+      <c r="C176" s="144"/>
+      <c r="D176" s="143"/>
+      <c r="E176" s="142"/>
+      <c r="F176" s="142"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B177" s="145"/>
+      <c r="C177" s="144"/>
+      <c r="D177" s="143"/>
+      <c r="E177" s="142"/>
+      <c r="F177" s="142"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B178" s="145"/>
+      <c r="C178" s="144"/>
+      <c r="D178" s="143"/>
+      <c r="E178" s="142"/>
+      <c r="F178" s="142"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B179" s="145"/>
+      <c r="C179" s="144"/>
+      <c r="D179" s="143"/>
+      <c r="E179" s="142"/>
+      <c r="F179" s="142"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B180" s="145"/>
+      <c r="C180" s="144"/>
+      <c r="D180" s="143"/>
+      <c r="E180" s="142"/>
+      <c r="F180" s="142"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B181" s="145"/>
+      <c r="C181" s="144"/>
+      <c r="D181" s="143"/>
+      <c r="E181" s="142"/>
+      <c r="F181" s="142"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B182" s="145"/>
+      <c r="C182" s="144"/>
+      <c r="D182" s="143"/>
+      <c r="E182" s="142"/>
+      <c r="F182" s="142"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B183" s="145"/>
+      <c r="C183" s="144"/>
+      <c r="D183" s="143"/>
+      <c r="E183" s="142"/>
+      <c r="F183" s="142"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B184" s="145"/>
+      <c r="C184" s="144"/>
+      <c r="D184" s="143"/>
+      <c r="E184" s="142"/>
+      <c r="F184" s="142"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B185" s="145"/>
+      <c r="C185" s="144"/>
+      <c r="D185" s="143"/>
+      <c r="E185" s="142"/>
+      <c r="F185" s="142"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B186" s="145"/>
+      <c r="C186" s="144"/>
+      <c r="D186" s="143"/>
+      <c r="E186" s="142"/>
+      <c r="F186" s="142"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B187" s="145"/>
+      <c r="C187" s="144"/>
+      <c r="D187" s="143"/>
+      <c r="E187" s="142"/>
+      <c r="F187" s="142"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B188" s="145"/>
+      <c r="C188" s="144"/>
+      <c r="D188" s="143"/>
+      <c r="E188" s="142"/>
+      <c r="F188" s="142"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B189" s="145"/>
+      <c r="C189" s="144"/>
+      <c r="D189" s="143"/>
+      <c r="E189" s="142"/>
+      <c r="F189" s="142"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B190" s="145"/>
+      <c r="C190" s="144"/>
+      <c r="D190" s="143"/>
+      <c r="E190" s="142"/>
+      <c r="F190" s="142"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B191" s="145"/>
+      <c r="C191" s="144"/>
+      <c r="D191" s="143"/>
+      <c r="E191" s="142"/>
+      <c r="F191" s="142"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B192" s="145"/>
+      <c r="C192" s="144"/>
+      <c r="D192" s="143"/>
+      <c r="E192" s="142"/>
+      <c r="F192" s="142"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B193" s="145"/>
+      <c r="C193" s="144"/>
+      <c r="D193" s="143"/>
+      <c r="E193" s="142"/>
+      <c r="F193" s="142"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B194" s="145"/>
+      <c r="C194" s="144"/>
+      <c r="D194" s="143"/>
+      <c r="E194" s="142"/>
+      <c r="F194" s="142"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B195" s="145"/>
+      <c r="C195" s="144"/>
+      <c r="D195" s="143"/>
+      <c r="E195" s="142"/>
+      <c r="F195" s="142"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B196" s="145"/>
+      <c r="C196" s="144"/>
+      <c r="D196" s="143"/>
+      <c r="E196" s="142"/>
+      <c r="F196" s="142"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B197" s="145"/>
+      <c r="C197" s="144"/>
+      <c r="D197" s="143"/>
+      <c r="E197" s="142"/>
+      <c r="F197" s="142"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B198" s="145"/>
+      <c r="C198" s="144"/>
+      <c r="D198" s="143"/>
+      <c r="E198" s="142"/>
+      <c r="F198" s="142"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B199" s="145"/>
+      <c r="C199" s="144"/>
+      <c r="D199" s="143"/>
+      <c r="E199" s="142"/>
+      <c r="F199" s="142"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B200" s="145"/>
+      <c r="C200" s="144"/>
+      <c r="D200" s="143"/>
+      <c r="E200" s="142"/>
+      <c r="F200" s="142"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B201" s="145"/>
+      <c r="C201" s="144"/>
+      <c r="D201" s="143"/>
+      <c r="E201" s="142"/>
+      <c r="F201" s="142"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B202" s="145"/>
+      <c r="C202" s="144"/>
+      <c r="D202" s="143"/>
+      <c r="E202" s="142"/>
+      <c r="F202" s="142"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B203" s="145"/>
+      <c r="C203" s="144"/>
+      <c r="D203" s="143"/>
+      <c r="E203" s="142"/>
+      <c r="F203" s="142"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B204" s="145"/>
+      <c r="C204" s="144"/>
+      <c r="D204" s="143"/>
+      <c r="E204" s="142"/>
+      <c r="F204" s="142"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B205" s="145"/>
+      <c r="C205" s="144"/>
+      <c r="D205" s="143"/>
+      <c r="E205" s="142"/>
+      <c r="F205" s="142"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B206" s="145"/>
+      <c r="C206" s="144"/>
+      <c r="D206" s="143"/>
+      <c r="E206" s="142"/>
+      <c r="F206" s="142"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B207" s="145"/>
+      <c r="C207" s="144"/>
+      <c r="D207" s="143"/>
+      <c r="E207" s="142"/>
+      <c r="F207" s="142"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B208" s="145"/>
+      <c r="C208" s="144"/>
+      <c r="D208" s="143"/>
+      <c r="E208" s="142"/>
+      <c r="F208" s="142"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B209" s="145"/>
+      <c r="C209" s="144"/>
+      <c r="D209" s="143"/>
+      <c r="E209" s="142"/>
+      <c r="F209" s="142"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B210" s="145"/>
+      <c r="C210" s="144"/>
+      <c r="D210" s="143"/>
+      <c r="E210" s="142"/>
+      <c r="F210" s="142"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B211" s="145"/>
+      <c r="C211" s="144"/>
+      <c r="D211" s="143"/>
+      <c r="E211" s="142"/>
+      <c r="F211" s="142"/>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B212" s="145"/>
+      <c r="C212" s="144"/>
+      <c r="D212" s="143"/>
+      <c r="E212" s="142"/>
+      <c r="F212" s="142"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B213" s="145"/>
+      <c r="C213" s="144"/>
+      <c r="D213" s="143"/>
+      <c r="E213" s="142"/>
+      <c r="F213" s="142"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B214" s="145"/>
+      <c r="C214" s="144"/>
+      <c r="D214" s="143"/>
+      <c r="E214" s="142"/>
+      <c r="F214" s="142"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B215" s="145"/>
+      <c r="C215" s="144"/>
+      <c r="D215" s="143"/>
+      <c r="E215" s="142"/>
+      <c r="F215" s="142"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B216" s="145"/>
+      <c r="C216" s="144"/>
+      <c r="D216" s="143"/>
+      <c r="E216" s="142"/>
+      <c r="F216" s="142"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B217" s="145"/>
+      <c r="C217" s="144"/>
+      <c r="D217" s="143"/>
+      <c r="E217" s="142"/>
+      <c r="F217" s="142"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B218" s="145"/>
+      <c r="C218" s="144"/>
+      <c r="D218" s="143"/>
+      <c r="E218" s="142"/>
+      <c r="F218" s="142"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B219" s="145"/>
+      <c r="C219" s="144"/>
+      <c r="D219" s="143"/>
+      <c r="E219" s="142"/>
+      <c r="F219" s="142"/>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B220" s="145"/>
+      <c r="C220" s="144"/>
+      <c r="D220" s="143"/>
+      <c r="E220" s="142"/>
+      <c r="F220" s="142"/>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B221" s="145"/>
+      <c r="C221" s="144"/>
+      <c r="D221" s="143"/>
+      <c r="E221" s="142"/>
+      <c r="F221" s="142"/>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B222" s="145"/>
+      <c r="C222" s="144"/>
+      <c r="D222" s="143"/>
+      <c r="E222" s="142"/>
+      <c r="F222" s="142"/>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B223" s="145"/>
+      <c r="C223" s="144"/>
+      <c r="D223" s="143"/>
+      <c r="E223" s="142"/>
+      <c r="F223" s="142"/>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B224" s="145"/>
+      <c r="C224" s="144"/>
+      <c r="D224" s="143"/>
+      <c r="E224" s="142"/>
+      <c r="F224" s="142"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B225" s="145"/>
+      <c r="C225" s="144"/>
+      <c r="D225" s="143"/>
+      <c r="E225" s="142"/>
+      <c r="F225" s="142"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B226" s="145"/>
+      <c r="C226" s="144"/>
+      <c r="D226" s="143"/>
+      <c r="E226" s="142"/>
+      <c r="F226" s="142"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B227" s="145"/>
+      <c r="C227" s="144"/>
+      <c r="D227" s="143"/>
+      <c r="E227" s="142"/>
+      <c r="F227" s="142"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B228" s="145"/>
+      <c r="C228" s="144"/>
+      <c r="D228" s="143"/>
+      <c r="E228" s="142"/>
+      <c r="F228" s="142"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B229" s="145"/>
+      <c r="C229" s="144"/>
+      <c r="D229" s="143"/>
+      <c r="E229" s="142"/>
+      <c r="F229" s="142"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B230" s="145"/>
+      <c r="C230" s="144"/>
+      <c r="D230" s="143"/>
+      <c r="E230" s="142"/>
+      <c r="F230" s="142"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B231" s="145"/>
+      <c r="C231" s="144"/>
+      <c r="D231" s="143"/>
+      <c r="E231" s="142"/>
+      <c r="F231" s="142"/>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B232" s="145"/>
+      <c r="C232" s="144"/>
+      <c r="D232" s="143"/>
+      <c r="E232" s="142"/>
+      <c r="F232" s="142"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B233" s="145"/>
+      <c r="C233" s="144"/>
+      <c r="D233" s="143"/>
+      <c r="E233" s="142"/>
+      <c r="F233" s="142"/>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B234" s="145"/>
+      <c r="C234" s="144"/>
+      <c r="D234" s="143"/>
+      <c r="E234" s="142"/>
+      <c r="F234" s="142"/>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B235" s="145"/>
+      <c r="C235" s="144"/>
+      <c r="D235" s="143"/>
+      <c r="E235" s="142"/>
+      <c r="F235" s="142"/>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B236" s="145"/>
+      <c r="C236" s="144"/>
+      <c r="D236" s="143"/>
+      <c r="E236" s="142"/>
+      <c r="F236" s="142"/>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B237" s="145"/>
+      <c r="C237" s="144"/>
+      <c r="D237" s="143"/>
+      <c r="E237" s="142"/>
+      <c r="F237" s="142"/>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B238" s="145"/>
+      <c r="C238" s="144"/>
+      <c r="D238" s="143"/>
+      <c r="E238" s="142"/>
+      <c r="F238" s="142"/>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B239" s="145"/>
+      <c r="C239" s="144"/>
+      <c r="D239" s="143"/>
+      <c r="E239" s="142"/>
+      <c r="F239" s="142"/>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B240" s="145"/>
+      <c r="C240" s="144"/>
+      <c r="D240" s="143"/>
+      <c r="E240" s="142"/>
+      <c r="F240" s="142"/>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B241" s="145"/>
+      <c r="C241" s="144"/>
+      <c r="D241" s="143"/>
+      <c r="E241" s="142"/>
+      <c r="F241" s="142"/>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B242" s="145"/>
+      <c r="C242" s="144"/>
+      <c r="D242" s="143"/>
+      <c r="E242" s="142"/>
+      <c r="F242" s="142"/>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B243" s="145"/>
+      <c r="C243" s="144"/>
+      <c r="D243" s="143"/>
+      <c r="E243" s="142"/>
+      <c r="F243" s="142"/>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B244" s="145"/>
+      <c r="C244" s="144"/>
+      <c r="D244" s="143"/>
+      <c r="E244" s="142"/>
+      <c r="F244" s="142"/>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B245" s="145"/>
+      <c r="C245" s="144"/>
+      <c r="D245" s="143"/>
+      <c r="E245" s="142"/>
+      <c r="F245" s="142"/>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B246" s="145"/>
+      <c r="C246" s="144"/>
+      <c r="D246" s="143"/>
+      <c r="E246" s="142"/>
+      <c r="F246" s="142"/>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B247" s="145"/>
+      <c r="C247" s="144"/>
+      <c r="D247" s="143"/>
+      <c r="E247" s="142"/>
+      <c r="F247" s="142"/>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B248" s="145"/>
+      <c r="C248" s="144"/>
+      <c r="D248" s="143"/>
+      <c r="E248" s="142"/>
+      <c r="F248" s="142"/>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B249" s="145"/>
+      <c r="C249" s="144"/>
+      <c r="D249" s="143"/>
+      <c r="E249" s="142"/>
+      <c r="F249" s="142"/>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B250" s="145"/>
+      <c r="C250" s="144"/>
+      <c r="D250" s="143"/>
+      <c r="E250" s="142"/>
+      <c r="F250" s="142"/>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B251" s="145"/>
+      <c r="C251" s="144"/>
+      <c r="D251" s="143"/>
+      <c r="E251" s="142"/>
+      <c r="F251" s="142"/>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B252" s="145"/>
+      <c r="C252" s="144"/>
+      <c r="D252" s="143"/>
+      <c r="E252" s="142"/>
+      <c r="F252" s="142"/>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B253" s="145"/>
+      <c r="C253" s="144"/>
+      <c r="D253" s="143"/>
+      <c r="E253" s="142"/>
+      <c r="F253" s="142"/>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B254" s="145"/>
+      <c r="C254" s="144"/>
+      <c r="D254" s="143"/>
+      <c r="E254" s="142"/>
+      <c r="F254" s="142"/>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B255" s="145"/>
+      <c r="C255" s="144"/>
+      <c r="D255" s="143"/>
+      <c r="E255" s="142"/>
+      <c r="F255" s="142"/>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B256" s="145"/>
+      <c r="C256" s="144"/>
+      <c r="D256" s="143"/>
+      <c r="E256" s="142"/>
+      <c r="F256" s="142"/>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B257" s="145"/>
+      <c r="C257" s="144"/>
+      <c r="D257" s="143"/>
+      <c r="E257" s="142"/>
+      <c r="F257" s="142"/>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B258" s="145"/>
+      <c r="C258" s="144"/>
+      <c r="D258" s="143"/>
+      <c r="E258" s="142"/>
+      <c r="F258" s="142"/>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B259" s="145"/>
+      <c r="C259" s="144"/>
+      <c r="D259" s="143"/>
+      <c r="E259" s="142"/>
+      <c r="F259" s="142"/>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B260" s="145"/>
+      <c r="C260" s="144"/>
+      <c r="D260" s="143"/>
+      <c r="E260" s="142"/>
+      <c r="F260" s="142"/>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B261" s="145"/>
+      <c r="C261" s="144"/>
+      <c r="D261" s="143"/>
+      <c r="E261" s="142"/>
+      <c r="F261" s="142"/>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B262" s="145"/>
+      <c r="C262" s="144"/>
+      <c r="D262" s="143"/>
+      <c r="E262" s="142"/>
+      <c r="F262" s="142"/>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B263" s="145"/>
+      <c r="C263" s="144"/>
+      <c r="D263" s="143"/>
+      <c r="E263" s="142"/>
+      <c r="F263" s="142"/>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B264" s="145"/>
+      <c r="C264" s="144"/>
+      <c r="D264" s="143"/>
+      <c r="E264" s="142"/>
+      <c r="F264" s="142"/>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B265" s="145"/>
+      <c r="C265" s="144"/>
+      <c r="D265" s="143"/>
+      <c r="E265" s="142"/>
+      <c r="F265" s="142"/>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B266" s="145"/>
+      <c r="C266" s="144"/>
+      <c r="D266" s="143"/>
+      <c r="E266" s="142"/>
+      <c r="F266" s="142"/>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B267" s="145"/>
+      <c r="C267" s="144"/>
+      <c r="D267" s="143"/>
+      <c r="E267" s="142"/>
+      <c r="F267" s="142"/>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B268" s="145"/>
+      <c r="C268" s="144"/>
+      <c r="D268" s="143"/>
+      <c r="E268" s="142"/>
+      <c r="F268" s="142"/>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B269" s="145"/>
+      <c r="C269" s="144"/>
+      <c r="D269" s="143"/>
+      <c r="E269" s="142"/>
+      <c r="F269" s="142"/>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B270" s="145"/>
+      <c r="C270" s="144"/>
+      <c r="D270" s="143"/>
+      <c r="E270" s="142"/>
+      <c r="F270" s="142"/>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B271" s="145"/>
+      <c r="C271" s="144"/>
+      <c r="D271" s="143"/>
+      <c r="E271" s="142"/>
+      <c r="F271" s="142"/>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B272" s="145"/>
+      <c r="C272" s="144"/>
+      <c r="D272" s="143"/>
+      <c r="E272" s="142"/>
+      <c r="F272" s="142"/>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B273" s="145"/>
+      <c r="C273" s="144"/>
+      <c r="D273" s="143"/>
+      <c r="E273" s="142"/>
+      <c r="F273" s="142"/>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B274" s="145"/>
+      <c r="C274" s="144"/>
+      <c r="D274" s="143"/>
+      <c r="E274" s="142"/>
+      <c r="F274" s="142"/>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B275" s="145"/>
+      <c r="C275" s="144"/>
+      <c r="D275" s="143"/>
+      <c r="E275" s="142"/>
+      <c r="F275" s="142"/>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B276" s="145"/>
+      <c r="C276" s="144"/>
+      <c r="D276" s="143"/>
+      <c r="E276" s="142"/>
+      <c r="F276" s="142"/>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B277" s="145"/>
+      <c r="C277" s="144"/>
+      <c r="D277" s="143"/>
+      <c r="E277" s="142"/>
+      <c r="F277" s="142"/>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B278" s="145"/>
+      <c r="C278" s="144"/>
+      <c r="D278" s="143"/>
+      <c r="E278" s="142"/>
+      <c r="F278" s="142"/>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B279" s="145"/>
+      <c r="C279" s="144"/>
+      <c r="D279" s="143"/>
+      <c r="E279" s="142"/>
+      <c r="F279" s="142"/>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B280" s="145"/>
+      <c r="C280" s="144"/>
+      <c r="D280" s="143"/>
+      <c r="E280" s="142"/>
+      <c r="F280" s="142"/>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B281" s="145"/>
+      <c r="C281" s="144"/>
+      <c r="D281" s="143"/>
+      <c r="E281" s="142"/>
+      <c r="F281" s="142"/>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B282" s="145"/>
+      <c r="C282" s="144"/>
+      <c r="D282" s="143"/>
+      <c r="E282" s="142"/>
+      <c r="F282" s="142"/>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B283" s="145"/>
+      <c r="C283" s="144"/>
+      <c r="D283" s="143"/>
+      <c r="E283" s="142"/>
+      <c r="F283" s="142"/>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B284" s="145"/>
+      <c r="C284" s="144"/>
+      <c r="D284" s="143"/>
+      <c r="E284" s="142"/>
+      <c r="F284" s="142"/>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B285" s="145"/>
+      <c r="C285" s="144"/>
+      <c r="D285" s="143"/>
+      <c r="E285" s="142"/>
+      <c r="F285" s="142"/>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B286" s="145"/>
+      <c r="C286" s="144"/>
+      <c r="D286" s="143"/>
+      <c r="E286" s="142"/>
+      <c r="F286" s="142"/>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B287" s="145"/>
+      <c r="C287" s="144"/>
+      <c r="D287" s="143"/>
+      <c r="E287" s="142"/>
+      <c r="F287" s="142"/>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B288" s="145"/>
+      <c r="C288" s="144"/>
+      <c r="D288" s="143"/>
+      <c r="E288" s="142"/>
+      <c r="F288" s="142"/>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B289" s="145"/>
+      <c r="C289" s="144"/>
+      <c r="D289" s="143"/>
+      <c r="E289" s="142"/>
+      <c r="F289" s="142"/>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B290" s="145"/>
+      <c r="C290" s="144"/>
+      <c r="D290" s="143"/>
+      <c r="E290" s="142"/>
+      <c r="F290" s="142"/>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B291" s="145"/>
+      <c r="C291" s="144"/>
+      <c r="D291" s="143"/>
+      <c r="E291" s="142"/>
+      <c r="F291" s="142"/>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B292" s="145"/>
+      <c r="C292" s="144"/>
+      <c r="D292" s="143"/>
+      <c r="E292" s="142"/>
+      <c r="F292" s="142"/>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B293" s="145"/>
+      <c r="C293" s="144"/>
+      <c r="D293" s="143"/>
+      <c r="E293" s="142"/>
+      <c r="F293" s="142"/>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B294" s="145"/>
+      <c r="C294" s="144"/>
+      <c r="D294" s="143"/>
+      <c r="E294" s="142"/>
+      <c r="F294" s="142"/>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B295" s="145"/>
+      <c r="C295" s="144"/>
+      <c r="D295" s="143"/>
+      <c r="E295" s="142"/>
+      <c r="F295" s="142"/>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B296" s="145"/>
+      <c r="C296" s="144"/>
+      <c r="D296" s="143"/>
+      <c r="E296" s="142"/>
+      <c r="F296" s="142"/>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B297" s="145"/>
+      <c r="C297" s="144"/>
+      <c r="D297" s="143"/>
+      <c r="E297" s="142"/>
+      <c r="F297" s="142"/>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B298" s="145"/>
+      <c r="C298" s="144"/>
+      <c r="D298" s="143"/>
+      <c r="E298" s="142"/>
+      <c r="F298" s="142"/>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B299" s="145"/>
+      <c r="C299" s="144"/>
+      <c r="D299" s="143"/>
+      <c r="E299" s="142"/>
+      <c r="F299" s="142"/>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B300" s="145"/>
+      <c r="C300" s="144"/>
+      <c r="D300" s="143"/>
+      <c r="E300" s="142"/>
+      <c r="F300" s="142"/>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B301" s="145"/>
+      <c r="C301" s="144"/>
+      <c r="D301" s="143"/>
+      <c r="E301" s="142"/>
+      <c r="F301" s="142"/>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B302" s="145"/>
+      <c r="C302" s="144"/>
+      <c r="D302" s="143"/>
+      <c r="E302" s="142"/>
+      <c r="F302" s="142"/>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B303" s="145"/>
+      <c r="C303" s="144"/>
+      <c r="D303" s="143"/>
+      <c r="E303" s="142"/>
+      <c r="F303" s="142"/>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B304" s="145"/>
+      <c r="C304" s="144"/>
+      <c r="D304" s="143"/>
+      <c r="E304" s="142"/>
+      <c r="F304" s="142"/>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B305" s="145"/>
+      <c r="C305" s="144"/>
+      <c r="D305" s="143"/>
+      <c r="E305" s="142"/>
+      <c r="F305" s="142"/>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B306" s="145"/>
+      <c r="C306" s="144"/>
+      <c r="D306" s="143"/>
+      <c r="E306" s="142"/>
+      <c r="F306" s="142"/>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B307" s="145"/>
+      <c r="C307" s="144"/>
+      <c r="D307" s="143"/>
+      <c r="E307" s="142"/>
+      <c r="F307" s="142"/>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B308" s="145"/>
+      <c r="C308" s="144"/>
+      <c r="D308" s="143"/>
+      <c r="E308" s="142"/>
+      <c r="F308" s="142"/>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B309" s="145"/>
+      <c r="C309" s="144"/>
+      <c r="D309" s="143"/>
+      <c r="E309" s="142"/>
+      <c r="F309" s="142"/>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B310" s="145"/>
+      <c r="C310" s="144"/>
+      <c r="D310" s="143"/>
+      <c r="E310" s="142"/>
+      <c r="F310" s="142"/>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B311" s="145"/>
+      <c r="C311" s="144"/>
+      <c r="D311" s="143"/>
+      <c r="E311" s="142"/>
+      <c r="F311" s="142"/>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B312" s="145"/>
+      <c r="C312" s="144"/>
+      <c r="D312" s="143"/>
+      <c r="E312" s="142"/>
+      <c r="F312" s="142"/>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B313" s="145"/>
+      <c r="C313" s="144"/>
+      <c r="D313" s="143"/>
+      <c r="E313" s="142"/>
+      <c r="F313" s="142"/>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B314" s="145"/>
+      <c r="C314" s="144"/>
+      <c r="D314" s="143"/>
+      <c r="E314" s="142"/>
+      <c r="F314" s="142"/>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B315" s="145"/>
+      <c r="C315" s="144"/>
+      <c r="D315" s="143"/>
+      <c r="E315" s="142"/>
+      <c r="F315" s="142"/>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B316" s="145"/>
+      <c r="C316" s="144"/>
+      <c r="D316" s="143"/>
+      <c r="E316" s="142"/>
+      <c r="F316" s="142"/>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B317" s="145"/>
+      <c r="C317" s="144"/>
+      <c r="D317" s="143"/>
+      <c r="E317" s="142"/>
+      <c r="F317" s="142"/>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B318" s="145"/>
+      <c r="C318" s="144"/>
+      <c r="D318" s="143"/>
+      <c r="E318" s="142"/>
+      <c r="F318" s="142"/>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B319" s="145"/>
+      <c r="C319" s="144"/>
+      <c r="D319" s="143"/>
+      <c r="E319" s="142"/>
+      <c r="F319" s="142"/>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B320" s="145"/>
+      <c r="C320" s="144"/>
+      <c r="D320" s="143"/>
+      <c r="E320" s="142"/>
+      <c r="F320" s="142"/>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B321" s="145"/>
+      <c r="C321" s="144"/>
+      <c r="D321" s="143"/>
+      <c r="E321" s="142"/>
+      <c r="F321" s="142"/>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B322" s="145"/>
+      <c r="C322" s="144"/>
+      <c r="D322" s="143"/>
+      <c r="E322" s="142"/>
+      <c r="F322" s="142"/>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B323" s="145"/>
+      <c r="C323" s="144"/>
+      <c r="D323" s="143"/>
+      <c r="E323" s="142"/>
+      <c r="F323" s="142"/>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B324" s="145"/>
+      <c r="C324" s="144"/>
+      <c r="D324" s="143"/>
+      <c r="E324" s="142"/>
+      <c r="F324" s="142"/>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B325" s="145"/>
+      <c r="C325" s="144"/>
+      <c r="D325" s="143"/>
+      <c r="E325" s="142"/>
+      <c r="F325" s="142"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C23"/>
+    <mergeCell ref="C24:C53"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3421,7 +7274,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12728F9F-3991-4AEE-9299-32C75A0B4673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1678B8-FC54-4AC8-9A2F-EECDBE089E47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户问题跟踪表!$D$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户需求跟踪表!$A$2:$N$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户需求跟踪表!$B$2:$O$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="259">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -342,47 +342,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>综合报表-基金报表-持仓列表数据新增字段：</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>持仓成本（成本单价）、股票市值/基金净资产（非该资产单元）、最新价、应收、应付、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>现金占比（现金余额占净资产比例）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、
-持仓中股票、基金、债券市值占净资产比</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>版本3.35解决</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -498,10 +457,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>李艺超、潘俊君</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>蔡杰</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -567,10 +522,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>基金报表中份额为小数点后4位</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>T2</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -587,10 +538,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>基金报表-股票市值占比为占总资产比</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>用户管理</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -600,10 +547,6 @@
   </si>
   <si>
     <t>资产明细报表-累计浮动盈亏更名为浮动盈亏或者累计盈亏</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金报表-系统四舍五入是按照小数点后两位而不是加了;更改为后小数点后两位</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1444,15 +1387,72 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>净资产功能未完全实现</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>综合报表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>基金报表中添加涨跌幅，最新价，成本价</t>
+    <t>交易日历存在问题，交易日历5月15日后回复正常</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>净资产功能未完全实现。更改逻辑为实时取总资产，立马计算净资产=总资产（实时）-累计应付+累计应收</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主分支已改好，但未上线到东方阿尔法环境</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>综合报表-基金报表-持仓列表数据新增字段：</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>持仓成本（成本单价）、最新价、应收、应付、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现金占比（现金余额占净资产比例）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、
+持仓中股票、基金、债券市值占净资产比</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中份额为小数点后4位，需更改为小数点后两位数</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中添加日涨跌幅，最新价，成本价。当日涨跌幅根据行情实时更新</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1624,7 +1624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1673,20 +1673,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2006,6 +1994,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2016,7 +2067,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2203,21 +2254,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2245,15 +2281,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2305,9 +2335,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2356,17 +2383,8 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2473,78 +2491,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2569,11 +2521,98 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2581,20 +2620,14 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3054,770 +3087,745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:K23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="185" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="71.5" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="152" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+    <col min="6" max="6" width="71.5" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="188" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="188"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="181" t="s">
+      <c r="I1" s="184"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="162" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="163">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43489</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="5">
+        <v>43582</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="71"/>
+    </row>
+    <row r="4" spans="1:15" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="164">
+        <v>2</v>
+      </c>
+      <c r="B4" s="103">
+        <v>43489</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="96"/>
+      <c r="G4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="16" t="s">
+      <c r="L4" s="5">
+        <v>43591</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="71"/>
+    </row>
+    <row r="5" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="164">
+        <v>3</v>
+      </c>
+      <c r="B5" s="103">
+        <v>43489</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="96"/>
+      <c r="G5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="5">
+        <v>43591</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="46"/>
+      <c r="O5" s="71"/>
+    </row>
+    <row r="6" spans="1:15" ht="55.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="163">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43489</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="71"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="163">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>43489</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="71"/>
+    </row>
+    <row r="8" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="163">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>43489</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="71"/>
+    </row>
+    <row r="9" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="163">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43489</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="71"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="164">
         <v>8</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="B10" s="104">
+        <v>43489</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="17">
+        <v>3.35</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="5">
+        <v>43582</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="71"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="164">
         <v>9</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
-        <v>43489</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B11" s="100">
+        <v>43546</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="102"/>
+      <c r="G11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="5">
+        <v>43591</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="71"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="163">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B12" s="43">
+        <v>43556</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="71"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="163">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" s="5">
-        <v>43582</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="77"/>
-    </row>
-    <row r="4" spans="1:14" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="111">
-        <v>43489</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2" t="s">
+      <c r="B13" s="149">
+        <v>43565</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="5">
-        <v>43591</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="77"/>
-    </row>
-    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="111">
-        <v>43489</v>
-      </c>
-      <c r="B5" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="5">
-        <v>43591</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="77"/>
-    </row>
-    <row r="6" spans="1:14" ht="55.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>43489</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="77"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>43489</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="77"/>
-    </row>
-    <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>43489</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="77"/>
-    </row>
-    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>43489</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="77"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="112">
-        <v>43489</v>
-      </c>
-      <c r="B10" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="17">
-        <v>3.35</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="5">
-        <v>43582</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="77"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="108">
-        <v>43546</v>
-      </c>
-      <c r="B11" s="109" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="5">
-        <v>43591</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="77"/>
-    </row>
-    <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="43">
-        <v>43556</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="77"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="182">
-        <v>43565</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="70" t="s">
+        <v>109</v>
+      </c>
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
-      <c r="N13" s="77"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="183">
+      <c r="N13" s="44"/>
+      <c r="O13" s="71"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="165">
+        <v>12</v>
+      </c>
+      <c r="B14" s="150">
         <v>43565</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="C14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="D14" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="E14" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="156" t="s">
+      <c r="F14" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="44"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="44"/>
-      <c r="I14" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="70" t="s">
+        <v>109</v>
+      </c>
       <c r="L14" s="44"/>
       <c r="M14" s="44"/>
-      <c r="N14" s="77"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="184">
+      <c r="N14" s="44"/>
+      <c r="O14" s="71"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="164">
+        <v>13</v>
+      </c>
+      <c r="B15" s="151">
         <v>43566</v>
       </c>
-      <c r="B15" s="178" t="s">
+      <c r="C15" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="179" t="s">
+      <c r="D15" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="178" t="s">
+      <c r="E15" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="180"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="51"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="K15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="70" t="s">
+        <v>111</v>
+      </c>
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
-      <c r="N15" s="77"/>
-    </row>
-    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="176">
-        <v>43556</v>
-      </c>
-      <c r="B16" s="177" t="s">
+      <c r="N15" s="51"/>
+      <c r="O15" s="71"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="163">
+        <v>15</v>
+      </c>
+      <c r="B16" s="55">
+        <v>43489</v>
+      </c>
+      <c r="C16" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="177" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="177" t="s">
+      <c r="D16" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="177" t="s">
-        <v>256</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" s="96">
-        <v>43591</v>
-      </c>
-      <c r="L16" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="64"/>
-      <c r="N16" s="77"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="55">
-        <v>43489</v>
-      </c>
-      <c r="B17" s="56" t="s">
+      <c r="E16" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="61">
+        <v>43583</v>
+      </c>
+      <c r="M16" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="59"/>
+      <c r="O16" s="71"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="163">
+        <v>16</v>
+      </c>
+      <c r="B17" s="55">
+        <v>43546</v>
+      </c>
+      <c r="C17" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>87</v>
-      </c>
       <c r="D17" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="59"/>
+      <c r="G17" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="59"/>
+      <c r="M17" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17" s="61">
-        <v>43583</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="59"/>
-      <c r="N17" s="77"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="55">
-        <v>43546</v>
-      </c>
-      <c r="B18" s="56" t="s">
+      <c r="N17" s="59"/>
+      <c r="O17" s="71"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="163">
+        <v>17</v>
+      </c>
+      <c r="B18" s="55">
+        <v>43518</v>
+      </c>
+      <c r="C18" s="56" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>87</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="57" t="s">
+      <c r="E18" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="59"/>
+      <c r="G18" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="59"/>
-      <c r="L18" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="77"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="55">
-        <v>43518</v>
-      </c>
-      <c r="B19" s="56" t="s">
+      <c r="H18" s="58"/>
+      <c r="I18" s="60">
+        <v>3.36</v>
+      </c>
+      <c r="J18" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="59"/>
+      <c r="M18" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="59"/>
+      <c r="O18" s="71"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="163">
+        <v>20</v>
+      </c>
+      <c r="B19" s="107">
+        <v>43599</v>
+      </c>
+      <c r="C19" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="60">
-        <v>3.36</v>
-      </c>
-      <c r="I19" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="K19" s="59"/>
-      <c r="L19" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="59"/>
-      <c r="N19" s="77"/>
-    </row>
-    <row r="20" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="113">
-        <v>43598</v>
-      </c>
-      <c r="B20" s="114" t="s">
+      <c r="D19" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+    </row>
+    <row r="20" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="165">
+        <v>21</v>
+      </c>
+      <c r="B20" s="175">
+        <v>43600</v>
+      </c>
+      <c r="C20" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="114" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="113">
-        <v>43598</v>
-      </c>
-      <c r="B21" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="114" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="118">
-        <v>43599</v>
-      </c>
-      <c r="B22" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="119" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="119" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="191">
-        <v>43600</v>
-      </c>
-      <c r="B23" s="192" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="192" t="s">
-        <v>257</v>
-      </c>
-      <c r="D23" s="192" t="s">
+      <c r="D20" s="176" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="176" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="193"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="193"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F7 F16:F19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G7 G16:G18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G11 G16:G19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H11 H16:H18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"计划修改,无需修改,待明确,需求池,无法实现"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L11 L16:L19" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M11 M16:M18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"待规划,开发中,测试中,已实现,已交付"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M7" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N7" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E14" location="备注!A61" display="详细图片" xr:uid="{179AE8FF-E505-4562-A7E0-CE22C5244E79}"/>
-    <hyperlink ref="E13" location="备注!A61" display="详细图片" xr:uid="{679C305C-0534-4E3D-B636-E5027A2CD731}"/>
+    <hyperlink ref="F14" location="备注!A61" display="详细图片" xr:uid="{179AE8FF-E505-4562-A7E0-CE22C5244E79}"/>
+    <hyperlink ref="F13" location="备注!A61" display="详细图片" xr:uid="{679C305C-0534-4E3D-B636-E5027A2CD731}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3826,11 +3834,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22:M22"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3843,7 +3851,7 @@
     <col min="7" max="7" width="40" style="20" customWidth="1"/>
     <col min="8" max="8" width="15" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="20" customWidth="1"/>
-    <col min="10" max="10" width="8" style="72" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5" style="1" bestFit="1" customWidth="1"/>
@@ -3858,7 +3866,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>33</v>
@@ -3878,14 +3886,14 @@
       <c r="I1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="67" t="s">
-        <v>99</v>
+      <c r="J1" s="62" t="s">
+        <v>98</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M1" s="22" t="s">
         <v>29</v>
@@ -3915,12 +3923,12 @@
       <c r="I2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="68"/>
+      <c r="J2" s="63"/>
       <c r="K2" s="26" t="s">
         <v>44</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M2" s="24"/>
     </row>
@@ -3950,48 +3958,48 @@
       <c r="I3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="68"/>
+      <c r="J3" s="63"/>
       <c r="K3" s="26" t="s">
         <v>44</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="89">
+      <c r="A4" s="82">
         <v>3</v>
       </c>
-      <c r="B4" s="90">
+      <c r="B4" s="83">
         <v>43543</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="95" t="s">
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>128</v>
+      <c r="L4" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="84" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4016,12 +4024,12 @@
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="70"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="26" t="s">
         <v>71</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M5" s="27"/>
     </row>
@@ -4049,17 +4057,17 @@
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="69" t="s">
-        <v>98</v>
+      <c r="J6" s="64" t="s">
+        <v>97</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4083,17 +4091,17 @@
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I7" s="42"/>
-      <c r="J7" s="71" t="s">
-        <v>100</v>
+      <c r="J7" s="66" t="s">
+        <v>99</v>
       </c>
       <c r="K7" s="39" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M7" s="40"/>
     </row>
@@ -4115,14 +4123,14 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="69" t="s">
-        <v>100</v>
+      <c r="J8" s="64" t="s">
+        <v>99</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M8" s="31"/>
     </row>
@@ -4133,7 +4141,7 @@
       <c r="B9" s="25">
         <v>43558</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="73" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -4144,21 +4152,21 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="81">
+      <c r="H9" s="74">
         <v>43580</v>
       </c>
       <c r="I9" s="29"/>
-      <c r="J9" s="68" t="s">
-        <v>98</v>
+      <c r="J9" s="63" t="s">
+        <v>97</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" s="82" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="M9" s="75" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4181,12 +4189,12 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="I10" s="54"/>
-      <c r="J10" s="69" t="s">
-        <v>101</v>
+      <c r="J10" s="64" t="s">
+        <v>100</v>
       </c>
       <c r="K10" s="52"/>
       <c r="L10" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M10" s="52"/>
     </row>
@@ -4210,317 +4218,348 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="69" t="s">
-        <v>98</v>
+      <c r="J11" s="64" t="s">
+        <v>97</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="97">
+      <c r="A12" s="89">
         <v>11</v>
       </c>
-      <c r="B12" s="98">
+      <c r="B12" s="90">
         <v>43581</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95">
+        <v>43594</v>
+      </c>
+      <c r="I12" s="94"/>
+      <c r="J12" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="89"/>
+      <c r="L12" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="89"/>
+    </row>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="89">
+        <v>12</v>
+      </c>
+      <c r="B13" s="90">
+        <v>43581</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="95">
+        <v>43594</v>
+      </c>
+      <c r="I13" s="94"/>
+      <c r="J13" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="89"/>
+      <c r="L13" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="89"/>
+    </row>
+    <row r="14" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="76">
+        <v>13</v>
+      </c>
+      <c r="B14" s="77">
+        <v>43581</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103">
-        <v>43594</v>
-      </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="97"/>
-      <c r="L12" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="M12" s="97"/>
-    </row>
-    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="97">
-        <v>12</v>
-      </c>
-      <c r="B13" s="98">
-        <v>43581</v>
-      </c>
-      <c r="C13" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103">
-        <v>43594</v>
-      </c>
-      <c r="I13" s="102"/>
-      <c r="J13" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="97"/>
-      <c r="L13" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="97"/>
-    </row>
-    <row r="14" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="83">
-        <v>13</v>
-      </c>
-      <c r="B14" s="84">
-        <v>43581</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="87" t="s">
+      <c r="F14" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="76"/>
+      <c r="L14" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="86" t="s">
+      <c r="M14" s="76"/>
+    </row>
+    <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="178">
+        <v>14</v>
+      </c>
+      <c r="B15" s="179">
+        <v>43595</v>
+      </c>
+      <c r="C15" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="83"/>
-    </row>
-    <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="158">
-        <v>14</v>
-      </c>
-      <c r="B15" s="159">
-        <v>43595</v>
-      </c>
-      <c r="C15" s="160" t="s">
+      <c r="D15" s="181" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="182" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="180" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="161" t="s">
+      <c r="K15" s="178"/>
+      <c r="L15" s="181" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="160" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="158"/>
-      <c r="L15" s="161" t="s">
+      <c r="M15" s="180" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="111">
+        <v>15</v>
+      </c>
+      <c r="B16" s="112">
+        <v>43598</v>
+      </c>
+      <c r="C16" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="114"/>
+      <c r="E16" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="117">
+        <v>43599</v>
+      </c>
+      <c r="I16" s="116"/>
+      <c r="J16" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="114"/>
+      <c r="L16" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" s="114"/>
+    </row>
+    <row r="17" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="155">
+        <v>16</v>
+      </c>
+      <c r="B17" s="156">
+        <v>43600</v>
+      </c>
+      <c r="C17" s="157" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="158" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="159" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="159" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+    </row>
+    <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="119">
+        <v>17</v>
+      </c>
+      <c r="B18" s="120">
+        <v>43600</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="123" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+    </row>
+    <row r="19" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="119">
+        <v>18</v>
+      </c>
+      <c r="B19" s="144">
+        <v>43598</v>
+      </c>
+      <c r="C19" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="M15" s="158"/>
-    </row>
-    <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="122">
-        <v>15</v>
-      </c>
-      <c r="B16" s="123">
+      <c r="E19" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+    </row>
+    <row r="20" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="166">
+        <v>19</v>
+      </c>
+      <c r="B20" s="167">
         <v>43598</v>
       </c>
-      <c r="C16" s="124" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126" t="s">
+      <c r="C20" s="168" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="169" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="128">
-        <v>43599</v>
-      </c>
-      <c r="I16" s="127"/>
-      <c r="J16" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="K16" s="125"/>
-      <c r="L16" s="129" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" s="125"/>
-    </row>
-    <row r="17" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="168">
-        <v>16</v>
-      </c>
-      <c r="B17" s="173">
-        <v>43600</v>
-      </c>
-      <c r="C17" s="166" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="170" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="169" t="s">
-        <v>253</v>
-      </c>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="168"/>
-      <c r="M17" s="168"/>
-    </row>
-    <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="130">
-        <v>17</v>
-      </c>
-      <c r="B18" s="131">
-        <v>43600</v>
-      </c>
-      <c r="C18" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="133" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="134" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="134" t="s">
-        <v>252</v>
-      </c>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-    </row>
-    <row r="19" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="130">
-        <v>18</v>
-      </c>
-      <c r="B19" s="164">
-        <v>43598</v>
-      </c>
-      <c r="C19" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="117" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
-    </row>
-    <row r="20" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="168">
-        <v>19</v>
-      </c>
-      <c r="B20" s="165">
-        <v>43598</v>
-      </c>
-      <c r="C20" s="166" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="170" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="169" t="s">
-        <v>254</v>
+      <c r="E20" s="170" t="s">
+        <v>249</v>
       </c>
       <c r="F20" s="171"/>
       <c r="G20" s="171"/>
       <c r="H20" s="171"/>
       <c r="I20" s="171"/>
       <c r="J20" s="172"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="168"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
     </row>
     <row r="21" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="168">
+      <c r="A21" s="166">
         <v>20</v>
       </c>
-      <c r="B21" s="165">
+      <c r="B21" s="167">
         <v>43598</v>
       </c>
-      <c r="C21" s="166" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="170" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="169" t="s">
-        <v>255</v>
+      <c r="C21" s="168" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="169" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="170" t="s">
+        <v>250</v>
       </c>
       <c r="F21" s="171"/>
       <c r="G21" s="171"/>
       <c r="H21" s="171"/>
       <c r="I21" s="171"/>
       <c r="J21" s="172"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
     </row>
     <row r="22" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="167">
+      <c r="A22" s="166">
         <v>21</v>
       </c>
-      <c r="B22" s="165">
+      <c r="B22" s="167">
         <v>43598</v>
       </c>
-      <c r="C22" s="166" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="155" t="s">
+      <c r="C22" s="168" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="170" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="154" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="157"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
-      <c r="M22" s="167"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
+    </row>
+    <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="166">
+        <v>22</v>
+      </c>
+      <c r="B23" s="167">
+        <v>43598</v>
+      </c>
+      <c r="C23" s="168" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="170" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -4542,2710 +4581,2710 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.125" style="137" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="141" customWidth="1"/>
-    <col min="3" max="3" width="9" style="140"/>
-    <col min="4" max="4" width="73.875" style="139" customWidth="1"/>
-    <col min="5" max="5" width="9" style="138" customWidth="1"/>
-    <col min="6" max="6" width="78.625" style="138" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="137"/>
+    <col min="1" max="1" width="1.125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="130" customWidth="1"/>
+    <col min="3" max="3" width="9" style="129"/>
+    <col min="4" max="4" width="73.875" style="128" customWidth="1"/>
+    <col min="5" max="5" width="9" style="127" customWidth="1"/>
+    <col min="6" max="6" width="78.625" style="127" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="126"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="144" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="145"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-    </row>
-    <row r="2" spans="2:6" s="152" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="148" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="153" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="153" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="148" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="148" t="s">
+    <row r="1" spans="2:6" s="133" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="134"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+    </row>
+    <row r="2" spans="2:6" s="141" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="137" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="142" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="137" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="137" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="148">
+      <c r="B3" s="137">
         <v>1</v>
       </c>
-      <c r="C3" s="190" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="151" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" s="146" t="s">
+      <c r="C3" s="188" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="135" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="137">
+        <v>2</v>
+      </c>
+      <c r="C4" s="188"/>
+      <c r="D4" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="135" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="137">
+        <v>3</v>
+      </c>
+      <c r="C5" s="188"/>
+      <c r="D5" s="139" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="135" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="137">
+        <v>4</v>
+      </c>
+      <c r="C6" s="188"/>
+      <c r="D6" s="139" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="135" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="137">
+        <v>5</v>
+      </c>
+      <c r="C7" s="188"/>
+      <c r="D7" s="138" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="135" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="137">
+        <v>6</v>
+      </c>
+      <c r="C8" s="188"/>
+      <c r="D8" s="139" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="135" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B9" s="137">
+        <v>7</v>
+      </c>
+      <c r="C9" s="188"/>
+      <c r="D9" s="138" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="135" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B10" s="137">
+        <v>8</v>
+      </c>
+      <c r="C10" s="188"/>
+      <c r="D10" s="138" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="135" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="137">
+        <v>9</v>
+      </c>
+      <c r="C11" s="188"/>
+      <c r="D11" s="138" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="135" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B12" s="137">
+        <v>10</v>
+      </c>
+      <c r="C12" s="188"/>
+      <c r="D12" s="138" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="135" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="27.75" x14ac:dyDescent="0.15">
+      <c r="B13" s="137">
+        <v>11</v>
+      </c>
+      <c r="C13" s="188"/>
+      <c r="D13" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="135" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="137">
+        <v>12</v>
+      </c>
+      <c r="C14" s="188"/>
+      <c r="D14" s="138" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="135" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="137">
+        <v>13</v>
+      </c>
+      <c r="C15" s="188"/>
+      <c r="D15" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="135" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="137">
+        <v>14</v>
+      </c>
+      <c r="C16" s="188"/>
+      <c r="D16" s="138" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="135" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="137">
+        <v>15</v>
+      </c>
+      <c r="C17" s="188"/>
+      <c r="D17" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="135" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B18" s="137">
+        <v>16</v>
+      </c>
+      <c r="C18" s="188"/>
+      <c r="D18" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="135" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="137">
+        <v>17</v>
+      </c>
+      <c r="C19" s="188"/>
+      <c r="D19" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="135" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="137">
+        <v>18</v>
+      </c>
+      <c r="C20" s="188"/>
+      <c r="D20" s="138" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="135" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="137">
+        <v>19</v>
+      </c>
+      <c r="C21" s="188"/>
+      <c r="D21" s="139" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="135" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B22" s="137">
+        <v>20</v>
+      </c>
+      <c r="C22" s="188"/>
+      <c r="D22" s="138" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="135" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B23" s="137">
+        <v>21</v>
+      </c>
+      <c r="C23" s="188"/>
+      <c r="D23" s="138" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="135" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="137">
+        <v>22</v>
+      </c>
+      <c r="C24" s="188" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="136" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="135" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="137">
+        <v>23</v>
+      </c>
+      <c r="C25" s="188"/>
+      <c r="D25" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="135" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B26" s="137">
+        <v>24</v>
+      </c>
+      <c r="C26" s="188"/>
+      <c r="D26" s="136" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="135" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="137">
+        <v>25</v>
+      </c>
+      <c r="C27" s="188"/>
+      <c r="D27" s="136" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="135" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="137">
+        <v>26</v>
+      </c>
+      <c r="C28" s="188"/>
+      <c r="D28" s="136" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="135" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="137">
+        <v>27</v>
+      </c>
+      <c r="C29" s="188"/>
+      <c r="D29" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="135" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="137">
+        <v>28</v>
+      </c>
+      <c r="C30" s="188"/>
+      <c r="D30" s="136" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="135" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="137">
+        <v>29</v>
+      </c>
+      <c r="C31" s="188"/>
+      <c r="D31" s="136" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B32" s="137">
+        <v>30</v>
+      </c>
+      <c r="C32" s="188"/>
+      <c r="D32" s="136" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="137">
+        <v>31</v>
+      </c>
+      <c r="C33" s="188"/>
+      <c r="D33" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="135" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="137">
+        <v>32</v>
+      </c>
+      <c r="C34" s="188"/>
+      <c r="D34" s="136" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B35" s="137">
+        <v>33</v>
+      </c>
+      <c r="C35" s="188"/>
+      <c r="D35" s="136" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B36" s="137">
+        <v>34</v>
+      </c>
+      <c r="C36" s="188"/>
+      <c r="D36" s="136" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="137">
+        <v>35</v>
+      </c>
+      <c r="C37" s="188"/>
+      <c r="D37" s="136" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="135" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="137">
+        <v>36</v>
+      </c>
+      <c r="C38" s="188"/>
+      <c r="D38" s="136" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="135" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="137">
+        <v>37</v>
+      </c>
+      <c r="C39" s="188"/>
+      <c r="D39" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="137">
+        <v>38</v>
+      </c>
+      <c r="C40" s="188"/>
+      <c r="D40" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B41" s="137">
+        <v>39</v>
+      </c>
+      <c r="C41" s="188"/>
+      <c r="D41" s="136" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B42" s="137">
+        <v>40</v>
+      </c>
+      <c r="C42" s="188"/>
+      <c r="D42" s="136" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="137">
+        <v>41</v>
+      </c>
+      <c r="C43" s="188"/>
+      <c r="D43" s="136" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B44" s="137">
+        <v>42</v>
+      </c>
+      <c r="C44" s="188"/>
+      <c r="D44" s="136" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="137">
+        <v>43</v>
+      </c>
+      <c r="C45" s="188"/>
+      <c r="D45" s="136" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B46" s="137">
+        <v>44</v>
+      </c>
+      <c r="C46" s="188"/>
+      <c r="D46" s="136" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B47" s="137">
+        <v>45</v>
+      </c>
+      <c r="C47" s="188"/>
+      <c r="D47" s="136" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B48" s="137">
+        <v>46</v>
+      </c>
+      <c r="C48" s="188"/>
+      <c r="D48" s="136" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B49" s="137">
+        <v>47</v>
+      </c>
+      <c r="C49" s="188"/>
+      <c r="D49" s="136" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="135" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="137">
+        <v>48</v>
+      </c>
+      <c r="C50" s="188"/>
+      <c r="D50" s="136" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="137">
+        <v>49</v>
+      </c>
+      <c r="C51" s="188"/>
+      <c r="D51" s="136" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="146" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="148">
-        <v>2</v>
-      </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="149" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="146" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="148">
-        <v>3</v>
-      </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="150" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="146" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="148">
-        <v>4</v>
-      </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="150" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="146" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="148">
-        <v>5</v>
-      </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="149" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="146" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="148">
-        <v>6</v>
-      </c>
-      <c r="C8" s="190"/>
-      <c r="D8" s="150" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="146" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B9" s="148">
-        <v>7</v>
-      </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="149" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="146" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B10" s="148">
-        <v>8</v>
-      </c>
-      <c r="C10" s="190"/>
-      <c r="D10" s="149" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="146" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="148">
-        <v>9</v>
-      </c>
-      <c r="C11" s="190"/>
-      <c r="D11" s="149" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="146" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B12" s="148">
-        <v>10</v>
-      </c>
-      <c r="C12" s="190"/>
-      <c r="D12" s="149" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="146" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="148">
-        <v>11</v>
-      </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="149" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="146" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="148">
-        <v>12</v>
-      </c>
-      <c r="C14" s="190"/>
-      <c r="D14" s="149" t="s">
-        <v>226</v>
-      </c>
-      <c r="E14" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="146" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="148">
-        <v>13</v>
-      </c>
-      <c r="C15" s="190"/>
-      <c r="D15" s="149" t="s">
-        <v>224</v>
-      </c>
-      <c r="E15" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="146" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="148">
-        <v>14</v>
-      </c>
-      <c r="C16" s="190"/>
-      <c r="D16" s="149" t="s">
-        <v>223</v>
-      </c>
-      <c r="E16" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="146" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B17" s="148">
-        <v>15</v>
-      </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="149" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="146" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B18" s="148">
-        <v>16</v>
-      </c>
-      <c r="C18" s="190"/>
-      <c r="D18" s="149" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F18" s="146" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="148">
-        <v>17</v>
-      </c>
-      <c r="C19" s="190"/>
-      <c r="D19" s="149" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="146" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="148">
-        <v>18</v>
-      </c>
-      <c r="C20" s="190"/>
-      <c r="D20" s="149" t="s">
-        <v>218</v>
-      </c>
-      <c r="E20" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="146" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="148">
-        <v>19</v>
-      </c>
-      <c r="C21" s="190"/>
-      <c r="D21" s="150" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="146" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B22" s="148">
-        <v>20</v>
-      </c>
-      <c r="C22" s="190"/>
-      <c r="D22" s="149" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="146" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B23" s="148">
-        <v>21</v>
-      </c>
-      <c r="C23" s="190"/>
-      <c r="D23" s="149" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="146" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="148">
-        <v>22</v>
-      </c>
-      <c r="C24" s="190" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="147" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="146" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="148">
-        <v>23</v>
-      </c>
-      <c r="C25" s="190"/>
-      <c r="D25" s="147" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="146" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B26" s="148">
-        <v>24</v>
-      </c>
-      <c r="C26" s="190"/>
-      <c r="D26" s="147" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="146" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="148">
-        <v>25</v>
-      </c>
-      <c r="C27" s="190"/>
-      <c r="D27" s="147" t="s">
-        <v>204</v>
-      </c>
-      <c r="E27" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="146" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="148">
-        <v>26</v>
-      </c>
-      <c r="C28" s="190"/>
-      <c r="D28" s="147" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" s="146" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="148">
-        <v>27</v>
-      </c>
-      <c r="C29" s="190"/>
-      <c r="D29" s="147" t="s">
-        <v>200</v>
-      </c>
-      <c r="E29" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" s="146" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="148">
-        <v>28</v>
-      </c>
-      <c r="C30" s="190"/>
-      <c r="D30" s="147" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" s="146" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="148">
-        <v>29</v>
-      </c>
-      <c r="C31" s="190"/>
-      <c r="D31" s="147" t="s">
-        <v>195</v>
-      </c>
-      <c r="E31" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="146" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B32" s="148">
-        <v>30</v>
-      </c>
-      <c r="C32" s="190"/>
-      <c r="D32" s="147" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="146" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="148">
-        <v>31</v>
-      </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="147" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" s="146" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="148">
-        <v>32</v>
-      </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="147" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="146" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B35" s="148">
-        <v>33</v>
-      </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="147" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="146" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B36" s="148">
-        <v>34</v>
-      </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="146" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="148">
-        <v>35</v>
-      </c>
-      <c r="C37" s="190"/>
-      <c r="D37" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="146" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="148">
-        <v>36</v>
-      </c>
-      <c r="C38" s="190"/>
-      <c r="D38" s="147" t="s">
-        <v>183</v>
-      </c>
-      <c r="E38" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="146" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="148">
-        <v>37</v>
-      </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="147" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="146" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="148">
-        <v>38</v>
-      </c>
-      <c r="C40" s="190"/>
-      <c r="D40" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="146" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B41" s="148">
-        <v>39</v>
-      </c>
-      <c r="C41" s="190"/>
-      <c r="D41" s="147" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="146" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B42" s="148">
-        <v>40</v>
-      </c>
-      <c r="C42" s="190"/>
-      <c r="D42" s="147" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F42" s="146" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="148">
-        <v>41</v>
-      </c>
-      <c r="C43" s="190"/>
-      <c r="D43" s="147" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="146" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B44" s="148">
-        <v>42</v>
-      </c>
-      <c r="C44" s="190"/>
-      <c r="D44" s="147" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="146" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="148">
-        <v>43</v>
-      </c>
-      <c r="C45" s="190"/>
-      <c r="D45" s="147" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="146" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B46" s="148">
-        <v>44</v>
-      </c>
-      <c r="C46" s="190"/>
-      <c r="D46" s="147" t="s">
-        <v>167</v>
-      </c>
-      <c r="E46" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F46" s="146" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B47" s="148">
-        <v>45</v>
-      </c>
-      <c r="C47" s="190"/>
-      <c r="D47" s="147" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F47" s="146" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B48" s="148">
-        <v>46</v>
-      </c>
-      <c r="C48" s="190"/>
-      <c r="D48" s="147" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="146" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="148">
-        <v>47</v>
-      </c>
-      <c r="C49" s="190"/>
-      <c r="D49" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F49" s="146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="148">
-        <v>48</v>
-      </c>
-      <c r="C50" s="190"/>
-      <c r="D50" s="147" t="s">
-        <v>159</v>
-      </c>
-      <c r="E50" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50" s="146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="148">
-        <v>49</v>
-      </c>
-      <c r="C51" s="190"/>
-      <c r="D51" s="147" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" s="146" t="s">
-        <v>156</v>
+      <c r="E51" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" s="135" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="148">
+      <c r="B52" s="137">
         <v>50</v>
       </c>
-      <c r="C52" s="190"/>
-      <c r="D52" s="147" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F52" s="146" t="s">
-        <v>154</v>
+      <c r="C52" s="188"/>
+      <c r="D52" s="136" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="135" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B53" s="148">
+      <c r="B53" s="137">
         <v>51</v>
       </c>
-      <c r="C53" s="190"/>
-      <c r="D53" s="147" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="F53" s="146" t="s">
-        <v>151</v>
+      <c r="C53" s="188"/>
+      <c r="D53" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="135" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="145"/>
-      <c r="C54" s="144"/>
-      <c r="D54" s="143"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="142"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="145"/>
-      <c r="C55" s="144"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="142"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="145"/>
-      <c r="C56" s="144"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B57" s="145"/>
-      <c r="C57" s="144"/>
-      <c r="D57" s="143"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="142"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="145"/>
-      <c r="C58" s="144"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="142"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" s="145"/>
-      <c r="C59" s="144"/>
-      <c r="D59" s="143"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="142"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="145"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="143"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="142"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="131"/>
+      <c r="F60" s="131"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="145"/>
-      <c r="C61" s="144"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="142"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="131"/>
+      <c r="F61" s="131"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="145"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="143"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="142"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="131"/>
+      <c r="F62" s="131"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="145"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="143"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="142"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="133"/>
+      <c r="D63" s="132"/>
+      <c r="E63" s="131"/>
+      <c r="F63" s="131"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="145"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="143"/>
-      <c r="E64" s="142"/>
-      <c r="F64" s="142"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="131"/>
+      <c r="F64" s="131"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="145"/>
-      <c r="C65" s="144"/>
-      <c r="D65" s="143"/>
-      <c r="E65" s="142"/>
-      <c r="F65" s="142"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="132"/>
+      <c r="E65" s="131"/>
+      <c r="F65" s="131"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B66" s="145"/>
-      <c r="C66" s="144"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="142"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="132"/>
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="145"/>
-      <c r="C67" s="144"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="142"/>
+      <c r="B67" s="134"/>
+      <c r="C67" s="133"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="131"/>
+      <c r="F67" s="131"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B68" s="145"/>
-      <c r="C68" s="144"/>
-      <c r="D68" s="143"/>
-      <c r="E68" s="142"/>
-      <c r="F68" s="142"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="133"/>
+      <c r="D68" s="132"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="145"/>
-      <c r="C69" s="144"/>
-      <c r="D69" s="143"/>
-      <c r="E69" s="142"/>
-      <c r="F69" s="142"/>
+      <c r="B69" s="134"/>
+      <c r="C69" s="133"/>
+      <c r="D69" s="132"/>
+      <c r="E69" s="131"/>
+      <c r="F69" s="131"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70" s="145"/>
-      <c r="C70" s="144"/>
-      <c r="D70" s="143"/>
-      <c r="E70" s="142"/>
-      <c r="F70" s="142"/>
+      <c r="B70" s="134"/>
+      <c r="C70" s="133"/>
+      <c r="D70" s="132"/>
+      <c r="E70" s="131"/>
+      <c r="F70" s="131"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="145"/>
-      <c r="C71" s="144"/>
-      <c r="D71" s="143"/>
-      <c r="E71" s="142"/>
-      <c r="F71" s="142"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="133"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="131"/>
+      <c r="F71" s="131"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B72" s="145"/>
-      <c r="C72" s="144"/>
-      <c r="D72" s="143"/>
-      <c r="E72" s="142"/>
-      <c r="F72" s="142"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="133"/>
+      <c r="D72" s="132"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="131"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="145"/>
-      <c r="C73" s="144"/>
-      <c r="D73" s="143"/>
-      <c r="E73" s="142"/>
-      <c r="F73" s="142"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="133"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="131"/>
+      <c r="F73" s="131"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B74" s="145"/>
-      <c r="C74" s="144"/>
-      <c r="D74" s="143"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="142"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="133"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="131"/>
+      <c r="F74" s="131"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B75" s="145"/>
-      <c r="C75" s="144"/>
-      <c r="D75" s="143"/>
-      <c r="E75" s="142"/>
-      <c r="F75" s="142"/>
+      <c r="B75" s="134"/>
+      <c r="C75" s="133"/>
+      <c r="D75" s="132"/>
+      <c r="E75" s="131"/>
+      <c r="F75" s="131"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B76" s="145"/>
-      <c r="C76" s="144"/>
-      <c r="D76" s="143"/>
-      <c r="E76" s="142"/>
-      <c r="F76" s="142"/>
+      <c r="B76" s="134"/>
+      <c r="C76" s="133"/>
+      <c r="D76" s="132"/>
+      <c r="E76" s="131"/>
+      <c r="F76" s="131"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B77" s="145"/>
-      <c r="C77" s="144"/>
-      <c r="D77" s="143"/>
-      <c r="E77" s="142"/>
-      <c r="F77" s="142"/>
+      <c r="B77" s="134"/>
+      <c r="C77" s="133"/>
+      <c r="D77" s="132"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="131"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B78" s="145"/>
-      <c r="C78" s="144"/>
-      <c r="D78" s="143"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="142"/>
+      <c r="B78" s="134"/>
+      <c r="C78" s="133"/>
+      <c r="D78" s="132"/>
+      <c r="E78" s="131"/>
+      <c r="F78" s="131"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B79" s="145"/>
-      <c r="C79" s="144"/>
-      <c r="D79" s="143"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="142"/>
+      <c r="B79" s="134"/>
+      <c r="C79" s="133"/>
+      <c r="D79" s="132"/>
+      <c r="E79" s="131"/>
+      <c r="F79" s="131"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B80" s="145"/>
-      <c r="C80" s="144"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="142"/>
-      <c r="F80" s="142"/>
+      <c r="B80" s="134"/>
+      <c r="C80" s="133"/>
+      <c r="D80" s="132"/>
+      <c r="E80" s="131"/>
+      <c r="F80" s="131"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B81" s="145"/>
-      <c r="C81" s="144"/>
-      <c r="D81" s="143"/>
-      <c r="E81" s="142"/>
-      <c r="F81" s="142"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="133"/>
+      <c r="D81" s="132"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="131"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B82" s="145"/>
-      <c r="C82" s="144"/>
-      <c r="D82" s="143"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="133"/>
+      <c r="D82" s="132"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="131"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B83" s="145"/>
-      <c r="C83" s="144"/>
-      <c r="D83" s="143"/>
-      <c r="E83" s="142"/>
-      <c r="F83" s="142"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="133"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="131"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B84" s="145"/>
-      <c r="C84" s="144"/>
-      <c r="D84" s="143"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="142"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="131"/>
+      <c r="F84" s="131"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="145"/>
-      <c r="C85" s="144"/>
-      <c r="D85" s="143"/>
-      <c r="E85" s="142"/>
-      <c r="F85" s="142"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="132"/>
+      <c r="E85" s="131"/>
+      <c r="F85" s="131"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B86" s="145"/>
-      <c r="C86" s="144"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="142"/>
-      <c r="F86" s="142"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="133"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B87" s="145"/>
-      <c r="C87" s="144"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="142"/>
-      <c r="F87" s="142"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="133"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="131"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B88" s="145"/>
-      <c r="C88" s="144"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="133"/>
+      <c r="D88" s="132"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="131"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B89" s="145"/>
-      <c r="C89" s="144"/>
-      <c r="D89" s="143"/>
-      <c r="E89" s="142"/>
-      <c r="F89" s="142"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="133"/>
+      <c r="D89" s="132"/>
+      <c r="E89" s="131"/>
+      <c r="F89" s="131"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B90" s="145"/>
-      <c r="C90" s="144"/>
-      <c r="D90" s="143"/>
-      <c r="E90" s="142"/>
-      <c r="F90" s="142"/>
+      <c r="B90" s="134"/>
+      <c r="C90" s="133"/>
+      <c r="D90" s="132"/>
+      <c r="E90" s="131"/>
+      <c r="F90" s="131"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B91" s="145"/>
-      <c r="C91" s="144"/>
-      <c r="D91" s="143"/>
-      <c r="E91" s="142"/>
-      <c r="F91" s="142"/>
+      <c r="B91" s="134"/>
+      <c r="C91" s="133"/>
+      <c r="D91" s="132"/>
+      <c r="E91" s="131"/>
+      <c r="F91" s="131"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B92" s="145"/>
-      <c r="C92" s="144"/>
-      <c r="D92" s="143"/>
-      <c r="E92" s="142"/>
-      <c r="F92" s="142"/>
+      <c r="B92" s="134"/>
+      <c r="C92" s="133"/>
+      <c r="D92" s="132"/>
+      <c r="E92" s="131"/>
+      <c r="F92" s="131"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B93" s="145"/>
-      <c r="C93" s="144"/>
-      <c r="D93" s="143"/>
-      <c r="E93" s="142"/>
-      <c r="F93" s="142"/>
+      <c r="B93" s="134"/>
+      <c r="C93" s="133"/>
+      <c r="D93" s="132"/>
+      <c r="E93" s="131"/>
+      <c r="F93" s="131"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B94" s="145"/>
-      <c r="C94" s="144"/>
-      <c r="D94" s="143"/>
-      <c r="E94" s="142"/>
-      <c r="F94" s="142"/>
+      <c r="B94" s="134"/>
+      <c r="C94" s="133"/>
+      <c r="D94" s="132"/>
+      <c r="E94" s="131"/>
+      <c r="F94" s="131"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B95" s="145"/>
-      <c r="C95" s="144"/>
-      <c r="D95" s="143"/>
-      <c r="E95" s="142"/>
-      <c r="F95" s="142"/>
+      <c r="B95" s="134"/>
+      <c r="C95" s="133"/>
+      <c r="D95" s="132"/>
+      <c r="E95" s="131"/>
+      <c r="F95" s="131"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B96" s="145"/>
-      <c r="C96" s="144"/>
-      <c r="D96" s="143"/>
-      <c r="E96" s="142"/>
-      <c r="F96" s="142"/>
+      <c r="B96" s="134"/>
+      <c r="C96" s="133"/>
+      <c r="D96" s="132"/>
+      <c r="E96" s="131"/>
+      <c r="F96" s="131"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B97" s="145"/>
-      <c r="C97" s="144"/>
-      <c r="D97" s="143"/>
-      <c r="E97" s="142"/>
-      <c r="F97" s="142"/>
+      <c r="B97" s="134"/>
+      <c r="C97" s="133"/>
+      <c r="D97" s="132"/>
+      <c r="E97" s="131"/>
+      <c r="F97" s="131"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B98" s="145"/>
-      <c r="C98" s="144"/>
-      <c r="D98" s="143"/>
-      <c r="E98" s="142"/>
-      <c r="F98" s="142"/>
+      <c r="B98" s="134"/>
+      <c r="C98" s="133"/>
+      <c r="D98" s="132"/>
+      <c r="E98" s="131"/>
+      <c r="F98" s="131"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B99" s="145"/>
-      <c r="C99" s="144"/>
-      <c r="D99" s="143"/>
-      <c r="E99" s="142"/>
-      <c r="F99" s="142"/>
+      <c r="B99" s="134"/>
+      <c r="C99" s="133"/>
+      <c r="D99" s="132"/>
+      <c r="E99" s="131"/>
+      <c r="F99" s="131"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B100" s="145"/>
-      <c r="C100" s="144"/>
-      <c r="D100" s="143"/>
-      <c r="E100" s="142"/>
-      <c r="F100" s="142"/>
+      <c r="B100" s="134"/>
+      <c r="C100" s="133"/>
+      <c r="D100" s="132"/>
+      <c r="E100" s="131"/>
+      <c r="F100" s="131"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B101" s="145"/>
-      <c r="C101" s="144"/>
-      <c r="D101" s="143"/>
-      <c r="E101" s="142"/>
-      <c r="F101" s="142"/>
+      <c r="B101" s="134"/>
+      <c r="C101" s="133"/>
+      <c r="D101" s="132"/>
+      <c r="E101" s="131"/>
+      <c r="F101" s="131"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B102" s="145"/>
-      <c r="C102" s="144"/>
-      <c r="D102" s="143"/>
-      <c r="E102" s="142"/>
-      <c r="F102" s="142"/>
+      <c r="B102" s="134"/>
+      <c r="C102" s="133"/>
+      <c r="D102" s="132"/>
+      <c r="E102" s="131"/>
+      <c r="F102" s="131"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B103" s="145"/>
-      <c r="C103" s="144"/>
-      <c r="D103" s="143"/>
-      <c r="E103" s="142"/>
-      <c r="F103" s="142"/>
+      <c r="B103" s="134"/>
+      <c r="C103" s="133"/>
+      <c r="D103" s="132"/>
+      <c r="E103" s="131"/>
+      <c r="F103" s="131"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B104" s="145"/>
-      <c r="C104" s="144"/>
-      <c r="D104" s="143"/>
-      <c r="E104" s="142"/>
-      <c r="F104" s="142"/>
+      <c r="B104" s="134"/>
+      <c r="C104" s="133"/>
+      <c r="D104" s="132"/>
+      <c r="E104" s="131"/>
+      <c r="F104" s="131"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B105" s="145"/>
-      <c r="C105" s="144"/>
-      <c r="D105" s="143"/>
-      <c r="E105" s="142"/>
-      <c r="F105" s="142"/>
+      <c r="B105" s="134"/>
+      <c r="C105" s="133"/>
+      <c r="D105" s="132"/>
+      <c r="E105" s="131"/>
+      <c r="F105" s="131"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B106" s="145"/>
-      <c r="C106" s="144"/>
-      <c r="D106" s="143"/>
-      <c r="E106" s="142"/>
-      <c r="F106" s="142"/>
+      <c r="B106" s="134"/>
+      <c r="C106" s="133"/>
+      <c r="D106" s="132"/>
+      <c r="E106" s="131"/>
+      <c r="F106" s="131"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B107" s="145"/>
-      <c r="C107" s="144"/>
-      <c r="D107" s="143"/>
-      <c r="E107" s="142"/>
-      <c r="F107" s="142"/>
+      <c r="B107" s="134"/>
+      <c r="C107" s="133"/>
+      <c r="D107" s="132"/>
+      <c r="E107" s="131"/>
+      <c r="F107" s="131"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B108" s="145"/>
-      <c r="C108" s="144"/>
-      <c r="D108" s="143"/>
-      <c r="E108" s="142"/>
-      <c r="F108" s="142"/>
+      <c r="B108" s="134"/>
+      <c r="C108" s="133"/>
+      <c r="D108" s="132"/>
+      <c r="E108" s="131"/>
+      <c r="F108" s="131"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B109" s="145"/>
-      <c r="C109" s="144"/>
-      <c r="D109" s="143"/>
-      <c r="E109" s="142"/>
-      <c r="F109" s="142"/>
+      <c r="B109" s="134"/>
+      <c r="C109" s="133"/>
+      <c r="D109" s="132"/>
+      <c r="E109" s="131"/>
+      <c r="F109" s="131"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B110" s="145"/>
-      <c r="C110" s="144"/>
-      <c r="D110" s="143"/>
-      <c r="E110" s="142"/>
-      <c r="F110" s="142"/>
+      <c r="B110" s="134"/>
+      <c r="C110" s="133"/>
+      <c r="D110" s="132"/>
+      <c r="E110" s="131"/>
+      <c r="F110" s="131"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B111" s="145"/>
-      <c r="C111" s="144"/>
-      <c r="D111" s="143"/>
-      <c r="E111" s="142"/>
-      <c r="F111" s="142"/>
+      <c r="B111" s="134"/>
+      <c r="C111" s="133"/>
+      <c r="D111" s="132"/>
+      <c r="E111" s="131"/>
+      <c r="F111" s="131"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B112" s="145"/>
-      <c r="C112" s="144"/>
-      <c r="D112" s="143"/>
-      <c r="E112" s="142"/>
-      <c r="F112" s="142"/>
+      <c r="B112" s="134"/>
+      <c r="C112" s="133"/>
+      <c r="D112" s="132"/>
+      <c r="E112" s="131"/>
+      <c r="F112" s="131"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B113" s="145"/>
-      <c r="C113" s="144"/>
-      <c r="D113" s="143"/>
-      <c r="E113" s="142"/>
-      <c r="F113" s="142"/>
+      <c r="B113" s="134"/>
+      <c r="C113" s="133"/>
+      <c r="D113" s="132"/>
+      <c r="E113" s="131"/>
+      <c r="F113" s="131"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B114" s="145"/>
-      <c r="C114" s="144"/>
-      <c r="D114" s="143"/>
-      <c r="E114" s="142"/>
-      <c r="F114" s="142"/>
+      <c r="B114" s="134"/>
+      <c r="C114" s="133"/>
+      <c r="D114" s="132"/>
+      <c r="E114" s="131"/>
+      <c r="F114" s="131"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B115" s="145"/>
-      <c r="C115" s="144"/>
-      <c r="D115" s="143"/>
-      <c r="E115" s="142"/>
-      <c r="F115" s="142"/>
+      <c r="B115" s="134"/>
+      <c r="C115" s="133"/>
+      <c r="D115" s="132"/>
+      <c r="E115" s="131"/>
+      <c r="F115" s="131"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B116" s="145"/>
-      <c r="C116" s="144"/>
-      <c r="D116" s="143"/>
-      <c r="E116" s="142"/>
-      <c r="F116" s="142"/>
+      <c r="B116" s="134"/>
+      <c r="C116" s="133"/>
+      <c r="D116" s="132"/>
+      <c r="E116" s="131"/>
+      <c r="F116" s="131"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B117" s="145"/>
-      <c r="C117" s="144"/>
-      <c r="D117" s="143"/>
-      <c r="E117" s="142"/>
-      <c r="F117" s="142"/>
+      <c r="B117" s="134"/>
+      <c r="C117" s="133"/>
+      <c r="D117" s="132"/>
+      <c r="E117" s="131"/>
+      <c r="F117" s="131"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B118" s="145"/>
-      <c r="C118" s="144"/>
-      <c r="D118" s="143"/>
-      <c r="E118" s="142"/>
-      <c r="F118" s="142"/>
+      <c r="B118" s="134"/>
+      <c r="C118" s="133"/>
+      <c r="D118" s="132"/>
+      <c r="E118" s="131"/>
+      <c r="F118" s="131"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B119" s="145"/>
-      <c r="C119" s="144"/>
-      <c r="D119" s="143"/>
-      <c r="E119" s="142"/>
-      <c r="F119" s="142"/>
+      <c r="B119" s="134"/>
+      <c r="C119" s="133"/>
+      <c r="D119" s="132"/>
+      <c r="E119" s="131"/>
+      <c r="F119" s="131"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B120" s="145"/>
-      <c r="C120" s="144"/>
-      <c r="D120" s="143"/>
-      <c r="E120" s="142"/>
-      <c r="F120" s="142"/>
+      <c r="B120" s="134"/>
+      <c r="C120" s="133"/>
+      <c r="D120" s="132"/>
+      <c r="E120" s="131"/>
+      <c r="F120" s="131"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B121" s="145"/>
-      <c r="C121" s="144"/>
-      <c r="D121" s="143"/>
-      <c r="E121" s="142"/>
-      <c r="F121" s="142"/>
+      <c r="B121" s="134"/>
+      <c r="C121" s="133"/>
+      <c r="D121" s="132"/>
+      <c r="E121" s="131"/>
+      <c r="F121" s="131"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B122" s="145"/>
-      <c r="C122" s="144"/>
-      <c r="D122" s="143"/>
-      <c r="E122" s="142"/>
-      <c r="F122" s="142"/>
+      <c r="B122" s="134"/>
+      <c r="C122" s="133"/>
+      <c r="D122" s="132"/>
+      <c r="E122" s="131"/>
+      <c r="F122" s="131"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B123" s="145"/>
-      <c r="C123" s="144"/>
-      <c r="D123" s="143"/>
-      <c r="E123" s="142"/>
-      <c r="F123" s="142"/>
+      <c r="B123" s="134"/>
+      <c r="C123" s="133"/>
+      <c r="D123" s="132"/>
+      <c r="E123" s="131"/>
+      <c r="F123" s="131"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B124" s="145"/>
-      <c r="C124" s="144"/>
-      <c r="D124" s="143"/>
-      <c r="E124" s="142"/>
-      <c r="F124" s="142"/>
+      <c r="B124" s="134"/>
+      <c r="C124" s="133"/>
+      <c r="D124" s="132"/>
+      <c r="E124" s="131"/>
+      <c r="F124" s="131"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B125" s="145"/>
-      <c r="C125" s="144"/>
-      <c r="D125" s="143"/>
-      <c r="E125" s="142"/>
-      <c r="F125" s="142"/>
+      <c r="B125" s="134"/>
+      <c r="C125" s="133"/>
+      <c r="D125" s="132"/>
+      <c r="E125" s="131"/>
+      <c r="F125" s="131"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B126" s="145"/>
-      <c r="C126" s="144"/>
-      <c r="D126" s="143"/>
-      <c r="E126" s="142"/>
-      <c r="F126" s="142"/>
+      <c r="B126" s="134"/>
+      <c r="C126" s="133"/>
+      <c r="D126" s="132"/>
+      <c r="E126" s="131"/>
+      <c r="F126" s="131"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B127" s="145"/>
-      <c r="C127" s="144"/>
-      <c r="D127" s="143"/>
-      <c r="E127" s="142"/>
-      <c r="F127" s="142"/>
+      <c r="B127" s="134"/>
+      <c r="C127" s="133"/>
+      <c r="D127" s="132"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="131"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B128" s="145"/>
-      <c r="C128" s="144"/>
-      <c r="D128" s="143"/>
-      <c r="E128" s="142"/>
-      <c r="F128" s="142"/>
+      <c r="B128" s="134"/>
+      <c r="C128" s="133"/>
+      <c r="D128" s="132"/>
+      <c r="E128" s="131"/>
+      <c r="F128" s="131"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B129" s="145"/>
-      <c r="C129" s="144"/>
-      <c r="D129" s="143"/>
-      <c r="E129" s="142"/>
-      <c r="F129" s="142"/>
+      <c r="B129" s="134"/>
+      <c r="C129" s="133"/>
+      <c r="D129" s="132"/>
+      <c r="E129" s="131"/>
+      <c r="F129" s="131"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B130" s="145"/>
-      <c r="C130" s="144"/>
-      <c r="D130" s="143"/>
-      <c r="E130" s="142"/>
-      <c r="F130" s="142"/>
+      <c r="B130" s="134"/>
+      <c r="C130" s="133"/>
+      <c r="D130" s="132"/>
+      <c r="E130" s="131"/>
+      <c r="F130" s="131"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B131" s="145"/>
-      <c r="C131" s="144"/>
-      <c r="D131" s="143"/>
-      <c r="E131" s="142"/>
-      <c r="F131" s="142"/>
+      <c r="B131" s="134"/>
+      <c r="C131" s="133"/>
+      <c r="D131" s="132"/>
+      <c r="E131" s="131"/>
+      <c r="F131" s="131"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B132" s="145"/>
-      <c r="C132" s="144"/>
-      <c r="D132" s="143"/>
-      <c r="E132" s="142"/>
-      <c r="F132" s="142"/>
+      <c r="B132" s="134"/>
+      <c r="C132" s="133"/>
+      <c r="D132" s="132"/>
+      <c r="E132" s="131"/>
+      <c r="F132" s="131"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B133" s="145"/>
-      <c r="C133" s="144"/>
-      <c r="D133" s="143"/>
-      <c r="E133" s="142"/>
-      <c r="F133" s="142"/>
+      <c r="B133" s="134"/>
+      <c r="C133" s="133"/>
+      <c r="D133" s="132"/>
+      <c r="E133" s="131"/>
+      <c r="F133" s="131"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B134" s="145"/>
-      <c r="C134" s="144"/>
-      <c r="D134" s="143"/>
-      <c r="E134" s="142"/>
-      <c r="F134" s="142"/>
+      <c r="B134" s="134"/>
+      <c r="C134" s="133"/>
+      <c r="D134" s="132"/>
+      <c r="E134" s="131"/>
+      <c r="F134" s="131"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B135" s="145"/>
-      <c r="C135" s="144"/>
-      <c r="D135" s="143"/>
-      <c r="E135" s="142"/>
-      <c r="F135" s="142"/>
+      <c r="B135" s="134"/>
+      <c r="C135" s="133"/>
+      <c r="D135" s="132"/>
+      <c r="E135" s="131"/>
+      <c r="F135" s="131"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B136" s="145"/>
-      <c r="C136" s="144"/>
-      <c r="D136" s="143"/>
-      <c r="E136" s="142"/>
-      <c r="F136" s="142"/>
+      <c r="B136" s="134"/>
+      <c r="C136" s="133"/>
+      <c r="D136" s="132"/>
+      <c r="E136" s="131"/>
+      <c r="F136" s="131"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B137" s="145"/>
-      <c r="C137" s="144"/>
-      <c r="D137" s="143"/>
-      <c r="E137" s="142"/>
-      <c r="F137" s="142"/>
+      <c r="B137" s="134"/>
+      <c r="C137" s="133"/>
+      <c r="D137" s="132"/>
+      <c r="E137" s="131"/>
+      <c r="F137" s="131"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B138" s="145"/>
-      <c r="C138" s="144"/>
-      <c r="D138" s="143"/>
-      <c r="E138" s="142"/>
-      <c r="F138" s="142"/>
+      <c r="B138" s="134"/>
+      <c r="C138" s="133"/>
+      <c r="D138" s="132"/>
+      <c r="E138" s="131"/>
+      <c r="F138" s="131"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B139" s="145"/>
-      <c r="C139" s="144"/>
-      <c r="D139" s="143"/>
-      <c r="E139" s="142"/>
-      <c r="F139" s="142"/>
+      <c r="B139" s="134"/>
+      <c r="C139" s="133"/>
+      <c r="D139" s="132"/>
+      <c r="E139" s="131"/>
+      <c r="F139" s="131"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B140" s="145"/>
-      <c r="C140" s="144"/>
-      <c r="D140" s="143"/>
-      <c r="E140" s="142"/>
-      <c r="F140" s="142"/>
+      <c r="B140" s="134"/>
+      <c r="C140" s="133"/>
+      <c r="D140" s="132"/>
+      <c r="E140" s="131"/>
+      <c r="F140" s="131"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B141" s="145"/>
-      <c r="C141" s="144"/>
-      <c r="D141" s="143"/>
-      <c r="E141" s="142"/>
-      <c r="F141" s="142"/>
+      <c r="B141" s="134"/>
+      <c r="C141" s="133"/>
+      <c r="D141" s="132"/>
+      <c r="E141" s="131"/>
+      <c r="F141" s="131"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B142" s="145"/>
-      <c r="C142" s="144"/>
-      <c r="D142" s="143"/>
-      <c r="E142" s="142"/>
-      <c r="F142" s="142"/>
+      <c r="B142" s="134"/>
+      <c r="C142" s="133"/>
+      <c r="D142" s="132"/>
+      <c r="E142" s="131"/>
+      <c r="F142" s="131"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B143" s="145"/>
-      <c r="C143" s="144"/>
-      <c r="D143" s="143"/>
-      <c r="E143" s="142"/>
-      <c r="F143" s="142"/>
+      <c r="B143" s="134"/>
+      <c r="C143" s="133"/>
+      <c r="D143" s="132"/>
+      <c r="E143" s="131"/>
+      <c r="F143" s="131"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B144" s="145"/>
-      <c r="C144" s="144"/>
-      <c r="D144" s="143"/>
-      <c r="E144" s="142"/>
-      <c r="F144" s="142"/>
+      <c r="B144" s="134"/>
+      <c r="C144" s="133"/>
+      <c r="D144" s="132"/>
+      <c r="E144" s="131"/>
+      <c r="F144" s="131"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B145" s="145"/>
-      <c r="C145" s="144"/>
-      <c r="D145" s="143"/>
-      <c r="E145" s="142"/>
-      <c r="F145" s="142"/>
+      <c r="B145" s="134"/>
+      <c r="C145" s="133"/>
+      <c r="D145" s="132"/>
+      <c r="E145" s="131"/>
+      <c r="F145" s="131"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B146" s="145"/>
-      <c r="C146" s="144"/>
-      <c r="D146" s="143"/>
-      <c r="E146" s="142"/>
-      <c r="F146" s="142"/>
+      <c r="B146" s="134"/>
+      <c r="C146" s="133"/>
+      <c r="D146" s="132"/>
+      <c r="E146" s="131"/>
+      <c r="F146" s="131"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B147" s="145"/>
-      <c r="C147" s="144"/>
-      <c r="D147" s="143"/>
-      <c r="E147" s="142"/>
-      <c r="F147" s="142"/>
+      <c r="B147" s="134"/>
+      <c r="C147" s="133"/>
+      <c r="D147" s="132"/>
+      <c r="E147" s="131"/>
+      <c r="F147" s="131"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B148" s="145"/>
-      <c r="C148" s="144"/>
-      <c r="D148" s="143"/>
-      <c r="E148" s="142"/>
-      <c r="F148" s="142"/>
+      <c r="B148" s="134"/>
+      <c r="C148" s="133"/>
+      <c r="D148" s="132"/>
+      <c r="E148" s="131"/>
+      <c r="F148" s="131"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B149" s="145"/>
-      <c r="C149" s="144"/>
-      <c r="D149" s="143"/>
-      <c r="E149" s="142"/>
-      <c r="F149" s="142"/>
+      <c r="B149" s="134"/>
+      <c r="C149" s="133"/>
+      <c r="D149" s="132"/>
+      <c r="E149" s="131"/>
+      <c r="F149" s="131"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B150" s="145"/>
-      <c r="C150" s="144"/>
-      <c r="D150" s="143"/>
-      <c r="E150" s="142"/>
-      <c r="F150" s="142"/>
+      <c r="B150" s="134"/>
+      <c r="C150" s="133"/>
+      <c r="D150" s="132"/>
+      <c r="E150" s="131"/>
+      <c r="F150" s="131"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B151" s="145"/>
-      <c r="C151" s="144"/>
-      <c r="D151" s="143"/>
-      <c r="E151" s="142"/>
-      <c r="F151" s="142"/>
+      <c r="B151" s="134"/>
+      <c r="C151" s="133"/>
+      <c r="D151" s="132"/>
+      <c r="E151" s="131"/>
+      <c r="F151" s="131"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B152" s="145"/>
-      <c r="C152" s="144"/>
-      <c r="D152" s="143"/>
-      <c r="E152" s="142"/>
-      <c r="F152" s="142"/>
+      <c r="B152" s="134"/>
+      <c r="C152" s="133"/>
+      <c r="D152" s="132"/>
+      <c r="E152" s="131"/>
+      <c r="F152" s="131"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B153" s="145"/>
-      <c r="C153" s="144"/>
-      <c r="D153" s="143"/>
-      <c r="E153" s="142"/>
-      <c r="F153" s="142"/>
+      <c r="B153" s="134"/>
+      <c r="C153" s="133"/>
+      <c r="D153" s="132"/>
+      <c r="E153" s="131"/>
+      <c r="F153" s="131"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B154" s="145"/>
-      <c r="C154" s="144"/>
-      <c r="D154" s="143"/>
-      <c r="E154" s="142"/>
-      <c r="F154" s="142"/>
+      <c r="B154" s="134"/>
+      <c r="C154" s="133"/>
+      <c r="D154" s="132"/>
+      <c r="E154" s="131"/>
+      <c r="F154" s="131"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B155" s="145"/>
-      <c r="C155" s="144"/>
-      <c r="D155" s="143"/>
-      <c r="E155" s="142"/>
-      <c r="F155" s="142"/>
+      <c r="B155" s="134"/>
+      <c r="C155" s="133"/>
+      <c r="D155" s="132"/>
+      <c r="E155" s="131"/>
+      <c r="F155" s="131"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B156" s="145"/>
-      <c r="C156" s="144"/>
-      <c r="D156" s="143"/>
-      <c r="E156" s="142"/>
-      <c r="F156" s="142"/>
+      <c r="B156" s="134"/>
+      <c r="C156" s="133"/>
+      <c r="D156" s="132"/>
+      <c r="E156" s="131"/>
+      <c r="F156" s="131"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B157" s="145"/>
-      <c r="C157" s="144"/>
-      <c r="D157" s="143"/>
-      <c r="E157" s="142"/>
-      <c r="F157" s="142"/>
+      <c r="B157" s="134"/>
+      <c r="C157" s="133"/>
+      <c r="D157" s="132"/>
+      <c r="E157" s="131"/>
+      <c r="F157" s="131"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B158" s="145"/>
-      <c r="C158" s="144"/>
-      <c r="D158" s="143"/>
-      <c r="E158" s="142"/>
-      <c r="F158" s="142"/>
+      <c r="B158" s="134"/>
+      <c r="C158" s="133"/>
+      <c r="D158" s="132"/>
+      <c r="E158" s="131"/>
+      <c r="F158" s="131"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B159" s="145"/>
-      <c r="C159" s="144"/>
-      <c r="D159" s="143"/>
-      <c r="E159" s="142"/>
-      <c r="F159" s="142"/>
+      <c r="B159" s="134"/>
+      <c r="C159" s="133"/>
+      <c r="D159" s="132"/>
+      <c r="E159" s="131"/>
+      <c r="F159" s="131"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B160" s="145"/>
-      <c r="C160" s="144"/>
-      <c r="D160" s="143"/>
-      <c r="E160" s="142"/>
-      <c r="F160" s="142"/>
+      <c r="B160" s="134"/>
+      <c r="C160" s="133"/>
+      <c r="D160" s="132"/>
+      <c r="E160" s="131"/>
+      <c r="F160" s="131"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B161" s="145"/>
-      <c r="C161" s="144"/>
-      <c r="D161" s="143"/>
-      <c r="E161" s="142"/>
-      <c r="F161" s="142"/>
+      <c r="B161" s="134"/>
+      <c r="C161" s="133"/>
+      <c r="D161" s="132"/>
+      <c r="E161" s="131"/>
+      <c r="F161" s="131"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B162" s="145"/>
-      <c r="C162" s="144"/>
-      <c r="D162" s="143"/>
-      <c r="E162" s="142"/>
-      <c r="F162" s="142"/>
+      <c r="B162" s="134"/>
+      <c r="C162" s="133"/>
+      <c r="D162" s="132"/>
+      <c r="E162" s="131"/>
+      <c r="F162" s="131"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B163" s="145"/>
-      <c r="C163" s="144"/>
-      <c r="D163" s="143"/>
-      <c r="E163" s="142"/>
-      <c r="F163" s="142"/>
+      <c r="B163" s="134"/>
+      <c r="C163" s="133"/>
+      <c r="D163" s="132"/>
+      <c r="E163" s="131"/>
+      <c r="F163" s="131"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B164" s="145"/>
-      <c r="C164" s="144"/>
-      <c r="D164" s="143"/>
-      <c r="E164" s="142"/>
-      <c r="F164" s="142"/>
+      <c r="B164" s="134"/>
+      <c r="C164" s="133"/>
+      <c r="D164" s="132"/>
+      <c r="E164" s="131"/>
+      <c r="F164" s="131"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B165" s="145"/>
-      <c r="C165" s="144"/>
-      <c r="D165" s="143"/>
-      <c r="E165" s="142"/>
-      <c r="F165" s="142"/>
+      <c r="B165" s="134"/>
+      <c r="C165" s="133"/>
+      <c r="D165" s="132"/>
+      <c r="E165" s="131"/>
+      <c r="F165" s="131"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B166" s="145"/>
-      <c r="C166" s="144"/>
-      <c r="D166" s="143"/>
-      <c r="E166" s="142"/>
-      <c r="F166" s="142"/>
+      <c r="B166" s="134"/>
+      <c r="C166" s="133"/>
+      <c r="D166" s="132"/>
+      <c r="E166" s="131"/>
+      <c r="F166" s="131"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B167" s="145"/>
-      <c r="C167" s="144"/>
-      <c r="D167" s="143"/>
-      <c r="E167" s="142"/>
-      <c r="F167" s="142"/>
+      <c r="B167" s="134"/>
+      <c r="C167" s="133"/>
+      <c r="D167" s="132"/>
+      <c r="E167" s="131"/>
+      <c r="F167" s="131"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B168" s="145"/>
-      <c r="C168" s="144"/>
-      <c r="D168" s="143"/>
-      <c r="E168" s="142"/>
-      <c r="F168" s="142"/>
+      <c r="B168" s="134"/>
+      <c r="C168" s="133"/>
+      <c r="D168" s="132"/>
+      <c r="E168" s="131"/>
+      <c r="F168" s="131"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B169" s="145"/>
-      <c r="C169" s="144"/>
-      <c r="D169" s="143"/>
-      <c r="E169" s="142"/>
-      <c r="F169" s="142"/>
+      <c r="B169" s="134"/>
+      <c r="C169" s="133"/>
+      <c r="D169" s="132"/>
+      <c r="E169" s="131"/>
+      <c r="F169" s="131"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B170" s="145"/>
-      <c r="C170" s="144"/>
-      <c r="D170" s="143"/>
-      <c r="E170" s="142"/>
-      <c r="F170" s="142"/>
+      <c r="B170" s="134"/>
+      <c r="C170" s="133"/>
+      <c r="D170" s="132"/>
+      <c r="E170" s="131"/>
+      <c r="F170" s="131"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B171" s="145"/>
-      <c r="C171" s="144"/>
-      <c r="D171" s="143"/>
-      <c r="E171" s="142"/>
-      <c r="F171" s="142"/>
+      <c r="B171" s="134"/>
+      <c r="C171" s="133"/>
+      <c r="D171" s="132"/>
+      <c r="E171" s="131"/>
+      <c r="F171" s="131"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B172" s="145"/>
-      <c r="C172" s="144"/>
-      <c r="D172" s="143"/>
-      <c r="E172" s="142"/>
-      <c r="F172" s="142"/>
+      <c r="B172" s="134"/>
+      <c r="C172" s="133"/>
+      <c r="D172" s="132"/>
+      <c r="E172" s="131"/>
+      <c r="F172" s="131"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B173" s="145"/>
-      <c r="C173" s="144"/>
-      <c r="D173" s="143"/>
-      <c r="E173" s="142"/>
-      <c r="F173" s="142"/>
+      <c r="B173" s="134"/>
+      <c r="C173" s="133"/>
+      <c r="D173" s="132"/>
+      <c r="E173" s="131"/>
+      <c r="F173" s="131"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B174" s="145"/>
-      <c r="C174" s="144"/>
-      <c r="D174" s="143"/>
-      <c r="E174" s="142"/>
-      <c r="F174" s="142"/>
+      <c r="B174" s="134"/>
+      <c r="C174" s="133"/>
+      <c r="D174" s="132"/>
+      <c r="E174" s="131"/>
+      <c r="F174" s="131"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B175" s="145"/>
-      <c r="C175" s="144"/>
-      <c r="D175" s="143"/>
-      <c r="E175" s="142"/>
-      <c r="F175" s="142"/>
+      <c r="B175" s="134"/>
+      <c r="C175" s="133"/>
+      <c r="D175" s="132"/>
+      <c r="E175" s="131"/>
+      <c r="F175" s="131"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B176" s="145"/>
-      <c r="C176" s="144"/>
-      <c r="D176" s="143"/>
-      <c r="E176" s="142"/>
-      <c r="F176" s="142"/>
+      <c r="B176" s="134"/>
+      <c r="C176" s="133"/>
+      <c r="D176" s="132"/>
+      <c r="E176" s="131"/>
+      <c r="F176" s="131"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B177" s="145"/>
-      <c r="C177" s="144"/>
-      <c r="D177" s="143"/>
-      <c r="E177" s="142"/>
-      <c r="F177" s="142"/>
+      <c r="B177" s="134"/>
+      <c r="C177" s="133"/>
+      <c r="D177" s="132"/>
+      <c r="E177" s="131"/>
+      <c r="F177" s="131"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B178" s="145"/>
-      <c r="C178" s="144"/>
-      <c r="D178" s="143"/>
-      <c r="E178" s="142"/>
-      <c r="F178" s="142"/>
+      <c r="B178" s="134"/>
+      <c r="C178" s="133"/>
+      <c r="D178" s="132"/>
+      <c r="E178" s="131"/>
+      <c r="F178" s="131"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B179" s="145"/>
-      <c r="C179" s="144"/>
-      <c r="D179" s="143"/>
-      <c r="E179" s="142"/>
-      <c r="F179" s="142"/>
+      <c r="B179" s="134"/>
+      <c r="C179" s="133"/>
+      <c r="D179" s="132"/>
+      <c r="E179" s="131"/>
+      <c r="F179" s="131"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B180" s="145"/>
-      <c r="C180" s="144"/>
-      <c r="D180" s="143"/>
-      <c r="E180" s="142"/>
-      <c r="F180" s="142"/>
+      <c r="B180" s="134"/>
+      <c r="C180" s="133"/>
+      <c r="D180" s="132"/>
+      <c r="E180" s="131"/>
+      <c r="F180" s="131"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B181" s="145"/>
-      <c r="C181" s="144"/>
-      <c r="D181" s="143"/>
-      <c r="E181" s="142"/>
-      <c r="F181" s="142"/>
+      <c r="B181" s="134"/>
+      <c r="C181" s="133"/>
+      <c r="D181" s="132"/>
+      <c r="E181" s="131"/>
+      <c r="F181" s="131"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B182" s="145"/>
-      <c r="C182" s="144"/>
-      <c r="D182" s="143"/>
-      <c r="E182" s="142"/>
-      <c r="F182" s="142"/>
+      <c r="B182" s="134"/>
+      <c r="C182" s="133"/>
+      <c r="D182" s="132"/>
+      <c r="E182" s="131"/>
+      <c r="F182" s="131"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B183" s="145"/>
-      <c r="C183" s="144"/>
-      <c r="D183" s="143"/>
-      <c r="E183" s="142"/>
-      <c r="F183" s="142"/>
+      <c r="B183" s="134"/>
+      <c r="C183" s="133"/>
+      <c r="D183" s="132"/>
+      <c r="E183" s="131"/>
+      <c r="F183" s="131"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B184" s="145"/>
-      <c r="C184" s="144"/>
-      <c r="D184" s="143"/>
-      <c r="E184" s="142"/>
-      <c r="F184" s="142"/>
+      <c r="B184" s="134"/>
+      <c r="C184" s="133"/>
+      <c r="D184" s="132"/>
+      <c r="E184" s="131"/>
+      <c r="F184" s="131"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B185" s="145"/>
-      <c r="C185" s="144"/>
-      <c r="D185" s="143"/>
-      <c r="E185" s="142"/>
-      <c r="F185" s="142"/>
+      <c r="B185" s="134"/>
+      <c r="C185" s="133"/>
+      <c r="D185" s="132"/>
+      <c r="E185" s="131"/>
+      <c r="F185" s="131"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B186" s="145"/>
-      <c r="C186" s="144"/>
-      <c r="D186" s="143"/>
-      <c r="E186" s="142"/>
-      <c r="F186" s="142"/>
+      <c r="B186" s="134"/>
+      <c r="C186" s="133"/>
+      <c r="D186" s="132"/>
+      <c r="E186" s="131"/>
+      <c r="F186" s="131"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B187" s="145"/>
-      <c r="C187" s="144"/>
-      <c r="D187" s="143"/>
-      <c r="E187" s="142"/>
-      <c r="F187" s="142"/>
+      <c r="B187" s="134"/>
+      <c r="C187" s="133"/>
+      <c r="D187" s="132"/>
+      <c r="E187" s="131"/>
+      <c r="F187" s="131"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B188" s="145"/>
-      <c r="C188" s="144"/>
-      <c r="D188" s="143"/>
-      <c r="E188" s="142"/>
-      <c r="F188" s="142"/>
+      <c r="B188" s="134"/>
+      <c r="C188" s="133"/>
+      <c r="D188" s="132"/>
+      <c r="E188" s="131"/>
+      <c r="F188" s="131"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B189" s="145"/>
-      <c r="C189" s="144"/>
-      <c r="D189" s="143"/>
-      <c r="E189" s="142"/>
-      <c r="F189" s="142"/>
+      <c r="B189" s="134"/>
+      <c r="C189" s="133"/>
+      <c r="D189" s="132"/>
+      <c r="E189" s="131"/>
+      <c r="F189" s="131"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B190" s="145"/>
-      <c r="C190" s="144"/>
-      <c r="D190" s="143"/>
-      <c r="E190" s="142"/>
-      <c r="F190" s="142"/>
+      <c r="B190" s="134"/>
+      <c r="C190" s="133"/>
+      <c r="D190" s="132"/>
+      <c r="E190" s="131"/>
+      <c r="F190" s="131"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B191" s="145"/>
-      <c r="C191" s="144"/>
-      <c r="D191" s="143"/>
-      <c r="E191" s="142"/>
-      <c r="F191" s="142"/>
+      <c r="B191" s="134"/>
+      <c r="C191" s="133"/>
+      <c r="D191" s="132"/>
+      <c r="E191" s="131"/>
+      <c r="F191" s="131"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B192" s="145"/>
-      <c r="C192" s="144"/>
-      <c r="D192" s="143"/>
-      <c r="E192" s="142"/>
-      <c r="F192" s="142"/>
+      <c r="B192" s="134"/>
+      <c r="C192" s="133"/>
+      <c r="D192" s="132"/>
+      <c r="E192" s="131"/>
+      <c r="F192" s="131"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B193" s="145"/>
-      <c r="C193" s="144"/>
-      <c r="D193" s="143"/>
-      <c r="E193" s="142"/>
-      <c r="F193" s="142"/>
+      <c r="B193" s="134"/>
+      <c r="C193" s="133"/>
+      <c r="D193" s="132"/>
+      <c r="E193" s="131"/>
+      <c r="F193" s="131"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B194" s="145"/>
-      <c r="C194" s="144"/>
-      <c r="D194" s="143"/>
-      <c r="E194" s="142"/>
-      <c r="F194" s="142"/>
+      <c r="B194" s="134"/>
+      <c r="C194" s="133"/>
+      <c r="D194" s="132"/>
+      <c r="E194" s="131"/>
+      <c r="F194" s="131"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B195" s="145"/>
-      <c r="C195" s="144"/>
-      <c r="D195" s="143"/>
-      <c r="E195" s="142"/>
-      <c r="F195" s="142"/>
+      <c r="B195" s="134"/>
+      <c r="C195" s="133"/>
+      <c r="D195" s="132"/>
+      <c r="E195" s="131"/>
+      <c r="F195" s="131"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B196" s="145"/>
-      <c r="C196" s="144"/>
-      <c r="D196" s="143"/>
-      <c r="E196" s="142"/>
-      <c r="F196" s="142"/>
+      <c r="B196" s="134"/>
+      <c r="C196" s="133"/>
+      <c r="D196" s="132"/>
+      <c r="E196" s="131"/>
+      <c r="F196" s="131"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B197" s="145"/>
-      <c r="C197" s="144"/>
-      <c r="D197" s="143"/>
-      <c r="E197" s="142"/>
-      <c r="F197" s="142"/>
+      <c r="B197" s="134"/>
+      <c r="C197" s="133"/>
+      <c r="D197" s="132"/>
+      <c r="E197" s="131"/>
+      <c r="F197" s="131"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B198" s="145"/>
-      <c r="C198" s="144"/>
-      <c r="D198" s="143"/>
-      <c r="E198" s="142"/>
-      <c r="F198" s="142"/>
+      <c r="B198" s="134"/>
+      <c r="C198" s="133"/>
+      <c r="D198" s="132"/>
+      <c r="E198" s="131"/>
+      <c r="F198" s="131"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B199" s="145"/>
-      <c r="C199" s="144"/>
-      <c r="D199" s="143"/>
-      <c r="E199" s="142"/>
-      <c r="F199" s="142"/>
+      <c r="B199" s="134"/>
+      <c r="C199" s="133"/>
+      <c r="D199" s="132"/>
+      <c r="E199" s="131"/>
+      <c r="F199" s="131"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B200" s="145"/>
-      <c r="C200" s="144"/>
-      <c r="D200" s="143"/>
-      <c r="E200" s="142"/>
-      <c r="F200" s="142"/>
+      <c r="B200" s="134"/>
+      <c r="C200" s="133"/>
+      <c r="D200" s="132"/>
+      <c r="E200" s="131"/>
+      <c r="F200" s="131"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B201" s="145"/>
-      <c r="C201" s="144"/>
-      <c r="D201" s="143"/>
-      <c r="E201" s="142"/>
-      <c r="F201" s="142"/>
+      <c r="B201" s="134"/>
+      <c r="C201" s="133"/>
+      <c r="D201" s="132"/>
+      <c r="E201" s="131"/>
+      <c r="F201" s="131"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B202" s="145"/>
-      <c r="C202" s="144"/>
-      <c r="D202" s="143"/>
-      <c r="E202" s="142"/>
-      <c r="F202" s="142"/>
+      <c r="B202" s="134"/>
+      <c r="C202" s="133"/>
+      <c r="D202" s="132"/>
+      <c r="E202" s="131"/>
+      <c r="F202" s="131"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B203" s="145"/>
-      <c r="C203" s="144"/>
-      <c r="D203" s="143"/>
-      <c r="E203" s="142"/>
-      <c r="F203" s="142"/>
+      <c r="B203" s="134"/>
+      <c r="C203" s="133"/>
+      <c r="D203" s="132"/>
+      <c r="E203" s="131"/>
+      <c r="F203" s="131"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B204" s="145"/>
-      <c r="C204" s="144"/>
-      <c r="D204" s="143"/>
-      <c r="E204" s="142"/>
-      <c r="F204" s="142"/>
+      <c r="B204" s="134"/>
+      <c r="C204" s="133"/>
+      <c r="D204" s="132"/>
+      <c r="E204" s="131"/>
+      <c r="F204" s="131"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B205" s="145"/>
-      <c r="C205" s="144"/>
-      <c r="D205" s="143"/>
-      <c r="E205" s="142"/>
-      <c r="F205" s="142"/>
+      <c r="B205" s="134"/>
+      <c r="C205" s="133"/>
+      <c r="D205" s="132"/>
+      <c r="E205" s="131"/>
+      <c r="F205" s="131"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B206" s="145"/>
-      <c r="C206" s="144"/>
-      <c r="D206" s="143"/>
-      <c r="E206" s="142"/>
-      <c r="F206" s="142"/>
+      <c r="B206" s="134"/>
+      <c r="C206" s="133"/>
+      <c r="D206" s="132"/>
+      <c r="E206" s="131"/>
+      <c r="F206" s="131"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B207" s="145"/>
-      <c r="C207" s="144"/>
-      <c r="D207" s="143"/>
-      <c r="E207" s="142"/>
-      <c r="F207" s="142"/>
+      <c r="B207" s="134"/>
+      <c r="C207" s="133"/>
+      <c r="D207" s="132"/>
+      <c r="E207" s="131"/>
+      <c r="F207" s="131"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B208" s="145"/>
-      <c r="C208" s="144"/>
-      <c r="D208" s="143"/>
-      <c r="E208" s="142"/>
-      <c r="F208" s="142"/>
+      <c r="B208" s="134"/>
+      <c r="C208" s="133"/>
+      <c r="D208" s="132"/>
+      <c r="E208" s="131"/>
+      <c r="F208" s="131"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B209" s="145"/>
-      <c r="C209" s="144"/>
-      <c r="D209" s="143"/>
-      <c r="E209" s="142"/>
-      <c r="F209" s="142"/>
+      <c r="B209" s="134"/>
+      <c r="C209" s="133"/>
+      <c r="D209" s="132"/>
+      <c r="E209" s="131"/>
+      <c r="F209" s="131"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B210" s="145"/>
-      <c r="C210" s="144"/>
-      <c r="D210" s="143"/>
-      <c r="E210" s="142"/>
-      <c r="F210" s="142"/>
+      <c r="B210" s="134"/>
+      <c r="C210" s="133"/>
+      <c r="D210" s="132"/>
+      <c r="E210" s="131"/>
+      <c r="F210" s="131"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B211" s="145"/>
-      <c r="C211" s="144"/>
-      <c r="D211" s="143"/>
-      <c r="E211" s="142"/>
-      <c r="F211" s="142"/>
+      <c r="B211" s="134"/>
+      <c r="C211" s="133"/>
+      <c r="D211" s="132"/>
+      <c r="E211" s="131"/>
+      <c r="F211" s="131"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B212" s="145"/>
-      <c r="C212" s="144"/>
-      <c r="D212" s="143"/>
-      <c r="E212" s="142"/>
-      <c r="F212" s="142"/>
+      <c r="B212" s="134"/>
+      <c r="C212" s="133"/>
+      <c r="D212" s="132"/>
+      <c r="E212" s="131"/>
+      <c r="F212" s="131"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B213" s="145"/>
-      <c r="C213" s="144"/>
-      <c r="D213" s="143"/>
-      <c r="E213" s="142"/>
-      <c r="F213" s="142"/>
+      <c r="B213" s="134"/>
+      <c r="C213" s="133"/>
+      <c r="D213" s="132"/>
+      <c r="E213" s="131"/>
+      <c r="F213" s="131"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B214" s="145"/>
-      <c r="C214" s="144"/>
-      <c r="D214" s="143"/>
-      <c r="E214" s="142"/>
-      <c r="F214" s="142"/>
+      <c r="B214" s="134"/>
+      <c r="C214" s="133"/>
+      <c r="D214" s="132"/>
+      <c r="E214" s="131"/>
+      <c r="F214" s="131"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B215" s="145"/>
-      <c r="C215" s="144"/>
-      <c r="D215" s="143"/>
-      <c r="E215" s="142"/>
-      <c r="F215" s="142"/>
+      <c r="B215" s="134"/>
+      <c r="C215" s="133"/>
+      <c r="D215" s="132"/>
+      <c r="E215" s="131"/>
+      <c r="F215" s="131"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B216" s="145"/>
-      <c r="C216" s="144"/>
-      <c r="D216" s="143"/>
-      <c r="E216" s="142"/>
-      <c r="F216" s="142"/>
+      <c r="B216" s="134"/>
+      <c r="C216" s="133"/>
+      <c r="D216" s="132"/>
+      <c r="E216" s="131"/>
+      <c r="F216" s="131"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B217" s="145"/>
-      <c r="C217" s="144"/>
-      <c r="D217" s="143"/>
-      <c r="E217" s="142"/>
-      <c r="F217" s="142"/>
+      <c r="B217" s="134"/>
+      <c r="C217" s="133"/>
+      <c r="D217" s="132"/>
+      <c r="E217" s="131"/>
+      <c r="F217" s="131"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B218" s="145"/>
-      <c r="C218" s="144"/>
-      <c r="D218" s="143"/>
-      <c r="E218" s="142"/>
-      <c r="F218" s="142"/>
+      <c r="B218" s="134"/>
+      <c r="C218" s="133"/>
+      <c r="D218" s="132"/>
+      <c r="E218" s="131"/>
+      <c r="F218" s="131"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B219" s="145"/>
-      <c r="C219" s="144"/>
-      <c r="D219" s="143"/>
-      <c r="E219" s="142"/>
-      <c r="F219" s="142"/>
+      <c r="B219" s="134"/>
+      <c r="C219" s="133"/>
+      <c r="D219" s="132"/>
+      <c r="E219" s="131"/>
+      <c r="F219" s="131"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B220" s="145"/>
-      <c r="C220" s="144"/>
-      <c r="D220" s="143"/>
-      <c r="E220" s="142"/>
-      <c r="F220" s="142"/>
+      <c r="B220" s="134"/>
+      <c r="C220" s="133"/>
+      <c r="D220" s="132"/>
+      <c r="E220" s="131"/>
+      <c r="F220" s="131"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B221" s="145"/>
-      <c r="C221" s="144"/>
-      <c r="D221" s="143"/>
-      <c r="E221" s="142"/>
-      <c r="F221" s="142"/>
+      <c r="B221" s="134"/>
+      <c r="C221" s="133"/>
+      <c r="D221" s="132"/>
+      <c r="E221" s="131"/>
+      <c r="F221" s="131"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B222" s="145"/>
-      <c r="C222" s="144"/>
-      <c r="D222" s="143"/>
-      <c r="E222" s="142"/>
-      <c r="F222" s="142"/>
+      <c r="B222" s="134"/>
+      <c r="C222" s="133"/>
+      <c r="D222" s="132"/>
+      <c r="E222" s="131"/>
+      <c r="F222" s="131"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B223" s="145"/>
-      <c r="C223" s="144"/>
-      <c r="D223" s="143"/>
-      <c r="E223" s="142"/>
-      <c r="F223" s="142"/>
+      <c r="B223" s="134"/>
+      <c r="C223" s="133"/>
+      <c r="D223" s="132"/>
+      <c r="E223" s="131"/>
+      <c r="F223" s="131"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B224" s="145"/>
-      <c r="C224" s="144"/>
-      <c r="D224" s="143"/>
-      <c r="E224" s="142"/>
-      <c r="F224" s="142"/>
+      <c r="B224" s="134"/>
+      <c r="C224" s="133"/>
+      <c r="D224" s="132"/>
+      <c r="E224" s="131"/>
+      <c r="F224" s="131"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B225" s="145"/>
-      <c r="C225" s="144"/>
-      <c r="D225" s="143"/>
-      <c r="E225" s="142"/>
-      <c r="F225" s="142"/>
+      <c r="B225" s="134"/>
+      <c r="C225" s="133"/>
+      <c r="D225" s="132"/>
+      <c r="E225" s="131"/>
+      <c r="F225" s="131"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B226" s="145"/>
-      <c r="C226" s="144"/>
-      <c r="D226" s="143"/>
-      <c r="E226" s="142"/>
-      <c r="F226" s="142"/>
+      <c r="B226" s="134"/>
+      <c r="C226" s="133"/>
+      <c r="D226" s="132"/>
+      <c r="E226" s="131"/>
+      <c r="F226" s="131"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B227" s="145"/>
-      <c r="C227" s="144"/>
-      <c r="D227" s="143"/>
-      <c r="E227" s="142"/>
-      <c r="F227" s="142"/>
+      <c r="B227" s="134"/>
+      <c r="C227" s="133"/>
+      <c r="D227" s="132"/>
+      <c r="E227" s="131"/>
+      <c r="F227" s="131"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B228" s="145"/>
-      <c r="C228" s="144"/>
-      <c r="D228" s="143"/>
-      <c r="E228" s="142"/>
-      <c r="F228" s="142"/>
+      <c r="B228" s="134"/>
+      <c r="C228" s="133"/>
+      <c r="D228" s="132"/>
+      <c r="E228" s="131"/>
+      <c r="F228" s="131"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B229" s="145"/>
-      <c r="C229" s="144"/>
-      <c r="D229" s="143"/>
-      <c r="E229" s="142"/>
-      <c r="F229" s="142"/>
+      <c r="B229" s="134"/>
+      <c r="C229" s="133"/>
+      <c r="D229" s="132"/>
+      <c r="E229" s="131"/>
+      <c r="F229" s="131"/>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B230" s="145"/>
-      <c r="C230" s="144"/>
-      <c r="D230" s="143"/>
-      <c r="E230" s="142"/>
-      <c r="F230" s="142"/>
+      <c r="B230" s="134"/>
+      <c r="C230" s="133"/>
+      <c r="D230" s="132"/>
+      <c r="E230" s="131"/>
+      <c r="F230" s="131"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B231" s="145"/>
-      <c r="C231" s="144"/>
-      <c r="D231" s="143"/>
-      <c r="E231" s="142"/>
-      <c r="F231" s="142"/>
+      <c r="B231" s="134"/>
+      <c r="C231" s="133"/>
+      <c r="D231" s="132"/>
+      <c r="E231" s="131"/>
+      <c r="F231" s="131"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B232" s="145"/>
-      <c r="C232" s="144"/>
-      <c r="D232" s="143"/>
-      <c r="E232" s="142"/>
-      <c r="F232" s="142"/>
+      <c r="B232" s="134"/>
+      <c r="C232" s="133"/>
+      <c r="D232" s="132"/>
+      <c r="E232" s="131"/>
+      <c r="F232" s="131"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B233" s="145"/>
-      <c r="C233" s="144"/>
-      <c r="D233" s="143"/>
-      <c r="E233" s="142"/>
-      <c r="F233" s="142"/>
+      <c r="B233" s="134"/>
+      <c r="C233" s="133"/>
+      <c r="D233" s="132"/>
+      <c r="E233" s="131"/>
+      <c r="F233" s="131"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B234" s="145"/>
-      <c r="C234" s="144"/>
-      <c r="D234" s="143"/>
-      <c r="E234" s="142"/>
-      <c r="F234" s="142"/>
+      <c r="B234" s="134"/>
+      <c r="C234" s="133"/>
+      <c r="D234" s="132"/>
+      <c r="E234" s="131"/>
+      <c r="F234" s="131"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B235" s="145"/>
-      <c r="C235" s="144"/>
-      <c r="D235" s="143"/>
-      <c r="E235" s="142"/>
-      <c r="F235" s="142"/>
+      <c r="B235" s="134"/>
+      <c r="C235" s="133"/>
+      <c r="D235" s="132"/>
+      <c r="E235" s="131"/>
+      <c r="F235" s="131"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B236" s="145"/>
-      <c r="C236" s="144"/>
-      <c r="D236" s="143"/>
-      <c r="E236" s="142"/>
-      <c r="F236" s="142"/>
+      <c r="B236" s="134"/>
+      <c r="C236" s="133"/>
+      <c r="D236" s="132"/>
+      <c r="E236" s="131"/>
+      <c r="F236" s="131"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B237" s="145"/>
-      <c r="C237" s="144"/>
-      <c r="D237" s="143"/>
-      <c r="E237" s="142"/>
-      <c r="F237" s="142"/>
+      <c r="B237" s="134"/>
+      <c r="C237" s="133"/>
+      <c r="D237" s="132"/>
+      <c r="E237" s="131"/>
+      <c r="F237" s="131"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B238" s="145"/>
-      <c r="C238" s="144"/>
-      <c r="D238" s="143"/>
-      <c r="E238" s="142"/>
-      <c r="F238" s="142"/>
+      <c r="B238" s="134"/>
+      <c r="C238" s="133"/>
+      <c r="D238" s="132"/>
+      <c r="E238" s="131"/>
+      <c r="F238" s="131"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B239" s="145"/>
-      <c r="C239" s="144"/>
-      <c r="D239" s="143"/>
-      <c r="E239" s="142"/>
-      <c r="F239" s="142"/>
+      <c r="B239" s="134"/>
+      <c r="C239" s="133"/>
+      <c r="D239" s="132"/>
+      <c r="E239" s="131"/>
+      <c r="F239" s="131"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B240" s="145"/>
-      <c r="C240" s="144"/>
-      <c r="D240" s="143"/>
-      <c r="E240" s="142"/>
-      <c r="F240" s="142"/>
+      <c r="B240" s="134"/>
+      <c r="C240" s="133"/>
+      <c r="D240" s="132"/>
+      <c r="E240" s="131"/>
+      <c r="F240" s="131"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B241" s="145"/>
-      <c r="C241" s="144"/>
-      <c r="D241" s="143"/>
-      <c r="E241" s="142"/>
-      <c r="F241" s="142"/>
+      <c r="B241" s="134"/>
+      <c r="C241" s="133"/>
+      <c r="D241" s="132"/>
+      <c r="E241" s="131"/>
+      <c r="F241" s="131"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B242" s="145"/>
-      <c r="C242" s="144"/>
-      <c r="D242" s="143"/>
-      <c r="E242" s="142"/>
-      <c r="F242" s="142"/>
+      <c r="B242" s="134"/>
+      <c r="C242" s="133"/>
+      <c r="D242" s="132"/>
+      <c r="E242" s="131"/>
+      <c r="F242" s="131"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B243" s="145"/>
-      <c r="C243" s="144"/>
-      <c r="D243" s="143"/>
-      <c r="E243" s="142"/>
-      <c r="F243" s="142"/>
+      <c r="B243" s="134"/>
+      <c r="C243" s="133"/>
+      <c r="D243" s="132"/>
+      <c r="E243" s="131"/>
+      <c r="F243" s="131"/>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B244" s="145"/>
-      <c r="C244" s="144"/>
-      <c r="D244" s="143"/>
-      <c r="E244" s="142"/>
-      <c r="F244" s="142"/>
+      <c r="B244" s="134"/>
+      <c r="C244" s="133"/>
+      <c r="D244" s="132"/>
+      <c r="E244" s="131"/>
+      <c r="F244" s="131"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B245" s="145"/>
-      <c r="C245" s="144"/>
-      <c r="D245" s="143"/>
-      <c r="E245" s="142"/>
-      <c r="F245" s="142"/>
+      <c r="B245" s="134"/>
+      <c r="C245" s="133"/>
+      <c r="D245" s="132"/>
+      <c r="E245" s="131"/>
+      <c r="F245" s="131"/>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B246" s="145"/>
-      <c r="C246" s="144"/>
-      <c r="D246" s="143"/>
-      <c r="E246" s="142"/>
-      <c r="F246" s="142"/>
+      <c r="B246" s="134"/>
+      <c r="C246" s="133"/>
+      <c r="D246" s="132"/>
+      <c r="E246" s="131"/>
+      <c r="F246" s="131"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B247" s="145"/>
-      <c r="C247" s="144"/>
-      <c r="D247" s="143"/>
-      <c r="E247" s="142"/>
-      <c r="F247" s="142"/>
+      <c r="B247" s="134"/>
+      <c r="C247" s="133"/>
+      <c r="D247" s="132"/>
+      <c r="E247" s="131"/>
+      <c r="F247" s="131"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B248" s="145"/>
-      <c r="C248" s="144"/>
-      <c r="D248" s="143"/>
-      <c r="E248" s="142"/>
-      <c r="F248" s="142"/>
+      <c r="B248" s="134"/>
+      <c r="C248" s="133"/>
+      <c r="D248" s="132"/>
+      <c r="E248" s="131"/>
+      <c r="F248" s="131"/>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B249" s="145"/>
-      <c r="C249" s="144"/>
-      <c r="D249" s="143"/>
-      <c r="E249" s="142"/>
-      <c r="F249" s="142"/>
+      <c r="B249" s="134"/>
+      <c r="C249" s="133"/>
+      <c r="D249" s="132"/>
+      <c r="E249" s="131"/>
+      <c r="F249" s="131"/>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B250" s="145"/>
-      <c r="C250" s="144"/>
-      <c r="D250" s="143"/>
-      <c r="E250" s="142"/>
-      <c r="F250" s="142"/>
+      <c r="B250" s="134"/>
+      <c r="C250" s="133"/>
+      <c r="D250" s="132"/>
+      <c r="E250" s="131"/>
+      <c r="F250" s="131"/>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B251" s="145"/>
-      <c r="C251" s="144"/>
-      <c r="D251" s="143"/>
-      <c r="E251" s="142"/>
-      <c r="F251" s="142"/>
+      <c r="B251" s="134"/>
+      <c r="C251" s="133"/>
+      <c r="D251" s="132"/>
+      <c r="E251" s="131"/>
+      <c r="F251" s="131"/>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B252" s="145"/>
-      <c r="C252" s="144"/>
-      <c r="D252" s="143"/>
-      <c r="E252" s="142"/>
-      <c r="F252" s="142"/>
+      <c r="B252" s="134"/>
+      <c r="C252" s="133"/>
+      <c r="D252" s="132"/>
+      <c r="E252" s="131"/>
+      <c r="F252" s="131"/>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B253" s="145"/>
-      <c r="C253" s="144"/>
-      <c r="D253" s="143"/>
-      <c r="E253" s="142"/>
-      <c r="F253" s="142"/>
+      <c r="B253" s="134"/>
+      <c r="C253" s="133"/>
+      <c r="D253" s="132"/>
+      <c r="E253" s="131"/>
+      <c r="F253" s="131"/>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B254" s="145"/>
-      <c r="C254" s="144"/>
-      <c r="D254" s="143"/>
-      <c r="E254" s="142"/>
-      <c r="F254" s="142"/>
+      <c r="B254" s="134"/>
+      <c r="C254" s="133"/>
+      <c r="D254" s="132"/>
+      <c r="E254" s="131"/>
+      <c r="F254" s="131"/>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B255" s="145"/>
-      <c r="C255" s="144"/>
-      <c r="D255" s="143"/>
-      <c r="E255" s="142"/>
-      <c r="F255" s="142"/>
+      <c r="B255" s="134"/>
+      <c r="C255" s="133"/>
+      <c r="D255" s="132"/>
+      <c r="E255" s="131"/>
+      <c r="F255" s="131"/>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B256" s="145"/>
-      <c r="C256" s="144"/>
-      <c r="D256" s="143"/>
-      <c r="E256" s="142"/>
-      <c r="F256" s="142"/>
+      <c r="B256" s="134"/>
+      <c r="C256" s="133"/>
+      <c r="D256" s="132"/>
+      <c r="E256" s="131"/>
+      <c r="F256" s="131"/>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B257" s="145"/>
-      <c r="C257" s="144"/>
-      <c r="D257" s="143"/>
-      <c r="E257" s="142"/>
-      <c r="F257" s="142"/>
+      <c r="B257" s="134"/>
+      <c r="C257" s="133"/>
+      <c r="D257" s="132"/>
+      <c r="E257" s="131"/>
+      <c r="F257" s="131"/>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B258" s="145"/>
-      <c r="C258" s="144"/>
-      <c r="D258" s="143"/>
-      <c r="E258" s="142"/>
-      <c r="F258" s="142"/>
+      <c r="B258" s="134"/>
+      <c r="C258" s="133"/>
+      <c r="D258" s="132"/>
+      <c r="E258" s="131"/>
+      <c r="F258" s="131"/>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B259" s="145"/>
-      <c r="C259" s="144"/>
-      <c r="D259" s="143"/>
-      <c r="E259" s="142"/>
-      <c r="F259" s="142"/>
+      <c r="B259" s="134"/>
+      <c r="C259" s="133"/>
+      <c r="D259" s="132"/>
+      <c r="E259" s="131"/>
+      <c r="F259" s="131"/>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B260" s="145"/>
-      <c r="C260" s="144"/>
-      <c r="D260" s="143"/>
-      <c r="E260" s="142"/>
-      <c r="F260" s="142"/>
+      <c r="B260" s="134"/>
+      <c r="C260" s="133"/>
+      <c r="D260" s="132"/>
+      <c r="E260" s="131"/>
+      <c r="F260" s="131"/>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B261" s="145"/>
-      <c r="C261" s="144"/>
-      <c r="D261" s="143"/>
-      <c r="E261" s="142"/>
-      <c r="F261" s="142"/>
+      <c r="B261" s="134"/>
+      <c r="C261" s="133"/>
+      <c r="D261" s="132"/>
+      <c r="E261" s="131"/>
+      <c r="F261" s="131"/>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B262" s="145"/>
-      <c r="C262" s="144"/>
-      <c r="D262" s="143"/>
-      <c r="E262" s="142"/>
-      <c r="F262" s="142"/>
+      <c r="B262" s="134"/>
+      <c r="C262" s="133"/>
+      <c r="D262" s="132"/>
+      <c r="E262" s="131"/>
+      <c r="F262" s="131"/>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B263" s="145"/>
-      <c r="C263" s="144"/>
-      <c r="D263" s="143"/>
-      <c r="E263" s="142"/>
-      <c r="F263" s="142"/>
+      <c r="B263" s="134"/>
+      <c r="C263" s="133"/>
+      <c r="D263" s="132"/>
+      <c r="E263" s="131"/>
+      <c r="F263" s="131"/>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B264" s="145"/>
-      <c r="C264" s="144"/>
-      <c r="D264" s="143"/>
-      <c r="E264" s="142"/>
-      <c r="F264" s="142"/>
+      <c r="B264" s="134"/>
+      <c r="C264" s="133"/>
+      <c r="D264" s="132"/>
+      <c r="E264" s="131"/>
+      <c r="F264" s="131"/>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B265" s="145"/>
-      <c r="C265" s="144"/>
-      <c r="D265" s="143"/>
-      <c r="E265" s="142"/>
-      <c r="F265" s="142"/>
+      <c r="B265" s="134"/>
+      <c r="C265" s="133"/>
+      <c r="D265" s="132"/>
+      <c r="E265" s="131"/>
+      <c r="F265" s="131"/>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B266" s="145"/>
-      <c r="C266" s="144"/>
-      <c r="D266" s="143"/>
-      <c r="E266" s="142"/>
-      <c r="F266" s="142"/>
+      <c r="B266" s="134"/>
+      <c r="C266" s="133"/>
+      <c r="D266" s="132"/>
+      <c r="E266" s="131"/>
+      <c r="F266" s="131"/>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B267" s="145"/>
-      <c r="C267" s="144"/>
-      <c r="D267" s="143"/>
-      <c r="E267" s="142"/>
-      <c r="F267" s="142"/>
+      <c r="B267" s="134"/>
+      <c r="C267" s="133"/>
+      <c r="D267" s="132"/>
+      <c r="E267" s="131"/>
+      <c r="F267" s="131"/>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B268" s="145"/>
-      <c r="C268" s="144"/>
-      <c r="D268" s="143"/>
-      <c r="E268" s="142"/>
-      <c r="F268" s="142"/>
+      <c r="B268" s="134"/>
+      <c r="C268" s="133"/>
+      <c r="D268" s="132"/>
+      <c r="E268" s="131"/>
+      <c r="F268" s="131"/>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B269" s="145"/>
-      <c r="C269" s="144"/>
-      <c r="D269" s="143"/>
-      <c r="E269" s="142"/>
-      <c r="F269" s="142"/>
+      <c r="B269" s="134"/>
+      <c r="C269" s="133"/>
+      <c r="D269" s="132"/>
+      <c r="E269" s="131"/>
+      <c r="F269" s="131"/>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B270" s="145"/>
-      <c r="C270" s="144"/>
-      <c r="D270" s="143"/>
-      <c r="E270" s="142"/>
-      <c r="F270" s="142"/>
+      <c r="B270" s="134"/>
+      <c r="C270" s="133"/>
+      <c r="D270" s="132"/>
+      <c r="E270" s="131"/>
+      <c r="F270" s="131"/>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B271" s="145"/>
-      <c r="C271" s="144"/>
-      <c r="D271" s="143"/>
-      <c r="E271" s="142"/>
-      <c r="F271" s="142"/>
+      <c r="B271" s="134"/>
+      <c r="C271" s="133"/>
+      <c r="D271" s="132"/>
+      <c r="E271" s="131"/>
+      <c r="F271" s="131"/>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B272" s="145"/>
-      <c r="C272" s="144"/>
-      <c r="D272" s="143"/>
-      <c r="E272" s="142"/>
-      <c r="F272" s="142"/>
+      <c r="B272" s="134"/>
+      <c r="C272" s="133"/>
+      <c r="D272" s="132"/>
+      <c r="E272" s="131"/>
+      <c r="F272" s="131"/>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B273" s="145"/>
-      <c r="C273" s="144"/>
-      <c r="D273" s="143"/>
-      <c r="E273" s="142"/>
-      <c r="F273" s="142"/>
+      <c r="B273" s="134"/>
+      <c r="C273" s="133"/>
+      <c r="D273" s="132"/>
+      <c r="E273" s="131"/>
+      <c r="F273" s="131"/>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B274" s="145"/>
-      <c r="C274" s="144"/>
-      <c r="D274" s="143"/>
-      <c r="E274" s="142"/>
-      <c r="F274" s="142"/>
+      <c r="B274" s="134"/>
+      <c r="C274" s="133"/>
+      <c r="D274" s="132"/>
+      <c r="E274" s="131"/>
+      <c r="F274" s="131"/>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B275" s="145"/>
-      <c r="C275" s="144"/>
-      <c r="D275" s="143"/>
-      <c r="E275" s="142"/>
-      <c r="F275" s="142"/>
+      <c r="B275" s="134"/>
+      <c r="C275" s="133"/>
+      <c r="D275" s="132"/>
+      <c r="E275" s="131"/>
+      <c r="F275" s="131"/>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B276" s="145"/>
-      <c r="C276" s="144"/>
-      <c r="D276" s="143"/>
-      <c r="E276" s="142"/>
-      <c r="F276" s="142"/>
+      <c r="B276" s="134"/>
+      <c r="C276" s="133"/>
+      <c r="D276" s="132"/>
+      <c r="E276" s="131"/>
+      <c r="F276" s="131"/>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B277" s="145"/>
-      <c r="C277" s="144"/>
-      <c r="D277" s="143"/>
-      <c r="E277" s="142"/>
-      <c r="F277" s="142"/>
+      <c r="B277" s="134"/>
+      <c r="C277" s="133"/>
+      <c r="D277" s="132"/>
+      <c r="E277" s="131"/>
+      <c r="F277" s="131"/>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B278" s="145"/>
-      <c r="C278" s="144"/>
-      <c r="D278" s="143"/>
-      <c r="E278" s="142"/>
-      <c r="F278" s="142"/>
+      <c r="B278" s="134"/>
+      <c r="C278" s="133"/>
+      <c r="D278" s="132"/>
+      <c r="E278" s="131"/>
+      <c r="F278" s="131"/>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B279" s="145"/>
-      <c r="C279" s="144"/>
-      <c r="D279" s="143"/>
-      <c r="E279" s="142"/>
-      <c r="F279" s="142"/>
+      <c r="B279" s="134"/>
+      <c r="C279" s="133"/>
+      <c r="D279" s="132"/>
+      <c r="E279" s="131"/>
+      <c r="F279" s="131"/>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B280" s="145"/>
-      <c r="C280" s="144"/>
-      <c r="D280" s="143"/>
-      <c r="E280" s="142"/>
-      <c r="F280" s="142"/>
+      <c r="B280" s="134"/>
+      <c r="C280" s="133"/>
+      <c r="D280" s="132"/>
+      <c r="E280" s="131"/>
+      <c r="F280" s="131"/>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B281" s="145"/>
-      <c r="C281" s="144"/>
-      <c r="D281" s="143"/>
-      <c r="E281" s="142"/>
-      <c r="F281" s="142"/>
+      <c r="B281" s="134"/>
+      <c r="C281" s="133"/>
+      <c r="D281" s="132"/>
+      <c r="E281" s="131"/>
+      <c r="F281" s="131"/>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B282" s="145"/>
-      <c r="C282" s="144"/>
-      <c r="D282" s="143"/>
-      <c r="E282" s="142"/>
-      <c r="F282" s="142"/>
+      <c r="B282" s="134"/>
+      <c r="C282" s="133"/>
+      <c r="D282" s="132"/>
+      <c r="E282" s="131"/>
+      <c r="F282" s="131"/>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B283" s="145"/>
-      <c r="C283" s="144"/>
-      <c r="D283" s="143"/>
-      <c r="E283" s="142"/>
-      <c r="F283" s="142"/>
+      <c r="B283" s="134"/>
+      <c r="C283" s="133"/>
+      <c r="D283" s="132"/>
+      <c r="E283" s="131"/>
+      <c r="F283" s="131"/>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B284" s="145"/>
-      <c r="C284" s="144"/>
-      <c r="D284" s="143"/>
-      <c r="E284" s="142"/>
-      <c r="F284" s="142"/>
+      <c r="B284" s="134"/>
+      <c r="C284" s="133"/>
+      <c r="D284" s="132"/>
+      <c r="E284" s="131"/>
+      <c r="F284" s="131"/>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B285" s="145"/>
-      <c r="C285" s="144"/>
-      <c r="D285" s="143"/>
-      <c r="E285" s="142"/>
-      <c r="F285" s="142"/>
+      <c r="B285" s="134"/>
+      <c r="C285" s="133"/>
+      <c r="D285" s="132"/>
+      <c r="E285" s="131"/>
+      <c r="F285" s="131"/>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B286" s="145"/>
-      <c r="C286" s="144"/>
-      <c r="D286" s="143"/>
-      <c r="E286" s="142"/>
-      <c r="F286" s="142"/>
+      <c r="B286" s="134"/>
+      <c r="C286" s="133"/>
+      <c r="D286" s="132"/>
+      <c r="E286" s="131"/>
+      <c r="F286" s="131"/>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B287" s="145"/>
-      <c r="C287" s="144"/>
-      <c r="D287" s="143"/>
-      <c r="E287" s="142"/>
-      <c r="F287" s="142"/>
+      <c r="B287" s="134"/>
+      <c r="C287" s="133"/>
+      <c r="D287" s="132"/>
+      <c r="E287" s="131"/>
+      <c r="F287" s="131"/>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B288" s="145"/>
-      <c r="C288" s="144"/>
-      <c r="D288" s="143"/>
-      <c r="E288" s="142"/>
-      <c r="F288" s="142"/>
+      <c r="B288" s="134"/>
+      <c r="C288" s="133"/>
+      <c r="D288" s="132"/>
+      <c r="E288" s="131"/>
+      <c r="F288" s="131"/>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B289" s="145"/>
-      <c r="C289" s="144"/>
-      <c r="D289" s="143"/>
-      <c r="E289" s="142"/>
-      <c r="F289" s="142"/>
+      <c r="B289" s="134"/>
+      <c r="C289" s="133"/>
+      <c r="D289" s="132"/>
+      <c r="E289" s="131"/>
+      <c r="F289" s="131"/>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B290" s="145"/>
-      <c r="C290" s="144"/>
-      <c r="D290" s="143"/>
-      <c r="E290" s="142"/>
-      <c r="F290" s="142"/>
+      <c r="B290" s="134"/>
+      <c r="C290" s="133"/>
+      <c r="D290" s="132"/>
+      <c r="E290" s="131"/>
+      <c r="F290" s="131"/>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B291" s="145"/>
-      <c r="C291" s="144"/>
-      <c r="D291" s="143"/>
-      <c r="E291" s="142"/>
-      <c r="F291" s="142"/>
+      <c r="B291" s="134"/>
+      <c r="C291" s="133"/>
+      <c r="D291" s="132"/>
+      <c r="E291" s="131"/>
+      <c r="F291" s="131"/>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B292" s="145"/>
-      <c r="C292" s="144"/>
-      <c r="D292" s="143"/>
-      <c r="E292" s="142"/>
-      <c r="F292" s="142"/>
+      <c r="B292" s="134"/>
+      <c r="C292" s="133"/>
+      <c r="D292" s="132"/>
+      <c r="E292" s="131"/>
+      <c r="F292" s="131"/>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B293" s="145"/>
-      <c r="C293" s="144"/>
-      <c r="D293" s="143"/>
-      <c r="E293" s="142"/>
-      <c r="F293" s="142"/>
+      <c r="B293" s="134"/>
+      <c r="C293" s="133"/>
+      <c r="D293" s="132"/>
+      <c r="E293" s="131"/>
+      <c r="F293" s="131"/>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B294" s="145"/>
-      <c r="C294" s="144"/>
-      <c r="D294" s="143"/>
-      <c r="E294" s="142"/>
-      <c r="F294" s="142"/>
+      <c r="B294" s="134"/>
+      <c r="C294" s="133"/>
+      <c r="D294" s="132"/>
+      <c r="E294" s="131"/>
+      <c r="F294" s="131"/>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B295" s="145"/>
-      <c r="C295" s="144"/>
-      <c r="D295" s="143"/>
-      <c r="E295" s="142"/>
-      <c r="F295" s="142"/>
+      <c r="B295" s="134"/>
+      <c r="C295" s="133"/>
+      <c r="D295" s="132"/>
+      <c r="E295" s="131"/>
+      <c r="F295" s="131"/>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B296" s="145"/>
-      <c r="C296" s="144"/>
-      <c r="D296" s="143"/>
-      <c r="E296" s="142"/>
-      <c r="F296" s="142"/>
+      <c r="B296" s="134"/>
+      <c r="C296" s="133"/>
+      <c r="D296" s="132"/>
+      <c r="E296" s="131"/>
+      <c r="F296" s="131"/>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B297" s="145"/>
-      <c r="C297" s="144"/>
-      <c r="D297" s="143"/>
-      <c r="E297" s="142"/>
-      <c r="F297" s="142"/>
+      <c r="B297" s="134"/>
+      <c r="C297" s="133"/>
+      <c r="D297" s="132"/>
+      <c r="E297" s="131"/>
+      <c r="F297" s="131"/>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B298" s="145"/>
-      <c r="C298" s="144"/>
-      <c r="D298" s="143"/>
-      <c r="E298" s="142"/>
-      <c r="F298" s="142"/>
+      <c r="B298" s="134"/>
+      <c r="C298" s="133"/>
+      <c r="D298" s="132"/>
+      <c r="E298" s="131"/>
+      <c r="F298" s="131"/>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B299" s="145"/>
-      <c r="C299" s="144"/>
-      <c r="D299" s="143"/>
-      <c r="E299" s="142"/>
-      <c r="F299" s="142"/>
+      <c r="B299" s="134"/>
+      <c r="C299" s="133"/>
+      <c r="D299" s="132"/>
+      <c r="E299" s="131"/>
+      <c r="F299" s="131"/>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B300" s="145"/>
-      <c r="C300" s="144"/>
-      <c r="D300" s="143"/>
-      <c r="E300" s="142"/>
-      <c r="F300" s="142"/>
+      <c r="B300" s="134"/>
+      <c r="C300" s="133"/>
+      <c r="D300" s="132"/>
+      <c r="E300" s="131"/>
+      <c r="F300" s="131"/>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B301" s="145"/>
-      <c r="C301" s="144"/>
-      <c r="D301" s="143"/>
-      <c r="E301" s="142"/>
-      <c r="F301" s="142"/>
+      <c r="B301" s="134"/>
+      <c r="C301" s="133"/>
+      <c r="D301" s="132"/>
+      <c r="E301" s="131"/>
+      <c r="F301" s="131"/>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B302" s="145"/>
-      <c r="C302" s="144"/>
-      <c r="D302" s="143"/>
-      <c r="E302" s="142"/>
-      <c r="F302" s="142"/>
+      <c r="B302" s="134"/>
+      <c r="C302" s="133"/>
+      <c r="D302" s="132"/>
+      <c r="E302" s="131"/>
+      <c r="F302" s="131"/>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B303" s="145"/>
-      <c r="C303" s="144"/>
-      <c r="D303" s="143"/>
-      <c r="E303" s="142"/>
-      <c r="F303" s="142"/>
+      <c r="B303" s="134"/>
+      <c r="C303" s="133"/>
+      <c r="D303" s="132"/>
+      <c r="E303" s="131"/>
+      <c r="F303" s="131"/>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B304" s="145"/>
-      <c r="C304" s="144"/>
-      <c r="D304" s="143"/>
-      <c r="E304" s="142"/>
-      <c r="F304" s="142"/>
+      <c r="B304" s="134"/>
+      <c r="C304" s="133"/>
+      <c r="D304" s="132"/>
+      <c r="E304" s="131"/>
+      <c r="F304" s="131"/>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B305" s="145"/>
-      <c r="C305" s="144"/>
-      <c r="D305" s="143"/>
-      <c r="E305" s="142"/>
-      <c r="F305" s="142"/>
+      <c r="B305" s="134"/>
+      <c r="C305" s="133"/>
+      <c r="D305" s="132"/>
+      <c r="E305" s="131"/>
+      <c r="F305" s="131"/>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B306" s="145"/>
-      <c r="C306" s="144"/>
-      <c r="D306" s="143"/>
-      <c r="E306" s="142"/>
-      <c r="F306" s="142"/>
+      <c r="B306" s="134"/>
+      <c r="C306" s="133"/>
+      <c r="D306" s="132"/>
+      <c r="E306" s="131"/>
+      <c r="F306" s="131"/>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B307" s="145"/>
-      <c r="C307" s="144"/>
-      <c r="D307" s="143"/>
-      <c r="E307" s="142"/>
-      <c r="F307" s="142"/>
+      <c r="B307" s="134"/>
+      <c r="C307" s="133"/>
+      <c r="D307" s="132"/>
+      <c r="E307" s="131"/>
+      <c r="F307" s="131"/>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B308" s="145"/>
-      <c r="C308" s="144"/>
-      <c r="D308" s="143"/>
-      <c r="E308" s="142"/>
-      <c r="F308" s="142"/>
+      <c r="B308" s="134"/>
+      <c r="C308" s="133"/>
+      <c r="D308" s="132"/>
+      <c r="E308" s="131"/>
+      <c r="F308" s="131"/>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B309" s="145"/>
-      <c r="C309" s="144"/>
-      <c r="D309" s="143"/>
-      <c r="E309" s="142"/>
-      <c r="F309" s="142"/>
+      <c r="B309" s="134"/>
+      <c r="C309" s="133"/>
+      <c r="D309" s="132"/>
+      <c r="E309" s="131"/>
+      <c r="F309" s="131"/>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B310" s="145"/>
-      <c r="C310" s="144"/>
-      <c r="D310" s="143"/>
-      <c r="E310" s="142"/>
-      <c r="F310" s="142"/>
+      <c r="B310" s="134"/>
+      <c r="C310" s="133"/>
+      <c r="D310" s="132"/>
+      <c r="E310" s="131"/>
+      <c r="F310" s="131"/>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B311" s="145"/>
-      <c r="C311" s="144"/>
-      <c r="D311" s="143"/>
-      <c r="E311" s="142"/>
-      <c r="F311" s="142"/>
+      <c r="B311" s="134"/>
+      <c r="C311" s="133"/>
+      <c r="D311" s="132"/>
+      <c r="E311" s="131"/>
+      <c r="F311" s="131"/>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B312" s="145"/>
-      <c r="C312" s="144"/>
-      <c r="D312" s="143"/>
-      <c r="E312" s="142"/>
-      <c r="F312" s="142"/>
+      <c r="B312" s="134"/>
+      <c r="C312" s="133"/>
+      <c r="D312" s="132"/>
+      <c r="E312" s="131"/>
+      <c r="F312" s="131"/>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B313" s="145"/>
-      <c r="C313" s="144"/>
-      <c r="D313" s="143"/>
-      <c r="E313" s="142"/>
-      <c r="F313" s="142"/>
+      <c r="B313" s="134"/>
+      <c r="C313" s="133"/>
+      <c r="D313" s="132"/>
+      <c r="E313" s="131"/>
+      <c r="F313" s="131"/>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B314" s="145"/>
-      <c r="C314" s="144"/>
-      <c r="D314" s="143"/>
-      <c r="E314" s="142"/>
-      <c r="F314" s="142"/>
+      <c r="B314" s="134"/>
+      <c r="C314" s="133"/>
+      <c r="D314" s="132"/>
+      <c r="E314" s="131"/>
+      <c r="F314" s="131"/>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B315" s="145"/>
-      <c r="C315" s="144"/>
-      <c r="D315" s="143"/>
-      <c r="E315" s="142"/>
-      <c r="F315" s="142"/>
+      <c r="B315" s="134"/>
+      <c r="C315" s="133"/>
+      <c r="D315" s="132"/>
+      <c r="E315" s="131"/>
+      <c r="F315" s="131"/>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B316" s="145"/>
-      <c r="C316" s="144"/>
-      <c r="D316" s="143"/>
-      <c r="E316" s="142"/>
-      <c r="F316" s="142"/>
+      <c r="B316" s="134"/>
+      <c r="C316" s="133"/>
+      <c r="D316" s="132"/>
+      <c r="E316" s="131"/>
+      <c r="F316" s="131"/>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B317" s="145"/>
-      <c r="C317" s="144"/>
-      <c r="D317" s="143"/>
-      <c r="E317" s="142"/>
-      <c r="F317" s="142"/>
+      <c r="B317" s="134"/>
+      <c r="C317" s="133"/>
+      <c r="D317" s="132"/>
+      <c r="E317" s="131"/>
+      <c r="F317" s="131"/>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B318" s="145"/>
-      <c r="C318" s="144"/>
-      <c r="D318" s="143"/>
-      <c r="E318" s="142"/>
-      <c r="F318" s="142"/>
+      <c r="B318" s="134"/>
+      <c r="C318" s="133"/>
+      <c r="D318" s="132"/>
+      <c r="E318" s="131"/>
+      <c r="F318" s="131"/>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B319" s="145"/>
-      <c r="C319" s="144"/>
-      <c r="D319" s="143"/>
-      <c r="E319" s="142"/>
-      <c r="F319" s="142"/>
+      <c r="B319" s="134"/>
+      <c r="C319" s="133"/>
+      <c r="D319" s="132"/>
+      <c r="E319" s="131"/>
+      <c r="F319" s="131"/>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B320" s="145"/>
-      <c r="C320" s="144"/>
-      <c r="D320" s="143"/>
-      <c r="E320" s="142"/>
-      <c r="F320" s="142"/>
+      <c r="B320" s="134"/>
+      <c r="C320" s="133"/>
+      <c r="D320" s="132"/>
+      <c r="E320" s="131"/>
+      <c r="F320" s="131"/>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B321" s="145"/>
-      <c r="C321" s="144"/>
-      <c r="D321" s="143"/>
-      <c r="E321" s="142"/>
-      <c r="F321" s="142"/>
+      <c r="B321" s="134"/>
+      <c r="C321" s="133"/>
+      <c r="D321" s="132"/>
+      <c r="E321" s="131"/>
+      <c r="F321" s="131"/>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B322" s="145"/>
-      <c r="C322" s="144"/>
-      <c r="D322" s="143"/>
-      <c r="E322" s="142"/>
-      <c r="F322" s="142"/>
+      <c r="B322" s="134"/>
+      <c r="C322" s="133"/>
+      <c r="D322" s="132"/>
+      <c r="E322" s="131"/>
+      <c r="F322" s="131"/>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B323" s="145"/>
-      <c r="C323" s="144"/>
-      <c r="D323" s="143"/>
-      <c r="E323" s="142"/>
-      <c r="F323" s="142"/>
+      <c r="B323" s="134"/>
+      <c r="C323" s="133"/>
+      <c r="D323" s="132"/>
+      <c r="E323" s="131"/>
+      <c r="F323" s="131"/>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B324" s="145"/>
-      <c r="C324" s="144"/>
-      <c r="D324" s="143"/>
-      <c r="E324" s="142"/>
-      <c r="F324" s="142"/>
+      <c r="B324" s="134"/>
+      <c r="C324" s="133"/>
+      <c r="D324" s="132"/>
+      <c r="E324" s="131"/>
+      <c r="F324" s="131"/>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B325" s="145"/>
-      <c r="C325" s="144"/>
-      <c r="D325" s="143"/>
-      <c r="E325" s="142"/>
-      <c r="F325" s="142"/>
+      <c r="B325" s="134"/>
+      <c r="C325" s="133"/>
+      <c r="D325" s="132"/>
+      <c r="E325" s="131"/>
+      <c r="F325" s="131"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1678B8-FC54-4AC8-9A2F-EECDBE089E47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EE9DC2-F49F-45C1-B7A2-764A1C251740}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="客户问题跟踪表" sheetId="3" r:id="rId2"/>
     <sheet name="风控需求" sheetId="4" r:id="rId3"/>
     <sheet name="备注" sheetId="2" r:id="rId4"/>
+    <sheet name="更新记录" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户问题跟踪表!$D$1:$D$1</definedName>
@@ -27,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="259">
-  <si>
-    <t>客户原始需求</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="267">
   <si>
     <t>迅策需求回复与跟踪</t>
   </si>
@@ -543,10 +541,6 @@
   </si>
   <si>
     <t>人员权限中，添加报表时没有举牌分析报表选择但是会自动添加举牌分析报表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产明细报表-累计浮动盈亏更名为浮动盈亏或者累计盈亏</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1383,10 +1377,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>基金报表-股票市值占比为占总资产比</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>综合报表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1452,7 +1442,51 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>基金报表中添加日涨跌幅，最新价，成本价。当日涨跌幅根据行情实时更新</t>
+    <t>基金报表-股票市值占比为占总资产比，应改为：股票市值占比=股票市值/净资产</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产明细报表-个股盈亏比例==基金报表中浮盈率，将基金报表中浮盈率更名为盈亏比例</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>将基金报表中浮盈率更名为盈亏比例</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金占比改为加了百分号后小数点后两位</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户原始需求</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间:2019/5/20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中添加日涨跌幅（可直接拿行情涨跌幅，不考虑除权，从上线当日开始，不需要历史行情），最新价（A股、港股行情），成本价取数据查询-持仓查询中成本价。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>与产品确认需求第21条与问题第19-22条情况</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1624,7 +1658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1673,8 +1707,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2057,6 +2097,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2067,7 +2122,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2578,15 +2633,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2623,11 +2669,53 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3111,71 +3199,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="183" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="184"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="162" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B2" s="148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="16" t="s">
+      <c r="N2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="81" x14ac:dyDescent="0.15">
@@ -3186,33 +3276,33 @@
         <v>43489</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L3" s="5">
         <v>43582</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="71"/>
@@ -3225,33 +3315,33 @@
         <v>43489</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F4" s="96"/>
       <c r="G4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L4" s="5">
         <v>43591</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="71"/>
@@ -3264,33 +3354,33 @@
         <v>43489</v>
       </c>
       <c r="C5" s="96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="96"/>
       <c r="G5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L5" s="5">
         <v>43591</v>
       </c>
       <c r="M5" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" s="46"/>
       <c r="O5" s="71"/>
@@ -3303,29 +3393,29 @@
         <v>43489</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
       <c r="J6" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="71"/>
@@ -3338,29 +3428,29 @@
         <v>43489</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="2"/>
       <c r="J7" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="71"/>
@@ -3373,29 +3463,29 @@
         <v>43489</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
       <c r="J8" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="71"/>
@@ -3408,29 +3498,29 @@
         <v>43489</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="6"/>
       <c r="J9" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="71"/>
@@ -3443,35 +3533,35 @@
         <v>43489</v>
       </c>
       <c r="C10" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="98" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" s="97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="17">
         <v>3.35</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L10" s="5">
         <v>43582</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="71"/>
@@ -3484,33 +3574,33 @@
         <v>43546</v>
       </c>
       <c r="C11" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="101" t="s">
-        <v>25</v>
-      </c>
       <c r="E11" s="101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="102"/>
       <c r="G11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K11" s="70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" s="5">
         <v>43591</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="71"/>
@@ -3523,23 +3613,23 @@
         <v>43556</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>69</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>70</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="31"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
       <c r="J12" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="44"/>
@@ -3554,25 +3644,25 @@
         <v>43565</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>75</v>
-      </c>
       <c r="F13" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
       <c r="J13" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K13" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="44"/>
@@ -3587,25 +3677,25 @@
         <v>43565</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="143" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" s="143" t="s">
-        <v>77</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
       <c r="J14" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K14" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="44"/>
@@ -3620,23 +3710,23 @@
         <v>43566</v>
       </c>
       <c r="C15" s="145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="146" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="145" t="s">
         <v>80</v>
-      </c>
-      <c r="E15" s="145" t="s">
-        <v>81</v>
       </c>
       <c r="F15" s="147"/>
       <c r="G15" s="52"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
       <c r="J15" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15" s="70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
@@ -3651,31 +3741,31 @@
         <v>43489</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="56" t="s">
         <v>86</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>87</v>
       </c>
       <c r="F16" s="59"/>
       <c r="G16" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="60"/>
       <c r="J16" s="72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K16" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L16" s="61">
         <v>43583</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N16" s="59"/>
       <c r="O16" s="71"/>
@@ -3688,29 +3778,29 @@
         <v>43546</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="58"/>
       <c r="I17" s="60"/>
       <c r="J17" s="72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" s="69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L17" s="59"/>
       <c r="M17" s="61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N17" s="59"/>
       <c r="O17" s="71"/>
@@ -3723,31 +3813,31 @@
         <v>43518</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="56" t="s">
         <v>90</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>91</v>
       </c>
       <c r="F18" s="59"/>
       <c r="G18" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="58"/>
       <c r="I18" s="60">
         <v>3.36</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N18" s="59"/>
       <c r="O18" s="71"/>
@@ -3760,13 +3850,13 @@
         <v>43599</v>
       </c>
       <c r="C19" s="108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E19" s="108" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F19" s="109"/>
       <c r="G19" s="110"/>
@@ -3779,23 +3869,23 @@
       <c r="N19" s="109"/>
       <c r="O19" s="109"/>
     </row>
-    <row r="20" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="165">
         <v>21</v>
       </c>
-      <c r="B20" s="175">
+      <c r="B20" s="172">
         <v>43600</v>
       </c>
-      <c r="C20" s="176" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="176" t="s">
-        <v>251</v>
-      </c>
-      <c r="E20" s="176" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="177"/>
+      <c r="C20" s="173" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="173" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="173" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="174"/>
       <c r="G20" s="154"/>
       <c r="H20" s="153"/>
       <c r="I20" s="153"/>
@@ -3804,9 +3894,10 @@
       <c r="L20" s="153"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="H1:O1"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
@@ -3837,8 +3928,8 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3860,43 +3951,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -3907,28 +3998,28 @@
         <v>43495</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="30">
         <v>43539</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="63"/>
       <c r="K2" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M2" s="24"/>
     </row>
@@ -3940,30 +4031,30 @@
         <v>43495</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="H3" s="30">
         <v>43539</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M3" s="24"/>
     </row>
@@ -3975,31 +4066,31 @@
         <v>43543</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="84"/>
       <c r="E4" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="G4" s="85" t="s">
         <v>49</v>
-      </c>
-      <c r="G4" s="85" t="s">
-        <v>50</v>
       </c>
       <c r="H4" s="86"/>
       <c r="I4" s="86"/>
       <c r="J4" s="87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M4" s="84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4010,26 +4101,26 @@
         <v>43545</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>54</v>
-      </c>
       <c r="G5" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="65"/>
       <c r="K5" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" s="27"/>
     </row>
@@ -4041,33 +4132,33 @@
         <v>43546</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="E6" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="G6" s="35" t="s">
         <v>58</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>59</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4078,30 +4169,30 @@
         <v>43546</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>60</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>61</v>
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M7" s="40"/>
     </row>
@@ -4113,24 +4204,24 @@
         <v>43557</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M8" s="31"/>
     </row>
@@ -4142,13 +4233,13 @@
         <v>43558</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -4157,16 +4248,16 @@
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M9" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4177,24 +4268,24 @@
         <v>43566</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>78</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>79</v>
       </c>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="I10" s="54"/>
       <c r="J10" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K10" s="52"/>
       <c r="L10" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M10" s="52"/>
     </row>
@@ -4206,24 +4297,24 @@
         <v>43566</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
       <c r="J11" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M11" s="52"/>
     </row>
@@ -4235,13 +4326,13 @@
         <v>43581</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="93" t="s">
         <v>118</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>119</v>
       </c>
       <c r="F12" s="94"/>
       <c r="G12" s="94"/>
@@ -4250,11 +4341,11 @@
       </c>
       <c r="I12" s="94"/>
       <c r="J12" s="63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K12" s="89"/>
       <c r="L12" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M12" s="89"/>
     </row>
@@ -4266,13 +4357,13 @@
         <v>43581</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="94"/>
@@ -4281,11 +4372,11 @@
       </c>
       <c r="I13" s="94"/>
       <c r="J13" s="63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="89"/>
       <c r="L13" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M13" s="89"/>
     </row>
@@ -4297,58 +4388,58 @@
         <v>43581</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="80" t="s">
         <v>122</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="80" t="s">
-        <v>123</v>
       </c>
       <c r="G14" s="81"/>
       <c r="H14" s="81"/>
       <c r="I14" s="81"/>
       <c r="J14" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K14" s="76"/>
       <c r="L14" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="178">
+      <c r="A15" s="175">
         <v>14</v>
       </c>
-      <c r="B15" s="179">
+      <c r="B15" s="176">
         <v>43595</v>
       </c>
-      <c r="C15" s="180" t="s">
+      <c r="C15" s="177" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="181" t="s">
+      <c r="E15" s="179" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="177" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="182" t="s">
-        <v>257</v>
-      </c>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="180" t="s">
+      <c r="K15" s="175"/>
+      <c r="L15" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="K15" s="178"/>
-      <c r="L15" s="181" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" s="180" t="s">
-        <v>255</v>
+      <c r="M15" s="177" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4359,11 +4450,11 @@
         <v>43598</v>
       </c>
       <c r="C16" s="113" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D16" s="114"/>
       <c r="E16" s="115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="116"/>
       <c r="G16" s="116"/>
@@ -4372,11 +4463,11 @@
       </c>
       <c r="I16" s="116"/>
       <c r="J16" s="113" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K16" s="114"/>
       <c r="L16" s="118" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M16" s="114"/>
     </row>
@@ -4388,16 +4479,16 @@
         <v>43600</v>
       </c>
       <c r="C17" s="157" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E17" s="159" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F17" s="159" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G17" s="160"/>
       <c r="H17" s="160"/>
@@ -4415,16 +4506,16 @@
         <v>43600</v>
       </c>
       <c r="C18" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="122" t="s">
-        <v>144</v>
-      </c>
       <c r="E18" s="123" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F18" s="123" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G18" s="124"/>
       <c r="H18" s="124"/>
@@ -4442,13 +4533,13 @@
         <v>43598</v>
       </c>
       <c r="C19" s="121" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D19" s="106" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="105" t="s">
         <v>133</v>
-      </c>
-      <c r="E19" s="105" t="s">
-        <v>134</v>
       </c>
       <c r="F19" s="124"/>
       <c r="G19" s="124"/>
@@ -4467,19 +4558,23 @@
         <v>43598</v>
       </c>
       <c r="C20" s="168" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" s="169" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E20" s="170" t="s">
-        <v>249</v>
-      </c>
-      <c r="F20" s="171"/>
+        <v>247</v>
+      </c>
+      <c r="F20" s="170" t="s">
+        <v>260</v>
+      </c>
       <c r="G20" s="171"/>
       <c r="H20" s="171"/>
       <c r="I20" s="171"/>
-      <c r="J20" s="172"/>
+      <c r="J20" s="168" t="s">
+        <v>259</v>
+      </c>
       <c r="K20" s="166"/>
       <c r="L20" s="166"/>
       <c r="M20" s="166"/>
@@ -4492,74 +4587,82 @@
         <v>43598</v>
       </c>
       <c r="C21" s="168" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D21" s="169" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E21" s="170" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F21" s="171"/>
       <c r="G21" s="171"/>
       <c r="H21" s="171"/>
       <c r="I21" s="171"/>
-      <c r="J21" s="172"/>
+      <c r="J21" s="168" t="s">
+        <v>259</v>
+      </c>
       <c r="K21" s="166"/>
       <c r="L21" s="166"/>
       <c r="M21" s="166"/>
     </row>
     <row r="22" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="166">
+      <c r="A22" s="192">
         <v>21</v>
       </c>
-      <c r="B22" s="167">
+      <c r="B22" s="193">
         <v>43598</v>
       </c>
-      <c r="C22" s="168" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="173" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="170" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="174"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
+      <c r="C22" s="194" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="195" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="196" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="197" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" s="198"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="194" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="192"/>
+      <c r="L22" s="192"/>
+      <c r="M22" s="192"/>
     </row>
     <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="166">
+      <c r="A23" s="185">
         <v>22</v>
       </c>
-      <c r="B23" s="167">
+      <c r="B23" s="186">
         <v>43598</v>
       </c>
-      <c r="C23" s="168" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="170" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="170" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="170" t="s">
-        <v>254</v>
-      </c>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
+      <c r="C23" s="187" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="188" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="188" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="188" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" s="189"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="187" t="s">
+        <v>256</v>
+      </c>
+      <c r="K23" s="185"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="185"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -4598,788 +4701,788 @@
     </row>
     <row r="2" spans="2:6" s="141" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="137" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D2" s="142" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F2" s="137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="137">
         <v>1</v>
       </c>
-      <c r="C3" s="188" t="s">
-        <v>242</v>
+      <c r="C3" s="184" t="s">
+        <v>240</v>
       </c>
       <c r="D3" s="140" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E3" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" s="135" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="137">
         <v>2</v>
       </c>
-      <c r="C4" s="188"/>
+      <c r="C4" s="184"/>
       <c r="D4" s="138" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E4" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F4" s="135" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="137">
         <v>3</v>
       </c>
-      <c r="C5" s="188"/>
+      <c r="C5" s="184"/>
       <c r="D5" s="139" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E5" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F5" s="135" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="137">
         <v>4</v>
       </c>
-      <c r="C6" s="188"/>
+      <c r="C6" s="184"/>
       <c r="D6" s="139" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E6" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" s="135" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="137">
         <v>5</v>
       </c>
-      <c r="C7" s="188"/>
+      <c r="C7" s="184"/>
       <c r="D7" s="138" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E7" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F7" s="135" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="137">
         <v>6</v>
       </c>
-      <c r="C8" s="188"/>
+      <c r="C8" s="184"/>
       <c r="D8" s="139" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E8" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" s="135" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B9" s="137">
         <v>7</v>
       </c>
-      <c r="C9" s="188"/>
+      <c r="C9" s="184"/>
       <c r="D9" s="138" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E9" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F9" s="135" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B10" s="137">
         <v>8</v>
       </c>
-      <c r="C10" s="188"/>
+      <c r="C10" s="184"/>
       <c r="D10" s="138" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E10" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F10" s="135" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="137">
         <v>9</v>
       </c>
-      <c r="C11" s="188"/>
+      <c r="C11" s="184"/>
       <c r="D11" s="138" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E11" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F11" s="135" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B12" s="137">
         <v>10</v>
       </c>
-      <c r="C12" s="188"/>
+      <c r="C12" s="184"/>
       <c r="D12" s="138" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E12" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F12" s="135" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="27.75" x14ac:dyDescent="0.15">
       <c r="B13" s="137">
         <v>11</v>
       </c>
-      <c r="C13" s="188"/>
+      <c r="C13" s="184"/>
       <c r="D13" s="138" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E13" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F13" s="135" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="137">
         <v>12</v>
       </c>
-      <c r="C14" s="188"/>
+      <c r="C14" s="184"/>
       <c r="D14" s="138" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E14" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F14" s="135" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="137">
         <v>13</v>
       </c>
-      <c r="C15" s="188"/>
+      <c r="C15" s="184"/>
       <c r="D15" s="138" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E15" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F15" s="135" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="137">
         <v>14</v>
       </c>
-      <c r="C16" s="188"/>
+      <c r="C16" s="184"/>
       <c r="D16" s="138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E16" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F16" s="135" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="137">
         <v>15</v>
       </c>
-      <c r="C17" s="188"/>
+      <c r="C17" s="184"/>
       <c r="D17" s="138" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E17" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F17" s="135" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="137">
         <v>16</v>
       </c>
-      <c r="C18" s="188"/>
+      <c r="C18" s="184"/>
       <c r="D18" s="138" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E18" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F18" s="135" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="137">
         <v>17</v>
       </c>
-      <c r="C19" s="188"/>
+      <c r="C19" s="184"/>
       <c r="D19" s="138" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E19" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F19" s="135" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="137">
         <v>18</v>
       </c>
-      <c r="C20" s="188"/>
+      <c r="C20" s="184"/>
       <c r="D20" s="138" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E20" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F20" s="135" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="137">
         <v>19</v>
       </c>
-      <c r="C21" s="188"/>
+      <c r="C21" s="184"/>
       <c r="D21" s="139" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E21" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F21" s="135" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B22" s="137">
         <v>20</v>
       </c>
-      <c r="C22" s="188"/>
+      <c r="C22" s="184"/>
       <c r="D22" s="138" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E22" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F22" s="135" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="137">
         <v>21</v>
       </c>
-      <c r="C23" s="188"/>
+      <c r="C23" s="184"/>
       <c r="D23" s="138" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E23" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F23" s="135" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="137">
         <v>22</v>
       </c>
-      <c r="C24" s="188" t="s">
-        <v>206</v>
+      <c r="C24" s="184" t="s">
+        <v>204</v>
       </c>
       <c r="D24" s="136" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E24" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F24" s="135" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="137">
         <v>23</v>
       </c>
-      <c r="C25" s="188"/>
+      <c r="C25" s="184"/>
       <c r="D25" s="136" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E25" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F25" s="135" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="137">
         <v>24</v>
       </c>
-      <c r="C26" s="188"/>
+      <c r="C26" s="184"/>
       <c r="D26" s="136" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E26" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F26" s="135" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="137">
         <v>25</v>
       </c>
-      <c r="C27" s="188"/>
+      <c r="C27" s="184"/>
       <c r="D27" s="136" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E27" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F27" s="135" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="137">
         <v>26</v>
       </c>
-      <c r="C28" s="188"/>
+      <c r="C28" s="184"/>
       <c r="D28" s="136" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E28" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F28" s="135" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="137">
         <v>27</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="184"/>
       <c r="D29" s="136" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E29" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="135" t="s">
         <v>192</v>
-      </c>
-      <c r="F29" s="135" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="137">
         <v>28</v>
       </c>
-      <c r="C30" s="188"/>
+      <c r="C30" s="184"/>
       <c r="D30" s="136" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E30" s="135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F30" s="135" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="137">
         <v>29</v>
       </c>
-      <c r="C31" s="188"/>
+      <c r="C31" s="184"/>
       <c r="D31" s="136" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E31" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F31" s="135" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B32" s="137">
         <v>30</v>
       </c>
-      <c r="C32" s="188"/>
+      <c r="C32" s="184"/>
       <c r="D32" s="136" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F32" s="135" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="137">
         <v>31</v>
       </c>
-      <c r="C33" s="188"/>
+      <c r="C33" s="184"/>
       <c r="D33" s="136" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E33" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" s="135" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="137">
         <v>32</v>
       </c>
-      <c r="C34" s="188"/>
+      <c r="C34" s="184"/>
       <c r="D34" s="136" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E34" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F34" s="135" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B35" s="137">
         <v>33</v>
       </c>
-      <c r="C35" s="188"/>
+      <c r="C35" s="184"/>
       <c r="D35" s="136" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E35" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F35" s="135" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B36" s="137">
         <v>34</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="184"/>
       <c r="D36" s="136" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E36" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F36" s="135" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="137">
         <v>35</v>
       </c>
-      <c r="C37" s="188"/>
+      <c r="C37" s="184"/>
       <c r="D37" s="136" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E37" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F37" s="135" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="137">
         <v>36</v>
       </c>
-      <c r="C38" s="188"/>
+      <c r="C38" s="184"/>
       <c r="D38" s="136" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E38" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F38" s="135" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="137">
         <v>37</v>
       </c>
-      <c r="C39" s="188"/>
+      <c r="C39" s="184"/>
       <c r="D39" s="136" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E39" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F39" s="135" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="137">
         <v>38</v>
       </c>
-      <c r="C40" s="188"/>
+      <c r="C40" s="184"/>
       <c r="D40" s="136" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E40" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F40" s="135" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B41" s="137">
         <v>39</v>
       </c>
-      <c r="C41" s="188"/>
+      <c r="C41" s="184"/>
       <c r="D41" s="136" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E41" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F41" s="135" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B42" s="137">
         <v>40</v>
       </c>
-      <c r="C42" s="188"/>
+      <c r="C42" s="184"/>
       <c r="D42" s="136" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E42" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F42" s="135" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="137">
         <v>41</v>
       </c>
-      <c r="C43" s="188"/>
+      <c r="C43" s="184"/>
       <c r="D43" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E43" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F43" s="135" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B44" s="137">
         <v>42</v>
       </c>
-      <c r="C44" s="188"/>
+      <c r="C44" s="184"/>
       <c r="D44" s="136" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E44" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F44" s="135" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="137">
         <v>43</v>
       </c>
-      <c r="C45" s="188"/>
+      <c r="C45" s="184"/>
       <c r="D45" s="136" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E45" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F45" s="135" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B46" s="137">
         <v>44</v>
       </c>
-      <c r="C46" s="188"/>
+      <c r="C46" s="184"/>
       <c r="D46" s="136" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E46" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F46" s="135" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B47" s="137">
         <v>45</v>
       </c>
-      <c r="C47" s="188"/>
+      <c r="C47" s="184"/>
       <c r="D47" s="136" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E47" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F47" s="135" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B48" s="137">
         <v>46</v>
       </c>
-      <c r="C48" s="188"/>
+      <c r="C48" s="184"/>
       <c r="D48" s="136" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E48" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F48" s="135" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B49" s="137">
         <v>47</v>
       </c>
-      <c r="C49" s="188"/>
+      <c r="C49" s="184"/>
       <c r="D49" s="136" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E49" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F49" s="135" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="137">
         <v>48</v>
       </c>
-      <c r="C50" s="188"/>
+      <c r="C50" s="184"/>
       <c r="D50" s="136" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E50" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F50" s="135" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="137">
         <v>49</v>
       </c>
-      <c r="C51" s="188"/>
+      <c r="C51" s="184"/>
       <c r="D51" s="136" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E51" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F51" s="135" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="137">
         <v>50</v>
       </c>
-      <c r="C52" s="188"/>
+      <c r="C52" s="184"/>
       <c r="D52" s="136" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E52" s="135" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="135" t="s">
         <v>147</v>
-      </c>
-      <c r="F52" s="135" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B53" s="137">
         <v>51</v>
       </c>
-      <c r="C53" s="188"/>
+      <c r="C53" s="184"/>
       <c r="D53" s="136" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E53" s="135" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F53" s="135" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
@@ -7308,7 +7411,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7317,4 +7420,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A62FF7-1BFF-4716-9A1B-9D1CD7226FC8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="199" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="199" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="152">
+        <v>43605</v>
+      </c>
+      <c r="B2" s="191" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A637711-E437-41B1-83A2-B537E15ECCBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6D76FA-5E45-4D5C-A9AA-86989B0F6C20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="274">
   <si>
     <t>迅策需求回复与跟踪</t>
   </si>
@@ -1454,10 +1454,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>更新时间:2019/5/20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>更新时间</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1487,6 +1483,37 @@
   </si>
   <si>
     <t>与IPB产品与项目经理确认需求第12条与</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008621</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008623</t>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008597</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/bugtrace/bugs/view?bug_id=1120345271001027713</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/bugtrace/bugs/view?bug_id=1120345271001027544</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/bugtrace/bugs/view?bug_id=1120345271001027364</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008224</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增相关TAPD单</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2107,7 +2134,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2603,9 +2630,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2642,9 +2666,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2666,91 +2687,112 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3213,8 +3255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3234,26 +3276,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="191" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191" t="s">
+      <c r="A1" s="188" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="189" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="189"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="155" t="s">
@@ -3350,24 +3390,24 @@
         <v>249</v>
       </c>
       <c r="F4" s="89"/>
-      <c r="G4" s="208" t="s">
+      <c r="G4" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="201"/>
-      <c r="I4" s="209" t="s">
+      <c r="H4" s="198"/>
+      <c r="I4" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="210" t="s">
+      <c r="J4" s="207" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="205">
+      <c r="K4" s="202">
         <v>43591</v>
       </c>
-      <c r="L4" s="205" t="s">
+      <c r="L4" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="205"/>
-      <c r="N4" s="207"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="204"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="157">
@@ -3386,24 +3426,24 @@
         <v>126</v>
       </c>
       <c r="F5" s="89"/>
-      <c r="G5" s="208" t="s">
+      <c r="G5" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="211"/>
-      <c r="I5" s="209" t="s">
+      <c r="H5" s="208"/>
+      <c r="I5" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="210" t="s">
+      <c r="J5" s="207" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="205">
+      <c r="K5" s="202">
         <v>43591</v>
       </c>
-      <c r="L5" s="212" t="s">
+      <c r="L5" s="209" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="212"/>
-      <c r="N5" s="207"/>
+      <c r="M5" s="209"/>
+      <c r="N5" s="204"/>
     </row>
     <row r="6" spans="1:14" ht="55.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="156">
@@ -3550,26 +3590,26 @@
         <v>22</v>
       </c>
       <c r="F10" s="92"/>
-      <c r="G10" s="200" t="s">
+      <c r="G10" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="201" t="s">
+      <c r="H10" s="198" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="202">
+      <c r="I10" s="199">
         <v>3.35</v>
       </c>
-      <c r="J10" s="204" t="s">
+      <c r="J10" s="201" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="205">
+      <c r="K10" s="202">
         <v>43582</v>
       </c>
-      <c r="L10" s="205" t="s">
+      <c r="L10" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="206"/>
-      <c r="N10" s="207"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="204"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="157">
@@ -3588,24 +3628,24 @@
         <v>64</v>
       </c>
       <c r="F11" s="95"/>
-      <c r="G11" s="200" t="s">
+      <c r="G11" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="201"/>
-      <c r="I11" s="203" t="s">
+      <c r="H11" s="198"/>
+      <c r="I11" s="200" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="204" t="s">
+      <c r="J11" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="205">
+      <c r="K11" s="202">
         <v>43591</v>
       </c>
-      <c r="L11" s="205" t="s">
+      <c r="L11" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="206"/>
-      <c r="N11" s="207"/>
+      <c r="M11" s="203"/>
+      <c r="N11" s="204"/>
     </row>
     <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="156">
@@ -3681,10 +3721,12 @@
       <c r="E14" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="136"/>
+      <c r="F14" s="136" t="s">
+        <v>266</v>
+      </c>
       <c r="G14" s="28"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="216">
+      <c r="I14" s="213">
         <v>3.36</v>
       </c>
       <c r="J14" s="64" t="s">
@@ -3712,16 +3754,16 @@
         <v>80</v>
       </c>
       <c r="F15" s="140"/>
-      <c r="G15" s="213"/>
+      <c r="G15" s="210"/>
       <c r="H15" s="140"/>
       <c r="I15" s="140"/>
-      <c r="J15" s="204" t="s">
+      <c r="J15" s="201" t="s">
         <v>107</v>
       </c>
       <c r="K15" s="140"/>
       <c r="L15" s="140"/>
       <c r="M15" s="140"/>
-      <c r="N15" s="207"/>
+      <c r="N15" s="204"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="156">
@@ -3843,8 +3885,8 @@
       <c r="G19" s="103"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
-      <c r="J19" s="214" t="s">
-        <v>263</v>
+      <c r="J19" s="211" t="s">
+        <v>262</v>
       </c>
       <c r="K19" s="102"/>
       <c r="L19" s="102"/>
@@ -3865,22 +3907,23 @@
         <v>244</v>
       </c>
       <c r="E20" s="166" t="s">
-        <v>261</v>
-      </c>
-      <c r="F20" s="167"/>
+        <v>260</v>
+      </c>
+      <c r="F20" s="214" t="s">
+        <v>267</v>
+      </c>
       <c r="G20" s="147"/>
       <c r="H20" s="146"/>
       <c r="I20" s="146"/>
-      <c r="J20" s="215" t="s">
-        <v>264</v>
+      <c r="J20" s="212" t="s">
+        <v>263</v>
       </c>
       <c r="K20" s="146"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="H1:N1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
@@ -3899,9 +3942,11 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F13" location="备注!A61" display="详细图片" xr:uid="{679C305C-0534-4E3D-B636-E5027A2CD731}"/>
+    <hyperlink ref="F14" r:id="rId1" xr:uid="{ABB6EFE7-2F69-4092-A2C0-4645914C039E}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{5CF91915-2F1C-4017-AFA2-E0D5598EF938}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3910,8 +3955,8 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4162,7 +4207,9 @@
       <c r="F7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="218" t="s">
+        <v>272</v>
+      </c>
       <c r="H7" s="38" t="s">
         <v>110</v>
       </c>
@@ -4243,34 +4290,34 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="193">
+      <c r="A10" s="190">
         <v>9</v>
       </c>
-      <c r="B10" s="194">
+      <c r="B10" s="191">
         <v>43566</v>
       </c>
-      <c r="C10" s="195" t="s">
+      <c r="C10" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="196" t="s">
+      <c r="D10" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="197" t="s">
+      <c r="E10" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199" t="s">
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="193"/>
-      <c r="L10" s="196" t="s">
+      <c r="K10" s="190"/>
+      <c r="L10" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="196" t="s">
-        <v>262</v>
+      <c r="M10" s="193" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4396,33 +4443,33 @@
       <c r="M14" s="69"/>
     </row>
     <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="168">
+      <c r="A15" s="167">
         <v>14</v>
       </c>
-      <c r="B15" s="169">
+      <c r="B15" s="168">
         <v>43595</v>
       </c>
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="171" t="s">
+      <c r="D15" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="172" t="s">
+      <c r="E15" s="171" t="s">
         <v>250</v>
       </c>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="170" t="s">
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="168"/>
-      <c r="L15" s="171" t="s">
+      <c r="K15" s="167"/>
+      <c r="L15" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="M15" s="170" t="s">
+      <c r="M15" s="169" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4501,7 +4548,9 @@
       <c r="F18" s="116" t="s">
         <v>241</v>
       </c>
-      <c r="G18" s="117"/>
+      <c r="G18" s="215" t="s">
+        <v>268</v>
+      </c>
       <c r="H18" s="117"/>
       <c r="I18" s="117"/>
       <c r="J18" s="118"/>
@@ -4553,7 +4602,9 @@
       <c r="F20" s="163" t="s">
         <v>256</v>
       </c>
-      <c r="G20" s="164"/>
+      <c r="G20" s="217" t="s">
+        <v>271</v>
+      </c>
       <c r="H20" s="164"/>
       <c r="I20" s="164"/>
       <c r="J20" s="161" t="s">
@@ -4580,7 +4631,9 @@
         <v>251</v>
       </c>
       <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
+      <c r="G21" s="217" t="s">
+        <v>270</v>
+      </c>
       <c r="H21" s="164"/>
       <c r="I21" s="164"/>
       <c r="J21" s="161" t="s">
@@ -4591,70 +4644,77 @@
       <c r="M21" s="159"/>
     </row>
     <row r="22" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="181">
+      <c r="A22" s="179">
         <v>21</v>
       </c>
-      <c r="B22" s="182">
+      <c r="B22" s="180">
         <v>43598</v>
       </c>
-      <c r="C22" s="183" t="s">
+      <c r="C22" s="181" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="184" t="s">
+      <c r="D22" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="185" t="s">
+      <c r="E22" s="183" t="s">
         <v>254</v>
       </c>
-      <c r="F22" s="186" t="s">
+      <c r="F22" s="184" t="s">
         <v>253</v>
       </c>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="183" t="s">
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="181" t="s">
         <v>255</v>
       </c>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="179"/>
     </row>
     <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="174">
+      <c r="A23" s="173">
         <v>22</v>
       </c>
-      <c r="B23" s="175">
+      <c r="B23" s="174">
         <v>43598</v>
       </c>
-      <c r="C23" s="176" t="s">
+      <c r="C23" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="177" t="s">
+      <c r="D23" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="177" t="s">
+      <c r="E23" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="177" t="s">
+      <c r="F23" s="176" t="s">
         <v>247</v>
       </c>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="176" t="s">
+      <c r="G23" s="216" t="s">
+        <v>269</v>
+      </c>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="175" t="s">
         <v>252</v>
       </c>
-      <c r="K23" s="174"/>
-      <c r="L23" s="174"/>
-      <c r="M23" s="174"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1" display="TAPD缺陷单" xr:uid="{B0CAB68E-D005-48CC-98F2-254502103C3D}"/>
+    <hyperlink ref="G18" r:id="rId2" xr:uid="{570D6AE6-B4F8-472E-A9DB-DA81116DEA7F}"/>
+    <hyperlink ref="G23" r:id="rId3" xr:uid="{AE83A77E-45A6-47EF-9CFC-07F4E5F12CFC}"/>
+    <hyperlink ref="G21" r:id="rId4" xr:uid="{56A8976D-E607-47B8-9C69-B1BA1F103D78}"/>
+    <hyperlink ref="G20" r:id="rId5" xr:uid="{D5397900-3F7C-40F0-B00C-41ABFF12E5C4}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{87579934-A121-4B04-8034-7CF1E059241D}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4704,7 +4764,7 @@
       <c r="B3" s="130">
         <v>1</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="189" t="s">
         <v>236</v>
       </c>
       <c r="D3" s="133" t="s">
@@ -4721,7 +4781,7 @@
       <c r="B4" s="130">
         <v>2</v>
       </c>
-      <c r="C4" s="192"/>
+      <c r="C4" s="189"/>
       <c r="D4" s="131" t="s">
         <v>234</v>
       </c>
@@ -4736,7 +4796,7 @@
       <c r="B5" s="130">
         <v>3</v>
       </c>
-      <c r="C5" s="192"/>
+      <c r="C5" s="189"/>
       <c r="D5" s="132" t="s">
         <v>232</v>
       </c>
@@ -4751,7 +4811,7 @@
       <c r="B6" s="130">
         <v>4</v>
       </c>
-      <c r="C6" s="192"/>
+      <c r="C6" s="189"/>
       <c r="D6" s="132" t="s">
         <v>230</v>
       </c>
@@ -4766,7 +4826,7 @@
       <c r="B7" s="130">
         <v>5</v>
       </c>
-      <c r="C7" s="192"/>
+      <c r="C7" s="189"/>
       <c r="D7" s="131" t="s">
         <v>228</v>
       </c>
@@ -4781,7 +4841,7 @@
       <c r="B8" s="130">
         <v>6</v>
       </c>
-      <c r="C8" s="192"/>
+      <c r="C8" s="189"/>
       <c r="D8" s="132" t="s">
         <v>226</v>
       </c>
@@ -4796,7 +4856,7 @@
       <c r="B9" s="130">
         <v>7</v>
       </c>
-      <c r="C9" s="192"/>
+      <c r="C9" s="189"/>
       <c r="D9" s="131" t="s">
         <v>224</v>
       </c>
@@ -4811,7 +4871,7 @@
       <c r="B10" s="130">
         <v>8</v>
       </c>
-      <c r="C10" s="192"/>
+      <c r="C10" s="189"/>
       <c r="D10" s="131" t="s">
         <v>222</v>
       </c>
@@ -4826,7 +4886,7 @@
       <c r="B11" s="130">
         <v>9</v>
       </c>
-      <c r="C11" s="192"/>
+      <c r="C11" s="189"/>
       <c r="D11" s="131" t="s">
         <v>220</v>
       </c>
@@ -4841,7 +4901,7 @@
       <c r="B12" s="130">
         <v>10</v>
       </c>
-      <c r="C12" s="192"/>
+      <c r="C12" s="189"/>
       <c r="D12" s="131" t="s">
         <v>218</v>
       </c>
@@ -4856,7 +4916,7 @@
       <c r="B13" s="130">
         <v>11</v>
       </c>
-      <c r="C13" s="192"/>
+      <c r="C13" s="189"/>
       <c r="D13" s="131" t="s">
         <v>216</v>
       </c>
@@ -4871,7 +4931,7 @@
       <c r="B14" s="130">
         <v>12</v>
       </c>
-      <c r="C14" s="192"/>
+      <c r="C14" s="189"/>
       <c r="D14" s="131" t="s">
         <v>215</v>
       </c>
@@ -4886,7 +4946,7 @@
       <c r="B15" s="130">
         <v>13</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="189"/>
       <c r="D15" s="131" t="s">
         <v>213</v>
       </c>
@@ -4901,7 +4961,7 @@
       <c r="B16" s="130">
         <v>14</v>
       </c>
-      <c r="C16" s="192"/>
+      <c r="C16" s="189"/>
       <c r="D16" s="131" t="s">
         <v>212</v>
       </c>
@@ -4916,7 +4976,7 @@
       <c r="B17" s="130">
         <v>15</v>
       </c>
-      <c r="C17" s="192"/>
+      <c r="C17" s="189"/>
       <c r="D17" s="131" t="s">
         <v>211</v>
       </c>
@@ -4931,7 +4991,7 @@
       <c r="B18" s="130">
         <v>16</v>
       </c>
-      <c r="C18" s="192"/>
+      <c r="C18" s="189"/>
       <c r="D18" s="131" t="s">
         <v>209</v>
       </c>
@@ -4946,7 +5006,7 @@
       <c r="B19" s="130">
         <v>17</v>
       </c>
-      <c r="C19" s="192"/>
+      <c r="C19" s="189"/>
       <c r="D19" s="131" t="s">
         <v>208</v>
       </c>
@@ -4961,7 +5021,7 @@
       <c r="B20" s="130">
         <v>18</v>
       </c>
-      <c r="C20" s="192"/>
+      <c r="C20" s="189"/>
       <c r="D20" s="131" t="s">
         <v>207</v>
       </c>
@@ -4976,7 +5036,7 @@
       <c r="B21" s="130">
         <v>19</v>
       </c>
-      <c r="C21" s="192"/>
+      <c r="C21" s="189"/>
       <c r="D21" s="132" t="s">
         <v>206</v>
       </c>
@@ -4991,7 +5051,7 @@
       <c r="B22" s="130">
         <v>20</v>
       </c>
-      <c r="C22" s="192"/>
+      <c r="C22" s="189"/>
       <c r="D22" s="131" t="s">
         <v>204</v>
       </c>
@@ -5006,7 +5066,7 @@
       <c r="B23" s="130">
         <v>21</v>
       </c>
-      <c r="C23" s="192"/>
+      <c r="C23" s="189"/>
       <c r="D23" s="131" t="s">
         <v>202</v>
       </c>
@@ -5021,7 +5081,7 @@
       <c r="B24" s="130">
         <v>22</v>
       </c>
-      <c r="C24" s="192" t="s">
+      <c r="C24" s="189" t="s">
         <v>200</v>
       </c>
       <c r="D24" s="129" t="s">
@@ -5038,7 +5098,7 @@
       <c r="B25" s="130">
         <v>23</v>
       </c>
-      <c r="C25" s="192"/>
+      <c r="C25" s="189"/>
       <c r="D25" s="129" t="s">
         <v>197</v>
       </c>
@@ -5053,7 +5113,7 @@
       <c r="B26" s="130">
         <v>24</v>
       </c>
-      <c r="C26" s="192"/>
+      <c r="C26" s="189"/>
       <c r="D26" s="129" t="s">
         <v>195</v>
       </c>
@@ -5068,7 +5128,7 @@
       <c r="B27" s="130">
         <v>25</v>
       </c>
-      <c r="C27" s="192"/>
+      <c r="C27" s="189"/>
       <c r="D27" s="129" t="s">
         <v>193</v>
       </c>
@@ -5083,7 +5143,7 @@
       <c r="B28" s="130">
         <v>26</v>
       </c>
-      <c r="C28" s="192"/>
+      <c r="C28" s="189"/>
       <c r="D28" s="129" t="s">
         <v>191</v>
       </c>
@@ -5098,7 +5158,7 @@
       <c r="B29" s="130">
         <v>27</v>
       </c>
-      <c r="C29" s="192"/>
+      <c r="C29" s="189"/>
       <c r="D29" s="129" t="s">
         <v>189</v>
       </c>
@@ -5113,7 +5173,7 @@
       <c r="B30" s="130">
         <v>28</v>
       </c>
-      <c r="C30" s="192"/>
+      <c r="C30" s="189"/>
       <c r="D30" s="129" t="s">
         <v>187</v>
       </c>
@@ -5128,7 +5188,7 @@
       <c r="B31" s="130">
         <v>29</v>
       </c>
-      <c r="C31" s="192"/>
+      <c r="C31" s="189"/>
       <c r="D31" s="129" t="s">
         <v>184</v>
       </c>
@@ -5143,7 +5203,7 @@
       <c r="B32" s="130">
         <v>30</v>
       </c>
-      <c r="C32" s="192"/>
+      <c r="C32" s="189"/>
       <c r="D32" s="129" t="s">
         <v>182</v>
       </c>
@@ -5158,7 +5218,7 @@
       <c r="B33" s="130">
         <v>31</v>
       </c>
-      <c r="C33" s="192"/>
+      <c r="C33" s="189"/>
       <c r="D33" s="129" t="s">
         <v>180</v>
       </c>
@@ -5173,7 +5233,7 @@
       <c r="B34" s="130">
         <v>32</v>
       </c>
-      <c r="C34" s="192"/>
+      <c r="C34" s="189"/>
       <c r="D34" s="129" t="s">
         <v>178</v>
       </c>
@@ -5188,7 +5248,7 @@
       <c r="B35" s="130">
         <v>33</v>
       </c>
-      <c r="C35" s="192"/>
+      <c r="C35" s="189"/>
       <c r="D35" s="129" t="s">
         <v>176</v>
       </c>
@@ -5203,7 +5263,7 @@
       <c r="B36" s="130">
         <v>34</v>
       </c>
-      <c r="C36" s="192"/>
+      <c r="C36" s="189"/>
       <c r="D36" s="129" t="s">
         <v>175</v>
       </c>
@@ -5218,7 +5278,7 @@
       <c r="B37" s="130">
         <v>35</v>
       </c>
-      <c r="C37" s="192"/>
+      <c r="C37" s="189"/>
       <c r="D37" s="129" t="s">
         <v>174</v>
       </c>
@@ -5233,7 +5293,7 @@
       <c r="B38" s="130">
         <v>36</v>
       </c>
-      <c r="C38" s="192"/>
+      <c r="C38" s="189"/>
       <c r="D38" s="129" t="s">
         <v>172</v>
       </c>
@@ -5248,7 +5308,7 @@
       <c r="B39" s="130">
         <v>37</v>
       </c>
-      <c r="C39" s="192"/>
+      <c r="C39" s="189"/>
       <c r="D39" s="129" t="s">
         <v>170</v>
       </c>
@@ -5263,7 +5323,7 @@
       <c r="B40" s="130">
         <v>38</v>
       </c>
-      <c r="C40" s="192"/>
+      <c r="C40" s="189"/>
       <c r="D40" s="129" t="s">
         <v>168</v>
       </c>
@@ -5278,7 +5338,7 @@
       <c r="B41" s="130">
         <v>39</v>
       </c>
-      <c r="C41" s="192"/>
+      <c r="C41" s="189"/>
       <c r="D41" s="129" t="s">
         <v>166</v>
       </c>
@@ -5293,7 +5353,7 @@
       <c r="B42" s="130">
         <v>40</v>
       </c>
-      <c r="C42" s="192"/>
+      <c r="C42" s="189"/>
       <c r="D42" s="129" t="s">
         <v>164</v>
       </c>
@@ -5308,7 +5368,7 @@
       <c r="B43" s="130">
         <v>41</v>
       </c>
-      <c r="C43" s="192"/>
+      <c r="C43" s="189"/>
       <c r="D43" s="129" t="s">
         <v>162</v>
       </c>
@@ -5323,7 +5383,7 @@
       <c r="B44" s="130">
         <v>42</v>
       </c>
-      <c r="C44" s="192"/>
+      <c r="C44" s="189"/>
       <c r="D44" s="129" t="s">
         <v>160</v>
       </c>
@@ -5338,7 +5398,7 @@
       <c r="B45" s="130">
         <v>43</v>
       </c>
-      <c r="C45" s="192"/>
+      <c r="C45" s="189"/>
       <c r="D45" s="129" t="s">
         <v>158</v>
       </c>
@@ -5353,7 +5413,7 @@
       <c r="B46" s="130">
         <v>44</v>
       </c>
-      <c r="C46" s="192"/>
+      <c r="C46" s="189"/>
       <c r="D46" s="129" t="s">
         <v>156</v>
       </c>
@@ -5368,7 +5428,7 @@
       <c r="B47" s="130">
         <v>45</v>
       </c>
-      <c r="C47" s="192"/>
+      <c r="C47" s="189"/>
       <c r="D47" s="129" t="s">
         <v>154</v>
       </c>
@@ -5383,7 +5443,7 @@
       <c r="B48" s="130">
         <v>46</v>
       </c>
-      <c r="C48" s="192"/>
+      <c r="C48" s="189"/>
       <c r="D48" s="129" t="s">
         <v>152</v>
       </c>
@@ -5398,7 +5458,7 @@
       <c r="B49" s="130">
         <v>47</v>
       </c>
-      <c r="C49" s="192"/>
+      <c r="C49" s="189"/>
       <c r="D49" s="129" t="s">
         <v>150</v>
       </c>
@@ -5413,7 +5473,7 @@
       <c r="B50" s="130">
         <v>48</v>
       </c>
-      <c r="C50" s="192"/>
+      <c r="C50" s="189"/>
       <c r="D50" s="129" t="s">
         <v>148</v>
       </c>
@@ -5428,7 +5488,7 @@
       <c r="B51" s="130">
         <v>49</v>
       </c>
-      <c r="C51" s="192"/>
+      <c r="C51" s="189"/>
       <c r="D51" s="129" t="s">
         <v>146</v>
       </c>
@@ -5443,7 +5503,7 @@
       <c r="B52" s="130">
         <v>50</v>
       </c>
-      <c r="C52" s="192"/>
+      <c r="C52" s="189"/>
       <c r="D52" s="129" t="s">
         <v>144</v>
       </c>
@@ -5458,7 +5518,7 @@
       <c r="B53" s="130">
         <v>51</v>
       </c>
-      <c r="C53" s="192"/>
+      <c r="C53" s="189"/>
       <c r="D53" s="129" t="s">
         <v>142</v>
       </c>
@@ -7408,10 +7468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A62FF7-1BFF-4716-9A1B-9D1CD7226FC8}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7421,27 +7481,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="219" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="219" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="188" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="145">
+      <c r="A2" s="220">
         <v>43605</v>
       </c>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="221" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="220">
+        <v>43605</v>
+      </c>
+      <c r="B3" s="221" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="145">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="220">
         <v>43605</v>
       </c>
-      <c r="B3" s="180" t="s">
-        <v>266</v>
+      <c r="B4" s="221" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402A86D-57B8-410A-8EE3-BF55BEE7808D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188AD594-0D24-415F-8F85-ABEA2DC8EB3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="365">
   <si>
     <t>提交日期</t>
   </si>
@@ -2417,7 +2417,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3197,6 +3197,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3660,7 +3663,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4661,7 +4664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5163,7 +5166,7 @@
       </c>
       <c r="G14" s="163"/>
       <c r="H14" s="163"/>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="262" t="s">
         <v>357</v>
       </c>
       <c r="J14" s="109" t="s">
@@ -5173,9 +5176,7 @@
       <c r="L14" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="M14" s="161" t="s">
-        <v>275</v>
-      </c>
+      <c r="M14" s="161"/>
     </row>
     <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="217">

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188AD594-0D24-415F-8F85-ABEA2DC8EB3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0223DA5F-5F3F-47E5-AF1F-7552E79E392A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户需求跟踪表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="364">
   <si>
     <t>提交日期</t>
   </si>
@@ -1532,10 +1532,6 @@
     <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008247</t>
   </si>
   <si>
-    <t>四舍五入问题，暂时挂起</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>更改数据库解决</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1808,11 +1804,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1、与客户确认基金层应用的到风控
-2、与开发产品确定属于基金层的风控</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1、与客户确认基金层应用的到风控</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1821,10 +1812,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>是否需要功能联动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>低</t>
   </si>
   <si>
@@ -1836,15 +1823,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>取了干嘛</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>影响低</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定产品成立日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1889,6 +1868,23 @@
   </si>
   <si>
     <t>待定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、与客户确认基金层应用得到风控
+2、与开发产品确定属于基金层的风控</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月成立</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业内取得均为T+1。如以下场景：今日余额为0，卖出一个亿持仓，需要买入股票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要功能联动</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2146,7 +2142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2407,6 +2403,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2417,7 +2426,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2877,9 +2886,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3150,18 +3156,12 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3186,6 +3186,9 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3198,8 +3201,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3662,8 +3683,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3673,7 +3694,7 @@
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
-    <col min="6" max="6" width="66" style="251" customWidth="1"/>
+    <col min="6" max="6" width="66" style="248" customWidth="1"/>
     <col min="7" max="7" width="6.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
@@ -3681,27 +3702,27 @@
     <col min="11" max="11" width="8" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="251" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="248" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="258" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
       <c r="H1" s="154"/>
       <c r="I1" s="154"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="258"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="256"/>
+      <c r="O1" s="256"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="134" t="s">
@@ -3729,7 +3750,7 @@
         <v>258</v>
       </c>
       <c r="I2" s="135" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>22</v>
@@ -3751,43 +3772,43 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="131">
+      <c r="A3" s="147">
         <v>1</v>
       </c>
-      <c r="B3" s="136">
+      <c r="B3" s="225">
         <v>43489</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="226" t="s">
         <v>255</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="260" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="261" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="262" t="s">
         <v>342</v>
       </c>
-      <c r="K3" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="262" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="246"/>
+      <c r="N3" s="262"/>
+      <c r="O3" s="263"/>
     </row>
     <row r="4" spans="1:15" ht="61.15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="132">
@@ -3811,10 +3832,10 @@
       </c>
       <c r="H4" s="140"/>
       <c r="I4" s="140" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J4" s="114" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K4" s="115" t="s">
         <v>91</v>
@@ -3823,10 +3844,10 @@
         <v>43591</v>
       </c>
       <c r="M4" s="112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N4" s="112"/>
-      <c r="O4" s="247"/>
+      <c r="O4" s="245"/>
     </row>
     <row r="5" spans="1:15" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="132">
@@ -3850,10 +3871,10 @@
       </c>
       <c r="H5" s="140"/>
       <c r="I5" s="140" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J5" s="114" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K5" s="115" t="s">
         <v>91</v>
@@ -3865,7 +3886,7 @@
         <v>56</v>
       </c>
       <c r="N5" s="116"/>
-      <c r="O5" s="247"/>
+      <c r="O5" s="245"/>
     </row>
     <row r="6" spans="1:15" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="131">
@@ -3892,20 +3913,20 @@
       <c r="H6" s="137"/>
       <c r="I6" s="137"/>
       <c r="J6" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K6" s="37" t="s">
         <v>92</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="157" t="s">
-        <v>344</v>
+      <c r="O6" s="156" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
@@ -3924,29 +3945,29 @@
       <c r="E7" s="137" t="s">
         <v>268</v>
       </c>
-      <c r="F7" s="253" t="s">
+      <c r="F7" s="250" t="s">
         <v>269</v>
       </c>
       <c r="G7" s="133" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H7" s="137"/>
       <c r="I7" s="137"/>
       <c r="J7" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K7" s="37" t="s">
         <v>92</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="157" t="s">
-        <v>345</v>
+      <c r="O7" s="156" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="27" x14ac:dyDescent="0.15">
@@ -3963,9 +3984,9 @@
         <v>12</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>346</v>
-      </c>
-      <c r="F8" s="253" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="250" t="s">
         <v>270</v>
       </c>
       <c r="G8" s="133" t="s">
@@ -3974,20 +3995,20 @@
       <c r="H8" s="137"/>
       <c r="I8" s="137"/>
       <c r="J8" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K8" s="37" t="s">
         <v>92</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="157" t="s">
-        <v>347</v>
+      <c r="O8" s="156" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="27" x14ac:dyDescent="0.15">
@@ -4006,7 +4027,7 @@
       <c r="E9" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="253" t="s">
+      <c r="F9" s="250" t="s">
         <v>271</v>
       </c>
       <c r="G9" s="133" t="s">
@@ -4015,19 +4036,19 @@
       <c r="H9" s="137"/>
       <c r="I9" s="137"/>
       <c r="J9" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K9" s="37" t="s">
         <v>92</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="157"/>
+      <c r="O9" s="156"/>
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="132">
@@ -4051,10 +4072,10 @@
       </c>
       <c r="H10" s="144"/>
       <c r="I10" s="140" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J10" s="110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K10" s="111" t="s">
         <v>89</v>
@@ -4063,10 +4084,10 @@
         <v>43582</v>
       </c>
       <c r="M10" s="112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N10" s="113"/>
-      <c r="O10" s="247"/>
+      <c r="O10" s="245"/>
     </row>
     <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="132">
@@ -4084,16 +4105,16 @@
       <c r="E11" s="140" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="250"/>
+      <c r="F11" s="247"/>
       <c r="G11" s="143" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="130"/>
       <c r="I11" s="140" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J11" s="110" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K11" s="111" t="s">
         <v>91</v>
@@ -4102,10 +4123,10 @@
         <v>43591</v>
       </c>
       <c r="M11" s="112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N11" s="113"/>
-      <c r="O11" s="247"/>
+      <c r="O11" s="245"/>
     </row>
     <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="131">
@@ -4118,37 +4139,37 @@
         <v>19</v>
       </c>
       <c r="D12" s="137" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E12" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="253" t="s">
-        <v>286</v>
+      <c r="F12" s="250" t="s">
+        <v>285</v>
       </c>
       <c r="G12" s="124" t="s">
         <v>273</v>
       </c>
       <c r="H12" s="125"/>
-      <c r="I12" s="252" t="s">
-        <v>349</v>
+      <c r="I12" s="249" t="s">
+        <v>346</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K12" s="37" t="s">
         <v>92</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
-      <c r="O12" s="157" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="O12" s="156" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="147">
         <v>11</v>
       </c>
@@ -4164,7 +4185,7 @@
       <c r="E13" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="190" t="s">
+      <c r="F13" s="189" t="s">
         <v>263</v>
       </c>
       <c r="G13" s="124" t="s">
@@ -4176,52 +4197,52 @@
       <c r="K13" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="177" t="s">
-        <v>364</v>
+      <c r="L13" s="176" t="s">
+        <v>359</v>
       </c>
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
-      <c r="O13" s="157" t="s">
-        <v>351</v>
+      <c r="O13" s="156" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="147">
+      <c r="A14" s="199">
         <v>12</v>
       </c>
-      <c r="B14" s="148">
+      <c r="B14" s="200">
         <v>43565</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="190" t="s">
+      <c r="F14" s="266" t="s">
         <v>266</v>
       </c>
       <c r="G14" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
       <c r="J14" s="118" t="s">
         <v>250</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="156">
+      <c r="L14" s="155">
         <v>43644</v>
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
-      <c r="O14" s="157" t="s">
-        <v>352</v>
+      <c r="O14" s="156" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
@@ -4240,59 +4261,59 @@
       <c r="E15" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="250"/>
+      <c r="F15" s="247"/>
       <c r="G15" s="132"/>
       <c r="H15" s="130"/>
       <c r="I15" s="140" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J15" s="88"/>
       <c r="K15" s="111" t="s">
         <v>91</v>
       </c>
       <c r="L15" s="88"/>
-      <c r="M15" s="192" t="s">
-        <v>313</v>
+      <c r="M15" s="191" t="s">
+        <v>312</v>
       </c>
       <c r="N15" s="88"/>
-      <c r="O15" s="247"/>
+      <c r="O15" s="245"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="164">
+      <c r="A16" s="163">
         <v>14</v>
       </c>
-      <c r="B16" s="165">
+      <c r="B16" s="164">
         <v>43489</v>
       </c>
-      <c r="C16" s="166" t="s">
+      <c r="C16" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="166" t="s">
+      <c r="D16" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="166" t="s">
+      <c r="E16" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="254"/>
-      <c r="G16" s="168" t="s">
+      <c r="F16" s="251"/>
+      <c r="G16" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="167"/>
-      <c r="I16" s="169" t="s">
-        <v>291</v>
-      </c>
-      <c r="J16" s="170"/>
-      <c r="K16" s="171" t="s">
+      <c r="H16" s="166"/>
+      <c r="I16" s="168" t="s">
+        <v>290</v>
+      </c>
+      <c r="J16" s="169"/>
+      <c r="K16" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172" t="s">
+      <c r="L16" s="171"/>
+      <c r="M16" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="173"/>
-      <c r="O16" s="248"/>
-    </row>
-    <row r="17" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="N16" s="172"/>
+      <c r="O16" s="246"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="131">
         <v>15</v>
       </c>
@@ -4308,9 +4329,9 @@
       <c r="E17" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="255"/>
+      <c r="F17" s="252"/>
       <c r="G17" s="133" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H17" s="125"/>
       <c r="I17" s="125"/>
@@ -4323,8 +4344,8 @@
         <v>77</v>
       </c>
       <c r="N17" s="29"/>
-      <c r="O17" s="157" t="s">
-        <v>353</v>
+      <c r="O17" s="156" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="27" x14ac:dyDescent="0.15">
@@ -4343,8 +4364,8 @@
       <c r="E18" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="253" t="s">
-        <v>354</v>
+      <c r="F18" s="250" t="s">
+        <v>349</v>
       </c>
       <c r="G18" s="133" t="s">
         <v>11</v>
@@ -4352,19 +4373,19 @@
       <c r="H18" s="125"/>
       <c r="I18" s="125"/>
       <c r="J18" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K18" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="L18" s="178">
+      <c r="L18" s="177">
         <v>43661</v>
       </c>
       <c r="M18" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="157"/>
+      <c r="N18" s="252"/>
+      <c r="O18" s="186"/>
     </row>
     <row r="19" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="131">
@@ -4382,8 +4403,8 @@
       <c r="E19" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="256" t="s">
-        <v>287</v>
+      <c r="F19" s="253" t="s">
+        <v>286</v>
       </c>
       <c r="G19" s="124" t="s">
         <v>265</v>
@@ -4391,19 +4412,19 @@
       <c r="H19" s="125"/>
       <c r="I19" s="125"/>
       <c r="J19" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K19" s="117" t="s">
         <v>240</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="249"/>
-    </row>
-    <row r="20" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="N19" s="252"/>
+      <c r="O19" s="252"/>
+    </row>
+    <row r="20" spans="1:15" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="132">
         <v>18</v>
       </c>
@@ -4419,15 +4440,15 @@
       <c r="E20" s="140" t="s">
         <v>254</v>
       </c>
-      <c r="F20" s="257" t="s">
+      <c r="F20" s="254" t="s">
         <v>260</v>
       </c>
       <c r="G20" s="152" t="s">
         <v>256</v>
       </c>
-      <c r="H20" s="215"/>
-      <c r="I20" s="215"/>
-      <c r="J20" s="216" t="s">
+      <c r="H20" s="214"/>
+      <c r="I20" s="214"/>
+      <c r="J20" s="215" t="s">
         <v>249</v>
       </c>
       <c r="K20" s="152" t="s">
@@ -4437,95 +4458,97 @@
         <v>43616</v>
       </c>
       <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="250"/>
+      <c r="N20" s="264"/>
+      <c r="O20" s="265"/>
     </row>
     <row r="21" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="186">
+      <c r="A21" s="185">
         <v>19</v>
       </c>
       <c r="B21" s="126">
         <v>43609</v>
       </c>
       <c r="C21" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="153" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="153" t="s">
+      <c r="E21" s="186" t="s">
         <v>297</v>
       </c>
-      <c r="E21" s="187" t="s">
-        <v>298</v>
-      </c>
-      <c r="F21" s="256" t="s">
-        <v>335</v>
+      <c r="F21" s="253" t="s">
+        <v>334</v>
       </c>
       <c r="G21" s="124" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H21" s="125"/>
       <c r="I21" s="125"/>
       <c r="J21" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K21" s="131"/>
       <c r="L21" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M21" s="125"/>
       <c r="N21" s="125"/>
+      <c r="O21" s="252"/>
     </row>
     <row r="22" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="186">
+      <c r="A22" s="185">
         <v>20</v>
       </c>
       <c r="B22" s="126">
         <v>43609</v>
       </c>
       <c r="C22" s="153" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D22" s="153" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="153" t="s">
         <v>299</v>
       </c>
-      <c r="E22" s="153" t="s">
-        <v>300</v>
-      </c>
-      <c r="F22" s="256" t="s">
-        <v>338</v>
+      <c r="F22" s="253" t="s">
+        <v>337</v>
       </c>
       <c r="G22" s="124" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H22" s="125"/>
       <c r="I22" s="125"/>
       <c r="J22" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K22" s="131"/>
       <c r="L22" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M22" s="125"/>
       <c r="N22" s="125"/>
+      <c r="O22" s="252"/>
     </row>
     <row r="23" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="186">
+      <c r="A23" s="185">
         <v>21</v>
       </c>
       <c r="B23" s="126">
         <v>43609</v>
       </c>
       <c r="C23" s="153" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D23" s="153" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E23" s="153" t="s">
-        <v>303</v>
-      </c>
-      <c r="F23" s="256" t="s">
-        <v>339</v>
+        <v>302</v>
+      </c>
+      <c r="F23" s="253" t="s">
+        <v>338</v>
       </c>
       <c r="G23" s="124" t="s">
         <v>265</v>
@@ -4533,67 +4556,69 @@
       <c r="H23" s="125"/>
       <c r="I23" s="125"/>
       <c r="J23" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K23" s="131"/>
       <c r="L23" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M23" s="125"/>
       <c r="N23" s="125"/>
+      <c r="O23" s="252"/>
     </row>
     <row r="24" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="186">
+      <c r="A24" s="185">
         <v>22</v>
       </c>
       <c r="B24" s="126">
         <v>43609</v>
       </c>
       <c r="C24" s="153" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D24" s="153" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="153" t="s">
         <v>301</v>
       </c>
-      <c r="E24" s="153" t="s">
-        <v>302</v>
-      </c>
-      <c r="F24" s="256" t="s">
-        <v>337</v>
+      <c r="F24" s="253" t="s">
+        <v>336</v>
       </c>
       <c r="G24" s="131" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H24" s="125"/>
       <c r="I24" s="125"/>
       <c r="J24" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K24" s="131"/>
       <c r="L24" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M24" s="125"/>
       <c r="N24" s="125"/>
+      <c r="O24" s="252"/>
     </row>
     <row r="25" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="186">
+      <c r="A25" s="185">
         <v>23</v>
       </c>
       <c r="B25" s="126">
         <v>43613</v>
       </c>
       <c r="C25" s="153" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D25" s="153" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E25" s="153" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="253" t="s">
         <v>316</v>
-      </c>
-      <c r="F25" s="256" t="s">
-        <v>317</v>
       </c>
       <c r="G25" s="124" t="s">
         <v>265</v>
@@ -4601,14 +4626,15 @@
       <c r="H25" s="125"/>
       <c r="I25" s="125"/>
       <c r="J25" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K25" s="131"/>
       <c r="L25" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M25" s="125"/>
       <c r="N25" s="125"/>
+      <c r="O25" s="252"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:O25" xr:uid="{A9AE772B-F17A-41B2-AF78-448FE7C9205A}">
@@ -4662,9 +4688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4750,7 +4776,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>38</v>
@@ -4787,7 +4813,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>38</v>
@@ -4820,7 +4846,7 @@
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
       <c r="J4" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>63</v>
@@ -4855,7 +4881,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>63</v>
@@ -4894,7 +4920,7 @@
         <v>257</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>45</v>
@@ -4903,7 +4929,7 @@
         <v>85</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4929,13 +4955,13 @@
         <v>247</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>45</v>
@@ -4964,10 +4990,10 @@
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
       <c r="J8" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L8" s="48" t="s">
         <v>86</v>
@@ -4999,10 +5025,10 @@
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>87</v>
@@ -5032,10 +5058,10 @@
       <c r="H10" s="108"/>
       <c r="I10" s="108"/>
       <c r="J10" s="109" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K10" s="106" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L10" s="106" t="s">
         <v>88</v>
@@ -5045,39 +5071,39 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="179">
+      <c r="A11" s="178">
         <v>10</v>
       </c>
-      <c r="B11" s="180">
+      <c r="B11" s="179">
         <v>43566</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="182" t="s">
+      <c r="D11" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="183" t="s">
+      <c r="E11" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="184"/>
-      <c r="G11" s="185" t="s">
-        <v>282</v>
-      </c>
-      <c r="H11" s="225">
+      <c r="F11" s="183"/>
+      <c r="G11" s="184" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="224">
         <v>43644</v>
       </c>
-      <c r="I11" s="184"/>
+      <c r="I11" s="183"/>
       <c r="J11" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="K11" s="182" t="s">
-        <v>360</v>
-      </c>
-      <c r="L11" s="182" t="s">
+        <v>276</v>
+      </c>
+      <c r="K11" s="181" t="s">
+        <v>355</v>
+      </c>
+      <c r="L11" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="179"/>
+      <c r="M11" s="178"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49">
@@ -5102,10 +5128,10 @@
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K12" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L12" s="52" t="s">
         <v>87</v>
@@ -5135,10 +5161,10 @@
       </c>
       <c r="I13" s="54"/>
       <c r="J13" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K13" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L13" s="52" t="s">
         <v>87</v>
@@ -5146,74 +5172,74 @@
       <c r="M13" s="49"/>
     </row>
     <row r="14" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="158">
+      <c r="A14" s="157">
         <v>13</v>
       </c>
-      <c r="B14" s="159">
+      <c r="B14" s="158">
         <v>43581</v>
       </c>
-      <c r="C14" s="160" t="s">
+      <c r="C14" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="162" t="s">
+      <c r="E14" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="162" t="s">
+      <c r="F14" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="262" t="s">
-        <v>357</v>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="255" t="s">
+        <v>352</v>
       </c>
       <c r="J14" s="109" t="s">
-        <v>280</v>
-      </c>
-      <c r="K14" s="158"/>
-      <c r="L14" s="161" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" s="157"/>
+      <c r="L14" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="M14" s="161"/>
+      <c r="M14" s="160"/>
     </row>
     <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="217">
+      <c r="A15" s="216">
         <v>14</v>
       </c>
-      <c r="B15" s="218">
+      <c r="B15" s="217">
         <v>43595</v>
       </c>
-      <c r="C15" s="219" t="s">
+      <c r="C15" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="219" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="221" t="s">
+      <c r="E15" s="220" t="s">
         <v>231</v>
       </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="223" t="s">
+      <c r="F15" s="221"/>
+      <c r="G15" s="222" t="s">
         <v>261</v>
       </c>
-      <c r="H15" s="224">
+      <c r="H15" s="223">
         <v>43616</v>
       </c>
-      <c r="I15" s="221" t="s">
+      <c r="I15" s="220" t="s">
         <v>262</v>
       </c>
-      <c r="J15" s="219" t="s">
-        <v>280</v>
-      </c>
-      <c r="K15" s="220" t="s">
-        <v>359</v>
-      </c>
-      <c r="L15" s="220" t="s">
+      <c r="J15" s="218" t="s">
+        <v>279</v>
+      </c>
+      <c r="K15" s="219" t="s">
+        <v>354</v>
+      </c>
+      <c r="L15" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="219" t="s">
+      <c r="M15" s="218" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5238,10 +5264,10 @@
       </c>
       <c r="I16" s="62"/>
       <c r="J16" s="59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K16" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L16" s="64" t="s">
         <v>115</v>
@@ -5271,10 +5297,10 @@
       <c r="H17" s="95"/>
       <c r="I17" s="95"/>
       <c r="J17" s="92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K17" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L17" s="90"/>
       <c r="M17" s="90"/>
@@ -5303,13 +5329,13 @@
       </c>
       <c r="H18" s="70"/>
       <c r="I18" s="69" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="J18" s="67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K18" s="68" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L18" s="65"/>
       <c r="M18" s="65"/>
@@ -5318,16 +5344,16 @@
       <c r="A19" s="90">
         <v>18</v>
       </c>
-      <c r="B19" s="174">
+      <c r="B19" s="173">
         <v>43598</v>
       </c>
       <c r="C19" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="175" t="s">
+      <c r="D19" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="176" t="s">
+      <c r="E19" s="175" t="s">
         <v>111</v>
       </c>
       <c r="F19" s="95"/>
@@ -5335,14 +5361,14 @@
       <c r="H19" s="95"/>
       <c r="I19" s="95"/>
       <c r="J19" s="92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K19" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L19" s="90"/>
       <c r="M19" s="93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5355,7 +5381,7 @@
       <c r="C20" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="193" t="s">
+      <c r="D20" s="192" t="s">
         <v>118</v>
       </c>
       <c r="E20" s="100" t="s">
@@ -5364,20 +5390,20 @@
       <c r="F20" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="G20" s="213" t="s">
+      <c r="G20" s="212" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="214">
+      <c r="H20" s="213">
         <v>43616</v>
       </c>
       <c r="I20" s="100" t="s">
         <v>251</v>
       </c>
       <c r="J20" s="98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K20" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L20" s="96"/>
       <c r="M20" s="96"/>
@@ -5392,27 +5418,27 @@
       <c r="C21" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="192" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="100" t="s">
         <v>232</v>
       </c>
       <c r="F21" s="102"/>
-      <c r="G21" s="213" t="s">
+      <c r="G21" s="212" t="s">
         <v>245</v>
       </c>
-      <c r="H21" s="214">
+      <c r="H21" s="213">
         <v>43616</v>
       </c>
       <c r="I21" s="100" t="s">
         <v>251</v>
       </c>
       <c r="J21" s="98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K21" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L21" s="96"/>
       <c r="M21" s="96"/>
@@ -5440,24 +5466,24 @@
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="J22" s="98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K22" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L22" s="96"/>
-      <c r="M22" s="193" t="s">
-        <v>314</v>
+      <c r="M22" s="192" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="147">
         <v>22</v>
       </c>
-      <c r="B23" s="188">
+      <c r="B23" s="187">
         <v>43598</v>
       </c>
-      <c r="C23" s="189" t="s">
+      <c r="C23" s="188" t="s">
         <v>117</v>
       </c>
       <c r="D23" s="149" t="s">
@@ -5469,20 +5495,20 @@
       <c r="F23" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="G23" s="190" t="s">
+      <c r="G23" s="189" t="s">
         <v>274</v>
       </c>
-      <c r="H23" s="191">
+      <c r="H23" s="190">
         <v>43646</v>
       </c>
       <c r="I23" s="149" t="s">
         <v>252</v>
       </c>
-      <c r="J23" s="189" t="s">
-        <v>278</v>
+      <c r="J23" s="188" t="s">
+        <v>277</v>
       </c>
       <c r="K23" s="150" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L23" s="147"/>
       <c r="M23" s="147"/>
@@ -5491,35 +5517,35 @@
       <c r="A24" s="132">
         <v>23</v>
       </c>
-      <c r="B24" s="197">
+      <c r="B24" s="196">
         <v>43609</v>
       </c>
       <c r="C24" s="143" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="152" t="s">
+        <v>305</v>
+      </c>
+      <c r="E24" s="140" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" s="140" t="s">
         <v>308</v>
       </c>
-      <c r="D24" s="152" t="s">
-        <v>306</v>
-      </c>
-      <c r="E24" s="140" t="s">
-        <v>307</v>
-      </c>
-      <c r="F24" s="140" t="s">
+      <c r="G24" s="140" t="s">
         <v>309</v>
       </c>
-      <c r="G24" s="140" t="s">
-        <v>310</v>
-      </c>
-      <c r="H24" s="205">
+      <c r="H24" s="204">
         <v>43616</v>
       </c>
       <c r="I24" s="100" t="s">
         <v>251</v>
       </c>
       <c r="J24" s="143" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K24" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L24" s="132"/>
       <c r="M24" s="132"/>
@@ -5528,31 +5554,31 @@
       <c r="A25" s="132">
         <v>24</v>
       </c>
-      <c r="B25" s="197">
+      <c r="B25" s="196">
         <v>43613</v>
       </c>
       <c r="C25" s="143" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D25" s="152" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" s="140" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="140" t="s">
         <v>320</v>
       </c>
-      <c r="E25" s="140" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="140" t="s">
+      <c r="G25" s="140" t="s">
         <v>321</v>
       </c>
-      <c r="G25" s="140" t="s">
-        <v>322</v>
-      </c>
-      <c r="H25" s="205">
+      <c r="H25" s="204">
         <v>43619</v>
       </c>
-      <c r="I25" s="198"/>
-      <c r="J25" s="199"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="198"/>
       <c r="K25" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L25" s="132"/>
       <c r="M25" s="132"/>
@@ -5561,31 +5587,31 @@
       <c r="A26" s="132">
         <v>25</v>
       </c>
-      <c r="B26" s="197">
+      <c r="B26" s="196">
         <v>43613</v>
       </c>
       <c r="C26" s="143" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D26" s="152" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E26" s="140" t="s">
+        <v>322</v>
+      </c>
+      <c r="F26" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="F26" s="140" t="s">
+      <c r="G26" s="140" t="s">
         <v>324</v>
       </c>
-      <c r="G26" s="140" t="s">
-        <v>325</v>
-      </c>
-      <c r="H26" s="205">
+      <c r="H26" s="204">
         <v>43619</v>
       </c>
-      <c r="I26" s="198"/>
-      <c r="J26" s="199"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="198"/>
       <c r="K26" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L26" s="132"/>
       <c r="M26" s="132"/>
@@ -5625,39 +5651,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="210" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="210" t="s">
         <v>327</v>
       </c>
-      <c r="C1" s="211" t="s">
+      <c r="D1" s="210" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="210" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="211" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="211" t="s">
+      <c r="F1" s="210" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="211" t="s">
+      <c r="H1" s="210" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="210" t="s">
         <v>332</v>
       </c>
-      <c r="G1" s="211" t="s">
-        <v>330</v>
-      </c>
-      <c r="H1" s="211" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" s="211" t="s">
-        <v>333</v>
-      </c>
-      <c r="J1" s="211" t="s">
+      <c r="J1" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211" t="s">
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5665,7 +5691,7 @@
       <c r="A2" s="147">
         <v>1</v>
       </c>
-      <c r="B2" s="226">
+      <c r="B2" s="225">
         <v>43489</v>
       </c>
       <c r="C2" s="149" t="s">
@@ -5678,189 +5704,189 @@
         <v>15</v>
       </c>
       <c r="F2" s="149"/>
-      <c r="G2" s="227" t="s">
+      <c r="G2" s="226" t="s">
         <v>255</v>
       </c>
-      <c r="H2" s="228" t="s">
+      <c r="H2" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="229" t="s">
+      <c r="I2" s="228" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="229"/>
-      <c r="K2" s="230" t="s">
+      <c r="J2" s="228"/>
+      <c r="K2" s="229" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="231" t="s">
+      <c r="L2" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="232"/>
+      <c r="M2" s="231"/>
     </row>
     <row r="3" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="212">
+      <c r="A3" s="211">
         <v>2</v>
       </c>
-      <c r="B3" s="234">
+      <c r="B3" s="233">
         <v>43489</v>
       </c>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="235" t="s">
+      <c r="F3" s="165"/>
+      <c r="G3" s="234" t="s">
         <v>267</v>
       </c>
-      <c r="H3" s="236" t="s">
+      <c r="H3" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="237" t="s">
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="236" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="238" t="s">
+      <c r="L3" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="169" t="s">
-        <v>295</v>
+      <c r="M3" s="168" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="212">
+      <c r="A4" s="211">
         <v>3</v>
       </c>
-      <c r="B4" s="234">
+      <c r="B4" s="233">
         <v>43489</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="165" t="s">
         <v>268</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="239" t="s">
+      <c r="F4" s="165"/>
+      <c r="G4" s="238" t="s">
         <v>269</v>
       </c>
-      <c r="H4" s="212" t="s">
+      <c r="H4" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="237" t="s">
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="236" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="238" t="s">
+      <c r="L4" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="169" t="s">
-        <v>295</v>
+      <c r="M4" s="168" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="212">
+      <c r="A5" s="211">
         <v>4</v>
       </c>
-      <c r="B5" s="234">
+      <c r="B5" s="233">
         <v>43489</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="166" t="s">
+      <c r="E5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="166"/>
-      <c r="G5" s="239" t="s">
+      <c r="F5" s="165"/>
+      <c r="G5" s="238" t="s">
         <v>270</v>
       </c>
-      <c r="H5" s="212" t="s">
+      <c r="H5" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="237" t="s">
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="236" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="238" t="s">
+      <c r="L5" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="169" t="s">
-        <v>295</v>
+      <c r="M5" s="168" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="212">
+      <c r="A6" s="211">
         <v>5</v>
       </c>
-      <c r="B6" s="234">
+      <c r="B6" s="233">
         <v>43489</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="166" t="s">
+      <c r="E6" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="166"/>
-      <c r="G6" s="239" t="s">
+      <c r="F6" s="165"/>
+      <c r="G6" s="238" t="s">
         <v>271</v>
       </c>
-      <c r="H6" s="212" t="s">
+      <c r="H6" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="237" t="s">
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="236" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="238" t="s">
+      <c r="L6" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="169" t="s">
-        <v>295</v>
+      <c r="M6" s="168" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="131">
         <v>6</v>
       </c>
-      <c r="B7" s="201">
+      <c r="B7" s="200">
         <v>43565</v>
       </c>
-      <c r="C7" s="202" t="s">
+      <c r="C7" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="203" t="s">
+      <c r="D7" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="202" t="s">
+      <c r="E7" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="202"/>
-      <c r="G7" s="204" t="s">
+      <c r="F7" s="201"/>
+      <c r="G7" s="203" t="s">
         <v>263</v>
       </c>
-      <c r="H7" s="203" t="s">
+      <c r="H7" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="203"/>
       <c r="K7" s="124" t="s">
         <v>89</v>
       </c>
@@ -5871,29 +5897,29 @@
       <c r="A8" s="131">
         <v>7</v>
       </c>
-      <c r="B8" s="201">
+      <c r="B8" s="200">
         <v>43565</v>
       </c>
-      <c r="C8" s="202" t="s">
+      <c r="C8" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="203" t="s">
+      <c r="D8" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="202" t="s">
+      <c r="E8" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="202"/>
-      <c r="G8" s="204" t="s">
+      <c r="F8" s="201"/>
+      <c r="G8" s="203" t="s">
         <v>266</v>
       </c>
-      <c r="H8" s="203" t="s">
+      <c r="H8" s="202" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="126">
         <v>43644</v>
       </c>
-      <c r="J8" s="206" t="s">
+      <c r="J8" s="205" t="s">
         <v>250</v>
       </c>
       <c r="K8" s="124" t="s">
@@ -5920,7 +5946,7 @@
       </c>
       <c r="F9" s="153"/>
       <c r="G9" s="128" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H9" s="124" t="s">
         <v>265</v>
@@ -5941,17 +5967,17 @@
         <v>43609</v>
       </c>
       <c r="C10" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="153" t="s">
         <v>296</v>
       </c>
-      <c r="D10" s="153" t="s">
+      <c r="E10" s="186" t="s">
         <v>297</v>
       </c>
-      <c r="E10" s="187" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="187"/>
+      <c r="F10" s="186"/>
       <c r="G10" s="128" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H10" s="124" t="s">
         <v>265</v>
@@ -5970,17 +5996,17 @@
         <v>43609</v>
       </c>
       <c r="C11" s="153" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D11" s="153" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="153" t="s">
         <v>301</v>
-      </c>
-      <c r="E11" s="153" t="s">
-        <v>302</v>
       </c>
       <c r="F11" s="153"/>
       <c r="G11" s="128" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H11" s="131" t="s">
         <v>21</v>
@@ -5999,17 +6025,17 @@
         <v>43613</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D12" s="153" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="153" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F12" s="153"/>
       <c r="G12" s="128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H12" s="124" t="s">
         <v>21</v>
@@ -6021,41 +6047,41 @@
       <c r="M12" s="125"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="240">
+      <c r="A13" s="239">
         <v>12</v>
       </c>
-      <c r="B13" s="241">
+      <c r="B13" s="240">
         <v>43546</v>
       </c>
-      <c r="C13" s="242" t="s">
+      <c r="C13" s="241" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="243" t="s">
+      <c r="D13" s="242" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="244" t="s">
+      <c r="E13" s="243" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="244" t="s">
+      <c r="F13" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="240"/>
-      <c r="H13" s="242" t="s">
-        <v>277</v>
-      </c>
-      <c r="I13" s="245">
+      <c r="G13" s="239"/>
+      <c r="H13" s="241" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="244">
         <v>43650</v>
       </c>
-      <c r="J13" s="244" t="s">
+      <c r="J13" s="243" t="s">
         <v>257</v>
       </c>
-      <c r="K13" s="243" t="s">
+      <c r="K13" s="242" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="242" t="s">
-        <v>315</v>
-      </c>
-      <c r="M13" s="244" t="s">
+      <c r="L13" s="241" t="s">
+        <v>314</v>
+      </c>
+      <c r="M13" s="243" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6063,10 +6089,10 @@
       <c r="A14" s="147">
         <v>13</v>
       </c>
-      <c r="B14" s="188">
+      <c r="B14" s="187">
         <v>43546</v>
       </c>
-      <c r="C14" s="189" t="s">
+      <c r="C14" s="188" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="150" t="s">
@@ -6078,61 +6104,61 @@
       <c r="F14" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="227" t="s">
+      <c r="G14" s="226" t="s">
         <v>247</v>
       </c>
-      <c r="H14" s="189" t="s">
-        <v>277</v>
+      <c r="H14" s="188" t="s">
+        <v>276</v>
       </c>
       <c r="I14" s="147"/>
-      <c r="J14" s="233"/>
+      <c r="J14" s="232"/>
       <c r="K14" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="189"/>
+      <c r="L14" s="188"/>
       <c r="M14" s="150" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="131">
         <v>14</v>
       </c>
-      <c r="B15" s="207">
+      <c r="B15" s="206">
         <v>43566</v>
       </c>
-      <c r="C15" s="208" t="s">
+      <c r="C15" s="207" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="203" t="s">
+      <c r="D15" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="202" t="s">
+      <c r="E15" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="210"/>
-      <c r="G15" s="209" t="s">
-        <v>282</v>
-      </c>
-      <c r="H15" s="208" t="s">
-        <v>277</v>
+      <c r="F15" s="209"/>
+      <c r="G15" s="208" t="s">
+        <v>281</v>
+      </c>
+      <c r="H15" s="207" t="s">
+        <v>276</v>
       </c>
       <c r="I15" s="131"/>
-      <c r="J15" s="210"/>
-      <c r="K15" s="203" t="s">
+      <c r="J15" s="209"/>
+      <c r="K15" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="200"/>
+      <c r="L15" s="199"/>
       <c r="M15" s="131"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="131">
         <v>15</v>
       </c>
-      <c r="B16" s="194">
+      <c r="B16" s="193">
         <v>43600</v>
       </c>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="194" t="s">
         <v>117</v>
       </c>
       <c r="D16" s="124" t="s">
@@ -6147,11 +6173,11 @@
       <c r="G16" s="138" t="s">
         <v>244</v>
       </c>
-      <c r="H16" s="195" t="s">
-        <v>278</v>
+      <c r="H16" s="194" t="s">
+        <v>277</v>
       </c>
       <c r="I16" s="131"/>
-      <c r="J16" s="196"/>
+      <c r="J16" s="195"/>
       <c r="K16" s="131"/>
       <c r="L16" s="131"/>
       <c r="M16" s="131"/>
@@ -6233,7 +6259,7 @@
       <c r="B3" s="82">
         <v>1</v>
       </c>
-      <c r="C3" s="261" t="s">
+      <c r="C3" s="259" t="s">
         <v>217</v>
       </c>
       <c r="D3" s="85" t="s">
@@ -6250,7 +6276,7 @@
       <c r="B4" s="82">
         <v>2</v>
       </c>
-      <c r="C4" s="261"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="83" t="s">
         <v>215</v>
       </c>
@@ -6265,7 +6291,7 @@
       <c r="B5" s="82">
         <v>3</v>
       </c>
-      <c r="C5" s="261"/>
+      <c r="C5" s="259"/>
       <c r="D5" s="84" t="s">
         <v>213</v>
       </c>
@@ -6280,7 +6306,7 @@
       <c r="B6" s="82">
         <v>4</v>
       </c>
-      <c r="C6" s="261"/>
+      <c r="C6" s="259"/>
       <c r="D6" s="84" t="s">
         <v>211</v>
       </c>
@@ -6295,7 +6321,7 @@
       <c r="B7" s="82">
         <v>5</v>
       </c>
-      <c r="C7" s="261"/>
+      <c r="C7" s="259"/>
       <c r="D7" s="83" t="s">
         <v>209</v>
       </c>
@@ -6310,7 +6336,7 @@
       <c r="B8" s="82">
         <v>6</v>
       </c>
-      <c r="C8" s="261"/>
+      <c r="C8" s="259"/>
       <c r="D8" s="84" t="s">
         <v>207</v>
       </c>
@@ -6325,7 +6351,7 @@
       <c r="B9" s="82">
         <v>7</v>
       </c>
-      <c r="C9" s="261"/>
+      <c r="C9" s="259"/>
       <c r="D9" s="83" t="s">
         <v>205</v>
       </c>
@@ -6340,7 +6366,7 @@
       <c r="B10" s="82">
         <v>8</v>
       </c>
-      <c r="C10" s="261"/>
+      <c r="C10" s="259"/>
       <c r="D10" s="83" t="s">
         <v>203</v>
       </c>
@@ -6355,7 +6381,7 @@
       <c r="B11" s="82">
         <v>9</v>
       </c>
-      <c r="C11" s="261"/>
+      <c r="C11" s="259"/>
       <c r="D11" s="83" t="s">
         <v>201</v>
       </c>
@@ -6370,7 +6396,7 @@
       <c r="B12" s="82">
         <v>10</v>
       </c>
-      <c r="C12" s="261"/>
+      <c r="C12" s="259"/>
       <c r="D12" s="83" t="s">
         <v>199</v>
       </c>
@@ -6385,7 +6411,7 @@
       <c r="B13" s="82">
         <v>11</v>
       </c>
-      <c r="C13" s="261"/>
+      <c r="C13" s="259"/>
       <c r="D13" s="83" t="s">
         <v>197</v>
       </c>
@@ -6400,7 +6426,7 @@
       <c r="B14" s="82">
         <v>12</v>
       </c>
-      <c r="C14" s="261"/>
+      <c r="C14" s="259"/>
       <c r="D14" s="83" t="s">
         <v>196</v>
       </c>
@@ -6415,7 +6441,7 @@
       <c r="B15" s="82">
         <v>13</v>
       </c>
-      <c r="C15" s="261"/>
+      <c r="C15" s="259"/>
       <c r="D15" s="83" t="s">
         <v>194</v>
       </c>
@@ -6430,7 +6456,7 @@
       <c r="B16" s="82">
         <v>14</v>
       </c>
-      <c r="C16" s="261"/>
+      <c r="C16" s="259"/>
       <c r="D16" s="83" t="s">
         <v>193</v>
       </c>
@@ -6445,7 +6471,7 @@
       <c r="B17" s="82">
         <v>15</v>
       </c>
-      <c r="C17" s="261"/>
+      <c r="C17" s="259"/>
       <c r="D17" s="83" t="s">
         <v>192</v>
       </c>
@@ -6460,7 +6486,7 @@
       <c r="B18" s="82">
         <v>16</v>
       </c>
-      <c r="C18" s="261"/>
+      <c r="C18" s="259"/>
       <c r="D18" s="83" t="s">
         <v>190</v>
       </c>
@@ -6475,7 +6501,7 @@
       <c r="B19" s="82">
         <v>17</v>
       </c>
-      <c r="C19" s="261"/>
+      <c r="C19" s="259"/>
       <c r="D19" s="83" t="s">
         <v>189</v>
       </c>
@@ -6490,7 +6516,7 @@
       <c r="B20" s="82">
         <v>18</v>
       </c>
-      <c r="C20" s="261"/>
+      <c r="C20" s="259"/>
       <c r="D20" s="83" t="s">
         <v>188</v>
       </c>
@@ -6505,7 +6531,7 @@
       <c r="B21" s="82">
         <v>19</v>
       </c>
-      <c r="C21" s="261"/>
+      <c r="C21" s="259"/>
       <c r="D21" s="84" t="s">
         <v>187</v>
       </c>
@@ -6520,7 +6546,7 @@
       <c r="B22" s="82">
         <v>20</v>
       </c>
-      <c r="C22" s="261"/>
+      <c r="C22" s="259"/>
       <c r="D22" s="83" t="s">
         <v>185</v>
       </c>
@@ -6535,7 +6561,7 @@
       <c r="B23" s="82">
         <v>21</v>
       </c>
-      <c r="C23" s="261"/>
+      <c r="C23" s="259"/>
       <c r="D23" s="83" t="s">
         <v>183</v>
       </c>
@@ -6550,7 +6576,7 @@
       <c r="B24" s="82">
         <v>22</v>
       </c>
-      <c r="C24" s="261" t="s">
+      <c r="C24" s="259" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="81" t="s">
@@ -6567,7 +6593,7 @@
       <c r="B25" s="82">
         <v>23</v>
       </c>
-      <c r="C25" s="261"/>
+      <c r="C25" s="259"/>
       <c r="D25" s="81" t="s">
         <v>178</v>
       </c>
@@ -6582,7 +6608,7 @@
       <c r="B26" s="82">
         <v>24</v>
       </c>
-      <c r="C26" s="261"/>
+      <c r="C26" s="259"/>
       <c r="D26" s="81" t="s">
         <v>176</v>
       </c>
@@ -6597,7 +6623,7 @@
       <c r="B27" s="82">
         <v>25</v>
       </c>
-      <c r="C27" s="261"/>
+      <c r="C27" s="259"/>
       <c r="D27" s="81" t="s">
         <v>174</v>
       </c>
@@ -6612,7 +6638,7 @@
       <c r="B28" s="82">
         <v>26</v>
       </c>
-      <c r="C28" s="261"/>
+      <c r="C28" s="259"/>
       <c r="D28" s="81" t="s">
         <v>172</v>
       </c>
@@ -6627,7 +6653,7 @@
       <c r="B29" s="82">
         <v>27</v>
       </c>
-      <c r="C29" s="261"/>
+      <c r="C29" s="259"/>
       <c r="D29" s="81" t="s">
         <v>170</v>
       </c>
@@ -6642,7 +6668,7 @@
       <c r="B30" s="82">
         <v>28</v>
       </c>
-      <c r="C30" s="261"/>
+      <c r="C30" s="259"/>
       <c r="D30" s="81" t="s">
         <v>168</v>
       </c>
@@ -6657,7 +6683,7 @@
       <c r="B31" s="82">
         <v>29</v>
       </c>
-      <c r="C31" s="261"/>
+      <c r="C31" s="259"/>
       <c r="D31" s="81" t="s">
         <v>165</v>
       </c>
@@ -6672,7 +6698,7 @@
       <c r="B32" s="82">
         <v>30</v>
       </c>
-      <c r="C32" s="261"/>
+      <c r="C32" s="259"/>
       <c r="D32" s="81" t="s">
         <v>163</v>
       </c>
@@ -6687,7 +6713,7 @@
       <c r="B33" s="82">
         <v>31</v>
       </c>
-      <c r="C33" s="261"/>
+      <c r="C33" s="259"/>
       <c r="D33" s="81" t="s">
         <v>161</v>
       </c>
@@ -6702,7 +6728,7 @@
       <c r="B34" s="82">
         <v>32</v>
       </c>
-      <c r="C34" s="261"/>
+      <c r="C34" s="259"/>
       <c r="D34" s="81" t="s">
         <v>159</v>
       </c>
@@ -6717,7 +6743,7 @@
       <c r="B35" s="82">
         <v>33</v>
       </c>
-      <c r="C35" s="261"/>
+      <c r="C35" s="259"/>
       <c r="D35" s="81" t="s">
         <v>157</v>
       </c>
@@ -6732,7 +6758,7 @@
       <c r="B36" s="82">
         <v>34</v>
       </c>
-      <c r="C36" s="261"/>
+      <c r="C36" s="259"/>
       <c r="D36" s="81" t="s">
         <v>156</v>
       </c>
@@ -6747,7 +6773,7 @@
       <c r="B37" s="82">
         <v>35</v>
       </c>
-      <c r="C37" s="261"/>
+      <c r="C37" s="259"/>
       <c r="D37" s="81" t="s">
         <v>155</v>
       </c>
@@ -6762,7 +6788,7 @@
       <c r="B38" s="82">
         <v>36</v>
       </c>
-      <c r="C38" s="261"/>
+      <c r="C38" s="259"/>
       <c r="D38" s="81" t="s">
         <v>153</v>
       </c>
@@ -6777,7 +6803,7 @@
       <c r="B39" s="82">
         <v>37</v>
       </c>
-      <c r="C39" s="261"/>
+      <c r="C39" s="259"/>
       <c r="D39" s="81" t="s">
         <v>151</v>
       </c>
@@ -6792,7 +6818,7 @@
       <c r="B40" s="82">
         <v>38</v>
       </c>
-      <c r="C40" s="261"/>
+      <c r="C40" s="259"/>
       <c r="D40" s="81" t="s">
         <v>149</v>
       </c>
@@ -6807,7 +6833,7 @@
       <c r="B41" s="82">
         <v>39</v>
       </c>
-      <c r="C41" s="261"/>
+      <c r="C41" s="259"/>
       <c r="D41" s="81" t="s">
         <v>147</v>
       </c>
@@ -6822,7 +6848,7 @@
       <c r="B42" s="82">
         <v>40</v>
       </c>
-      <c r="C42" s="261"/>
+      <c r="C42" s="259"/>
       <c r="D42" s="81" t="s">
         <v>145</v>
       </c>
@@ -6837,7 +6863,7 @@
       <c r="B43" s="82">
         <v>41</v>
       </c>
-      <c r="C43" s="261"/>
+      <c r="C43" s="259"/>
       <c r="D43" s="81" t="s">
         <v>143</v>
       </c>
@@ -6852,7 +6878,7 @@
       <c r="B44" s="82">
         <v>42</v>
       </c>
-      <c r="C44" s="261"/>
+      <c r="C44" s="259"/>
       <c r="D44" s="81" t="s">
         <v>141</v>
       </c>
@@ -6867,7 +6893,7 @@
       <c r="B45" s="82">
         <v>43</v>
       </c>
-      <c r="C45" s="261"/>
+      <c r="C45" s="259"/>
       <c r="D45" s="81" t="s">
         <v>139</v>
       </c>
@@ -6882,7 +6908,7 @@
       <c r="B46" s="82">
         <v>44</v>
       </c>
-      <c r="C46" s="261"/>
+      <c r="C46" s="259"/>
       <c r="D46" s="81" t="s">
         <v>137</v>
       </c>
@@ -6897,7 +6923,7 @@
       <c r="B47" s="82">
         <v>45</v>
       </c>
-      <c r="C47" s="261"/>
+      <c r="C47" s="259"/>
       <c r="D47" s="81" t="s">
         <v>135</v>
       </c>
@@ -6912,7 +6938,7 @@
       <c r="B48" s="82">
         <v>46</v>
       </c>
-      <c r="C48" s="261"/>
+      <c r="C48" s="259"/>
       <c r="D48" s="81" t="s">
         <v>133</v>
       </c>
@@ -6927,7 +6953,7 @@
       <c r="B49" s="82">
         <v>47</v>
       </c>
-      <c r="C49" s="261"/>
+      <c r="C49" s="259"/>
       <c r="D49" s="81" t="s">
         <v>131</v>
       </c>
@@ -6942,7 +6968,7 @@
       <c r="B50" s="82">
         <v>48</v>
       </c>
-      <c r="C50" s="261"/>
+      <c r="C50" s="259"/>
       <c r="D50" s="81" t="s">
         <v>129</v>
       </c>
@@ -6957,7 +6983,7 @@
       <c r="B51" s="82">
         <v>49</v>
       </c>
-      <c r="C51" s="261"/>
+      <c r="C51" s="259"/>
       <c r="D51" s="81" t="s">
         <v>127</v>
       </c>
@@ -6972,7 +6998,7 @@
       <c r="B52" s="82">
         <v>50</v>
       </c>
-      <c r="C52" s="261"/>
+      <c r="C52" s="259"/>
       <c r="D52" s="81" t="s">
         <v>125</v>
       </c>
@@ -6987,7 +7013,7 @@
       <c r="B53" s="82">
         <v>51</v>
       </c>
-      <c r="C53" s="261"/>
+      <c r="C53" s="259"/>
       <c r="D53" s="81" t="s">
         <v>123</v>
       </c>

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3F67F-40C6-4823-BBF5-5CF9A50CAC42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC654616-0F1A-43D9-B9C0-E71CFEAAD74E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5925" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户需求跟踪表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="375">
   <si>
     <t>提交日期</t>
   </si>
@@ -1845,14 +1845,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>待解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>行情已发新版本，国债已正常显示，科创版股票目前仍显示为其他类别</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>柜台提供最新价字段即为看到的值，待周一实盘再次检查验证</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1890,6 +1882,47 @@
   </si>
   <si>
     <t>极高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情已发新版本，国债已正常显示，并验证通过
+科创版股票已改，但客户目前已将科创版持仓全部卖出，暂时无法验证</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表界面补充债券的最新价与成本价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹渊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表中未上市的新股取申购价为最新价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户可看到持仓市值，影响不大</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户目前持仓中无科创版股票</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2268,7 +2301,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2701,36 +2734,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2739,6 +2766,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3199,10 +3238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3221,21 +3260,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="154" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
@@ -3298,7 +3337,7 @@
         <v>234</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>311</v>
@@ -3407,7 +3446,7 @@
         <v>241</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>311</v>
@@ -3664,7 +3703,7 @@
         <v>238</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H13" s="48" t="s">
         <v>311</v>
@@ -3806,7 +3845,7 @@
       </c>
       <c r="F17" s="86"/>
       <c r="G17" s="55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>311</v>
@@ -3847,7 +3886,7 @@
         <v>299</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H18" s="48" t="s">
         <v>311</v>
@@ -4125,19 +4164,19 @@
       </c>
       <c r="D26" s="132"/>
       <c r="E26" s="131" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G26" s="133" t="s">
         <v>347</v>
       </c>
       <c r="H26" s="133" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I26" s="132"/>
       <c r="J26" s="129"/>
       <c r="K26" s="132"/>
       <c r="L26" s="141" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M26" s="134" t="s">
         <v>348</v>
@@ -4160,7 +4199,7 @@
         <v>351</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H27" s="48" t="s">
         <v>311</v>
@@ -4188,24 +4227,84 @@
         <v>16</v>
       </c>
       <c r="D28" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="55" t="s">
         <v>364</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="H28" s="150" t="s">
         <v>363</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>366</v>
-      </c>
-      <c r="H28" s="154" t="s">
-        <v>365</v>
       </c>
       <c r="I28" s="126"/>
       <c r="J28" s="124" t="s">
         <v>80</v>
       </c>
       <c r="K28" s="127"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="45"/>
+      <c r="L28" s="160" t="s">
+        <v>367</v>
+      </c>
+      <c r="M28" s="37" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="36">
+        <v>27</v>
+      </c>
+      <c r="B29" s="28">
+        <v>43671</v>
+      </c>
+      <c r="C29" s="159" t="s">
+        <v>370</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="36">
+        <v>28</v>
+      </c>
+      <c r="B30" s="28">
+        <v>43671</v>
+      </c>
+      <c r="C30" s="159" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="37" t="s">
+        <v>373</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:M25" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -4263,7 +4362,7 @@
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4406,45 +4505,45 @@
       </c>
       <c r="N3" s="69"/>
     </row>
-    <row r="4" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="129">
+    <row r="4" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
-      <c r="B4" s="146">
+      <c r="B4" s="152">
         <v>43543</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="148" t="s">
         <v>314</v>
       </c>
       <c r="D4" s="149" t="s">
         <v>316</v>
       </c>
       <c r="E4" s="149"/>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="J4" s="131">
+      <c r="J4" s="41">
         <v>1.2</v>
       </c>
       <c r="K4" s="149" t="s">
         <v>250</v>
       </c>
-      <c r="L4" s="133" t="s">
+      <c r="L4" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="M4" s="133" t="s">
+      <c r="M4" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="131"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36">
@@ -4568,41 +4667,41 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="129">
+    <row r="8" spans="1:14" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
-      <c r="B8" s="146">
+      <c r="B8" s="152">
         <v>43557</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="148" t="s">
         <v>314</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="128" t="s">
         <v>318</v>
       </c>
-      <c r="E8" s="129"/>
-      <c r="F8" s="131" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="131" t="s">
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="J8" s="131">
+      <c r="J8" s="41">
         <v>1.2</v>
       </c>
       <c r="K8" s="149" t="s">
         <v>250</v>
       </c>
-      <c r="L8" s="133" t="s">
+      <c r="L8" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="M8" s="133" t="s">
+      <c r="M8" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="150"/>
+      <c r="N8" s="75"/>
     </row>
     <row r="9" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="36">
@@ -5280,36 +5379,38 @@
       </c>
       <c r="N26" s="69"/>
     </row>
-    <row r="27" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="36">
         <v>26</v>
       </c>
       <c r="B27" s="40">
         <v>43666</v>
       </c>
-      <c r="C27" s="151" t="s">
+      <c r="C27" s="148" t="s">
         <v>315</v>
       </c>
       <c r="D27" s="128" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E27" s="39"/>
-      <c r="F27" s="152" t="s">
+      <c r="F27" s="149" t="s">
         <v>353</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>354</v>
       </c>
-      <c r="H27" s="153" t="s">
-        <v>356</v>
-      </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39" t="s">
-        <v>355</v>
+      <c r="H27" s="158" t="s">
+        <v>365</v>
+      </c>
+      <c r="I27" s="157">
+        <v>43670</v>
+      </c>
+      <c r="J27" s="128" t="s">
+        <v>366</v>
       </c>
       <c r="K27" s="39"/>
-      <c r="L27" s="39" t="s">
-        <v>355</v>
+      <c r="L27" s="128" t="s">
+        <v>366</v>
       </c>
       <c r="M27" s="29"/>
     </row>
@@ -5320,28 +5421,30 @@
       <c r="B28" s="135">
         <v>43666</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="146" t="s">
         <v>315</v>
       </c>
       <c r="D28" s="133" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E28" s="129"/>
-      <c r="F28" s="149" t="s">
-        <v>359</v>
-      </c>
-      <c r="G28" s="149" t="s">
+      <c r="F28" s="147" t="s">
         <v>357</v>
       </c>
+      <c r="G28" s="147" t="s">
+        <v>355</v>
+      </c>
       <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
+      <c r="I28" s="157">
+        <v>43668</v>
+      </c>
       <c r="J28" s="129"/>
       <c r="K28" s="129"/>
       <c r="L28" s="133" t="s">
         <v>352</v>
       </c>
       <c r="M28" s="129"/>
-      <c r="N28" s="155"/>
+      <c r="N28" s="151"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N26" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -5409,7 +5512,7 @@
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="156" t="s">
         <v>202</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -5426,7 +5529,7 @@
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="158"/>
+      <c r="B3" s="156"/>
       <c r="C3" s="17" t="s">
         <v>200</v>
       </c>
@@ -5441,7 +5544,7 @@
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="158"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="18" t="s">
         <v>198</v>
       </c>
@@ -5456,7 +5559,7 @@
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="158"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="18" t="s">
         <v>196</v>
       </c>
@@ -5471,7 +5574,7 @@
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="158"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="17" t="s">
         <v>194</v>
       </c>
@@ -5486,7 +5589,7 @@
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="158"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="18" t="s">
         <v>192</v>
       </c>
@@ -5501,7 +5604,7 @@
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="158"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="17" t="s">
         <v>190</v>
       </c>
@@ -5516,7 +5619,7 @@
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="158"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="17" t="s">
         <v>188</v>
       </c>
@@ -5531,7 +5634,7 @@
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="158"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="17" t="s">
         <v>186</v>
       </c>
@@ -5546,7 +5649,7 @@
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="158"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="17" t="s">
         <v>184</v>
       </c>
@@ -5561,7 +5664,7 @@
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="158"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="17" t="s">
         <v>182</v>
       </c>
@@ -5576,7 +5679,7 @@
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="158"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="17" t="s">
         <v>181</v>
       </c>
@@ -5591,7 +5694,7 @@
       <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="158"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="17" t="s">
         <v>179</v>
       </c>
@@ -5606,7 +5709,7 @@
       <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="158"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="17" t="s">
         <v>178</v>
       </c>
@@ -5621,7 +5724,7 @@
       <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="158"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="17" t="s">
         <v>177</v>
       </c>
@@ -5636,7 +5739,7 @@
       <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="158"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="17" t="s">
         <v>175</v>
       </c>
@@ -5651,7 +5754,7 @@
       <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="158"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="17" t="s">
         <v>174</v>
       </c>
@@ -5666,7 +5769,7 @@
       <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="158"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="17" t="s">
         <v>173</v>
       </c>
@@ -5681,7 +5784,7 @@
       <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="158"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="18" t="s">
         <v>172</v>
       </c>
@@ -5696,7 +5799,7 @@
       <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="158"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="17" t="s">
         <v>170</v>
       </c>
@@ -5711,7 +5814,7 @@
       <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="158"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="17" t="s">
         <v>168</v>
       </c>
@@ -5726,7 +5829,7 @@
       <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="156" t="s">
         <v>166</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -5743,7 +5846,7 @@
       <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="158"/>
+      <c r="B24" s="156"/>
       <c r="C24" s="15" t="s">
         <v>163</v>
       </c>
@@ -5758,7 +5861,7 @@
       <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="158"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="15" t="s">
         <v>161</v>
       </c>
@@ -5773,7 +5876,7 @@
       <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="158"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="15" t="s">
         <v>159</v>
       </c>
@@ -5788,7 +5891,7 @@
       <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="158"/>
+      <c r="B27" s="156"/>
       <c r="C27" s="15" t="s">
         <v>157</v>
       </c>
@@ -5803,7 +5906,7 @@
       <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="158"/>
+      <c r="B28" s="156"/>
       <c r="C28" s="15" t="s">
         <v>155</v>
       </c>
@@ -5818,7 +5921,7 @@
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="158"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="15" t="s">
         <v>153</v>
       </c>
@@ -5833,7 +5936,7 @@
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="158"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="15" t="s">
         <v>150</v>
       </c>
@@ -5848,7 +5951,7 @@
       <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="158"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="15" t="s">
         <v>148</v>
       </c>
@@ -5863,7 +5966,7 @@
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="158"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="15" t="s">
         <v>146</v>
       </c>
@@ -5878,7 +5981,7 @@
       <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="158"/>
+      <c r="B33" s="156"/>
       <c r="C33" s="15" t="s">
         <v>144</v>
       </c>
@@ -5893,7 +5996,7 @@
       <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="158"/>
+      <c r="B34" s="156"/>
       <c r="C34" s="15" t="s">
         <v>142</v>
       </c>
@@ -5908,7 +6011,7 @@
       <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="158"/>
+      <c r="B35" s="156"/>
       <c r="C35" s="15" t="s">
         <v>141</v>
       </c>
@@ -5923,7 +6026,7 @@
       <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="158"/>
+      <c r="B36" s="156"/>
       <c r="C36" s="15" t="s">
         <v>140</v>
       </c>
@@ -5938,7 +6041,7 @@
       <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="158"/>
+      <c r="B37" s="156"/>
       <c r="C37" s="15" t="s">
         <v>138</v>
       </c>
@@ -5953,7 +6056,7 @@
       <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="158"/>
+      <c r="B38" s="156"/>
       <c r="C38" s="15" t="s">
         <v>136</v>
       </c>
@@ -5968,7 +6071,7 @@
       <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="158"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="15" t="s">
         <v>134</v>
       </c>
@@ -5983,7 +6086,7 @@
       <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="158"/>
+      <c r="B40" s="156"/>
       <c r="C40" s="15" t="s">
         <v>132</v>
       </c>
@@ -5998,7 +6101,7 @@
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="158"/>
+      <c r="B41" s="156"/>
       <c r="C41" s="15" t="s">
         <v>130</v>
       </c>
@@ -6013,7 +6116,7 @@
       <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="158"/>
+      <c r="B42" s="156"/>
       <c r="C42" s="15" t="s">
         <v>128</v>
       </c>
@@ -6028,7 +6131,7 @@
       <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="158"/>
+      <c r="B43" s="156"/>
       <c r="C43" s="15" t="s">
         <v>126</v>
       </c>
@@ -6043,7 +6146,7 @@
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="158"/>
+      <c r="B44" s="156"/>
       <c r="C44" s="15" t="s">
         <v>124</v>
       </c>
@@ -6058,7 +6161,7 @@
       <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="158"/>
+      <c r="B45" s="156"/>
       <c r="C45" s="15" t="s">
         <v>122</v>
       </c>
@@ -6073,7 +6176,7 @@
       <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="158"/>
+      <c r="B46" s="156"/>
       <c r="C46" s="15" t="s">
         <v>120</v>
       </c>
@@ -6088,7 +6191,7 @@
       <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="158"/>
+      <c r="B47" s="156"/>
       <c r="C47" s="15" t="s">
         <v>118</v>
       </c>
@@ -6103,7 +6206,7 @@
       <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="158"/>
+      <c r="B48" s="156"/>
       <c r="C48" s="15" t="s">
         <v>116</v>
       </c>
@@ -6118,7 +6221,7 @@
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="158"/>
+      <c r="B49" s="156"/>
       <c r="C49" s="15" t="s">
         <v>114</v>
       </c>
@@ -6133,7 +6236,7 @@
       <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="158"/>
+      <c r="B50" s="156"/>
       <c r="C50" s="15" t="s">
         <v>112</v>
       </c>
@@ -6148,7 +6251,7 @@
       <c r="A51" s="16">
         <v>50</v>
       </c>
-      <c r="B51" s="158"/>
+      <c r="B51" s="156"/>
       <c r="C51" s="15" t="s">
         <v>110</v>
       </c>
@@ -6163,7 +6266,7 @@
       <c r="A52" s="16">
         <v>51</v>
       </c>
-      <c r="B52" s="158"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="15" t="s">
         <v>108</v>
       </c>

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC654616-0F1A-43D9-B9C0-E71CFEAAD74E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8235BB-7579-4B50-8EE1-24A7F19E5400}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,24 +18,20 @@
     <sheet name="TRMS需求" sheetId="4" r:id="rId3"/>
     <sheet name="备注" sheetId="2" r:id="rId4"/>
     <sheet name="更新记录" sheetId="5" r:id="rId5"/>
+    <sheet name="已关闭需求" sheetId="6" r:id="rId6"/>
+    <sheet name="已关闭问题" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户问题跟踪表!$A$1:$N$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户需求跟踪表!$A$2:$M$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户问题跟踪表!$A$1:$L$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户需求跟踪表!$A$3:$M$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">已关闭问题!$C$2:$C$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="456">
   <si>
     <t>提交日期</t>
   </si>
@@ -65,12 +61,6 @@
   </si>
   <si>
     <t>综合报表</t>
-  </si>
-  <si>
-    <t>风控模块</t>
-  </si>
-  <si>
-    <t>资产类别风控设置：如现金+一年期国债占比不得低于5%等。整个基金现金不得低于0</t>
   </si>
   <si>
     <t>如何根据不同角色进行相应的执行。需要每次执行后有该用户的留痕。人员权限中需要有用户关联pb中对应的账号，即实现pb对应账号与该人员对应账号一一对应
@@ -81,14 +71,6 @@
     <t>需求描述</t>
   </si>
   <si>
-    <t>风控以基金汇总为单位计算风控，非以交易单元为单位计算风控。目前风控设置计算产品范围时存在以交易单元、单基金、机构下所有基金等为单位计算的，但是再前端页面仅以交易单元显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员权限中，勾选角色后无法自动添加下面的菜单权限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>曹渊</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -154,10 +136,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>已解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>委托漏单：11:09:25  300182，买入5300股。这个金证系统发出委托，状态是已报，但是中信证券客户端上根本没看到这笔，所以最后也没法儿撤单回来。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -224,10 +202,6 @@
     <t>待规划</t>
   </si>
   <si>
-    <t>基金报表中增加上一日单位净值和基金涨跌幅的展示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>分仓程序异常崩溃</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -236,10 +210,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>同一个公司的股票，各市场的股票持仓需要合并计算风控，比如：A股和港股的股票需要合并计算不超过10%流通股本的风控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>将tb1程序升级至3.18.9/1解决</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -262,14 +232,6 @@
   <si>
     <t>基金报表中港股市值并未跟随行情变动，而是直接取得金证中的值</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合报表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金报表中滚屏的时候，没有表头了，看下方数据时不清楚字段名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数据查询中的小数点后数据显示过多
@@ -285,21 +247,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>IPB直连</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPB直连对接中信恒生08柜台</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试中</t>
-  </si>
-  <si>
-    <t>IPB直连对接申万金证WIN版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>头寸调整同步预估值的接口数据</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -308,39 +255,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>TAPD</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理人</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>王亚军</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡嘉琳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>李艺超</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>王亚军</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘俊君</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘俊君</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>李艺超</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -348,14 +263,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>潘俊君</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄盟</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>发现版本</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -387,22 +294,10 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>李艺超</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>综合报表</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>潘俊君</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合报表-资产明细中个股盈亏比例排序（通过排序可看出该哪支股票盈最多、亏最多）、市值占净资产排序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>综合报表</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -424,10 +319,6 @@
   </si>
   <si>
     <t>数据库无成交时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>王亚军</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1234,19 +1125,526 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>交易日历存在问题，交易日历5月15日后回复正常</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>净资产功能未完全实现。更改逻辑为实时取总资产，立马计算净资产=总资产（实时）-累计应付+累计应收</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中份额为小数点后4位，需更改为小数点后两位数</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表-股票市值占比为占总资产比，应改为：股票市值占比=股票市值/净资产</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产明细报表-个股盈亏比例==基金报表中浮盈率，将基金报表中浮盈率更名为盈亏比例</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>将基金报表中浮盈率更名为盈亏比例</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金占比改为加了百分号后小数点后两位</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李艺超</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与AVS产品确认需求第21条与问题第19-22条情况</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与IPB产品与项目经理确认需求第12条与</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增相关TAPD单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增AVS相关需求与问题安排版本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001007730</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008289</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008641?url_cache_key=43e15463de60c3d58532ea371bc47f64</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵兵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令交易界面：当仅持有一个交易单元时，默认加载仅有的一个交易单元当前持仓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>综合报表</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>交易日历存在问题，交易日历5月15日后回复正常</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>净资产功能未完全实现。更改逻辑为实时取总资产，立马计算净资产=总资产（实时）-累计应付+累计应收</t>
+    <t>综合报表界面：当仅持有一个基金时，默认加载仅有的一个基金信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金涨跌幅、浮盈率，添加颜色显示：涨是为红色，跌时为绿色</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户盘后（15：03）单位净值未刷新。15:06左右时才将盘后的单位净值刷新出来</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台代码逻辑存在问题</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已交付</t>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008703?url_cache_key=43e15463de60c3d58532ea371bc47f64</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令交易</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令下达时前台转圈后未下达成功，在指令列表中未出现</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令交易</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场分析现场环境脚本存在问题</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>全量检查所有脚本情况</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令下达成功后在指令列表中可查到但pb中未收到该指令。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天账号自动登录失败后，系统取消了自动登录，今早未自动登录；</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日进行早盘检查操作</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008677</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008678</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008807?url_cache_key=43e15463de60c3d58532ea371bc47f64</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008808?url_cache_key=43e15463de60c3d58532ea371bc47f64</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响低</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001007862</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB 3.37</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>转需求</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB 3.36</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线必须需求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.31.2/0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10.1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.31.2/0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月底</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.18.7/7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.21</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.31.2/0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.31.2/0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.2/0</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.2/0</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.3/5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVS</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户需求跟踪表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验证</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>取柜台可用余额，</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金管理、证券管理，包括资金、证券的增减与解冻</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情发版，类别混乱了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜台提供最新价字段即为看到的值，待周一实盘再次检查验证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.3/7</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>【数据查询】-【持仓查询】实盘测试环境中对接三方接口C++uds取过来最新价解析字段有误，取得是涨停价非最新价。如当前平安银行最新价为13.99，涨停价为15.39，当前系统显示的最新价为15.39，导致持仓市值有误</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>极高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表界面补充债券的最新价与成本价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹渊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表中未上市的新股取申购价为最新价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询-持仓查询和综合报表持仓中债券代码识别为未知</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行情已发新版本，国债已正常显示，并验证通过</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员权限中无法加载对接三方接口产品</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员权限</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.36版本中改</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中该产品未设置base_id导致未加载该产品</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>11点26-11点31分仓程序出现重复委托，重复委托数量约5笔</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓下委托出去之后没有立即确认，委托回来状态变更很慢</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>OIW数据库里面，确认时间是顺序的，rec_num2出现乱序的情况</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU占用不断增加，从不到10%升高至30%多，最高占用高至近60%,</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓转换机出现报单延迟bug(当时委托下出去后需要将近一两分钟才返回已报状态)，此时金证报盘机扫漏发现委托未收到回报，然后金证报盘机会重复下委托。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓转换机程序进行调整，解决报单延迟的bug</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于今天采用的是自动交易，分仓程序出现处理不过来的情况，目前分仓程序为单线程，存在大量已报单时，需要查询订单，同时又需要接收新的订单，还需要接收uds的消息，所以导致订单处理延迟。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>OIW数据库中的rec_num2字段为金证填写，与迅策分仓无关</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需处理</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹渊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员权限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线必须需求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计版本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品经理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1291,67 +1689,189 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>基金报表中份额为小数点后4位，需更改为小数点后两位数</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金报表-股票市值占比为占总资产比，应改为：股票市值占比=股票市值/净资产</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产明细报表-个股盈亏比例==基金报表中浮盈率，将基金报表中浮盈率更名为盈亏比例</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>将基金报表中浮盈率更名为盈亏比例</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金占比改为加了百分号后小数点后两位</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>综合报表-资产明细中个股盈亏比例排序（通过排序可看出该哪支股票盈最多、亏最多）、市值占净资产排序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控模块</t>
+  </si>
+  <si>
+    <t>风控以基金汇总为单位计算风控，非以交易单元为单位计算风控。目前风控设置计算产品范围时存在以交易单元、单基金、机构下所有基金等为单位计算的，但是再前端页面仅以交易单元显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控设置中添加备注项，可自定义填写该风控描述。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控设置中添加预警线和禁止线多个层级设置（两层或三个层级：预警、审批、禁止）。如达到4.5%时预警，达到4.9%时禁止。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产类别风控设置：如现金+一年期国债占比不得低于5%等。整个基金现金不得低于0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员权限中，勾选角色后无法自动添加下面的菜单权限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹渊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中增加上一日单位净值和基金涨跌幅的展示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立风控系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个公司的股票，各市场的股票持仓需要合并计算风控，比如：A股和港股的股票需要合并计算不超过10%流通股本的风控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVS3.35.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘俊君</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘俊君</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
   </si>
   <si>
     <t>李艺超</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>已拒绝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立风控系统中完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李艺超</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已拒绝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立风控系统中完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李艺超</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已拒绝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已拒绝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB3.35</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李艺超</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVS3.35.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄盟</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>由TRMS实现</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹渊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中滚屏的时候，没有表头了，看下方数据时不清楚字段名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB直连</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB直连对接中信恒生08柜台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB直连</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB直连对接申万金证WIN版</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>潘俊君</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>与AVS产品确认需求第21条与问题第19-22条情况</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>与IPB产品与项目经理确认需求第12条与</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008597</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/bugtrace/bugs/view?bug_id=1120345271001027544</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/bugtrace/bugs/view?bug_id=1120345271001027364</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008224</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增相关TAPD单</t>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>极高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++UDS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹渊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中添加实时涨跌幅（可直接拿行情涨跌幅，不考虑除权，从上线当日开始，不需要历史行情），最新价（A股、港股行情），成本价取数据查询-持仓查询中成本价。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1359,15 +1879,364 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>新增AVS相关需求与问题安排版本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金报表中添加实时涨跌幅（可直接拿行情涨跌幅，不考虑除权，从上线当日开始，不需要历史行情），最新价（A股、港股行情），成本价取数据查询-持仓查询中成本价。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001007730</t>
+    <t>ipb支持科创版交易</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已实现</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接三方接口uds后支持</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询&amp;综合报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>科创版股票在数据查询与综合报表中展示类别为其他</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>极高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB3.35</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已验证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/8/8已验证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员权限改动，人员权限中新增复核功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB 3.38</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户可看到持仓市值，影响不大</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++UDS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅泉云</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓ExceID需更改为16位</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.18</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.14</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能问题，柜台存留过多已报订单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令交易</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增需求指令分发功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金证丢弃从分仓转换机传回的已成交数据与废单数据</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>科创版股票指令交易需补充200股限制</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.36.4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令交易</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>待客户持仓中有港股行情验证</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已查明原因</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令交易</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动交易的需求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.23</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交所出现报1004的废单错误，柜台处未收到该委托请求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器磁盘满了，导致分仓程序无法写入redis中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除日志以及多余的程序后有29G，重启服务后正常交易。已协调客户增加硬盘资源，并将分仓转换机服务器纳入监控范围</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统运维</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>早盘检查中信恒生pb和招商恒生pb登录异常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器磁盘空间不足</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除部分日志后可正常登录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹渊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色维护的中自带的菜单权限与柜台维护中手动勾选的菜单权限加颜色区分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托查询中增加废单原因字段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓转换机</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓转换机补充废单原因信息并提供给金证资管系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王亚军</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令交易</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持批量买入/卖出一定比例持仓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>将日志分大小打印，每100M就写一个新的日志，并按照001、002、003的编号编下去</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++UDS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>张前平</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>王亚军</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>张前平</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipb对接两个专户问题9点15分准时掉线</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb程序新增获取证券内码功能，发送action"3005"时tb程序将断开连接</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在其他windows2008企业版的编译环境中编译代码无法解决
+2、尝试在windows2008 数据中心版进行解决</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本存在的问题----第一次撤单时，日志会报错，没有给报盘机返回消息，报盘机扫漏的时候，才会返回撤单失败，日志会打印委托已经成交了</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">盘机中查到金证系统启用了漏扫机制并提示序号不连续递增
+</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后开发升级解决。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于最近两周左右开发投入在其他项目上，该问题将在两周后进行解决，并将随同客户提出的废单原因需求一起解决</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除日志以及多余的程序后重启服务后正常交易。已将分仓转换机服务器纳入监控范围</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.36.4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统运维</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金账号检测脚本出现僵死阻塞，导致服务器可用内存不足，无法启动人员登录平台服务</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程僵死阻塞问题原因未查明</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前已杀死历史进程，服务器恢复正常，但进程僵死的问题原因未查明，后续跟进观察</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹渊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控监控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消验资验券风控，并默认设置系统有验资验券风控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>待修复</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>将最大可用数量的位置挪至输入指令的下方</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>资产查询中新增单位净值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令执行界面支持快捷操作：双击进行执行、上下键可以选择指令</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷撤单需求</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1375,554 +2244,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008623</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/bugtrace/bugs/view?bug_id=1120345271001027251</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008289</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008621</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001007734</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控设置中添加备注项，可自定义填写该风控描述。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001007736</t>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001007737</t>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001007738</t>
-  </si>
-  <si>
-    <t>预估值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008247</t>
-  </si>
-  <si>
-    <t>更改数据库解决</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008621</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVS3.35.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPB3.35</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008640?url_cache_key=43e15463de60c3d58532ea371bc47f64</t>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008641?url_cache_key=43e15463de60c3d58532ea371bc47f64</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>独立风控系统</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵兵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令交易界面：当仅持有一个交易单元时，默认加载仅有的一个交易单元当前持仓</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合报表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合报表界面：当仅持有一个基金时，默认加载仅有的一个基金信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产查询中新增单位净值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金涨跌幅、浮盈率，添加颜色显示：涨是为红色，跌时为绿色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合报表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户盘后（15：03）单位净值未刷新。15:06左右时才将盘后的单位净值刷新出来</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台代码逻辑存在问题</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>已交付</t>
-  </si>
-  <si>
-    <t>客户保留原浮盈率名</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>合入通版后解决</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>将最大可用数量的位置挪至输入指令的下方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008703?url_cache_key=43e15463de60c3d58532ea371bc47f64</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令交易</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令下达时前台转圈后未下达成功，在指令列表中未出现</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令交易</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场分析现场环境脚本存在问题</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>全量检查所有脚本情况</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令下达成功后在指令列表中可查到但pb中未收到该指令。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>昨天账号自动登录失败后，系统取消了自动登录，今早未自动登录；</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日进行早盘检查操作</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008677</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008678</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008807?url_cache_key=43e15463de60c3d58532ea371bc47f64</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001008808?url_cache_key=43e15463de60c3d58532ea371bc47f64</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月底</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控设置中添加预警线和禁止线多个层级设置（两层或三个层级：预警、审批、禁止）。如达到4.5%时预警，达到4.9%时禁止。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>影响低</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tapd.cn/20345271/prong/stories/view/1120345271001007862</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPB 3.38</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPB 3.37</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>转需求</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月底</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要功能联动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待三方接口支持</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPB 3.36</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月底</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>由TRMS实现</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待三方接口支持
-产品8月成立</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已拒绝</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线必须需求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>分仓</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPB</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.31.2/0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.10.1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.31.2/0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月底</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.18.7/7</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.21</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.31.2/0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.31.2/0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.2/0</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.2/0</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.3/5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVS</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘昊</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>待合版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户需求跟踪表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待验证</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>取柜台可用余额，</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月31</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹渊</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接三方接口uds后支持</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月20</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>证券调整</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金管理、证券管理，包括资金、证券的增减与解冻</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据查询-持仓查询和综合报表持仓中债券代码识别为位置；科创版代码识别为其他</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>行情发版，类别混乱了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>柜台提供最新价字段即为看到的值，待周一实盘再次检查验证</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.35.3/7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>【数据查询】-【持仓查询】实盘测试环境中对接三方接口C++uds取过来最新价解析字段有误，取得是涨停价非最新价。如当前平安银行最新价为13.99，涨停价为15.39，当前系统显示的最新价为15.39，导致持仓市值有误</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipb支持科创版交易</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已实现</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>科创版股票在数据查询与综合报表中展示类别为其他</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据查询&amp;综合报表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>极高</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>行情已发新版本，国债已正常显示，并验证通过
-科创版股票已改，但客户目前已将科创版持仓全部卖出，暂时无法验证</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>待验证</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待验证</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合报表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合报表界面补充债券的最新价与成本价</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹渊</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合报表中未上市的新股取申购价为最新价</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户可看到持仓市值，影响不大</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户目前持仓中无科创版股票</t>
+    <t>余才</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB 3.39</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1933,7 +2259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2086,8 +2412,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2142,28 +2492,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2226,73 +2578,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2300,8 +2587,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2318,14 +2608,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
@@ -2338,452 +2628,354 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3237,11 +3429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3249,1120 +3440,961 @@
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
-    <col min="6" max="6" width="66" style="43" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="66" style="40" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.375" style="1" customWidth="1"/>
     <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.125" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="154" t="s">
-        <v>342</v>
-      </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="126"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="125" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="44">
+        <v>1</v>
+      </c>
+      <c r="B4" s="45">
+        <v>43489</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>449</v>
+      </c>
+      <c r="H4" s="117"/>
+      <c r="I4" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="61"/>
+      <c r="L4" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="48"/>
+    </row>
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="34">
+        <v>2</v>
+      </c>
+      <c r="B5" s="43">
+        <v>43565</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="117"/>
+      <c r="I5" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="61">
+        <v>43725</v>
+      </c>
+      <c r="L5" s="122" t="s">
+        <v>376</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="34">
+        <v>3</v>
+      </c>
+      <c r="B6" s="43">
+        <v>43518</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="109" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="88">
+        <v>43734</v>
+      </c>
+      <c r="L6" s="122" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="34">
+        <v>4</v>
+      </c>
+      <c r="B7" s="43">
+        <v>43546</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="K7" s="88">
+        <v>43727</v>
+      </c>
+      <c r="L7" s="122" t="s">
+        <v>376</v>
+      </c>
+      <c r="M7" s="92"/>
+    </row>
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="34">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28">
+        <v>43599</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="88">
+        <v>43734</v>
+      </c>
+      <c r="L8" s="123" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="34">
+        <v>6</v>
+      </c>
+      <c r="B9" s="28">
+        <v>43609</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="32" t="s">
+      <c r="F9" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="34">
+        <v>7</v>
+      </c>
+      <c r="B10" s="28">
+        <v>43609</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="34">
+        <v>8</v>
+      </c>
+      <c r="B11" s="28">
+        <v>43609</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="110" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="34">
+        <v>9</v>
+      </c>
+      <c r="B12" s="28">
+        <v>43609</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="F12" s="110" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="76"/>
+      <c r="L12" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="41"/>
+    </row>
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="34">
+        <v>10</v>
+      </c>
+      <c r="B13" s="28">
+        <v>43613</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="62"/>
+      <c r="L13" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="41"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="34">
+        <v>11</v>
+      </c>
+      <c r="B14" s="68">
+        <v>43666</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="61">
+        <v>43725</v>
+      </c>
+      <c r="L14" s="122" t="s">
+        <v>376</v>
+      </c>
+      <c r="M14" s="70"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="34">
+        <v>12</v>
+      </c>
+      <c r="B15" s="28">
+        <v>43671</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="34">
         <v>13</v>
       </c>
-      <c r="F2" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="I2" s="123" t="s">
+      <c r="B16" s="28">
+        <v>43671</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="34">
+        <v>14</v>
+      </c>
+      <c r="B17" s="28">
+        <v>43686</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="76"/>
+      <c r="L17" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="41"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="34">
+        <v>15</v>
+      </c>
+      <c r="B18" s="28">
+        <v>43689</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="88">
+        <v>43734</v>
+      </c>
+      <c r="L18" s="123" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="41"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="34">
+        <v>16</v>
+      </c>
+      <c r="B19" s="28">
+        <v>43697</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>396</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="J19" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="41"/>
+    </row>
+    <row r="20" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="34">
+        <v>17</v>
+      </c>
+      <c r="B20" s="28">
+        <v>43705</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="41"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="34">
+        <v>18</v>
+      </c>
+      <c r="B21" s="28">
+        <v>43708</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="41"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="34">
         <v>19</v>
       </c>
-      <c r="J2" s="123" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="123" t="s">
+      <c r="B22" s="28">
+        <v>43708</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="41"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="34">
         <v>20</v>
       </c>
-      <c r="L2" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="123" t="s">
+      <c r="B23" s="28">
+        <v>43712</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="J23" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="41"/>
+    </row>
+    <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="34">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="53">
-        <v>43489</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="B24" s="28">
+        <v>43714</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="I3" s="124" t="s">
-        <v>301</v>
-      </c>
-      <c r="J3" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="125" t="s">
-        <v>295</v>
-      </c>
-      <c r="L3" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="58"/>
-    </row>
-    <row r="4" spans="1:13" ht="61.15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="103">
-        <v>2</v>
-      </c>
-      <c r="B4" s="104">
-        <v>43489</v>
-      </c>
-      <c r="C4" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="107" t="s">
-        <v>256</v>
-      </c>
-      <c r="J4" s="107" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="108">
-        <v>43591</v>
-      </c>
-      <c r="L4" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="M4" s="81"/>
-    </row>
-    <row r="5" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="88">
-        <v>3</v>
-      </c>
-      <c r="B5" s="89">
-        <v>43489</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="J5" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="93">
-        <v>43591</v>
-      </c>
-      <c r="L5" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="M5" s="94"/>
-    </row>
-    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="36">
-        <v>4</v>
-      </c>
-      <c r="B6" s="53">
-        <v>43489</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="I6" s="124" t="s">
-        <v>301</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="125" t="s">
-        <v>295</v>
-      </c>
-      <c r="L6" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="60"/>
-    </row>
-    <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="29">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33">
-        <v>43489</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="L7" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="29">
-        <v>6</v>
-      </c>
-      <c r="B8" s="33">
-        <v>43489</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="L8" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="29">
-        <v>7</v>
-      </c>
-      <c r="B9" s="33">
-        <v>43489</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="126" t="s">
-        <v>301</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="127" t="s">
-        <v>295</v>
-      </c>
-      <c r="L9" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="103">
-        <v>8</v>
-      </c>
-      <c r="B10" s="109">
-        <v>43489</v>
-      </c>
-      <c r="C10" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="110" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112" t="s">
-        <v>257</v>
-      </c>
-      <c r="J10" s="112" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="108">
-        <v>43582</v>
-      </c>
-      <c r="L10" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="M10" s="81"/>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36">
-        <v>9</v>
-      </c>
-      <c r="B11" s="78">
-        <v>43546</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="56">
-        <v>43591</v>
-      </c>
-      <c r="L11" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="M11" s="57"/>
-    </row>
-    <row r="12" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="95">
-        <v>10</v>
-      </c>
-      <c r="B12" s="96">
-        <v>43556</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="G12" s="98" t="s">
-        <v>247</v>
-      </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98" t="s">
-        <v>310</v>
-      </c>
-      <c r="M12" s="101" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="36">
-        <v>11</v>
-      </c>
-      <c r="B13" s="49">
-        <v>43565</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="84" t="s">
-        <v>238</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="I13" s="126" t="s">
-        <v>301</v>
-      </c>
-      <c r="J13" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="127" t="s">
-        <v>295</v>
-      </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="60" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="39">
+      <c r="D24" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="41"/>
+    </row>
+    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="34">
+        <v>22</v>
+      </c>
+      <c r="B25" s="28">
+        <v>43714</v>
+      </c>
+      <c r="C25" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40">
-        <v>43565</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="128" t="s">
-        <v>306</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="37" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="80" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="113">
-        <v>13</v>
-      </c>
-      <c r="B15" s="114">
-        <v>43566</v>
-      </c>
-      <c r="C15" s="115" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="116" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="117"/>
-      <c r="L15" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="M15" s="102"/>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="129">
-        <v>14</v>
-      </c>
-      <c r="B16" s="135">
-        <v>43489</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="131" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="136" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="137" t="s">
-        <v>311</v>
-      </c>
-      <c r="I16" s="138" t="s">
-        <v>301</v>
-      </c>
-      <c r="J16" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="139" t="s">
-        <v>349</v>
-      </c>
-      <c r="L16" s="140" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16" s="141" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="36">
-        <v>15</v>
-      </c>
-      <c r="B17" s="49">
-        <v>43546</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="I17" s="126" t="s">
-        <v>301</v>
-      </c>
-      <c r="J17" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="L17" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="47" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="36">
-        <v>16</v>
-      </c>
-      <c r="B18" s="49">
-        <v>43518</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="I18" s="124" t="s">
-        <v>301</v>
-      </c>
-      <c r="J18" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="124" t="s">
-        <v>295</v>
-      </c>
-      <c r="L18" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="60"/>
-    </row>
-    <row r="19" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="29">
-        <v>17</v>
-      </c>
-      <c r="B19" s="28">
-        <v>43599</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="K19" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="45"/>
-    </row>
-    <row r="20" spans="1:13" s="80" customFormat="1" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="113">
-        <v>18</v>
-      </c>
-      <c r="B20" s="120">
-        <v>43600</v>
-      </c>
-      <c r="C20" s="115" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="115" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="115" t="s">
-        <v>233</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="G20" s="118" t="s">
-        <v>235</v>
-      </c>
-      <c r="H20" s="121"/>
-      <c r="I20" s="122" t="s">
-        <v>231</v>
-      </c>
-      <c r="J20" s="118" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="120">
-        <v>43616</v>
-      </c>
-      <c r="L20" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="M20" s="102"/>
-    </row>
-    <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="36">
-        <v>19</v>
-      </c>
-      <c r="B21" s="28">
-        <v>43609</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="F21" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="126" t="s">
-        <v>301</v>
-      </c>
-      <c r="J21" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="127" t="s">
-        <v>295</v>
-      </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="45"/>
-    </row>
-    <row r="22" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="36">
-        <v>20</v>
-      </c>
-      <c r="B22" s="28">
-        <v>43609</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="F22" s="87" t="s">
-        <v>293</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="126" t="s">
-        <v>301</v>
-      </c>
-      <c r="J22" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="127" t="s">
-        <v>295</v>
-      </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="45"/>
-    </row>
-    <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="36">
-        <v>21</v>
-      </c>
-      <c r="B23" s="28">
-        <v>43609</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="F23" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="J23" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="45"/>
-    </row>
-    <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="36">
-        <v>22</v>
-      </c>
-      <c r="B24" s="28">
-        <v>43609</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="F24" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="J24" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="45"/>
-    </row>
-    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="36">
+      <c r="D25" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="41"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="34">
         <v>23</v>
       </c>
-      <c r="B25" s="28">
-        <v>43613</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="J25" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="45"/>
-    </row>
-    <row r="26" spans="1:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="129">
+      <c r="B26" s="28">
+        <v>43719</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="41"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="34">
         <v>24</v>
       </c>
-      <c r="B26" s="130">
-        <v>43665</v>
-      </c>
-      <c r="C26" s="131" t="s">
-        <v>346</v>
-      </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="131" t="s">
-        <v>358</v>
-      </c>
-      <c r="G26" s="133" t="s">
-        <v>347</v>
-      </c>
-      <c r="H26" s="133" t="s">
-        <v>359</v>
-      </c>
-      <c r="I26" s="132"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="141" t="s">
-        <v>360</v>
-      </c>
-      <c r="M26" s="134" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="39">
+      <c r="B27" s="28">
+        <v>43724</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="K27" s="88">
+        <v>43734</v>
+      </c>
+      <c r="L27" s="123" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="41"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="34">
         <v>25</v>
       </c>
-      <c r="B27" s="142">
-        <v>43666</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="143" t="s">
-        <v>350</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="I27" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="J27" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="127" t="s">
-        <v>303</v>
-      </c>
-      <c r="L27" s="144"/>
-      <c r="M27" s="145"/>
-    </row>
-    <row r="28" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="36">
-        <v>26</v>
-      </c>
       <c r="B28" s="28">
-        <v>43668</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="H28" s="150" t="s">
-        <v>363</v>
-      </c>
-      <c r="I28" s="126"/>
-      <c r="J28" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="127"/>
-      <c r="L28" s="160" t="s">
-        <v>367</v>
-      </c>
-      <c r="M28" s="37" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="36">
-        <v>27</v>
-      </c>
-      <c r="B29" s="28">
-        <v>43671</v>
-      </c>
-      <c r="C29" s="159" t="s">
-        <v>370</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>372</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="37" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="36">
-        <v>28</v>
-      </c>
-      <c r="B30" s="28">
-        <v>43671</v>
-      </c>
-      <c r="C30" s="159" t="s">
-        <v>370</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="37" t="s">
-        <v>373</v>
-      </c>
+        <v>43724</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="76" t="s">
+        <v>452</v>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="K28" s="88">
+        <v>43734</v>
+      </c>
+      <c r="L28" s="123" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M25" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="11">
-      <filters blank="1">
-        <filter val="测试中"/>
-        <filter val="待规划"/>
-        <filter val="开发中"/>
-        <filter val="已实现"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="1">
+  <autoFilter ref="A3:M28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:M2"/>
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G9 G4:G5 G16" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"高,中,低"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L11 L15:L18 L20" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L8:L13 L15:L19 L4 L27:L28 L23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"待规划,开发中,测试中,已实现,已交付"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G6 G13 G17:G18 G27:G28" xr:uid="{465898DB-E27B-4E89-BC2F-AF21968CF13D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14 F7:G7 G4:G6 G8 G18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"极高,高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4378,1076 +4410,321 @@
     <col min="10" max="10" width="11" style="3" customWidth="1"/>
     <col min="11" max="11" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.25" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="1"/>
+    <col min="13" max="13" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="H1" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="70" t="s">
+      <c r="I1" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="J1" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="K1" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36">
+      <c r="M1" s="100" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="63">
-        <v>43495</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="72">
-        <v>43539</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="K2" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="69"/>
-    </row>
-    <row r="3" spans="1:14" ht="54" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36">
+      <c r="B2" s="51">
+        <v>43546</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="78">
+        <v>43684</v>
+      </c>
+      <c r="J2" s="33">
+        <v>3.36</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="63">
-        <v>43495</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="35" t="s">
+      <c r="B3" s="51">
+        <v>43546</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="95">
+        <v>43719</v>
+      </c>
+      <c r="J3" s="33">
+        <v>3.37</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="L3" s="108" t="s">
+        <v>376</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51">
+        <v>43566</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="M4" s="114" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="51">
+        <v>43566</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="118">
+        <v>5</v>
+      </c>
+      <c r="B6" s="79">
+        <v>43691</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="80" t="s">
+        <v>428</v>
+      </c>
+      <c r="L6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="72">
-        <v>43539</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="K3" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="69"/>
-    </row>
-    <row r="4" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39">
-        <v>3</v>
-      </c>
-      <c r="B4" s="152">
-        <v>43543</v>
-      </c>
-      <c r="C4" s="148" t="s">
-        <v>314</v>
-      </c>
-      <c r="D4" s="149" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="J4" s="41">
-        <v>1.2</v>
-      </c>
-      <c r="K4" s="149" t="s">
-        <v>250</v>
-      </c>
-      <c r="L4" s="128" t="s">
-        <v>352</v>
-      </c>
-      <c r="M4" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="41"/>
-    </row>
-    <row r="5" spans="1:14" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36">
-        <v>4</v>
-      </c>
-      <c r="B5" s="63">
-        <v>43545</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>321</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>322</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="36">
-        <v>5</v>
-      </c>
-      <c r="B6" s="63">
-        <v>43546</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>317</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="J6" s="35">
-        <v>3.36</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="L6" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="M6" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="36">
+      <c r="M6" s="118"/>
+    </row>
+    <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="118">
         <v>6</v>
       </c>
-      <c r="B7" s="63">
-        <v>43546</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>317</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="J7" s="35">
-        <v>3.37</v>
-      </c>
-      <c r="K7" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39">
+      <c r="B7" s="79">
+        <v>43712</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>437</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="108" t="s">
+        <v>376</v>
+      </c>
+      <c r="M7" s="118"/>
+    </row>
+    <row r="8" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="118">
         <v>7</v>
       </c>
-      <c r="B8" s="152">
-        <v>43557</v>
-      </c>
-      <c r="C8" s="148" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>318</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="J8" s="41">
-        <v>1.2</v>
-      </c>
-      <c r="K8" s="149" t="s">
-        <v>250</v>
-      </c>
-      <c r="L8" s="128" t="s">
-        <v>352</v>
-      </c>
-      <c r="M8" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" s="75"/>
-    </row>
-    <row r="9" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36">
+      <c r="B8" s="79">
+        <v>43712</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="M8" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="119">
         <v>8</v>
       </c>
-      <c r="B9" s="63">
-        <v>43558</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>325</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="67">
-        <v>43580</v>
-      </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="L9" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36">
-        <v>9</v>
-      </c>
-      <c r="B10" s="63">
-        <v>43566</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="L10" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="M10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="73"/>
-    </row>
-    <row r="11" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="36">
-        <v>10</v>
-      </c>
-      <c r="B11" s="63">
-        <v>43566</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="J11" s="35">
-        <v>3.36</v>
-      </c>
-      <c r="K11" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="L11" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="M11" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36">
-        <v>11</v>
-      </c>
-      <c r="B12" s="63">
-        <v>43581</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="67">
-        <v>43594</v>
-      </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="L12" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M12" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" s="69"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="36">
-        <v>12</v>
-      </c>
-      <c r="B13" s="63">
-        <v>43581</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="67">
-        <v>43594</v>
-      </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="L13" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M13" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="69"/>
-    </row>
-    <row r="14" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36">
-        <v>13</v>
-      </c>
-      <c r="B14" s="63">
-        <v>43581</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>328</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="35">
-        <v>3.37</v>
-      </c>
-      <c r="K14" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="L14" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M14" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="N14" s="73"/>
-    </row>
-    <row r="15" spans="1:14" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36">
-        <v>14</v>
-      </c>
-      <c r="B15" s="63">
-        <v>43595</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="67">
-        <v>43616</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="K15" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="L15" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="54" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36">
-        <v>15</v>
-      </c>
-      <c r="B16" s="63">
-        <v>43598</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>324</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67">
-        <v>43599</v>
-      </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="L16" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="69"/>
-    </row>
-    <row r="17" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36">
-        <v>16</v>
-      </c>
-      <c r="B17" s="63">
-        <v>43600</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="L17" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="69"/>
-    </row>
-    <row r="18" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="36">
-        <v>17</v>
-      </c>
-      <c r="B18" s="63">
-        <v>43600</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="J18" s="35">
-        <v>3.36</v>
-      </c>
-      <c r="K18" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="L18" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="83" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="36">
-        <v>18</v>
-      </c>
-      <c r="B19" s="63">
-        <v>43598</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="L19" s="112" t="s">
-        <v>262</v>
-      </c>
-      <c r="M19" s="103"/>
-      <c r="N19" s="73" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36">
-        <v>19</v>
-      </c>
-      <c r="B20" s="63">
-        <v>43598</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="67">
-        <v>43616</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="K20" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="L20" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="54" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="36">
-        <v>20</v>
-      </c>
-      <c r="B21" s="63">
-        <v>43598</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="67">
-        <v>43616</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="K21" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="L21" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="36">
-        <v>21</v>
-      </c>
-      <c r="B22" s="63">
-        <v>43598</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>333</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="L22" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="73" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="36">
-        <v>22</v>
-      </c>
-      <c r="B23" s="63">
-        <v>43598</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="66">
-        <v>43646</v>
-      </c>
-      <c r="J23" s="35">
-        <v>3.36</v>
-      </c>
-      <c r="K23" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="L23" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="54" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="36">
-        <v>23</v>
-      </c>
-      <c r="B24" s="63">
-        <v>43609</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D24" s="65" t="s">
-        <v>334</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="67">
-        <v>43616</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="K24" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="L24" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="69"/>
-    </row>
-    <row r="25" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="36">
-        <v>24</v>
-      </c>
-      <c r="B25" s="63">
-        <v>43613</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="I25" s="67">
-        <v>43619</v>
-      </c>
-      <c r="J25" s="68"/>
-      <c r="K25" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="L25" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M25" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="N25" s="69"/>
-    </row>
-    <row r="26" spans="1:14" ht="27" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="36">
-        <v>25</v>
-      </c>
-      <c r="B26" s="63">
-        <v>43613</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>334</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="I26" s="67">
-        <v>43619</v>
-      </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="L26" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="M26" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="N26" s="69"/>
-    </row>
-    <row r="27" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="36">
-        <v>26</v>
-      </c>
-      <c r="B27" s="40">
-        <v>43666</v>
-      </c>
-      <c r="C27" s="148" t="s">
-        <v>315</v>
-      </c>
-      <c r="D27" s="128" t="s">
-        <v>356</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="149" t="s">
-        <v>353</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="H27" s="158" t="s">
-        <v>365</v>
-      </c>
-      <c r="I27" s="157">
-        <v>43670</v>
-      </c>
-      <c r="J27" s="128" t="s">
-        <v>366</v>
-      </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="128" t="s">
-        <v>366</v>
-      </c>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:14" ht="81" x14ac:dyDescent="0.15">
-      <c r="A28" s="129">
-        <v>27</v>
-      </c>
-      <c r="B28" s="135">
-        <v>43666</v>
-      </c>
-      <c r="C28" s="146" t="s">
-        <v>315</v>
-      </c>
-      <c r="D28" s="133" t="s">
-        <v>356</v>
-      </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="147" t="s">
-        <v>357</v>
-      </c>
-      <c r="G28" s="147" t="s">
-        <v>355</v>
-      </c>
-      <c r="H28" s="129"/>
-      <c r="I28" s="157">
-        <v>43668</v>
-      </c>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="133" t="s">
-        <v>352</v>
-      </c>
-      <c r="M28" s="129"/>
-      <c r="N28" s="151"/>
+      <c r="B9" s="79">
+        <v>43719</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="121" t="s">
+        <v>446</v>
+      </c>
+      <c r="M9" s="119"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N26" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:L5" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="11">
       <filters>
         <filter val="待合版"/>
@@ -5458,18 +4735,8 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="13" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N9" r:id="rId1" display="TAPD缺陷单" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="N18" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="N21" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="N20" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="N23" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="N11" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="N7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="N15" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5481,7 +4748,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.625" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="8"/>
@@ -5493,788 +4760,788 @@
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="156" t="s">
-        <v>202</v>
+      <c r="B2" s="127" t="s">
+        <v>175</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="156"/>
+      <c r="B3" s="127"/>
       <c r="C3" s="17" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="156"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="18" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="156"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="18" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="156"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="17" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="156"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="18" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="156"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="17" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="156"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="17" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="156"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="17" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="156"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="17" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="156"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="17" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="156"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="17" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="156"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="17" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="156"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="17" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="156"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="17" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="156"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="17" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="156"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="17" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="156"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="17" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="156"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="18" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="156"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="17" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="156"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="17" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="156" t="s">
-        <v>166</v>
+      <c r="B23" s="127" t="s">
+        <v>139</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="156"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="15" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="156"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="15" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="156"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="15" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="156"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="15" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="156"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="15" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="156"/>
+      <c r="B29" s="127"/>
       <c r="C29" s="15" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="156"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="15" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="156"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="15" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="156"/>
+      <c r="B32" s="127"/>
       <c r="C32" s="15" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="156"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="15" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="156"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="15" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="156"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="15" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="156"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="15" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="156"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="15" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="156"/>
+      <c r="B38" s="127"/>
       <c r="C38" s="15" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="156"/>
+      <c r="B39" s="127"/>
       <c r="C39" s="15" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="156"/>
+      <c r="B40" s="127"/>
       <c r="C40" s="15" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="156"/>
+      <c r="B41" s="127"/>
       <c r="C41" s="15" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="156"/>
+      <c r="B42" s="127"/>
       <c r="C42" s="15" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="156"/>
+      <c r="B43" s="127"/>
       <c r="C43" s="15" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="156"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="15" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="156"/>
+      <c r="B45" s="127"/>
       <c r="C45" s="15" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="156"/>
+      <c r="B46" s="127"/>
       <c r="C46" s="15" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="156"/>
+      <c r="B47" s="127"/>
       <c r="C47" s="15" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="156"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="15" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="156"/>
+      <c r="B49" s="127"/>
       <c r="C49" s="15" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="156"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="15" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="16">
         <v>50</v>
       </c>
-      <c r="B51" s="156"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="15" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="16">
         <v>51</v>
       </c>
-      <c r="B52" s="156"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="15" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -8202,7 +7469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -8220,7 +7487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8231,10 +7498,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -8242,7 +7509,7 @@
         <v>43605</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -8250,7 +7517,7 @@
         <v>43605</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -8258,7 +7525,7 @@
         <v>43605</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -8266,11 +7533,1748 @@
         <v>43606</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A2:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45">
+        <v>43489</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="J3" s="61">
+        <v>43591</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="L3" s="48"/>
+    </row>
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="34">
+        <v>2</v>
+      </c>
+      <c r="B4" s="45">
+        <v>43489</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="J4" s="61">
+        <v>43591</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="34">
+        <v>3</v>
+      </c>
+      <c r="B5" s="45">
+        <v>43489</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="J5" s="61"/>
+      <c r="K5" s="84" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="34">
+        <v>4</v>
+      </c>
+      <c r="B6" s="83">
+        <v>43489</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="J6" s="62"/>
+      <c r="K6" s="84" t="s">
+        <v>335</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="34">
+        <v>5</v>
+      </c>
+      <c r="B7" s="83">
+        <v>43489</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="85" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="84" t="s">
+        <v>338</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="34">
+        <v>6</v>
+      </c>
+      <c r="B8" s="83">
+        <v>43489</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="J8" s="63"/>
+      <c r="K8" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="34">
+        <v>7</v>
+      </c>
+      <c r="B9" s="86">
+        <v>43489</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="G9" s="87"/>
+      <c r="H9" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="J9" s="61">
+        <v>43582</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="34">
+        <v>8</v>
+      </c>
+      <c r="B10" s="57">
+        <v>43546</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="J10" s="61">
+        <v>43591</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="34">
+        <v>9</v>
+      </c>
+      <c r="B11" s="88">
+        <v>43556</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90" t="s">
+        <v>346</v>
+      </c>
+      <c r="J11" s="64"/>
+      <c r="K11" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="34">
+        <v>10</v>
+      </c>
+      <c r="B12" s="43">
+        <v>43566</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="J12" s="58"/>
+      <c r="K12" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="L12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="34">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38">
+        <v>43489</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="H13" s="90" t="s">
+        <v>377</v>
+      </c>
+      <c r="I13" s="90" t="s">
+        <v>378</v>
+      </c>
+      <c r="J13" s="88" t="s">
+        <v>357</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="69"/>
+    </row>
+    <row r="14" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="34">
+        <v>12</v>
+      </c>
+      <c r="B14" s="57">
+        <v>43600</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G14" s="93"/>
+      <c r="H14" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="J14" s="57">
+        <v>43616</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="48"/>
+    </row>
+    <row r="15" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="34">
+        <v>13</v>
+      </c>
+      <c r="B15" s="68">
+        <v>43665</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="89"/>
+      <c r="E15" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="H15" s="89"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="L15" s="65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="34">
+        <v>14</v>
+      </c>
+      <c r="B16" s="28">
+        <v>43668</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="J16" s="63">
+        <v>43666</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="L16" s="82" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="34">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38">
+        <v>43565</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="88">
+        <v>43682</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F16" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>"极高,高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4 K9:K10 K17 K12:K14" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>"待规划,开发中,测试中,已实现,已交付"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F8 F3:F4 F13" xr:uid="{00000000-0002-0000-0500-000002000000}">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A2:M34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="102" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="102"/>
+    <col min="6" max="6" width="40.125" style="102" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.375" style="102" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.375" style="102" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="102" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="102"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="100" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="101" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="37">
+        <v>1</v>
+      </c>
+      <c r="B3" s="74">
+        <v>43495</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="72"/>
+      <c r="F3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="75"/>
+      <c r="I3" s="103">
+        <v>43539</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" s="101" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="37">
+        <v>2</v>
+      </c>
+      <c r="B4" s="74">
+        <v>43495</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="103">
+        <v>43539</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="37">
+        <v>3</v>
+      </c>
+      <c r="B5" s="74">
+        <v>43543</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="J5" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="37">
+        <v>4</v>
+      </c>
+      <c r="B6" s="74">
+        <v>43545</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="37">
+        <v>5</v>
+      </c>
+      <c r="B7" s="74">
+        <v>43557</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="L7" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M7" s="89"/>
+    </row>
+    <row r="8" spans="1:13" s="101" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37">
+        <v>6</v>
+      </c>
+      <c r="B8" s="74">
+        <v>43558</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="104">
+        <v>43580</v>
+      </c>
+      <c r="J8" s="75"/>
+      <c r="K8" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="37">
+        <v>7</v>
+      </c>
+      <c r="B9" s="74">
+        <v>43581</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="104">
+        <v>43594</v>
+      </c>
+      <c r="J9" s="75"/>
+      <c r="K9" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M9" s="37"/>
+    </row>
+    <row r="10" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="37">
+        <v>8</v>
+      </c>
+      <c r="B10" s="74">
+        <v>43581</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="104">
+        <v>43594</v>
+      </c>
+      <c r="J10" s="75"/>
+      <c r="K10" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="37">
+        <v>9</v>
+      </c>
+      <c r="B11" s="74">
+        <v>43581</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="39">
+        <v>3.37</v>
+      </c>
+      <c r="K11" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="37">
+        <v>10</v>
+      </c>
+      <c r="B12" s="74">
+        <v>43595</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="104">
+        <v>43616</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="K12" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="L12" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="37">
+        <v>11</v>
+      </c>
+      <c r="B13" s="74">
+        <v>43598</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="104">
+        <v>43599</v>
+      </c>
+      <c r="J13" s="75"/>
+      <c r="K13" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="37">
+        <v>12</v>
+      </c>
+      <c r="B14" s="74">
+        <v>43600</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="37">
+        <v>13</v>
+      </c>
+      <c r="B15" s="74">
+        <v>43677</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="I15" s="106">
+        <v>43684</v>
+      </c>
+      <c r="J15" s="39">
+        <v>3.36</v>
+      </c>
+      <c r="K15" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="37">
+        <v>14</v>
+      </c>
+      <c r="B16" s="74">
+        <v>43678</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I16" s="106">
+        <v>43683</v>
+      </c>
+      <c r="J16" s="75"/>
+      <c r="K16" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="L16" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="M16" s="89"/>
+    </row>
+    <row r="17" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="37">
+        <v>15</v>
+      </c>
+      <c r="B17" s="74">
+        <v>43678</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" s="75"/>
+      <c r="I17" s="106">
+        <v>43683</v>
+      </c>
+      <c r="J17" s="75"/>
+      <c r="K17" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="L17" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="M17" s="89"/>
+    </row>
+    <row r="18" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="37">
+        <v>16</v>
+      </c>
+      <c r="B18" s="74">
+        <v>43598</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="37">
+        <v>17</v>
+      </c>
+      <c r="B19" s="74">
+        <v>43598</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="75"/>
+      <c r="I19" s="104">
+        <v>43616</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="K19" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="37">
+        <v>18</v>
+      </c>
+      <c r="B20" s="74">
+        <v>43598</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="104">
+        <v>43616</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="K20" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="37">
+        <v>19</v>
+      </c>
+      <c r="B21" s="74">
+        <v>43598</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="1:13" s="101" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="37">
+        <v>20</v>
+      </c>
+      <c r="B22" s="74">
+        <v>43598</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="75"/>
+      <c r="I22" s="107">
+        <v>43646</v>
+      </c>
+      <c r="J22" s="39">
+        <v>3.36</v>
+      </c>
+      <c r="K22" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="37">
+        <v>21</v>
+      </c>
+      <c r="B23" s="74">
+        <v>43609</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="104">
+        <v>43616</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="K23" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M23" s="37"/>
+    </row>
+    <row r="24" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="37">
+        <v>22</v>
+      </c>
+      <c r="B24" s="74">
+        <v>43613</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="I24" s="104">
+        <v>43619</v>
+      </c>
+      <c r="J24" s="75"/>
+      <c r="K24" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M24" s="37"/>
+    </row>
+    <row r="25" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="37">
+        <v>23</v>
+      </c>
+      <c r="B25" s="74">
+        <v>43613</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="I25" s="104">
+        <v>43619</v>
+      </c>
+      <c r="J25" s="75"/>
+      <c r="K25" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="37">
+        <v>24</v>
+      </c>
+      <c r="B26" s="38">
+        <v>43666</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="I26" s="77">
+        <v>43670</v>
+      </c>
+      <c r="J26" s="64"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M26" s="37"/>
+    </row>
+    <row r="27" spans="1:13" s="101" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="37">
+        <v>25</v>
+      </c>
+      <c r="B27" s="38">
+        <v>43666</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="72" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="77">
+        <v>43668</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M27" s="37"/>
+    </row>
+    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="37">
+        <v>26</v>
+      </c>
+      <c r="B28" s="74">
+        <v>43678</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="H28" s="75"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="M28" s="37"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="34">
+        <v>27</v>
+      </c>
+      <c r="B29" s="51">
+        <v>43600</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="112">
+        <v>43684</v>
+      </c>
+      <c r="J29" s="33">
+        <v>3.36</v>
+      </c>
+      <c r="K29" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="34">
+        <v>28</v>
+      </c>
+      <c r="B30" s="79">
+        <v>43685</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" s="113"/>
+      <c r="F30" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="H30" s="36"/>
+      <c r="I30" s="97">
+        <v>43690</v>
+      </c>
+      <c r="J30" s="36"/>
+      <c r="K30" s="80" t="s">
+        <v>383</v>
+      </c>
+      <c r="L30" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" s="26"/>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="34">
+        <v>29</v>
+      </c>
+      <c r="B31" s="79">
+        <v>43678</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>294</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" s="113"/>
+      <c r="F31" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="M31" s="80" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A32" s="37">
+        <v>30</v>
+      </c>
+      <c r="B32" s="68">
+        <v>43699</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" s="89"/>
+      <c r="F32" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="G32" s="92" t="s">
+        <v>400</v>
+      </c>
+      <c r="H32" s="92" t="s">
+        <v>401</v>
+      </c>
+      <c r="I32" s="68">
+        <v>43699</v>
+      </c>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="M32" s="89"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="37">
+        <v>31</v>
+      </c>
+      <c r="B33" s="68">
+        <v>43700</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="D33" s="37">
+        <v>3.36</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="F33" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="G33" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="H33" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="I33" s="68">
+        <v>43700</v>
+      </c>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="M33" s="89"/>
+    </row>
+    <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="37">
+        <v>32</v>
+      </c>
+      <c r="B34" s="68">
+        <v>43713</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E34" s="89"/>
+      <c r="F34" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="G34" s="92" t="s">
+        <v>400</v>
+      </c>
+      <c r="H34" s="92" t="s">
+        <v>435</v>
+      </c>
+      <c r="I34" s="68">
+        <v>43713</v>
+      </c>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="M34" s="89"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C2:C33" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8235BB-7579-4B50-8EE1-24A7F19E5400}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD38B7EF-E3CC-40A7-B319-26886CBB51F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="473">
   <si>
     <t>提交日期</t>
   </si>
@@ -2213,10 +2213,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>已解决</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>待修复</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2250,6 +2246,78 @@
   <si>
     <t>IPB 3.39</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户报单为废单，该笔订单未成功发至柜台</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR机器存在180秒限制，而对接新产品KCBP的无心跳信息，导致180秒时间内新产品未做任何操作时，连接出现断开</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户发现报单慢后进行了程序重启，重启后XROUTE瞬间收到了队列里面的2W多笔待处理请求，这些请求逐个发送到柜台处理了。但由于重启会将历史日志覆盖，重启前具体委托变慢原因待明确</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单报出去慢，导致触发金证扫漏机制，重复报单三笔</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前已停用新产品使用分仓</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>待对接新柜台中补充心跳信息，补充增加获取头寸信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户新产品优选基金出现废单</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户委托的价格经过转换后出现精度问题，导致委托价格错误</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>待分仓程序修改该精度问题</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>深交所与上交所委托&amp;撤单均很慢，查看日志中显示的发送和应答有7S的时间差</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR机器存在180秒限制，而对接新产品KCBP的无心跳信息，导致180秒时间内新产品未做任何操作时，连接出现断开</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上正常登录后，三方接口与MR机器断开连接</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易慢是慢在xfront的子进程上，xfront种对接kcbp的子进程运行时间一长，请求包就积压了。所以运行一段时间，响应就比较慢了</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2591,7 +2659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2949,14 +3017,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="21" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="12" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3431,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3451,36 +3522,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="126"/>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
+      <c r="A1" s="127"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="126" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
@@ -3543,7 +3614,7 @@
         <v>198</v>
       </c>
       <c r="G4" s="116" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H4" s="117"/>
       <c r="I4" s="60" t="s">
@@ -3590,7 +3661,7 @@
       <c r="K5" s="61">
         <v>43725</v>
       </c>
-      <c r="L5" s="122" t="s">
+      <c r="L5" s="121" t="s">
         <v>376</v>
       </c>
       <c r="M5" s="50" t="s">
@@ -3631,7 +3702,7 @@
       <c r="K6" s="88">
         <v>43734</v>
       </c>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="121" t="s">
         <v>44</v>
       </c>
       <c r="M6" s="50"/>
@@ -3670,7 +3741,7 @@
       <c r="K7" s="88">
         <v>43727</v>
       </c>
-      <c r="L7" s="122" t="s">
+      <c r="L7" s="121" t="s">
         <v>376</v>
       </c>
       <c r="M7" s="92"/>
@@ -3709,7 +3780,7 @@
       <c r="K8" s="88">
         <v>43734</v>
       </c>
-      <c r="L8" s="123" t="s">
+      <c r="L8" s="122" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="41"/>
@@ -3827,7 +3898,7 @@
         <v>215</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F12" s="110" t="s">
         <v>234</v>
@@ -3837,7 +3908,7 @@
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="62" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J12" s="60" t="s">
         <v>59</v>
@@ -3862,7 +3933,7 @@
         <v>225</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F13" s="110" t="s">
         <v>224</v>
@@ -3913,7 +3984,7 @@
       <c r="K14" s="61">
         <v>43725</v>
       </c>
-      <c r="L14" s="122" t="s">
+      <c r="L14" s="121" t="s">
         <v>376</v>
       </c>
       <c r="M14" s="70"/>
@@ -4006,7 +4077,7 @@
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="62" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J17" s="60" t="s">
         <v>59</v>
@@ -4049,7 +4120,7 @@
       <c r="K18" s="88">
         <v>43734</v>
       </c>
-      <c r="L18" s="123" t="s">
+      <c r="L18" s="122" t="s">
         <v>44</v>
       </c>
       <c r="M18" s="41"/>
@@ -4076,7 +4147,7 @@
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="62" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J19" s="60" t="s">
         <v>59</v>
@@ -4191,12 +4262,12 @@
         <v>418</v>
       </c>
       <c r="F23" s="41"/>
-      <c r="G23" s="124" t="s">
+      <c r="G23" s="123" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="62" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J23" s="60" t="s">
         <v>59</v>
@@ -4306,21 +4377,21 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K27" s="88">
         <v>43734</v>
       </c>
-      <c r="L27" s="123" t="s">
+      <c r="L27" s="122" t="s">
         <v>44</v>
       </c>
       <c r="M27" s="41"/>
@@ -4337,21 +4408,21 @@
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K28" s="88">
         <v>43734</v>
       </c>
-      <c r="L28" s="123" t="s">
+      <c r="L28" s="122" t="s">
         <v>44</v>
       </c>
       <c r="M28" s="41"/>
@@ -4389,12 +4460,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4626,7 +4696,7 @@
       </c>
       <c r="M6" s="118"/>
     </row>
-    <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="118">
         <v>6</v>
       </c>
@@ -4634,106 +4704,183 @@
         <v>43712</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>433</v>
-      </c>
-      <c r="D7" s="120" t="s">
-        <v>437</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>438</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="32" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="108" t="s">
-        <v>376</v>
-      </c>
-      <c r="M7" s="118"/>
-    </row>
-    <row r="8" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="118">
+      <c r="K7" s="80" t="s">
+        <v>462</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="M7" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="124">
         <v>7</v>
       </c>
       <c r="B8" s="79">
-        <v>43712</v>
+        <v>43727</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>434</v>
-      </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
+        <v>245</v>
+      </c>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="32" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="111"/>
+      <c r="K8" s="80" t="s">
+        <v>461</v>
+      </c>
       <c r="L8" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="M8" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="119">
+        <v>446</v>
+      </c>
+      <c r="M8" s="124"/>
+    </row>
+    <row r="9" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="124">
         <v>8</v>
       </c>
       <c r="B9" s="79">
-        <v>43719</v>
+        <v>43728</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>436</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>438</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="32" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="121" t="s">
+      <c r="K9" s="80" t="s">
+        <v>461</v>
+      </c>
+      <c r="L9" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="M9" s="119"/>
+      <c r="M9" s="124"/>
+    </row>
+    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="125">
+        <v>9</v>
+      </c>
+      <c r="B10" s="79">
+        <v>43731</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>468</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="M10" s="125"/>
+    </row>
+    <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="125">
+        <v>10</v>
+      </c>
+      <c r="B11" s="79">
+        <v>43731</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>468</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="M11" s="125"/>
+    </row>
+    <row r="12" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="125">
+        <v>11</v>
+      </c>
+      <c r="B12" s="79">
+        <v>43731</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>468</v>
+      </c>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="M12" s="125"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L5" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="待合版"/>
-        <filter val="待升级"/>
-        <filter val="待修复"/>
-        <filter val="转需求"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4779,7 +4926,7 @@
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="128" t="s">
         <v>175</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -4796,7 +4943,7 @@
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="17" t="s">
         <v>173</v>
       </c>
@@ -4811,7 +4958,7 @@
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="127"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="18" t="s">
         <v>171</v>
       </c>
@@ -4826,7 +4973,7 @@
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="127"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="18" t="s">
         <v>169</v>
       </c>
@@ -4841,7 +4988,7 @@
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="127"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="17" t="s">
         <v>167</v>
       </c>
@@ -4856,7 +5003,7 @@
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="127"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="18" t="s">
         <v>165</v>
       </c>
@@ -4871,7 +5018,7 @@
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="127"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="17" t="s">
         <v>163</v>
       </c>
@@ -4886,7 +5033,7 @@
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="127"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="17" t="s">
         <v>161</v>
       </c>
@@ -4901,7 +5048,7 @@
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="127"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="17" t="s">
         <v>159</v>
       </c>
@@ -4916,7 +5063,7 @@
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="127"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="17" t="s">
         <v>157</v>
       </c>
@@ -4931,7 +5078,7 @@
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="127"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="17" t="s">
         <v>155</v>
       </c>
@@ -4946,7 +5093,7 @@
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="127"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="17" t="s">
         <v>154</v>
       </c>
@@ -4961,7 +5108,7 @@
       <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="127"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="17" t="s">
         <v>152</v>
       </c>
@@ -4976,7 +5123,7 @@
       <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="127"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="17" t="s">
         <v>151</v>
       </c>
@@ -4991,7 +5138,7 @@
       <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="127"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="17" t="s">
         <v>150</v>
       </c>
@@ -5006,7 +5153,7 @@
       <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="127"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="17" t="s">
         <v>148</v>
       </c>
@@ -5021,7 +5168,7 @@
       <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="17" t="s">
         <v>147</v>
       </c>
@@ -5036,7 +5183,7 @@
       <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="127"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="17" t="s">
         <v>146</v>
       </c>
@@ -5051,7 +5198,7 @@
       <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="127"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="18" t="s">
         <v>145</v>
       </c>
@@ -5066,7 +5213,7 @@
       <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="127"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="17" t="s">
         <v>143</v>
       </c>
@@ -5081,7 +5228,7 @@
       <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="127"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="17" t="s">
         <v>141</v>
       </c>
@@ -5096,7 +5243,7 @@
       <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="128" t="s">
         <v>139</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -5113,7 +5260,7 @@
       <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="127"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="15" t="s">
         <v>136</v>
       </c>
@@ -5128,7 +5275,7 @@
       <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="127"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="15" t="s">
         <v>134</v>
       </c>
@@ -5143,7 +5290,7 @@
       <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="127"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="15" t="s">
         <v>132</v>
       </c>
@@ -5158,7 +5305,7 @@
       <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="127"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="15" t="s">
         <v>130</v>
       </c>
@@ -5173,7 +5320,7 @@
       <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="127"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="15" t="s">
         <v>128</v>
       </c>
@@ -5188,7 +5335,7 @@
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="127"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="15" t="s">
         <v>126</v>
       </c>
@@ -5203,7 +5350,7 @@
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="127"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="15" t="s">
         <v>123</v>
       </c>
@@ -5218,7 +5365,7 @@
       <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="127"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="15" t="s">
         <v>121</v>
       </c>
@@ -5233,7 +5380,7 @@
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="127"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="15" t="s">
         <v>119</v>
       </c>
@@ -5248,7 +5395,7 @@
       <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="127"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="15" t="s">
         <v>117</v>
       </c>
@@ -5263,7 +5410,7 @@
       <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="127"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="15" t="s">
         <v>115</v>
       </c>
@@ -5278,7 +5425,7 @@
       <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="127"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="15" t="s">
         <v>114</v>
       </c>
@@ -5293,7 +5440,7 @@
       <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="127"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="15" t="s">
         <v>113</v>
       </c>
@@ -5308,7 +5455,7 @@
       <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="127"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="15" t="s">
         <v>111</v>
       </c>
@@ -5323,7 +5470,7 @@
       <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="127"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="15" t="s">
         <v>109</v>
       </c>
@@ -5338,7 +5485,7 @@
       <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="127"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="15" t="s">
         <v>107</v>
       </c>
@@ -5353,7 +5500,7 @@
       <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="127"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="15" t="s">
         <v>105</v>
       </c>
@@ -5368,7 +5515,7 @@
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="127"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="15" t="s">
         <v>103</v>
       </c>
@@ -5383,7 +5530,7 @@
       <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="127"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="15" t="s">
         <v>101</v>
       </c>
@@ -5398,7 +5545,7 @@
       <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="127"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="15" t="s">
         <v>99</v>
       </c>
@@ -5413,7 +5560,7 @@
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="127"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="15" t="s">
         <v>97</v>
       </c>
@@ -5428,7 +5575,7 @@
       <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="127"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="15" t="s">
         <v>95</v>
       </c>
@@ -5443,7 +5590,7 @@
       <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="127"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="15" t="s">
         <v>93</v>
       </c>
@@ -5458,7 +5605,7 @@
       <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="127"/>
+      <c r="B47" s="128"/>
       <c r="C47" s="15" t="s">
         <v>91</v>
       </c>
@@ -5473,7 +5620,7 @@
       <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="127"/>
+      <c r="B48" s="128"/>
       <c r="C48" s="15" t="s">
         <v>89</v>
       </c>
@@ -5488,7 +5635,7 @@
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="127"/>
+      <c r="B49" s="128"/>
       <c r="C49" s="15" t="s">
         <v>87</v>
       </c>
@@ -5503,7 +5650,7 @@
       <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="127"/>
+      <c r="B50" s="128"/>
       <c r="C50" s="15" t="s">
         <v>85</v>
       </c>
@@ -5518,7 +5665,7 @@
       <c r="A51" s="16">
         <v>50</v>
       </c>
-      <c r="B51" s="127"/>
+      <c r="B51" s="128"/>
       <c r="C51" s="15" t="s">
         <v>83</v>
       </c>
@@ -5533,7 +5680,7 @@
       <c r="A52" s="16">
         <v>51</v>
       </c>
-      <c r="B52" s="127"/>
+      <c r="B52" s="128"/>
       <c r="C52" s="15" t="s">
         <v>81</v>
       </c>
@@ -8114,10 +8261,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:M34"/>
+  <dimension ref="A2:M36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9271,6 +9418,72 @@
       </c>
       <c r="M34" s="89"/>
     </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="118">
+        <v>33</v>
+      </c>
+      <c r="B35" s="79">
+        <v>43712</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>433</v>
+      </c>
+      <c r="D35" s="120" t="s">
+        <v>437</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="M35" s="118"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="119">
+        <v>34</v>
+      </c>
+      <c r="B36" s="79">
+        <v>43719</v>
+      </c>
+      <c r="C36" s="81" t="s">
+        <v>436</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="M36" s="119"/>
+    </row>
   </sheetData>
   <autoFilter ref="C2:C33" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/11.4 东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD38B7EF-E3CC-40A7-B319-26886CBB51F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFA6221-4B07-4604-B431-F7095FE6325B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="481">
   <si>
     <t>提交日期</t>
   </si>
@@ -1995,10 +1995,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>待客户持仓中有港股行情验证</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>已解决</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2292,10 +2288,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>待分仓程序修改该精度问题</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>深交所与上交所委托&amp;撤单均很慢，查看日志中显示的发送和应答有7S的时间差</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2317,6 +2309,46 @@
   </si>
   <si>
     <t>交易慢是慢在xfront的子进程上，xfront种对接kcbp的子进程运行时间一长，请求包就积压了。所以运行一段时间，响应就比较慢了</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户的成交信息无法查回，导致无法做交易</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发请成交查询的功能号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级三方接口程序以解决</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>待客户持仓中有港股持仓验证</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级分仓程序解决该精度问题</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>待优化</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复过一次，但生产环境比测试环境接口调用速度慢了10倍，可能仍需要优化</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户持仓中当前没有逆回购的持仓</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复待客户验证</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2659,7 +2691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2888,9 +2920,6 @@
     <xf numFmtId="58" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3032,6 +3061,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3040,6 +3072,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3613,10 +3648,10 @@
       <c r="F4" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="116" t="s">
-        <v>448</v>
-      </c>
-      <c r="H4" s="117"/>
+      <c r="G4" s="115" t="s">
+        <v>447</v>
+      </c>
+      <c r="H4" s="116"/>
       <c r="I4" s="60" t="s">
         <v>374</v>
       </c>
@@ -3645,13 +3680,13 @@
       <c r="E5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="108" t="s">
         <v>199</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="117"/>
+      <c r="H5" s="116"/>
       <c r="I5" s="62" t="s">
         <v>239</v>
       </c>
@@ -3661,7 +3696,7 @@
       <c r="K5" s="61">
         <v>43725</v>
       </c>
-      <c r="L5" s="121" t="s">
+      <c r="L5" s="120" t="s">
         <v>376</v>
       </c>
       <c r="M5" s="50" t="s">
@@ -3684,7 +3719,7 @@
       <c r="E6" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="108" t="s">
         <v>238</v>
       </c>
       <c r="G6" s="47" t="s">
@@ -3699,10 +3734,10 @@
       <c r="J6" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="87">
         <v>43734</v>
       </c>
-      <c r="L6" s="121" t="s">
+      <c r="L6" s="120" t="s">
         <v>44</v>
       </c>
       <c r="M6" s="50"/>
@@ -3736,15 +3771,15 @@
         <v>359</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="K7" s="88">
+        <v>423</v>
+      </c>
+      <c r="K7" s="87">
         <v>43727</v>
       </c>
-      <c r="L7" s="121" t="s">
+      <c r="L7" s="120" t="s">
         <v>376</v>
       </c>
-      <c r="M7" s="92"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="34">
@@ -3762,7 +3797,7 @@
       <c r="E8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="109" t="s">
         <v>209</v>
       </c>
       <c r="G8" s="47" t="s">
@@ -3777,10 +3812,10 @@
       <c r="J8" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="K8" s="88">
+      <c r="K8" s="87">
         <v>43734</v>
       </c>
-      <c r="L8" s="122" t="s">
+      <c r="L8" s="121" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="41"/>
@@ -3801,7 +3836,7 @@
       <c r="E9" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="109" t="s">
         <v>233</v>
       </c>
       <c r="G9" s="26" t="s">
@@ -3834,7 +3869,7 @@
       <c r="E10" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="F10" s="109" t="s">
         <v>235</v>
       </c>
       <c r="G10" s="26" t="s">
@@ -3867,7 +3902,7 @@
       <c r="E11" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="109" t="s">
         <v>236</v>
       </c>
       <c r="G11" s="26" t="s">
@@ -3898,9 +3933,9 @@
         <v>215</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="F12" s="110" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" s="109" t="s">
         <v>234</v>
       </c>
       <c r="G12" s="29" t="s">
@@ -3908,7 +3943,7 @@
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J12" s="60" t="s">
         <v>59</v>
@@ -3933,9 +3968,9 @@
         <v>225</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="F13" s="110" t="s">
+        <v>446</v>
+      </c>
+      <c r="F13" s="109" t="s">
         <v>224</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -3984,7 +4019,7 @@
       <c r="K14" s="61">
         <v>43725</v>
       </c>
-      <c r="L14" s="121" t="s">
+      <c r="L14" s="120" t="s">
         <v>376</v>
       </c>
       <c r="M14" s="70"/>
@@ -4077,7 +4112,7 @@
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J17" s="60" t="s">
         <v>59</v>
@@ -4117,10 +4152,10 @@
       <c r="J18" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="88">
+      <c r="K18" s="87">
         <v>43734</v>
       </c>
-      <c r="L18" s="122" t="s">
+      <c r="L18" s="121" t="s">
         <v>44</v>
       </c>
       <c r="M18" s="41"/>
@@ -4136,18 +4171,18 @@
         <v>12</v>
       </c>
       <c r="D19" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="E19" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="E19" s="76" t="s">
-        <v>396</v>
-      </c>
       <c r="F19" s="41"/>
-      <c r="G19" s="115" t="s">
+      <c r="G19" s="114" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J19" s="60" t="s">
         <v>59</v>
@@ -4166,17 +4201,17 @@
         <v>43705</v>
       </c>
       <c r="C20" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="E20" s="33" t="s">
         <v>408</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>409</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -4198,14 +4233,14 @@
         <v>12</v>
       </c>
       <c r="D21" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="E21" s="33" t="s">
         <v>411</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>412</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -4227,10 +4262,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="E22" s="33" t="s">
         <v>414</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>415</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="26" t="s">
@@ -4239,7 +4274,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -4256,18 +4291,18 @@
         <v>12</v>
       </c>
       <c r="D23" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>418</v>
-      </c>
       <c r="F23" s="41"/>
-      <c r="G23" s="123" t="s">
+      <c r="G23" s="122" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J23" s="60" t="s">
         <v>59</v>
@@ -4289,19 +4324,19 @@
         <v>12</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -4318,19 +4353,19 @@
         <v>12</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -4344,17 +4379,17 @@
         <v>43719</v>
       </c>
       <c r="C26" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="E26" s="33" t="s">
         <v>443</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>444</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -4377,21 +4412,21 @@
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="K27" s="88">
+        <v>452</v>
+      </c>
+      <c r="K27" s="87">
         <v>43734</v>
       </c>
-      <c r="L27" s="122" t="s">
+      <c r="L27" s="121" t="s">
         <v>44</v>
       </c>
       <c r="M27" s="41"/>
@@ -4408,21 +4443,21 @@
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="76" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="K28" s="88">
+        <v>452</v>
+      </c>
+      <c r="K28" s="87">
         <v>43734</v>
       </c>
-      <c r="L28" s="122" t="s">
+      <c r="L28" s="121" t="s">
         <v>44</v>
       </c>
       <c r="M28" s="41"/>
@@ -4460,11 +4495,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4475,7 +4510,7 @@
     <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="37.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="65" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="3" customWidth="1"/>
     <col min="11" max="11" width="8" style="4" bestFit="1" customWidth="1"/>
@@ -4485,43 +4520,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="99" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4550,19 +4585,19 @@
       <c r="H2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="78">
-        <v>43684</v>
-      </c>
+      <c r="I2" s="111"/>
       <c r="J2" s="33">
         <v>3.36</v>
       </c>
       <c r="K2" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="L2" s="108" t="s">
+      <c r="L2" s="107" t="s">
         <v>379</v>
       </c>
-      <c r="M2" s="29"/>
+      <c r="M2" s="26" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="34">
@@ -4587,19 +4622,19 @@
         <v>43</v>
       </c>
       <c r="H3" s="46"/>
-      <c r="I3" s="95">
-        <v>43719</v>
-      </c>
+      <c r="I3" s="94"/>
       <c r="J3" s="33">
         <v>3.37</v>
       </c>
       <c r="K3" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="107" t="s">
         <v>376</v>
       </c>
-      <c r="M3" s="29"/>
+      <c r="M3" s="26" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
@@ -4627,11 +4662,11 @@
       <c r="K4" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="L4" s="108" t="s">
+      <c r="L4" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="M4" s="114" t="s">
-        <v>392</v>
+      <c r="M4" s="113" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.15">
@@ -4655,7 +4690,7 @@
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="36"/>
-      <c r="I5" s="96"/>
+      <c r="I5" s="95"/>
       <c r="J5" s="33"/>
       <c r="K5" s="53" t="s">
         <v>203</v>
@@ -4666,10 +4701,10 @@
       <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="118">
+      <c r="A6" s="117">
         <v>5</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="78">
         <v>43691</v>
       </c>
       <c r="C6" s="52" t="s">
@@ -4688,166 +4723,168 @@
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="80" t="s">
-        <v>428</v>
+      <c r="K6" s="79" t="s">
+        <v>427</v>
       </c>
       <c r="L6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="118"/>
+      <c r="M6" s="117"/>
     </row>
     <row r="7" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="118">
+      <c r="A7" s="117">
         <v>6</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="78">
         <v>43712</v>
       </c>
-      <c r="C7" s="81" t="s">
-        <v>434</v>
-      </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
+      <c r="C7" s="80" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>430</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>431</v>
       </c>
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="80" t="s">
+      <c r="K7" s="79" t="s">
+        <v>461</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="M7" s="79" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="123">
+        <v>7</v>
+      </c>
+      <c r="B8" s="78">
+        <v>43727</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>462</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="M7" s="80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="124">
-        <v>7</v>
-      </c>
-      <c r="B8" s="79">
-        <v>43727</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>463</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="80" t="s">
-        <v>461</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="M8" s="124"/>
+      <c r="K8" s="79" t="s">
+        <v>460</v>
+      </c>
+      <c r="L8" s="129" t="s">
+        <v>305</v>
+      </c>
+      <c r="M8" s="123"/>
     </row>
     <row r="9" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="124">
+      <c r="A9" s="123">
         <v>8</v>
       </c>
-      <c r="B9" s="79">
+      <c r="B9" s="78">
         <v>43728</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="80" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="32" t="s">
+      <c r="H9" s="32" t="s">
         <v>459</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>460</v>
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="80" t="s">
-        <v>461</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="M9" s="124"/>
+      <c r="K9" s="79" t="s">
+        <v>460</v>
+      </c>
+      <c r="L9" s="107" t="s">
+        <v>477</v>
+      </c>
+      <c r="M9" s="79" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="125">
+      <c r="A10" s="124">
         <v>9</v>
       </c>
-      <c r="B10" s="79">
+      <c r="B10" s="78">
         <v>43731</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="80" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="32" t="s">
-        <v>470</v>
-      </c>
       <c r="G10" s="32" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="80" t="s">
-        <v>471</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="M10" s="125"/>
+      <c r="K10" s="79" t="s">
+        <v>469</v>
+      </c>
+      <c r="L10" s="129" t="s">
+        <v>305</v>
+      </c>
+      <c r="M10" s="124"/>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="125">
         <v>10</v>
       </c>
-      <c r="B11" s="79">
+      <c r="B11" s="78">
         <v>43731</v>
       </c>
-      <c r="C11" s="81" t="s">
-        <v>468</v>
+      <c r="C11" s="80" t="s">
+        <v>466</v>
       </c>
       <c r="D11" s="125"/>
       <c r="E11" s="125"/>
       <c r="F11" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>465</v>
-      </c>
       <c r="H11" s="32" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
-      <c r="K11" s="80" t="s">
-        <v>471</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>446</v>
+      <c r="K11" s="79" t="s">
+        <v>469</v>
+      </c>
+      <c r="L11" s="129" t="s">
+        <v>305</v>
       </c>
       <c r="M11" s="125"/>
     </row>
@@ -4855,30 +4892,63 @@
       <c r="A12" s="125">
         <v>11</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="78">
         <v>43731</v>
       </c>
-      <c r="C12" s="81" t="s">
-        <v>468</v>
+      <c r="C12" s="80" t="s">
+        <v>466</v>
       </c>
       <c r="D12" s="125"/>
       <c r="E12" s="125"/>
       <c r="F12" s="32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
-      <c r="K12" s="80" t="s">
+      <c r="K12" s="79" t="s">
+        <v>469</v>
+      </c>
+      <c r="L12" s="107" t="s">
+        <v>477</v>
+      </c>
+      <c r="M12" s="79" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="125">
+        <v>12</v>
+      </c>
+      <c r="B13" s="78">
+        <v>43735</v>
+      </c>
+      <c r="C13" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="L12" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="M12" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" s="129" t="s">
+        <v>305</v>
+      </c>
+      <c r="M13" s="125"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -7837,7 +7907,7 @@
         <v>331</v>
       </c>
       <c r="J5" s="61"/>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="83" t="s">
         <v>332</v>
       </c>
       <c r="L5" s="50" t="s">
@@ -7848,7 +7918,7 @@
       <c r="A6" s="34">
         <v>4</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="82">
         <v>43489</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -7860,7 +7930,7 @@
       <c r="E6" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="84" t="s">
         <v>330</v>
       </c>
       <c r="G6" s="32"/>
@@ -7869,7 +7939,7 @@
         <v>334</v>
       </c>
       <c r="J6" s="62"/>
-      <c r="K6" s="84" t="s">
+      <c r="K6" s="83" t="s">
         <v>335</v>
       </c>
       <c r="L6" s="50" t="s">
@@ -7880,7 +7950,7 @@
       <c r="A7" s="34">
         <v>5</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="82">
         <v>43489</v>
       </c>
       <c r="C7" s="32" t="s">
@@ -7892,7 +7962,7 @@
       <c r="E7" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="84" t="s">
         <v>330</v>
       </c>
       <c r="G7" s="32"/>
@@ -7901,7 +7971,7 @@
         <v>337</v>
       </c>
       <c r="J7" s="62"/>
-      <c r="K7" s="84" t="s">
+      <c r="K7" s="83" t="s">
         <v>338</v>
       </c>
       <c r="L7" s="50" t="s">
@@ -7912,7 +7982,7 @@
       <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>43489</v>
       </c>
       <c r="C8" s="32" t="s">
@@ -7924,7 +7994,7 @@
       <c r="E8" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="84" t="s">
         <v>330</v>
       </c>
       <c r="G8" s="32"/>
@@ -7933,7 +8003,7 @@
         <v>331</v>
       </c>
       <c r="J8" s="63"/>
-      <c r="K8" s="84" t="s">
+      <c r="K8" s="83" t="s">
         <v>339</v>
       </c>
       <c r="L8" s="50" t="s">
@@ -7944,7 +8014,7 @@
       <c r="A9" s="34">
         <v>7</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="85">
         <v>43489</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -7959,7 +8029,7 @@
       <c r="F9" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="G9" s="87"/>
+      <c r="G9" s="86"/>
       <c r="H9" s="44" t="s">
         <v>341</v>
       </c>
@@ -8012,7 +8082,7 @@
       <c r="A11" s="34">
         <v>9</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B11" s="87">
         <v>43556</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -8027,16 +8097,16 @@
       <c r="F11" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90" t="s">
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89" t="s">
         <v>346</v>
       </c>
       <c r="J11" s="64"/>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="90" t="s">
         <v>339</v>
       </c>
-      <c r="L11" s="92" t="s">
+      <c r="L11" s="91" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8084,19 +8154,19 @@
       <c r="E13" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="93" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="H13" s="90" t="s">
+      <c r="H13" s="89" t="s">
         <v>377</v>
       </c>
-      <c r="I13" s="90" t="s">
+      <c r="I13" s="89" t="s">
         <v>378</v>
       </c>
-      <c r="J13" s="88" t="s">
+      <c r="J13" s="87" t="s">
         <v>357</v>
       </c>
       <c r="K13" s="66" t="s">
@@ -8123,7 +8193,7 @@
       <c r="F14" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="G14" s="93"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="49" t="s">
         <v>362</v>
       </c>
@@ -8148,7 +8218,7 @@
       <c r="C15" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="39" t="s">
         <v>363</v>
       </c>
@@ -8158,9 +8228,9 @@
       <c r="G15" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="H15" s="89"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="37"/>
-      <c r="J15" s="89"/>
+      <c r="J15" s="88"/>
       <c r="K15" s="67" t="s">
         <v>365</v>
       </c>
@@ -8202,7 +8272,7 @@
       <c r="K16" s="67" t="s">
         <v>371</v>
       </c>
-      <c r="L16" s="82" t="s">
+      <c r="L16" s="81" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8232,7 +8302,7 @@
       <c r="I17" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="88">
+      <c r="J17" s="87">
         <v>43682</v>
       </c>
       <c r="K17" s="61" t="s">
@@ -8269,58 +8339,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="102" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="102"/>
-    <col min="6" max="6" width="40.125" style="102" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.375" style="102" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.375" style="102" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="102" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="102"/>
+    <col min="1" max="1" width="5.75" style="101" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="101" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="101"/>
+    <col min="6" max="6" width="40.125" style="101" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.375" style="101" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.375" style="101" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="101" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="101"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="100" t="s">
+      <c r="M2" s="99" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="101" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="100" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -8341,7 +8411,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="75"/>
-      <c r="I3" s="103">
+      <c r="I3" s="102">
         <v>43539</v>
       </c>
       <c r="J3" s="39" t="s">
@@ -8355,7 +8425,7 @@
       </c>
       <c r="M3" s="37"/>
     </row>
-    <row r="4" spans="1:13" s="101" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="100" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="37">
         <v>2</v>
       </c>
@@ -8378,7 +8448,7 @@
       <c r="H4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="103">
+      <c r="I4" s="102">
         <v>43539</v>
       </c>
       <c r="J4" s="39" t="s">
@@ -8392,7 +8462,7 @@
       </c>
       <c r="M4" s="37"/>
     </row>
-    <row r="5" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="100" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="37">
         <v>3</v>
       </c>
@@ -8429,7 +8499,7 @@
       </c>
       <c r="M5" s="37"/>
     </row>
-    <row r="6" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="37">
         <v>4</v>
       </c>
@@ -8493,9 +8563,9 @@
       <c r="L7" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="M7" s="89"/>
-    </row>
-    <row r="8" spans="1:13" s="101" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M7" s="88"/>
+    </row>
+    <row r="8" spans="1:13" s="100" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="37">
         <v>6</v>
       </c>
@@ -8516,7 +8586,7 @@
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="75"/>
-      <c r="I8" s="104">
+      <c r="I8" s="103">
         <v>43580</v>
       </c>
       <c r="J8" s="75"/>
@@ -8528,7 +8598,7 @@
       </c>
       <c r="M8" s="37"/>
     </row>
-    <row r="9" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="37">
         <v>7</v>
       </c>
@@ -8549,7 +8619,7 @@
       </c>
       <c r="G9" s="75"/>
       <c r="H9" s="75"/>
-      <c r="I9" s="104">
+      <c r="I9" s="103">
         <v>43594</v>
       </c>
       <c r="J9" s="75"/>
@@ -8561,7 +8631,7 @@
       </c>
       <c r="M9" s="37"/>
     </row>
-    <row r="10" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="37">
         <v>8</v>
       </c>
@@ -8582,7 +8652,7 @@
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="75"/>
-      <c r="I10" s="104">
+      <c r="I10" s="103">
         <v>43594</v>
       </c>
       <c r="J10" s="75"/>
@@ -8594,7 +8664,7 @@
       </c>
       <c r="M10" s="37"/>
     </row>
-    <row r="11" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="100" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="37">
         <v>9</v>
       </c>
@@ -8629,7 +8699,7 @@
       </c>
       <c r="M11" s="37"/>
     </row>
-    <row r="12" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="100" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="37">
         <v>10</v>
       </c>
@@ -8649,8 +8719,8 @@
         <v>186</v>
       </c>
       <c r="G12" s="75"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="104">
+      <c r="H12" s="104"/>
+      <c r="I12" s="103">
         <v>43616</v>
       </c>
       <c r="J12" s="39" t="s">
@@ -8664,7 +8734,7 @@
       </c>
       <c r="M12" s="37"/>
     </row>
-    <row r="13" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="37">
         <v>11</v>
       </c>
@@ -8683,7 +8753,7 @@
       </c>
       <c r="G13" s="75"/>
       <c r="H13" s="75"/>
-      <c r="I13" s="104">
+      <c r="I13" s="103">
         <v>43599</v>
       </c>
       <c r="J13" s="75"/>
@@ -8695,7 +8765,7 @@
       </c>
       <c r="M13" s="37"/>
     </row>
-    <row r="14" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="37">
         <v>12</v>
       </c>
@@ -8728,7 +8798,7 @@
       </c>
       <c r="M14" s="37"/>
     </row>
-    <row r="15" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="37">
         <v>13</v>
       </c>
@@ -8753,7 +8823,7 @@
       <c r="H15" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="I15" s="106">
+      <c r="I15" s="105">
         <v>43684</v>
       </c>
       <c r="J15" s="39">
@@ -8790,7 +8860,7 @@
       <c r="H16" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="I16" s="106">
+      <c r="I16" s="105">
         <v>43683</v>
       </c>
       <c r="J16" s="75"/>
@@ -8800,7 +8870,7 @@
       <c r="L16" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="M16" s="89"/>
+      <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="37">
@@ -8823,7 +8893,7 @@
         <v>301</v>
       </c>
       <c r="H17" s="75"/>
-      <c r="I17" s="106">
+      <c r="I17" s="105">
         <v>43683</v>
       </c>
       <c r="J17" s="75"/>
@@ -8833,9 +8903,9 @@
       <c r="L17" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="M17" s="89"/>
-    </row>
-    <row r="18" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="M17" s="88"/>
+    </row>
+    <row r="18" spans="1:13" s="100" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="37">
         <v>16</v>
       </c>
@@ -8866,7 +8936,7 @@
       </c>
       <c r="M18" s="37"/>
     </row>
-    <row r="19" spans="1:13" s="101" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="37">
         <v>17</v>
       </c>
@@ -8889,7 +8959,7 @@
         <v>190</v>
       </c>
       <c r="H19" s="75"/>
-      <c r="I19" s="104">
+      <c r="I19" s="103">
         <v>43616</v>
       </c>
       <c r="J19" s="39" t="s">
@@ -8903,7 +8973,7 @@
       </c>
       <c r="M19" s="37"/>
     </row>
-    <row r="20" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" s="100" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="37">
         <v>18</v>
       </c>
@@ -8924,7 +8994,7 @@
       </c>
       <c r="G20" s="75"/>
       <c r="H20" s="75"/>
-      <c r="I20" s="104">
+      <c r="I20" s="103">
         <v>43616</v>
       </c>
       <c r="J20" s="39" t="s">
@@ -8938,7 +9008,7 @@
       </c>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" s="100" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="37">
         <v>19</v>
       </c>
@@ -8957,7 +9027,7 @@
       <c r="F21" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="91" t="s">
         <v>188</v>
       </c>
       <c r="H21" s="75"/>
@@ -8971,7 +9041,7 @@
       </c>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="1:13" s="101" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" s="100" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="37">
         <v>20</v>
       </c>
@@ -8994,7 +9064,7 @@
         <v>185</v>
       </c>
       <c r="H22" s="75"/>
-      <c r="I22" s="107">
+      <c r="I22" s="106">
         <v>43646</v>
       </c>
       <c r="J22" s="39">
@@ -9008,7 +9078,7 @@
       </c>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" s="100" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="37">
         <v>21</v>
       </c>
@@ -9031,7 +9101,7 @@
         <v>221</v>
       </c>
       <c r="H23" s="39"/>
-      <c r="I23" s="104">
+      <c r="I23" s="103">
         <v>43616</v>
       </c>
       <c r="J23" s="39" t="s">
@@ -9045,7 +9115,7 @@
       </c>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" s="100" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="37">
         <v>22</v>
       </c>
@@ -9070,7 +9140,7 @@
       <c r="H24" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="I24" s="104">
+      <c r="I24" s="103">
         <v>43619</v>
       </c>
       <c r="J24" s="75"/>
@@ -9082,7 +9152,7 @@
       </c>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" s="100" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="37">
         <v>23</v>
       </c>
@@ -9107,7 +9177,7 @@
       <c r="H25" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="I25" s="104">
+      <c r="I25" s="103">
         <v>43619</v>
       </c>
       <c r="J25" s="75"/>
@@ -9119,7 +9189,7 @@
       </c>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="1:13" s="101" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" s="100" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="37">
         <v>24</v>
       </c>
@@ -9152,7 +9222,7 @@
       </c>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="1:13" s="101" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" s="100" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="37">
         <v>25</v>
       </c>
@@ -9237,7 +9307,7 @@
         <v>180</v>
       </c>
       <c r="H29" s="36"/>
-      <c r="I29" s="112">
+      <c r="I29" s="111">
         <v>43684</v>
       </c>
       <c r="J29" s="33">
@@ -9255,16 +9325,16 @@
       <c r="A30" s="34">
         <v>28</v>
       </c>
-      <c r="B30" s="79">
+      <c r="B30" s="78">
         <v>43685</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="80" t="s">
         <v>245</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="E30" s="113"/>
+      <c r="E30" s="112"/>
       <c r="F30" s="32" t="s">
         <v>388</v>
       </c>
@@ -9272,11 +9342,11 @@
         <v>380</v>
       </c>
       <c r="H30" s="36"/>
-      <c r="I30" s="97">
+      <c r="I30" s="96">
         <v>43690</v>
       </c>
       <c r="J30" s="36"/>
-      <c r="K30" s="80" t="s">
+      <c r="K30" s="79" t="s">
         <v>383</v>
       </c>
       <c r="L30" s="64" t="s">
@@ -9288,16 +9358,16 @@
       <c r="A31" s="34">
         <v>29</v>
       </c>
-      <c r="B31" s="79">
+      <c r="B31" s="78">
         <v>43678</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="80" t="s">
         <v>294</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="E31" s="113"/>
+      <c r="E31" s="112"/>
       <c r="F31" s="32" t="s">
         <v>298</v>
       </c>
@@ -9307,14 +9377,14 @@
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
-      <c r="K31" s="80" t="s">
+      <c r="K31" s="79" t="s">
         <v>304</v>
       </c>
       <c r="L31" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="M31" s="79" t="s">
         <v>393</v>
-      </c>
-      <c r="M31" s="80" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="54" x14ac:dyDescent="0.15">
@@ -9325,30 +9395,30 @@
         <v>43699</v>
       </c>
       <c r="C32" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="E32" s="88"/>
+      <c r="F32" s="91" t="s">
         <v>398</v>
       </c>
-      <c r="E32" s="89"/>
-      <c r="F32" s="92" t="s">
+      <c r="G32" s="91" t="s">
         <v>399</v>
       </c>
-      <c r="G32" s="92" t="s">
+      <c r="H32" s="91" t="s">
         <v>400</v>
-      </c>
-      <c r="H32" s="92" t="s">
-        <v>401</v>
       </c>
       <c r="I32" s="68">
         <v>43699</v>
       </c>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
       <c r="L32" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="M32" s="89"/>
+        <v>392</v>
+      </c>
+      <c r="M32" s="88"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="37">
@@ -9358,32 +9428,32 @@
         <v>43700</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D33" s="37">
         <v>3.36</v>
       </c>
       <c r="E33" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="F33" s="69" t="s">
         <v>403</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="G33" s="69" t="s">
         <v>404</v>
       </c>
-      <c r="G33" s="69" t="s">
+      <c r="H33" s="69" t="s">
         <v>405</v>
-      </c>
-      <c r="H33" s="69" t="s">
-        <v>406</v>
       </c>
       <c r="I33" s="68">
         <v>43700</v>
       </c>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
       <c r="L33" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="M33" s="89"/>
+        <v>392</v>
+      </c>
+      <c r="M33" s="88"/>
     </row>
     <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="37">
@@ -9393,96 +9463,96 @@
         <v>43713</v>
       </c>
       <c r="C34" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="E34" s="88"/>
+      <c r="F34" s="91" t="s">
         <v>398</v>
       </c>
-      <c r="E34" s="89"/>
-      <c r="F34" s="92" t="s">
+      <c r="G34" s="91" t="s">
         <v>399</v>
       </c>
-      <c r="G34" s="92" t="s">
-        <v>400</v>
-      </c>
-      <c r="H34" s="92" t="s">
-        <v>435</v>
+      <c r="H34" s="91" t="s">
+        <v>434</v>
       </c>
       <c r="I34" s="68">
         <v>43713</v>
       </c>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
       <c r="L34" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="M34" s="89"/>
+        <v>392</v>
+      </c>
+      <c r="M34" s="88"/>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="118">
+      <c r="A35" s="117">
         <v>33</v>
       </c>
-      <c r="B35" s="79">
+      <c r="B35" s="78">
         <v>43712</v>
       </c>
-      <c r="C35" s="81" t="s">
-        <v>433</v>
-      </c>
-      <c r="D35" s="120" t="s">
+      <c r="C35" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="D35" s="119" t="s">
+        <v>436</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="E35" s="26" t="s">
-        <v>438</v>
-      </c>
       <c r="F35" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="G35" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="H35" s="32" t="s">
         <v>426</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>427</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
-      <c r="K35" s="111"/>
+      <c r="K35" s="110"/>
       <c r="L35" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="M35" s="118"/>
+        <v>392</v>
+      </c>
+      <c r="M35" s="117"/>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="119">
+      <c r="A36" s="118">
         <v>34</v>
       </c>
-      <c r="B36" s="79">
+      <c r="B36" s="78">
         <v>43719</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="80" t="s">
+        <v>435</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="E36" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="F36" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="G36" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="H36" s="32" t="s">
         <v>440</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>441</v>
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
-      <c r="K36" s="111"/>
+      <c r="K36" s="110"/>
       <c r="L36" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="M36" s="119"/>
+        <v>392</v>
+      </c>
+      <c r="M36" s="118"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:C33" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
